--- a/vgp_database/Coso_Range_volcanics.xlsx
+++ b/vgp_database/Coso_Range_volcanics.xlsx
@@ -105,10 +105,10 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R2.1</t>
+    <t>R2a</t>
   </si>
   <si>
-    <t>R2.2</t>
+    <t>R2b</t>
   </si>
   <si>
     <t>R3</t>
@@ -117,10 +117,10 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R5.1</t>
+    <t>R5a</t>
   </si>
   <si>
-    <t>R5.2</t>
+    <t>R5b</t>
   </si>
   <si>
     <t>R6</t>
@@ -279,7 +279,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,14 +304,40 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4285F4"/>
+        <bgColor rgb="FF4285F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -339,7 +365,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -378,11 +404,14 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -396,6 +425,9 @@
     <xf borderId="0" fillId="2" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -404,6 +436,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -1196,7 +1231,7 @@
       <c r="AK8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AL8" s="9" t="s">
+      <c r="AL8" s="24" t="s">
         <v>40</v>
       </c>
       <c r="AM8" s="3"/>
@@ -1209,48 +1244,52 @@
       <c r="A9" s="11">
         <v>58.0</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26">
+      <c r="C9" s="26">
+        <v>36.0504507617625</v>
+      </c>
+      <c r="D9" s="26">
+        <v>-117.845637842714</v>
+      </c>
+      <c r="E9" s="27">
         <v>7.0</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="28">
         <v>184.6</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="28">
         <v>-42.5</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="29">
         <v>214.0</v>
       </c>
       <c r="I9" s="17">
         <v>4.1</v>
       </c>
-      <c r="J9" s="29"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="17">
         <v>-77.9</v>
       </c>
       <c r="L9" s="17">
         <v>221.8</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
       <c r="Q9" s="15">
         <v>1.04</v>
       </c>
       <c r="R9" s="15">
         <v>1.0</v>
       </c>
-      <c r="S9" s="25"/>
+      <c r="S9" s="31"/>
       <c r="T9" s="15">
         <v>1.08</v>
       </c>
-      <c r="U9" s="25"/>
+      <c r="U9" s="31"/>
       <c r="V9" s="17" t="s">
         <v>63</v>
       </c>
@@ -1272,14 +1311,14 @@
       <c r="AD9" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE9" s="25"/>
+      <c r="AE9" s="31"/>
       <c r="AF9" s="11">
         <v>0.0</v>
       </c>
       <c r="AG9" s="11">
         <v>0.0</v>
       </c>
-      <c r="AH9" s="30" t="s">
+      <c r="AH9" s="32" t="s">
         <v>66</v>
       </c>
       <c r="AI9" s="4" t="s">
@@ -1291,54 +1330,58 @@
       <c r="AK9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AL9" s="31"/>
+      <c r="AL9" s="33"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="11">
         <v>35.0</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26">
+      <c r="C10" s="26">
+        <v>36.3162282046206</v>
+      </c>
+      <c r="D10" s="26">
+        <v>-121.186997349883</v>
+      </c>
+      <c r="E10" s="27">
         <v>8.0</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="28">
         <v>7.4</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="28">
         <v>54.7</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="29">
         <v>347.0</v>
       </c>
       <c r="I10" s="17">
         <v>3.0</v>
       </c>
-      <c r="J10" s="29"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="17">
         <v>83.9</v>
       </c>
       <c r="L10" s="17">
         <v>336.9</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
       <c r="Q10" s="15">
         <v>1.07</v>
       </c>
       <c r="R10" s="15">
         <v>0.79</v>
       </c>
-      <c r="S10" s="25"/>
+      <c r="S10" s="31"/>
       <c r="T10" s="15">
         <v>1.35</v>
       </c>
-      <c r="U10" s="25"/>
+      <c r="U10" s="31"/>
       <c r="V10" s="17" t="s">
         <v>63</v>
       </c>
@@ -1360,14 +1403,14 @@
       <c r="AD10" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE10" s="25"/>
+      <c r="AE10" s="31"/>
       <c r="AF10" s="11">
         <v>0.0</v>
       </c>
       <c r="AG10" s="11">
         <v>0.0</v>
       </c>
-      <c r="AH10" s="30" t="s">
+      <c r="AH10" s="32" t="s">
         <v>66</v>
       </c>
       <c r="AI10" s="4" t="s">
@@ -1379,54 +1422,58 @@
       <c r="AK10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AL10" s="31"/>
+      <c r="AL10" s="33"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="11">
         <v>32.0</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26">
+      <c r="C11" s="26">
+        <v>35.9029698869511</v>
+      </c>
+      <c r="D11" s="26">
+        <v>-117.664527627671</v>
+      </c>
+      <c r="E11" s="27">
         <v>8.0</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="28">
         <v>358.8</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="28">
         <v>53.5</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="29">
         <v>94.0</v>
       </c>
       <c r="I11" s="17">
         <v>5.7</v>
       </c>
-      <c r="J11" s="29"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="17">
         <v>87.9</v>
       </c>
       <c r="L11" s="17">
         <v>90.6</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
       <c r="Q11" s="15">
         <v>1.07</v>
       </c>
       <c r="R11" s="15">
         <v>0.8300000000000001</v>
       </c>
-      <c r="S11" s="25"/>
+      <c r="S11" s="31"/>
       <c r="T11" s="15">
         <v>1.31</v>
       </c>
-      <c r="U11" s="25"/>
+      <c r="U11" s="31"/>
       <c r="V11" s="17" t="s">
         <v>63</v>
       </c>
@@ -1448,69 +1495,73 @@
       <c r="AD11" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE11" s="25"/>
+      <c r="AE11" s="31"/>
       <c r="AF11" s="11">
         <v>0.0</v>
       </c>
       <c r="AG11" s="12">
         <v>1.0</v>
       </c>
-      <c r="AH11" s="32"/>
+      <c r="AH11" s="34"/>
       <c r="AI11" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AJ11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="31"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="33"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="11">
         <v>33.0</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26">
+      <c r="C12" s="26">
+        <v>35.9859433564612</v>
+      </c>
+      <c r="D12" s="26">
+        <v>-117.893496569538</v>
+      </c>
+      <c r="E12" s="27">
         <v>8.0</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="28">
         <v>177.1</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="28">
         <v>-11.1</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="29">
         <v>40.0</v>
       </c>
       <c r="I12" s="17">
         <v>8.9</v>
       </c>
-      <c r="J12" s="29"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="17">
         <v>-59.5</v>
       </c>
       <c r="L12" s="17">
         <v>247.8</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
       <c r="Q12" s="15">
         <v>1.08</v>
       </c>
       <c r="R12" s="15">
         <v>0.9600000000000001</v>
       </c>
-      <c r="S12" s="25"/>
+      <c r="S12" s="31"/>
       <c r="T12" s="15">
         <v>1.2000000000000002</v>
       </c>
-      <c r="U12" s="25"/>
+      <c r="U12" s="31"/>
       <c r="V12" s="17" t="s">
         <v>63</v>
       </c>
@@ -1532,47 +1583,49 @@
       <c r="AD12" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE12" s="25"/>
+      <c r="AE12" s="31"/>
       <c r="AF12" s="11">
         <v>0.0</v>
       </c>
       <c r="AG12" s="12">
         <v>1.0</v>
       </c>
-      <c r="AH12" s="32"/>
+      <c r="AH12" s="34"/>
       <c r="AI12" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AJ12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AN12" s="31"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+      <c r="AN12" s="33"/>
       <c r="AO12" s="22"/>
       <c r="AP12" s="22"/>
       <c r="AQ12" s="22"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="AL13" s="31"/>
-      <c r="AN13" s="31"/>
+      <c r="AL13" s="33"/>
+      <c r="AN13" s="33"/>
       <c r="AO13" s="22"/>
       <c r="AP13" s="22"/>
       <c r="AQ13" s="22"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="AM14" s="31"/>
-      <c r="AN14" s="31"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="33"/>
       <c r="AO14" s="22"/>
       <c r="AP14" s="22"/>
       <c r="AQ14" s="22"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33"/>
       <c r="AO15" s="22"/>
       <c r="AP15" s="22"/>
       <c r="AQ15" s="22"/>
@@ -1587,8 +1640,8 @@
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
@@ -1632,8 +1685,8 @@
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
@@ -1677,8 +1730,8 @@
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
@@ -1722,8 +1775,8 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
@@ -1767,8 +1820,8 @@
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
@@ -1812,8 +1865,8 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
@@ -1857,8 +1910,8 @@
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
@@ -1902,8 +1955,8 @@
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
@@ -1947,8 +2000,8 @@
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
@@ -1992,8 +2045,8 @@
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
@@ -2037,8 +2090,8 @@
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
@@ -2082,8 +2135,8 @@
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
@@ -2127,8 +2180,8 @@
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
@@ -2172,8 +2225,8 @@
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
@@ -2217,8 +2270,8 @@
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
@@ -2262,8 +2315,8 @@
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -2307,8 +2360,8 @@
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -2352,8 +2405,8 @@
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -2397,8 +2450,8 @@
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -2442,8 +2495,8 @@
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -2487,8 +2540,8 @@
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -2532,8 +2585,8 @@
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -2577,8 +2630,8 @@
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -2622,8 +2675,8 @@
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -2667,8 +2720,8 @@
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -2712,8 +2765,8 @@
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -2757,8 +2810,8 @@
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -2802,8 +2855,8 @@
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -2847,8 +2900,8 @@
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -2892,8 +2945,8 @@
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -2937,8 +2990,8 @@
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -2982,8 +3035,8 @@
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -3027,8 +3080,8 @@
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -3072,8 +3125,8 @@
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -3117,8 +3170,8 @@
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -3162,8 +3215,8 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -3207,8 +3260,8 @@
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -3252,8 +3305,8 @@
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -3297,8 +3350,8 @@
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -3342,8 +3395,8 @@
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -3387,8 +3440,8 @@
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -3432,8 +3485,8 @@
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
@@ -3477,8 +3530,8 @@
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
       <c r="L58" s="22"/>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
@@ -3522,8 +3575,8 @@
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
@@ -3567,8 +3620,8 @@
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
       <c r="L60" s="22"/>
       <c r="M60" s="22"/>
       <c r="N60" s="22"/>
@@ -3612,8 +3665,8 @@
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
       <c r="N61" s="22"/>
@@ -3657,8 +3710,8 @@
       <c r="G62" s="22"/>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
       <c r="L62" s="22"/>
       <c r="M62" s="22"/>
       <c r="N62" s="22"/>
@@ -3702,8 +3755,8 @@
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
       <c r="L63" s="22"/>
       <c r="M63" s="22"/>
       <c r="N63" s="22"/>
@@ -3747,8 +3800,8 @@
       <c r="G64" s="22"/>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
       <c r="N64" s="22"/>
@@ -3792,8 +3845,8 @@
       <c r="G65" s="22"/>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
       <c r="L65" s="22"/>
       <c r="M65" s="22"/>
       <c r="N65" s="22"/>
@@ -3837,8 +3890,8 @@
       <c r="G66" s="22"/>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
       <c r="L66" s="22"/>
       <c r="M66" s="22"/>
       <c r="N66" s="22"/>
@@ -3882,8 +3935,8 @@
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
       <c r="L67" s="22"/>
       <c r="M67" s="22"/>
       <c r="N67" s="22"/>
@@ -3927,8 +3980,8 @@
       <c r="G68" s="22"/>
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="33"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
       <c r="L68" s="22"/>
       <c r="M68" s="22"/>
       <c r="N68" s="22"/>
@@ -3972,8 +4025,8 @@
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="33"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
       <c r="L69" s="22"/>
       <c r="M69" s="22"/>
       <c r="N69" s="22"/>
@@ -4017,8 +4070,8 @@
       <c r="G70" s="22"/>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
       <c r="L70" s="22"/>
       <c r="M70" s="22"/>
       <c r="N70" s="22"/>
@@ -4062,8 +4115,8 @@
       <c r="G71" s="22"/>
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
       <c r="L71" s="22"/>
       <c r="M71" s="22"/>
       <c r="N71" s="22"/>
@@ -4107,8 +4160,8 @@
       <c r="G72" s="22"/>
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
       <c r="N72" s="22"/>
@@ -4152,8 +4205,8 @@
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="33"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
       <c r="L73" s="22"/>
       <c r="M73" s="22"/>
       <c r="N73" s="22"/>
@@ -4197,8 +4250,8 @@
       <c r="G74" s="22"/>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
       <c r="L74" s="22"/>
       <c r="M74" s="22"/>
       <c r="N74" s="22"/>
@@ -4242,8 +4295,8 @@
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="33"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
       <c r="L75" s="22"/>
       <c r="M75" s="22"/>
       <c r="N75" s="22"/>
@@ -4287,8 +4340,8 @@
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
       <c r="L76" s="22"/>
       <c r="M76" s="22"/>
       <c r="N76" s="22"/>
@@ -4332,8 +4385,8 @@
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
-      <c r="J77" s="33"/>
-      <c r="K77" s="33"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
       <c r="N77" s="22"/>
@@ -4377,8 +4430,8 @@
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="33"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
       <c r="L78" s="22"/>
       <c r="M78" s="22"/>
       <c r="N78" s="22"/>
@@ -4422,8 +4475,8 @@
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="33"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
       <c r="L79" s="22"/>
       <c r="M79" s="22"/>
       <c r="N79" s="22"/>
@@ -4467,8 +4520,8 @@
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="33"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
       <c r="N80" s="22"/>
@@ -4512,8 +4565,8 @@
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
@@ -4557,8 +4610,8 @@
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
       <c r="L82" s="22"/>
       <c r="M82" s="22"/>
       <c r="N82" s="22"/>
@@ -4602,8 +4655,8 @@
       <c r="G83" s="22"/>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="33"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
       <c r="L83" s="22"/>
       <c r="M83" s="22"/>
       <c r="N83" s="22"/>
@@ -4647,8 +4700,8 @@
       <c r="G84" s="22"/>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
-      <c r="J84" s="33"/>
-      <c r="K84" s="33"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
       <c r="L84" s="22"/>
       <c r="M84" s="22"/>
       <c r="N84" s="22"/>
@@ -4692,8 +4745,8 @@
       <c r="G85" s="22"/>
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
       <c r="L85" s="22"/>
       <c r="M85" s="22"/>
       <c r="N85" s="22"/>
@@ -4737,8 +4790,8 @@
       <c r="G86" s="22"/>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
       <c r="L86" s="22"/>
       <c r="M86" s="22"/>
       <c r="N86" s="22"/>
@@ -4782,8 +4835,8 @@
       <c r="G87" s="22"/>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
       <c r="L87" s="22"/>
       <c r="M87" s="22"/>
       <c r="N87" s="22"/>
@@ -4827,8 +4880,8 @@
       <c r="G88" s="22"/>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
       <c r="L88" s="22"/>
       <c r="M88" s="22"/>
       <c r="N88" s="22"/>
@@ -4872,8 +4925,8 @@
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
       <c r="N89" s="22"/>
@@ -4917,8 +4970,8 @@
       <c r="G90" s="22"/>
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
       <c r="L90" s="22"/>
       <c r="M90" s="22"/>
       <c r="N90" s="22"/>
@@ -4962,8 +5015,8 @@
       <c r="G91" s="22"/>
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="33"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
       <c r="L91" s="22"/>
       <c r="M91" s="22"/>
       <c r="N91" s="22"/>
@@ -5007,8 +5060,8 @@
       <c r="G92" s="22"/>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="33"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
       <c r="L92" s="22"/>
       <c r="M92" s="22"/>
       <c r="N92" s="22"/>
@@ -5052,8 +5105,8 @@
       <c r="G93" s="22"/>
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
-      <c r="J93" s="33"/>
-      <c r="K93" s="33"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
       <c r="L93" s="22"/>
       <c r="M93" s="22"/>
       <c r="N93" s="22"/>
@@ -5097,8 +5150,8 @@
       <c r="G94" s="22"/>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="33"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
       <c r="L94" s="22"/>
       <c r="M94" s="22"/>
       <c r="N94" s="22"/>
@@ -5142,8 +5195,8 @@
       <c r="G95" s="22"/>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="33"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
       <c r="L95" s="22"/>
       <c r="M95" s="22"/>
       <c r="N95" s="22"/>
@@ -5187,8 +5240,8 @@
       <c r="G96" s="22"/>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
-      <c r="J96" s="33"/>
-      <c r="K96" s="33"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
       <c r="L96" s="22"/>
       <c r="M96" s="22"/>
       <c r="N96" s="22"/>
@@ -5232,8 +5285,8 @@
       <c r="G97" s="22"/>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
-      <c r="J97" s="33"/>
-      <c r="K97" s="33"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
       <c r="L97" s="22"/>
       <c r="M97" s="22"/>
       <c r="N97" s="22"/>
@@ -5277,8 +5330,8 @@
       <c r="G98" s="22"/>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
-      <c r="J98" s="33"/>
-      <c r="K98" s="33"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
       <c r="L98" s="22"/>
       <c r="M98" s="22"/>
       <c r="N98" s="22"/>
@@ -5322,8 +5375,8 @@
       <c r="G99" s="22"/>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
-      <c r="J99" s="33"/>
-      <c r="K99" s="33"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
       <c r="L99" s="22"/>
       <c r="M99" s="22"/>
       <c r="N99" s="22"/>
@@ -5367,8 +5420,8 @@
       <c r="G100" s="22"/>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
-      <c r="J100" s="33"/>
-      <c r="K100" s="33"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
       <c r="L100" s="22"/>
       <c r="M100" s="22"/>
       <c r="N100" s="22"/>
@@ -5412,8 +5465,8 @@
       <c r="G101" s="22"/>
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
-      <c r="J101" s="33"/>
-      <c r="K101" s="33"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
       <c r="L101" s="22"/>
       <c r="M101" s="22"/>
       <c r="N101" s="22"/>
@@ -5457,8 +5510,8 @@
       <c r="G102" s="22"/>
       <c r="H102" s="22"/>
       <c r="I102" s="22"/>
-      <c r="J102" s="33"/>
-      <c r="K102" s="33"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
       <c r="L102" s="22"/>
       <c r="M102" s="22"/>
       <c r="N102" s="22"/>
@@ -5502,8 +5555,8 @@
       <c r="G103" s="22"/>
       <c r="H103" s="22"/>
       <c r="I103" s="22"/>
-      <c r="J103" s="33"/>
-      <c r="K103" s="33"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
       <c r="L103" s="22"/>
       <c r="M103" s="22"/>
       <c r="N103" s="22"/>
@@ -5547,8 +5600,8 @@
       <c r="G104" s="22"/>
       <c r="H104" s="22"/>
       <c r="I104" s="22"/>
-      <c r="J104" s="33"/>
-      <c r="K104" s="33"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
       <c r="L104" s="22"/>
       <c r="M104" s="22"/>
       <c r="N104" s="22"/>
@@ -5592,8 +5645,8 @@
       <c r="G105" s="22"/>
       <c r="H105" s="22"/>
       <c r="I105" s="22"/>
-      <c r="J105" s="33"/>
-      <c r="K105" s="33"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
       <c r="L105" s="22"/>
       <c r="M105" s="22"/>
       <c r="N105" s="22"/>
@@ -5637,8 +5690,8 @@
       <c r="G106" s="22"/>
       <c r="H106" s="22"/>
       <c r="I106" s="22"/>
-      <c r="J106" s="33"/>
-      <c r="K106" s="33"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="36"/>
       <c r="L106" s="22"/>
       <c r="M106" s="22"/>
       <c r="N106" s="22"/>
@@ -5682,8 +5735,8 @@
       <c r="G107" s="22"/>
       <c r="H107" s="22"/>
       <c r="I107" s="22"/>
-      <c r="J107" s="33"/>
-      <c r="K107" s="33"/>
+      <c r="J107" s="36"/>
+      <c r="K107" s="36"/>
       <c r="L107" s="22"/>
       <c r="M107" s="22"/>
       <c r="N107" s="22"/>
@@ -5727,8 +5780,8 @@
       <c r="G108" s="22"/>
       <c r="H108" s="22"/>
       <c r="I108" s="22"/>
-      <c r="J108" s="33"/>
-      <c r="K108" s="33"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="36"/>
       <c r="L108" s="22"/>
       <c r="M108" s="22"/>
       <c r="N108" s="22"/>
@@ -5772,8 +5825,8 @@
       <c r="G109" s="22"/>
       <c r="H109" s="22"/>
       <c r="I109" s="22"/>
-      <c r="J109" s="33"/>
-      <c r="K109" s="33"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="36"/>
       <c r="L109" s="22"/>
       <c r="M109" s="22"/>
       <c r="N109" s="22"/>
@@ -5817,8 +5870,8 @@
       <c r="G110" s="22"/>
       <c r="H110" s="22"/>
       <c r="I110" s="22"/>
-      <c r="J110" s="33"/>
-      <c r="K110" s="33"/>
+      <c r="J110" s="36"/>
+      <c r="K110" s="36"/>
       <c r="L110" s="22"/>
       <c r="M110" s="22"/>
       <c r="N110" s="22"/>
@@ -5862,8 +5915,8 @@
       <c r="G111" s="22"/>
       <c r="H111" s="22"/>
       <c r="I111" s="22"/>
-      <c r="J111" s="33"/>
-      <c r="K111" s="33"/>
+      <c r="J111" s="36"/>
+      <c r="K111" s="36"/>
       <c r="L111" s="22"/>
       <c r="M111" s="22"/>
       <c r="N111" s="22"/>
@@ -5907,8 +5960,8 @@
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
-      <c r="J112" s="33"/>
-      <c r="K112" s="33"/>
+      <c r="J112" s="36"/>
+      <c r="K112" s="36"/>
       <c r="L112" s="22"/>
       <c r="M112" s="22"/>
       <c r="N112" s="22"/>
@@ -5952,8 +6005,8 @@
       <c r="G113" s="22"/>
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
-      <c r="J113" s="33"/>
-      <c r="K113" s="33"/>
+      <c r="J113" s="36"/>
+      <c r="K113" s="36"/>
       <c r="L113" s="22"/>
       <c r="M113" s="22"/>
       <c r="N113" s="22"/>
@@ -5997,8 +6050,8 @@
       <c r="G114" s="22"/>
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
-      <c r="J114" s="33"/>
-      <c r="K114" s="33"/>
+      <c r="J114" s="36"/>
+      <c r="K114" s="36"/>
       <c r="L114" s="22"/>
       <c r="M114" s="22"/>
       <c r="N114" s="22"/>
@@ -6042,8 +6095,8 @@
       <c r="G115" s="22"/>
       <c r="H115" s="22"/>
       <c r="I115" s="22"/>
-      <c r="J115" s="33"/>
-      <c r="K115" s="33"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="36"/>
       <c r="L115" s="22"/>
       <c r="M115" s="22"/>
       <c r="N115" s="22"/>
@@ -6087,8 +6140,8 @@
       <c r="G116" s="22"/>
       <c r="H116" s="22"/>
       <c r="I116" s="22"/>
-      <c r="J116" s="33"/>
-      <c r="K116" s="33"/>
+      <c r="J116" s="36"/>
+      <c r="K116" s="36"/>
       <c r="L116" s="22"/>
       <c r="M116" s="22"/>
       <c r="N116" s="22"/>
@@ -6132,8 +6185,8 @@
       <c r="G117" s="22"/>
       <c r="H117" s="22"/>
       <c r="I117" s="22"/>
-      <c r="J117" s="33"/>
-      <c r="K117" s="33"/>
+      <c r="J117" s="36"/>
+      <c r="K117" s="36"/>
       <c r="L117" s="22"/>
       <c r="M117" s="22"/>
       <c r="N117" s="22"/>
@@ -6177,8 +6230,8 @@
       <c r="G118" s="22"/>
       <c r="H118" s="22"/>
       <c r="I118" s="22"/>
-      <c r="J118" s="33"/>
-      <c r="K118" s="33"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="36"/>
       <c r="L118" s="22"/>
       <c r="M118" s="22"/>
       <c r="N118" s="22"/>
@@ -6222,8 +6275,8 @@
       <c r="G119" s="22"/>
       <c r="H119" s="22"/>
       <c r="I119" s="22"/>
-      <c r="J119" s="33"/>
-      <c r="K119" s="33"/>
+      <c r="J119" s="36"/>
+      <c r="K119" s="36"/>
       <c r="L119" s="22"/>
       <c r="M119" s="22"/>
       <c r="N119" s="22"/>
@@ -6267,8 +6320,8 @@
       <c r="G120" s="22"/>
       <c r="H120" s="22"/>
       <c r="I120" s="22"/>
-      <c r="J120" s="33"/>
-      <c r="K120" s="33"/>
+      <c r="J120" s="36"/>
+      <c r="K120" s="36"/>
       <c r="L120" s="22"/>
       <c r="M120" s="22"/>
       <c r="N120" s="22"/>
@@ -6312,8 +6365,8 @@
       <c r="G121" s="22"/>
       <c r="H121" s="22"/>
       <c r="I121" s="22"/>
-      <c r="J121" s="33"/>
-      <c r="K121" s="33"/>
+      <c r="J121" s="36"/>
+      <c r="K121" s="36"/>
       <c r="L121" s="22"/>
       <c r="M121" s="22"/>
       <c r="N121" s="22"/>
@@ -6357,8 +6410,8 @@
       <c r="G122" s="22"/>
       <c r="H122" s="22"/>
       <c r="I122" s="22"/>
-      <c r="J122" s="33"/>
-      <c r="K122" s="33"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="36"/>
       <c r="L122" s="22"/>
       <c r="M122" s="22"/>
       <c r="N122" s="22"/>
@@ -6402,8 +6455,8 @@
       <c r="G123" s="22"/>
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
-      <c r="J123" s="33"/>
-      <c r="K123" s="33"/>
+      <c r="J123" s="36"/>
+      <c r="K123" s="36"/>
       <c r="L123" s="22"/>
       <c r="M123" s="22"/>
       <c r="N123" s="22"/>
@@ -6447,8 +6500,8 @@
       <c r="G124" s="22"/>
       <c r="H124" s="22"/>
       <c r="I124" s="22"/>
-      <c r="J124" s="33"/>
-      <c r="K124" s="33"/>
+      <c r="J124" s="36"/>
+      <c r="K124" s="36"/>
       <c r="L124" s="22"/>
       <c r="M124" s="22"/>
       <c r="N124" s="22"/>
@@ -6492,8 +6545,8 @@
       <c r="G125" s="22"/>
       <c r="H125" s="22"/>
       <c r="I125" s="22"/>
-      <c r="J125" s="33"/>
-      <c r="K125" s="33"/>
+      <c r="J125" s="36"/>
+      <c r="K125" s="36"/>
       <c r="L125" s="22"/>
       <c r="M125" s="22"/>
       <c r="N125" s="22"/>
@@ -6537,8 +6590,8 @@
       <c r="G126" s="22"/>
       <c r="H126" s="22"/>
       <c r="I126" s="22"/>
-      <c r="J126" s="33"/>
-      <c r="K126" s="33"/>
+      <c r="J126" s="36"/>
+      <c r="K126" s="36"/>
       <c r="L126" s="22"/>
       <c r="M126" s="22"/>
       <c r="N126" s="22"/>
@@ -6582,8 +6635,8 @@
       <c r="G127" s="22"/>
       <c r="H127" s="22"/>
       <c r="I127" s="22"/>
-      <c r="J127" s="33"/>
-      <c r="K127" s="33"/>
+      <c r="J127" s="36"/>
+      <c r="K127" s="36"/>
       <c r="L127" s="22"/>
       <c r="M127" s="22"/>
       <c r="N127" s="22"/>
@@ -6627,8 +6680,8 @@
       <c r="G128" s="22"/>
       <c r="H128" s="22"/>
       <c r="I128" s="22"/>
-      <c r="J128" s="33"/>
-      <c r="K128" s="33"/>
+      <c r="J128" s="36"/>
+      <c r="K128" s="36"/>
       <c r="L128" s="22"/>
       <c r="M128" s="22"/>
       <c r="N128" s="22"/>
@@ -6672,8 +6725,8 @@
       <c r="G129" s="22"/>
       <c r="H129" s="22"/>
       <c r="I129" s="22"/>
-      <c r="J129" s="33"/>
-      <c r="K129" s="33"/>
+      <c r="J129" s="36"/>
+      <c r="K129" s="36"/>
       <c r="L129" s="22"/>
       <c r="M129" s="22"/>
       <c r="N129" s="22"/>
@@ -6717,8 +6770,8 @@
       <c r="G130" s="22"/>
       <c r="H130" s="22"/>
       <c r="I130" s="22"/>
-      <c r="J130" s="33"/>
-      <c r="K130" s="33"/>
+      <c r="J130" s="36"/>
+      <c r="K130" s="36"/>
       <c r="L130" s="22"/>
       <c r="M130" s="22"/>
       <c r="N130" s="22"/>
@@ -6762,8 +6815,8 @@
       <c r="G131" s="22"/>
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
-      <c r="J131" s="33"/>
-      <c r="K131" s="33"/>
+      <c r="J131" s="36"/>
+      <c r="K131" s="36"/>
       <c r="L131" s="22"/>
       <c r="M131" s="22"/>
       <c r="N131" s="22"/>
@@ -6807,8 +6860,8 @@
       <c r="G132" s="22"/>
       <c r="H132" s="22"/>
       <c r="I132" s="22"/>
-      <c r="J132" s="33"/>
-      <c r="K132" s="33"/>
+      <c r="J132" s="36"/>
+      <c r="K132" s="36"/>
       <c r="L132" s="22"/>
       <c r="M132" s="22"/>
       <c r="N132" s="22"/>
@@ -6852,8 +6905,8 @@
       <c r="G133" s="22"/>
       <c r="H133" s="22"/>
       <c r="I133" s="22"/>
-      <c r="J133" s="33"/>
-      <c r="K133" s="33"/>
+      <c r="J133" s="36"/>
+      <c r="K133" s="36"/>
       <c r="L133" s="22"/>
       <c r="M133" s="22"/>
       <c r="N133" s="22"/>
@@ -6897,8 +6950,8 @@
       <c r="G134" s="22"/>
       <c r="H134" s="22"/>
       <c r="I134" s="22"/>
-      <c r="J134" s="33"/>
-      <c r="K134" s="33"/>
+      <c r="J134" s="36"/>
+      <c r="K134" s="36"/>
       <c r="L134" s="22"/>
       <c r="M134" s="22"/>
       <c r="N134" s="22"/>
@@ -6942,8 +6995,8 @@
       <c r="G135" s="22"/>
       <c r="H135" s="22"/>
       <c r="I135" s="22"/>
-      <c r="J135" s="33"/>
-      <c r="K135" s="33"/>
+      <c r="J135" s="36"/>
+      <c r="K135" s="36"/>
       <c r="L135" s="22"/>
       <c r="M135" s="22"/>
       <c r="N135" s="22"/>
@@ -6987,8 +7040,8 @@
       <c r="G136" s="22"/>
       <c r="H136" s="22"/>
       <c r="I136" s="22"/>
-      <c r="J136" s="33"/>
-      <c r="K136" s="33"/>
+      <c r="J136" s="36"/>
+      <c r="K136" s="36"/>
       <c r="L136" s="22"/>
       <c r="M136" s="22"/>
       <c r="N136" s="22"/>
@@ -7032,8 +7085,8 @@
       <c r="G137" s="22"/>
       <c r="H137" s="22"/>
       <c r="I137" s="22"/>
-      <c r="J137" s="33"/>
-      <c r="K137" s="33"/>
+      <c r="J137" s="36"/>
+      <c r="K137" s="36"/>
       <c r="L137" s="22"/>
       <c r="M137" s="22"/>
       <c r="N137" s="22"/>
@@ -7077,8 +7130,8 @@
       <c r="G138" s="22"/>
       <c r="H138" s="22"/>
       <c r="I138" s="22"/>
-      <c r="J138" s="33"/>
-      <c r="K138" s="33"/>
+      <c r="J138" s="36"/>
+      <c r="K138" s="36"/>
       <c r="L138" s="22"/>
       <c r="M138" s="22"/>
       <c r="N138" s="22"/>
@@ -7122,8 +7175,8 @@
       <c r="G139" s="22"/>
       <c r="H139" s="22"/>
       <c r="I139" s="22"/>
-      <c r="J139" s="33"/>
-      <c r="K139" s="33"/>
+      <c r="J139" s="36"/>
+      <c r="K139" s="36"/>
       <c r="L139" s="22"/>
       <c r="M139" s="22"/>
       <c r="N139" s="22"/>
@@ -7167,8 +7220,8 @@
       <c r="G140" s="22"/>
       <c r="H140" s="22"/>
       <c r="I140" s="22"/>
-      <c r="J140" s="33"/>
-      <c r="K140" s="33"/>
+      <c r="J140" s="36"/>
+      <c r="K140" s="36"/>
       <c r="L140" s="22"/>
       <c r="M140" s="22"/>
       <c r="N140" s="22"/>
@@ -7212,8 +7265,8 @@
       <c r="G141" s="22"/>
       <c r="H141" s="22"/>
       <c r="I141" s="22"/>
-      <c r="J141" s="33"/>
-      <c r="K141" s="33"/>
+      <c r="J141" s="36"/>
+      <c r="K141" s="36"/>
       <c r="L141" s="22"/>
       <c r="M141" s="22"/>
       <c r="N141" s="22"/>
@@ -7257,8 +7310,8 @@
       <c r="G142" s="22"/>
       <c r="H142" s="22"/>
       <c r="I142" s="22"/>
-      <c r="J142" s="33"/>
-      <c r="K142" s="33"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="36"/>
       <c r="L142" s="22"/>
       <c r="M142" s="22"/>
       <c r="N142" s="22"/>
@@ -7302,8 +7355,8 @@
       <c r="G143" s="22"/>
       <c r="H143" s="22"/>
       <c r="I143" s="22"/>
-      <c r="J143" s="33"/>
-      <c r="K143" s="33"/>
+      <c r="J143" s="36"/>
+      <c r="K143" s="36"/>
       <c r="L143" s="22"/>
       <c r="M143" s="22"/>
       <c r="N143" s="22"/>
@@ -7347,8 +7400,8 @@
       <c r="G144" s="22"/>
       <c r="H144" s="22"/>
       <c r="I144" s="22"/>
-      <c r="J144" s="33"/>
-      <c r="K144" s="33"/>
+      <c r="J144" s="36"/>
+      <c r="K144" s="36"/>
       <c r="L144" s="22"/>
       <c r="M144" s="22"/>
       <c r="N144" s="22"/>
@@ -7392,8 +7445,8 @@
       <c r="G145" s="22"/>
       <c r="H145" s="22"/>
       <c r="I145" s="22"/>
-      <c r="J145" s="33"/>
-      <c r="K145" s="33"/>
+      <c r="J145" s="36"/>
+      <c r="K145" s="36"/>
       <c r="L145" s="22"/>
       <c r="M145" s="22"/>
       <c r="N145" s="22"/>
@@ -7437,8 +7490,8 @@
       <c r="G146" s="22"/>
       <c r="H146" s="22"/>
       <c r="I146" s="22"/>
-      <c r="J146" s="33"/>
-      <c r="K146" s="33"/>
+      <c r="J146" s="36"/>
+      <c r="K146" s="36"/>
       <c r="L146" s="22"/>
       <c r="M146" s="22"/>
       <c r="N146" s="22"/>
@@ -7482,8 +7535,8 @@
       <c r="G147" s="22"/>
       <c r="H147" s="22"/>
       <c r="I147" s="22"/>
-      <c r="J147" s="33"/>
-      <c r="K147" s="33"/>
+      <c r="J147" s="36"/>
+      <c r="K147" s="36"/>
       <c r="L147" s="22"/>
       <c r="M147" s="22"/>
       <c r="N147" s="22"/>
@@ -7527,8 +7580,8 @@
       <c r="G148" s="22"/>
       <c r="H148" s="22"/>
       <c r="I148" s="22"/>
-      <c r="J148" s="33"/>
-      <c r="K148" s="33"/>
+      <c r="J148" s="36"/>
+      <c r="K148" s="36"/>
       <c r="L148" s="22"/>
       <c r="M148" s="22"/>
       <c r="N148" s="22"/>
@@ -7572,8 +7625,8 @@
       <c r="G149" s="22"/>
       <c r="H149" s="22"/>
       <c r="I149" s="22"/>
-      <c r="J149" s="33"/>
-      <c r="K149" s="33"/>
+      <c r="J149" s="36"/>
+      <c r="K149" s="36"/>
       <c r="L149" s="22"/>
       <c r="M149" s="22"/>
       <c r="N149" s="22"/>
@@ -7617,8 +7670,8 @@
       <c r="G150" s="22"/>
       <c r="H150" s="22"/>
       <c r="I150" s="22"/>
-      <c r="J150" s="33"/>
-      <c r="K150" s="33"/>
+      <c r="J150" s="36"/>
+      <c r="K150" s="36"/>
       <c r="L150" s="22"/>
       <c r="M150" s="22"/>
       <c r="N150" s="22"/>
@@ -7662,8 +7715,8 @@
       <c r="G151" s="22"/>
       <c r="H151" s="22"/>
       <c r="I151" s="22"/>
-      <c r="J151" s="33"/>
-      <c r="K151" s="33"/>
+      <c r="J151" s="36"/>
+      <c r="K151" s="36"/>
       <c r="L151" s="22"/>
       <c r="M151" s="22"/>
       <c r="N151" s="22"/>
@@ -7707,8 +7760,8 @@
       <c r="G152" s="22"/>
       <c r="H152" s="22"/>
       <c r="I152" s="22"/>
-      <c r="J152" s="33"/>
-      <c r="K152" s="33"/>
+      <c r="J152" s="36"/>
+      <c r="K152" s="36"/>
       <c r="L152" s="22"/>
       <c r="M152" s="22"/>
       <c r="N152" s="22"/>
@@ -7752,8 +7805,8 @@
       <c r="G153" s="22"/>
       <c r="H153" s="22"/>
       <c r="I153" s="22"/>
-      <c r="J153" s="33"/>
-      <c r="K153" s="33"/>
+      <c r="J153" s="36"/>
+      <c r="K153" s="36"/>
       <c r="L153" s="22"/>
       <c r="M153" s="22"/>
       <c r="N153" s="22"/>
@@ -7797,8 +7850,8 @@
       <c r="G154" s="22"/>
       <c r="H154" s="22"/>
       <c r="I154" s="22"/>
-      <c r="J154" s="33"/>
-      <c r="K154" s="33"/>
+      <c r="J154" s="36"/>
+      <c r="K154" s="36"/>
       <c r="L154" s="22"/>
       <c r="M154" s="22"/>
       <c r="N154" s="22"/>
@@ -7842,8 +7895,8 @@
       <c r="G155" s="22"/>
       <c r="H155" s="22"/>
       <c r="I155" s="22"/>
-      <c r="J155" s="33"/>
-      <c r="K155" s="33"/>
+      <c r="J155" s="36"/>
+      <c r="K155" s="36"/>
       <c r="L155" s="22"/>
       <c r="M155" s="22"/>
       <c r="N155" s="22"/>
@@ -7887,8 +7940,8 @@
       <c r="G156" s="22"/>
       <c r="H156" s="22"/>
       <c r="I156" s="22"/>
-      <c r="J156" s="33"/>
-      <c r="K156" s="33"/>
+      <c r="J156" s="36"/>
+      <c r="K156" s="36"/>
       <c r="L156" s="22"/>
       <c r="M156" s="22"/>
       <c r="N156" s="22"/>
@@ -7932,8 +7985,8 @@
       <c r="G157" s="22"/>
       <c r="H157" s="22"/>
       <c r="I157" s="22"/>
-      <c r="J157" s="33"/>
-      <c r="K157" s="33"/>
+      <c r="J157" s="36"/>
+      <c r="K157" s="36"/>
       <c r="L157" s="22"/>
       <c r="M157" s="22"/>
       <c r="N157" s="22"/>
@@ -7977,8 +8030,8 @@
       <c r="G158" s="22"/>
       <c r="H158" s="22"/>
       <c r="I158" s="22"/>
-      <c r="J158" s="33"/>
-      <c r="K158" s="33"/>
+      <c r="J158" s="36"/>
+      <c r="K158" s="36"/>
       <c r="L158" s="22"/>
       <c r="M158" s="22"/>
       <c r="N158" s="22"/>
@@ -8022,8 +8075,8 @@
       <c r="G159" s="22"/>
       <c r="H159" s="22"/>
       <c r="I159" s="22"/>
-      <c r="J159" s="33"/>
-      <c r="K159" s="33"/>
+      <c r="J159" s="36"/>
+      <c r="K159" s="36"/>
       <c r="L159" s="22"/>
       <c r="M159" s="22"/>
       <c r="N159" s="22"/>
@@ -8067,8 +8120,8 @@
       <c r="G160" s="22"/>
       <c r="H160" s="22"/>
       <c r="I160" s="22"/>
-      <c r="J160" s="33"/>
-      <c r="K160" s="33"/>
+      <c r="J160" s="36"/>
+      <c r="K160" s="36"/>
       <c r="L160" s="22"/>
       <c r="M160" s="22"/>
       <c r="N160" s="22"/>
@@ -8112,8 +8165,8 @@
       <c r="G161" s="22"/>
       <c r="H161" s="22"/>
       <c r="I161" s="22"/>
-      <c r="J161" s="33"/>
-      <c r="K161" s="33"/>
+      <c r="J161" s="36"/>
+      <c r="K161" s="36"/>
       <c r="L161" s="22"/>
       <c r="M161" s="22"/>
       <c r="N161" s="22"/>
@@ -8157,8 +8210,8 @@
       <c r="G162" s="22"/>
       <c r="H162" s="22"/>
       <c r="I162" s="22"/>
-      <c r="J162" s="33"/>
-      <c r="K162" s="33"/>
+      <c r="J162" s="36"/>
+      <c r="K162" s="36"/>
       <c r="L162" s="22"/>
       <c r="M162" s="22"/>
       <c r="N162" s="22"/>
@@ -8202,8 +8255,8 @@
       <c r="G163" s="22"/>
       <c r="H163" s="22"/>
       <c r="I163" s="22"/>
-      <c r="J163" s="33"/>
-      <c r="K163" s="33"/>
+      <c r="J163" s="36"/>
+      <c r="K163" s="36"/>
       <c r="L163" s="22"/>
       <c r="M163" s="22"/>
       <c r="N163" s="22"/>
@@ -8247,8 +8300,8 @@
       <c r="G164" s="22"/>
       <c r="H164" s="22"/>
       <c r="I164" s="22"/>
-      <c r="J164" s="33"/>
-      <c r="K164" s="33"/>
+      <c r="J164" s="36"/>
+      <c r="K164" s="36"/>
       <c r="L164" s="22"/>
       <c r="M164" s="22"/>
       <c r="N164" s="22"/>
@@ -8292,8 +8345,8 @@
       <c r="G165" s="22"/>
       <c r="H165" s="22"/>
       <c r="I165" s="22"/>
-      <c r="J165" s="33"/>
-      <c r="K165" s="33"/>
+      <c r="J165" s="36"/>
+      <c r="K165" s="36"/>
       <c r="L165" s="22"/>
       <c r="M165" s="22"/>
       <c r="N165" s="22"/>
@@ -8337,8 +8390,8 @@
       <c r="G166" s="22"/>
       <c r="H166" s="22"/>
       <c r="I166" s="22"/>
-      <c r="J166" s="33"/>
-      <c r="K166" s="33"/>
+      <c r="J166" s="36"/>
+      <c r="K166" s="36"/>
       <c r="L166" s="22"/>
       <c r="M166" s="22"/>
       <c r="N166" s="22"/>
@@ -8382,8 +8435,8 @@
       <c r="G167" s="22"/>
       <c r="H167" s="22"/>
       <c r="I167" s="22"/>
-      <c r="J167" s="33"/>
-      <c r="K167" s="33"/>
+      <c r="J167" s="36"/>
+      <c r="K167" s="36"/>
       <c r="L167" s="22"/>
       <c r="M167" s="22"/>
       <c r="N167" s="22"/>
@@ -8427,8 +8480,8 @@
       <c r="G168" s="22"/>
       <c r="H168" s="22"/>
       <c r="I168" s="22"/>
-      <c r="J168" s="33"/>
-      <c r="K168" s="33"/>
+      <c r="J168" s="36"/>
+      <c r="K168" s="36"/>
       <c r="L168" s="22"/>
       <c r="M168" s="22"/>
       <c r="N168" s="22"/>
@@ -8472,8 +8525,8 @@
       <c r="G169" s="22"/>
       <c r="H169" s="22"/>
       <c r="I169" s="22"/>
-      <c r="J169" s="33"/>
-      <c r="K169" s="33"/>
+      <c r="J169" s="36"/>
+      <c r="K169" s="36"/>
       <c r="L169" s="22"/>
       <c r="M169" s="22"/>
       <c r="N169" s="22"/>
@@ -8517,8 +8570,8 @@
       <c r="G170" s="22"/>
       <c r="H170" s="22"/>
       <c r="I170" s="22"/>
-      <c r="J170" s="33"/>
-      <c r="K170" s="33"/>
+      <c r="J170" s="36"/>
+      <c r="K170" s="36"/>
       <c r="L170" s="22"/>
       <c r="M170" s="22"/>
       <c r="N170" s="22"/>
@@ -8562,8 +8615,8 @@
       <c r="G171" s="22"/>
       <c r="H171" s="22"/>
       <c r="I171" s="22"/>
-      <c r="J171" s="33"/>
-      <c r="K171" s="33"/>
+      <c r="J171" s="36"/>
+      <c r="K171" s="36"/>
       <c r="L171" s="22"/>
       <c r="M171" s="22"/>
       <c r="N171" s="22"/>
@@ -8607,8 +8660,8 @@
       <c r="G172" s="22"/>
       <c r="H172" s="22"/>
       <c r="I172" s="22"/>
-      <c r="J172" s="33"/>
-      <c r="K172" s="33"/>
+      <c r="J172" s="36"/>
+      <c r="K172" s="36"/>
       <c r="L172" s="22"/>
       <c r="M172" s="22"/>
       <c r="N172" s="22"/>
@@ -8652,8 +8705,8 @@
       <c r="G173" s="22"/>
       <c r="H173" s="22"/>
       <c r="I173" s="22"/>
-      <c r="J173" s="33"/>
-      <c r="K173" s="33"/>
+      <c r="J173" s="36"/>
+      <c r="K173" s="36"/>
       <c r="L173" s="22"/>
       <c r="M173" s="22"/>
       <c r="N173" s="22"/>
@@ -8697,8 +8750,8 @@
       <c r="G174" s="22"/>
       <c r="H174" s="22"/>
       <c r="I174" s="22"/>
-      <c r="J174" s="33"/>
-      <c r="K174" s="33"/>
+      <c r="J174" s="36"/>
+      <c r="K174" s="36"/>
       <c r="L174" s="22"/>
       <c r="M174" s="22"/>
       <c r="N174" s="22"/>
@@ -8742,8 +8795,8 @@
       <c r="G175" s="22"/>
       <c r="H175" s="22"/>
       <c r="I175" s="22"/>
-      <c r="J175" s="33"/>
-      <c r="K175" s="33"/>
+      <c r="J175" s="36"/>
+      <c r="K175" s="36"/>
       <c r="L175" s="22"/>
       <c r="M175" s="22"/>
       <c r="N175" s="22"/>
@@ -8787,8 +8840,8 @@
       <c r="G176" s="22"/>
       <c r="H176" s="22"/>
       <c r="I176" s="22"/>
-      <c r="J176" s="33"/>
-      <c r="K176" s="33"/>
+      <c r="J176" s="36"/>
+      <c r="K176" s="36"/>
       <c r="L176" s="22"/>
       <c r="M176" s="22"/>
       <c r="N176" s="22"/>
@@ -8832,8 +8885,8 @@
       <c r="G177" s="22"/>
       <c r="H177" s="22"/>
       <c r="I177" s="22"/>
-      <c r="J177" s="33"/>
-      <c r="K177" s="33"/>
+      <c r="J177" s="36"/>
+      <c r="K177" s="36"/>
       <c r="L177" s="22"/>
       <c r="M177" s="22"/>
       <c r="N177" s="22"/>
@@ -8877,8 +8930,8 @@
       <c r="G178" s="22"/>
       <c r="H178" s="22"/>
       <c r="I178" s="22"/>
-      <c r="J178" s="33"/>
-      <c r="K178" s="33"/>
+      <c r="J178" s="36"/>
+      <c r="K178" s="36"/>
       <c r="L178" s="22"/>
       <c r="M178" s="22"/>
       <c r="N178" s="22"/>
@@ -8922,8 +8975,8 @@
       <c r="G179" s="22"/>
       <c r="H179" s="22"/>
       <c r="I179" s="22"/>
-      <c r="J179" s="33"/>
-      <c r="K179" s="33"/>
+      <c r="J179" s="36"/>
+      <c r="K179" s="36"/>
       <c r="L179" s="22"/>
       <c r="M179" s="22"/>
       <c r="N179" s="22"/>
@@ -8967,8 +9020,8 @@
       <c r="G180" s="22"/>
       <c r="H180" s="22"/>
       <c r="I180" s="22"/>
-      <c r="J180" s="33"/>
-      <c r="K180" s="33"/>
+      <c r="J180" s="36"/>
+      <c r="K180" s="36"/>
       <c r="L180" s="22"/>
       <c r="M180" s="22"/>
       <c r="N180" s="22"/>
@@ -9012,8 +9065,8 @@
       <c r="G181" s="22"/>
       <c r="H181" s="22"/>
       <c r="I181" s="22"/>
-      <c r="J181" s="33"/>
-      <c r="K181" s="33"/>
+      <c r="J181" s="36"/>
+      <c r="K181" s="36"/>
       <c r="L181" s="22"/>
       <c r="M181" s="22"/>
       <c r="N181" s="22"/>
@@ -9057,8 +9110,8 @@
       <c r="G182" s="22"/>
       <c r="H182" s="22"/>
       <c r="I182" s="22"/>
-      <c r="J182" s="33"/>
-      <c r="K182" s="33"/>
+      <c r="J182" s="36"/>
+      <c r="K182" s="36"/>
       <c r="L182" s="22"/>
       <c r="M182" s="22"/>
       <c r="N182" s="22"/>
@@ -9102,8 +9155,8 @@
       <c r="G183" s="22"/>
       <c r="H183" s="22"/>
       <c r="I183" s="22"/>
-      <c r="J183" s="33"/>
-      <c r="K183" s="33"/>
+      <c r="J183" s="36"/>
+      <c r="K183" s="36"/>
       <c r="L183" s="22"/>
       <c r="M183" s="22"/>
       <c r="N183" s="22"/>
@@ -9147,8 +9200,8 @@
       <c r="G184" s="22"/>
       <c r="H184" s="22"/>
       <c r="I184" s="22"/>
-      <c r="J184" s="33"/>
-      <c r="K184" s="33"/>
+      <c r="J184" s="36"/>
+      <c r="K184" s="36"/>
       <c r="L184" s="22"/>
       <c r="M184" s="22"/>
       <c r="N184" s="22"/>
@@ -9192,8 +9245,8 @@
       <c r="G185" s="22"/>
       <c r="H185" s="22"/>
       <c r="I185" s="22"/>
-      <c r="J185" s="33"/>
-      <c r="K185" s="33"/>
+      <c r="J185" s="36"/>
+      <c r="K185" s="36"/>
       <c r="L185" s="22"/>
       <c r="M185" s="22"/>
       <c r="N185" s="22"/>
@@ -9237,8 +9290,8 @@
       <c r="G186" s="22"/>
       <c r="H186" s="22"/>
       <c r="I186" s="22"/>
-      <c r="J186" s="33"/>
-      <c r="K186" s="33"/>
+      <c r="J186" s="36"/>
+      <c r="K186" s="36"/>
       <c r="L186" s="22"/>
       <c r="M186" s="22"/>
       <c r="N186" s="22"/>
@@ -9282,8 +9335,8 @@
       <c r="G187" s="22"/>
       <c r="H187" s="22"/>
       <c r="I187" s="22"/>
-      <c r="J187" s="33"/>
-      <c r="K187" s="33"/>
+      <c r="J187" s="36"/>
+      <c r="K187" s="36"/>
       <c r="L187" s="22"/>
       <c r="M187" s="22"/>
       <c r="N187" s="22"/>
@@ -9327,8 +9380,8 @@
       <c r="G188" s="22"/>
       <c r="H188" s="22"/>
       <c r="I188" s="22"/>
-      <c r="J188" s="33"/>
-      <c r="K188" s="33"/>
+      <c r="J188" s="36"/>
+      <c r="K188" s="36"/>
       <c r="L188" s="22"/>
       <c r="M188" s="22"/>
       <c r="N188" s="22"/>
@@ -9372,8 +9425,8 @@
       <c r="G189" s="22"/>
       <c r="H189" s="22"/>
       <c r="I189" s="22"/>
-      <c r="J189" s="33"/>
-      <c r="K189" s="33"/>
+      <c r="J189" s="36"/>
+      <c r="K189" s="36"/>
       <c r="L189" s="22"/>
       <c r="M189" s="22"/>
       <c r="N189" s="22"/>
@@ -9417,8 +9470,8 @@
       <c r="G190" s="22"/>
       <c r="H190" s="22"/>
       <c r="I190" s="22"/>
-      <c r="J190" s="33"/>
-      <c r="K190" s="33"/>
+      <c r="J190" s="36"/>
+      <c r="K190" s="36"/>
       <c r="L190" s="22"/>
       <c r="M190" s="22"/>
       <c r="N190" s="22"/>
@@ -9462,8 +9515,8 @@
       <c r="G191" s="22"/>
       <c r="H191" s="22"/>
       <c r="I191" s="22"/>
-      <c r="J191" s="33"/>
-      <c r="K191" s="33"/>
+      <c r="J191" s="36"/>
+      <c r="K191" s="36"/>
       <c r="L191" s="22"/>
       <c r="M191" s="22"/>
       <c r="N191" s="22"/>
@@ -9507,8 +9560,8 @@
       <c r="G192" s="22"/>
       <c r="H192" s="22"/>
       <c r="I192" s="22"/>
-      <c r="J192" s="33"/>
-      <c r="K192" s="33"/>
+      <c r="J192" s="36"/>
+      <c r="K192" s="36"/>
       <c r="L192" s="22"/>
       <c r="M192" s="22"/>
       <c r="N192" s="22"/>
@@ -9552,8 +9605,8 @@
       <c r="G193" s="22"/>
       <c r="H193" s="22"/>
       <c r="I193" s="22"/>
-      <c r="J193" s="33"/>
-      <c r="K193" s="33"/>
+      <c r="J193" s="36"/>
+      <c r="K193" s="36"/>
       <c r="L193" s="22"/>
       <c r="M193" s="22"/>
       <c r="N193" s="22"/>
@@ -9597,8 +9650,8 @@
       <c r="G194" s="22"/>
       <c r="H194" s="22"/>
       <c r="I194" s="22"/>
-      <c r="J194" s="33"/>
-      <c r="K194" s="33"/>
+      <c r="J194" s="36"/>
+      <c r="K194" s="36"/>
       <c r="L194" s="22"/>
       <c r="M194" s="22"/>
       <c r="N194" s="22"/>
@@ -9642,8 +9695,8 @@
       <c r="G195" s="22"/>
       <c r="H195" s="22"/>
       <c r="I195" s="22"/>
-      <c r="J195" s="33"/>
-      <c r="K195" s="33"/>
+      <c r="J195" s="36"/>
+      <c r="K195" s="36"/>
       <c r="L195" s="22"/>
       <c r="M195" s="22"/>
       <c r="N195" s="22"/>
@@ -9687,8 +9740,8 @@
       <c r="G196" s="22"/>
       <c r="H196" s="22"/>
       <c r="I196" s="22"/>
-      <c r="J196" s="33"/>
-      <c r="K196" s="33"/>
+      <c r="J196" s="36"/>
+      <c r="K196" s="36"/>
       <c r="L196" s="22"/>
       <c r="M196" s="22"/>
       <c r="N196" s="22"/>
@@ -9732,8 +9785,8 @@
       <c r="G197" s="22"/>
       <c r="H197" s="22"/>
       <c r="I197" s="22"/>
-      <c r="J197" s="33"/>
-      <c r="K197" s="33"/>
+      <c r="J197" s="36"/>
+      <c r="K197" s="36"/>
       <c r="L197" s="22"/>
       <c r="M197" s="22"/>
       <c r="N197" s="22"/>
@@ -9777,8 +9830,8 @@
       <c r="G198" s="22"/>
       <c r="H198" s="22"/>
       <c r="I198" s="22"/>
-      <c r="J198" s="33"/>
-      <c r="K198" s="33"/>
+      <c r="J198" s="36"/>
+      <c r="K198" s="36"/>
       <c r="L198" s="22"/>
       <c r="M198" s="22"/>
       <c r="N198" s="22"/>
@@ -9822,8 +9875,8 @@
       <c r="G199" s="22"/>
       <c r="H199" s="22"/>
       <c r="I199" s="22"/>
-      <c r="J199" s="33"/>
-      <c r="K199" s="33"/>
+      <c r="J199" s="36"/>
+      <c r="K199" s="36"/>
       <c r="L199" s="22"/>
       <c r="M199" s="22"/>
       <c r="N199" s="22"/>
@@ -9867,8 +9920,8 @@
       <c r="G200" s="22"/>
       <c r="H200" s="22"/>
       <c r="I200" s="22"/>
-      <c r="J200" s="33"/>
-      <c r="K200" s="33"/>
+      <c r="J200" s="36"/>
+      <c r="K200" s="36"/>
       <c r="L200" s="22"/>
       <c r="M200" s="22"/>
       <c r="N200" s="22"/>
@@ -9912,8 +9965,8 @@
       <c r="G201" s="22"/>
       <c r="H201" s="22"/>
       <c r="I201" s="22"/>
-      <c r="J201" s="33"/>
-      <c r="K201" s="33"/>
+      <c r="J201" s="36"/>
+      <c r="K201" s="36"/>
       <c r="L201" s="22"/>
       <c r="M201" s="22"/>
       <c r="N201" s="22"/>
@@ -9957,8 +10010,8 @@
       <c r="G202" s="22"/>
       <c r="H202" s="22"/>
       <c r="I202" s="22"/>
-      <c r="J202" s="33"/>
-      <c r="K202" s="33"/>
+      <c r="J202" s="36"/>
+      <c r="K202" s="36"/>
       <c r="L202" s="22"/>
       <c r="M202" s="22"/>
       <c r="N202" s="22"/>
@@ -10002,8 +10055,8 @@
       <c r="G203" s="22"/>
       <c r="H203" s="22"/>
       <c r="I203" s="22"/>
-      <c r="J203" s="33"/>
-      <c r="K203" s="33"/>
+      <c r="J203" s="36"/>
+      <c r="K203" s="36"/>
       <c r="L203" s="22"/>
       <c r="M203" s="22"/>
       <c r="N203" s="22"/>
@@ -10047,8 +10100,8 @@
       <c r="G204" s="22"/>
       <c r="H204" s="22"/>
       <c r="I204" s="22"/>
-      <c r="J204" s="33"/>
-      <c r="K204" s="33"/>
+      <c r="J204" s="36"/>
+      <c r="K204" s="36"/>
       <c r="L204" s="22"/>
       <c r="M204" s="22"/>
       <c r="N204" s="22"/>
@@ -10092,8 +10145,8 @@
       <c r="G205" s="22"/>
       <c r="H205" s="22"/>
       <c r="I205" s="22"/>
-      <c r="J205" s="33"/>
-      <c r="K205" s="33"/>
+      <c r="J205" s="36"/>
+      <c r="K205" s="36"/>
       <c r="L205" s="22"/>
       <c r="M205" s="22"/>
       <c r="N205" s="22"/>
@@ -10137,8 +10190,8 @@
       <c r="G206" s="22"/>
       <c r="H206" s="22"/>
       <c r="I206" s="22"/>
-      <c r="J206" s="33"/>
-      <c r="K206" s="33"/>
+      <c r="J206" s="36"/>
+      <c r="K206" s="36"/>
       <c r="L206" s="22"/>
       <c r="M206" s="22"/>
       <c r="N206" s="22"/>
@@ -10182,8 +10235,8 @@
       <c r="G207" s="22"/>
       <c r="H207" s="22"/>
       <c r="I207" s="22"/>
-      <c r="J207" s="33"/>
-      <c r="K207" s="33"/>
+      <c r="J207" s="36"/>
+      <c r="K207" s="36"/>
       <c r="L207" s="22"/>
       <c r="M207" s="22"/>
       <c r="N207" s="22"/>
@@ -10227,8 +10280,8 @@
       <c r="G208" s="22"/>
       <c r="H208" s="22"/>
       <c r="I208" s="22"/>
-      <c r="J208" s="33"/>
-      <c r="K208" s="33"/>
+      <c r="J208" s="36"/>
+      <c r="K208" s="36"/>
       <c r="L208" s="22"/>
       <c r="M208" s="22"/>
       <c r="N208" s="22"/>
@@ -10272,8 +10325,8 @@
       <c r="G209" s="22"/>
       <c r="H209" s="22"/>
       <c r="I209" s="22"/>
-      <c r="J209" s="33"/>
-      <c r="K209" s="33"/>
+      <c r="J209" s="36"/>
+      <c r="K209" s="36"/>
       <c r="L209" s="22"/>
       <c r="M209" s="22"/>
       <c r="N209" s="22"/>
@@ -10317,8 +10370,8 @@
       <c r="G210" s="22"/>
       <c r="H210" s="22"/>
       <c r="I210" s="22"/>
-      <c r="J210" s="33"/>
-      <c r="K210" s="33"/>
+      <c r="J210" s="36"/>
+      <c r="K210" s="36"/>
       <c r="L210" s="22"/>
       <c r="M210" s="22"/>
       <c r="N210" s="22"/>
@@ -10362,8 +10415,8 @@
       <c r="G211" s="22"/>
       <c r="H211" s="22"/>
       <c r="I211" s="22"/>
-      <c r="J211" s="33"/>
-      <c r="K211" s="33"/>
+      <c r="J211" s="36"/>
+      <c r="K211" s="36"/>
       <c r="L211" s="22"/>
       <c r="M211" s="22"/>
       <c r="N211" s="22"/>
@@ -10407,8 +10460,8 @@
       <c r="G212" s="22"/>
       <c r="H212" s="22"/>
       <c r="I212" s="22"/>
-      <c r="J212" s="33"/>
-      <c r="K212" s="33"/>
+      <c r="J212" s="36"/>
+      <c r="K212" s="36"/>
       <c r="L212" s="22"/>
       <c r="M212" s="22"/>
       <c r="N212" s="22"/>
@@ -10452,8 +10505,8 @@
       <c r="G213" s="22"/>
       <c r="H213" s="22"/>
       <c r="I213" s="22"/>
-      <c r="J213" s="33"/>
-      <c r="K213" s="33"/>
+      <c r="J213" s="36"/>
+      <c r="K213" s="36"/>
       <c r="L213" s="22"/>
       <c r="M213" s="22"/>
       <c r="N213" s="22"/>
@@ -10497,8 +10550,8 @@
       <c r="G214" s="22"/>
       <c r="H214" s="22"/>
       <c r="I214" s="22"/>
-      <c r="J214" s="33"/>
-      <c r="K214" s="33"/>
+      <c r="J214" s="36"/>
+      <c r="K214" s="36"/>
       <c r="L214" s="22"/>
       <c r="M214" s="22"/>
       <c r="N214" s="22"/>
@@ -10542,8 +10595,8 @@
       <c r="G215" s="22"/>
       <c r="H215" s="22"/>
       <c r="I215" s="22"/>
-      <c r="J215" s="33"/>
-      <c r="K215" s="33"/>
+      <c r="J215" s="36"/>
+      <c r="K215" s="36"/>
       <c r="L215" s="22"/>
       <c r="M215" s="22"/>
       <c r="N215" s="22"/>
@@ -10587,8 +10640,8 @@
       <c r="G216" s="22"/>
       <c r="H216" s="22"/>
       <c r="I216" s="22"/>
-      <c r="J216" s="33"/>
-      <c r="K216" s="33"/>
+      <c r="J216" s="36"/>
+      <c r="K216" s="36"/>
       <c r="L216" s="22"/>
       <c r="M216" s="22"/>
       <c r="N216" s="22"/>
@@ -10632,8 +10685,8 @@
       <c r="G217" s="22"/>
       <c r="H217" s="22"/>
       <c r="I217" s="22"/>
-      <c r="J217" s="33"/>
-      <c r="K217" s="33"/>
+      <c r="J217" s="36"/>
+      <c r="K217" s="36"/>
       <c r="L217" s="22"/>
       <c r="M217" s="22"/>
       <c r="N217" s="22"/>
@@ -10677,8 +10730,8 @@
       <c r="G218" s="22"/>
       <c r="H218" s="22"/>
       <c r="I218" s="22"/>
-      <c r="J218" s="33"/>
-      <c r="K218" s="33"/>
+      <c r="J218" s="36"/>
+      <c r="K218" s="36"/>
       <c r="L218" s="22"/>
       <c r="M218" s="22"/>
       <c r="N218" s="22"/>
@@ -10722,8 +10775,8 @@
       <c r="G219" s="22"/>
       <c r="H219" s="22"/>
       <c r="I219" s="22"/>
-      <c r="J219" s="33"/>
-      <c r="K219" s="33"/>
+      <c r="J219" s="36"/>
+      <c r="K219" s="36"/>
       <c r="L219" s="22"/>
       <c r="M219" s="22"/>
       <c r="N219" s="22"/>
@@ -10767,8 +10820,8 @@
       <c r="G220" s="22"/>
       <c r="H220" s="22"/>
       <c r="I220" s="22"/>
-      <c r="J220" s="33"/>
-      <c r="K220" s="33"/>
+      <c r="J220" s="36"/>
+      <c r="K220" s="36"/>
       <c r="L220" s="22"/>
       <c r="M220" s="22"/>
       <c r="N220" s="22"/>
@@ -10812,8 +10865,8 @@
       <c r="G221" s="22"/>
       <c r="H221" s="22"/>
       <c r="I221" s="22"/>
-      <c r="J221" s="33"/>
-      <c r="K221" s="33"/>
+      <c r="J221" s="36"/>
+      <c r="K221" s="36"/>
       <c r="L221" s="22"/>
       <c r="M221" s="22"/>
       <c r="N221" s="22"/>
@@ -10857,8 +10910,8 @@
       <c r="G222" s="22"/>
       <c r="H222" s="22"/>
       <c r="I222" s="22"/>
-      <c r="J222" s="33"/>
-      <c r="K222" s="33"/>
+      <c r="J222" s="36"/>
+      <c r="K222" s="36"/>
       <c r="L222" s="22"/>
       <c r="M222" s="22"/>
       <c r="N222" s="22"/>
@@ -10902,8 +10955,8 @@
       <c r="G223" s="22"/>
       <c r="H223" s="22"/>
       <c r="I223" s="22"/>
-      <c r="J223" s="33"/>
-      <c r="K223" s="33"/>
+      <c r="J223" s="36"/>
+      <c r="K223" s="36"/>
       <c r="L223" s="22"/>
       <c r="M223" s="22"/>
       <c r="N223" s="22"/>
@@ -10947,8 +11000,8 @@
       <c r="G224" s="22"/>
       <c r="H224" s="22"/>
       <c r="I224" s="22"/>
-      <c r="J224" s="33"/>
-      <c r="K224" s="33"/>
+      <c r="J224" s="36"/>
+      <c r="K224" s="36"/>
       <c r="L224" s="22"/>
       <c r="M224" s="22"/>
       <c r="N224" s="22"/>
@@ -10992,8 +11045,8 @@
       <c r="G225" s="22"/>
       <c r="H225" s="22"/>
       <c r="I225" s="22"/>
-      <c r="J225" s="33"/>
-      <c r="K225" s="33"/>
+      <c r="J225" s="36"/>
+      <c r="K225" s="36"/>
       <c r="L225" s="22"/>
       <c r="M225" s="22"/>
       <c r="N225" s="22"/>
@@ -11037,8 +11090,8 @@
       <c r="G226" s="22"/>
       <c r="H226" s="22"/>
       <c r="I226" s="22"/>
-      <c r="J226" s="33"/>
-      <c r="K226" s="33"/>
+      <c r="J226" s="36"/>
+      <c r="K226" s="36"/>
       <c r="L226" s="22"/>
       <c r="M226" s="22"/>
       <c r="N226" s="22"/>
@@ -11082,8 +11135,8 @@
       <c r="G227" s="22"/>
       <c r="H227" s="22"/>
       <c r="I227" s="22"/>
-      <c r="J227" s="33"/>
-      <c r="K227" s="33"/>
+      <c r="J227" s="36"/>
+      <c r="K227" s="36"/>
       <c r="L227" s="22"/>
       <c r="M227" s="22"/>
       <c r="N227" s="22"/>
@@ -11127,8 +11180,8 @@
       <c r="G228" s="22"/>
       <c r="H228" s="22"/>
       <c r="I228" s="22"/>
-      <c r="J228" s="33"/>
-      <c r="K228" s="33"/>
+      <c r="J228" s="36"/>
+      <c r="K228" s="36"/>
       <c r="L228" s="22"/>
       <c r="M228" s="22"/>
       <c r="N228" s="22"/>
@@ -11172,8 +11225,8 @@
       <c r="G229" s="22"/>
       <c r="H229" s="22"/>
       <c r="I229" s="22"/>
-      <c r="J229" s="33"/>
-      <c r="K229" s="33"/>
+      <c r="J229" s="36"/>
+      <c r="K229" s="36"/>
       <c r="L229" s="22"/>
       <c r="M229" s="22"/>
       <c r="N229" s="22"/>
@@ -11217,8 +11270,8 @@
       <c r="G230" s="22"/>
       <c r="H230" s="22"/>
       <c r="I230" s="22"/>
-      <c r="J230" s="33"/>
-      <c r="K230" s="33"/>
+      <c r="J230" s="36"/>
+      <c r="K230" s="36"/>
       <c r="L230" s="22"/>
       <c r="M230" s="22"/>
       <c r="N230" s="22"/>
@@ -11262,8 +11315,8 @@
       <c r="G231" s="22"/>
       <c r="H231" s="22"/>
       <c r="I231" s="22"/>
-      <c r="J231" s="33"/>
-      <c r="K231" s="33"/>
+      <c r="J231" s="36"/>
+      <c r="K231" s="36"/>
       <c r="L231" s="22"/>
       <c r="M231" s="22"/>
       <c r="N231" s="22"/>
@@ -11307,8 +11360,8 @@
       <c r="G232" s="22"/>
       <c r="H232" s="22"/>
       <c r="I232" s="22"/>
-      <c r="J232" s="33"/>
-      <c r="K232" s="33"/>
+      <c r="J232" s="36"/>
+      <c r="K232" s="36"/>
       <c r="L232" s="22"/>
       <c r="M232" s="22"/>
       <c r="N232" s="22"/>
@@ -11352,8 +11405,8 @@
       <c r="G233" s="22"/>
       <c r="H233" s="22"/>
       <c r="I233" s="22"/>
-      <c r="J233" s="33"/>
-      <c r="K233" s="33"/>
+      <c r="J233" s="36"/>
+      <c r="K233" s="36"/>
       <c r="L233" s="22"/>
       <c r="M233" s="22"/>
       <c r="N233" s="22"/>
@@ -11397,8 +11450,8 @@
       <c r="G234" s="22"/>
       <c r="H234" s="22"/>
       <c r="I234" s="22"/>
-      <c r="J234" s="33"/>
-      <c r="K234" s="33"/>
+      <c r="J234" s="36"/>
+      <c r="K234" s="36"/>
       <c r="L234" s="22"/>
       <c r="M234" s="22"/>
       <c r="N234" s="22"/>
@@ -11442,8 +11495,8 @@
       <c r="G235" s="22"/>
       <c r="H235" s="22"/>
       <c r="I235" s="22"/>
-      <c r="J235" s="33"/>
-      <c r="K235" s="33"/>
+      <c r="J235" s="36"/>
+      <c r="K235" s="36"/>
       <c r="L235" s="22"/>
       <c r="M235" s="22"/>
       <c r="N235" s="22"/>
@@ -11487,8 +11540,8 @@
       <c r="G236" s="22"/>
       <c r="H236" s="22"/>
       <c r="I236" s="22"/>
-      <c r="J236" s="33"/>
-      <c r="K236" s="33"/>
+      <c r="J236" s="36"/>
+      <c r="K236" s="36"/>
       <c r="L236" s="22"/>
       <c r="M236" s="22"/>
       <c r="N236" s="22"/>
@@ -11532,8 +11585,8 @@
       <c r="G237" s="22"/>
       <c r="H237" s="22"/>
       <c r="I237" s="22"/>
-      <c r="J237" s="33"/>
-      <c r="K237" s="33"/>
+      <c r="J237" s="36"/>
+      <c r="K237" s="36"/>
       <c r="L237" s="22"/>
       <c r="M237" s="22"/>
       <c r="N237" s="22"/>
@@ -11577,8 +11630,8 @@
       <c r="G238" s="22"/>
       <c r="H238" s="22"/>
       <c r="I238" s="22"/>
-      <c r="J238" s="33"/>
-      <c r="K238" s="33"/>
+      <c r="J238" s="36"/>
+      <c r="K238" s="36"/>
       <c r="L238" s="22"/>
       <c r="M238" s="22"/>
       <c r="N238" s="22"/>
@@ -11622,8 +11675,8 @@
       <c r="G239" s="22"/>
       <c r="H239" s="22"/>
       <c r="I239" s="22"/>
-      <c r="J239" s="33"/>
-      <c r="K239" s="33"/>
+      <c r="J239" s="36"/>
+      <c r="K239" s="36"/>
       <c r="L239" s="22"/>
       <c r="M239" s="22"/>
       <c r="N239" s="22"/>
@@ -11667,8 +11720,8 @@
       <c r="G240" s="22"/>
       <c r="H240" s="22"/>
       <c r="I240" s="22"/>
-      <c r="J240" s="33"/>
-      <c r="K240" s="33"/>
+      <c r="J240" s="36"/>
+      <c r="K240" s="36"/>
       <c r="L240" s="22"/>
       <c r="M240" s="22"/>
       <c r="N240" s="22"/>
@@ -11712,8 +11765,8 @@
       <c r="G241" s="22"/>
       <c r="H241" s="22"/>
       <c r="I241" s="22"/>
-      <c r="J241" s="33"/>
-      <c r="K241" s="33"/>
+      <c r="J241" s="36"/>
+      <c r="K241" s="36"/>
       <c r="L241" s="22"/>
       <c r="M241" s="22"/>
       <c r="N241" s="22"/>
@@ -11757,8 +11810,8 @@
       <c r="G242" s="22"/>
       <c r="H242" s="22"/>
       <c r="I242" s="22"/>
-      <c r="J242" s="33"/>
-      <c r="K242" s="33"/>
+      <c r="J242" s="36"/>
+      <c r="K242" s="36"/>
       <c r="L242" s="22"/>
       <c r="M242" s="22"/>
       <c r="N242" s="22"/>
@@ -11802,8 +11855,8 @@
       <c r="G243" s="22"/>
       <c r="H243" s="22"/>
       <c r="I243" s="22"/>
-      <c r="J243" s="33"/>
-      <c r="K243" s="33"/>
+      <c r="J243" s="36"/>
+      <c r="K243" s="36"/>
       <c r="L243" s="22"/>
       <c r="M243" s="22"/>
       <c r="N243" s="22"/>
@@ -11847,8 +11900,8 @@
       <c r="G244" s="22"/>
       <c r="H244" s="22"/>
       <c r="I244" s="22"/>
-      <c r="J244" s="33"/>
-      <c r="K244" s="33"/>
+      <c r="J244" s="36"/>
+      <c r="K244" s="36"/>
       <c r="L244" s="22"/>
       <c r="M244" s="22"/>
       <c r="N244" s="22"/>
@@ -11892,8 +11945,8 @@
       <c r="G245" s="22"/>
       <c r="H245" s="22"/>
       <c r="I245" s="22"/>
-      <c r="J245" s="33"/>
-      <c r="K245" s="33"/>
+      <c r="J245" s="36"/>
+      <c r="K245" s="36"/>
       <c r="L245" s="22"/>
       <c r="M245" s="22"/>
       <c r="N245" s="22"/>
@@ -11937,8 +11990,8 @@
       <c r="G246" s="22"/>
       <c r="H246" s="22"/>
       <c r="I246" s="22"/>
-      <c r="J246" s="33"/>
-      <c r="K246" s="33"/>
+      <c r="J246" s="36"/>
+      <c r="K246" s="36"/>
       <c r="L246" s="22"/>
       <c r="M246" s="22"/>
       <c r="N246" s="22"/>
@@ -11982,8 +12035,8 @@
       <c r="G247" s="22"/>
       <c r="H247" s="22"/>
       <c r="I247" s="22"/>
-      <c r="J247" s="33"/>
-      <c r="K247" s="33"/>
+      <c r="J247" s="36"/>
+      <c r="K247" s="36"/>
       <c r="L247" s="22"/>
       <c r="M247" s="22"/>
       <c r="N247" s="22"/>
@@ -12027,8 +12080,8 @@
       <c r="G248" s="22"/>
       <c r="H248" s="22"/>
       <c r="I248" s="22"/>
-      <c r="J248" s="33"/>
-      <c r="K248" s="33"/>
+      <c r="J248" s="36"/>
+      <c r="K248" s="36"/>
       <c r="L248" s="22"/>
       <c r="M248" s="22"/>
       <c r="N248" s="22"/>
@@ -12072,8 +12125,8 @@
       <c r="G249" s="22"/>
       <c r="H249" s="22"/>
       <c r="I249" s="22"/>
-      <c r="J249" s="33"/>
-      <c r="K249" s="33"/>
+      <c r="J249" s="36"/>
+      <c r="K249" s="36"/>
       <c r="L249" s="22"/>
       <c r="M249" s="22"/>
       <c r="N249" s="22"/>
@@ -12117,8 +12170,8 @@
       <c r="G250" s="22"/>
       <c r="H250" s="22"/>
       <c r="I250" s="22"/>
-      <c r="J250" s="33"/>
-      <c r="K250" s="33"/>
+      <c r="J250" s="36"/>
+      <c r="K250" s="36"/>
       <c r="L250" s="22"/>
       <c r="M250" s="22"/>
       <c r="N250" s="22"/>
@@ -12162,8 +12215,8 @@
       <c r="G251" s="22"/>
       <c r="H251" s="22"/>
       <c r="I251" s="22"/>
-      <c r="J251" s="33"/>
-      <c r="K251" s="33"/>
+      <c r="J251" s="36"/>
+      <c r="K251" s="36"/>
       <c r="L251" s="22"/>
       <c r="M251" s="22"/>
       <c r="N251" s="22"/>
@@ -12207,8 +12260,8 @@
       <c r="G252" s="22"/>
       <c r="H252" s="22"/>
       <c r="I252" s="22"/>
-      <c r="J252" s="33"/>
-      <c r="K252" s="33"/>
+      <c r="J252" s="36"/>
+      <c r="K252" s="36"/>
       <c r="L252" s="22"/>
       <c r="M252" s="22"/>
       <c r="N252" s="22"/>
@@ -12252,8 +12305,8 @@
       <c r="G253" s="22"/>
       <c r="H253" s="22"/>
       <c r="I253" s="22"/>
-      <c r="J253" s="33"/>
-      <c r="K253" s="33"/>
+      <c r="J253" s="36"/>
+      <c r="K253" s="36"/>
       <c r="L253" s="22"/>
       <c r="M253" s="22"/>
       <c r="N253" s="22"/>
@@ -12297,8 +12350,8 @@
       <c r="G254" s="22"/>
       <c r="H254" s="22"/>
       <c r="I254" s="22"/>
-      <c r="J254" s="33"/>
-      <c r="K254" s="33"/>
+      <c r="J254" s="36"/>
+      <c r="K254" s="36"/>
       <c r="L254" s="22"/>
       <c r="M254" s="22"/>
       <c r="N254" s="22"/>
@@ -12342,8 +12395,8 @@
       <c r="G255" s="22"/>
       <c r="H255" s="22"/>
       <c r="I255" s="22"/>
-      <c r="J255" s="33"/>
-      <c r="K255" s="33"/>
+      <c r="J255" s="36"/>
+      <c r="K255" s="36"/>
       <c r="L255" s="22"/>
       <c r="M255" s="22"/>
       <c r="N255" s="22"/>
@@ -12387,8 +12440,8 @@
       <c r="G256" s="22"/>
       <c r="H256" s="22"/>
       <c r="I256" s="22"/>
-      <c r="J256" s="33"/>
-      <c r="K256" s="33"/>
+      <c r="J256" s="36"/>
+      <c r="K256" s="36"/>
       <c r="L256" s="22"/>
       <c r="M256" s="22"/>
       <c r="N256" s="22"/>
@@ -12432,8 +12485,8 @@
       <c r="G257" s="22"/>
       <c r="H257" s="22"/>
       <c r="I257" s="22"/>
-      <c r="J257" s="33"/>
-      <c r="K257" s="33"/>
+      <c r="J257" s="36"/>
+      <c r="K257" s="36"/>
       <c r="L257" s="22"/>
       <c r="M257" s="22"/>
       <c r="N257" s="22"/>
@@ -12477,8 +12530,8 @@
       <c r="G258" s="22"/>
       <c r="H258" s="22"/>
       <c r="I258" s="22"/>
-      <c r="J258" s="33"/>
-      <c r="K258" s="33"/>
+      <c r="J258" s="36"/>
+      <c r="K258" s="36"/>
       <c r="L258" s="22"/>
       <c r="M258" s="22"/>
       <c r="N258" s="22"/>
@@ -12522,8 +12575,8 @@
       <c r="G259" s="22"/>
       <c r="H259" s="22"/>
       <c r="I259" s="22"/>
-      <c r="J259" s="33"/>
-      <c r="K259" s="33"/>
+      <c r="J259" s="36"/>
+      <c r="K259" s="36"/>
       <c r="L259" s="22"/>
       <c r="M259" s="22"/>
       <c r="N259" s="22"/>
@@ -12567,8 +12620,8 @@
       <c r="G260" s="22"/>
       <c r="H260" s="22"/>
       <c r="I260" s="22"/>
-      <c r="J260" s="33"/>
-      <c r="K260" s="33"/>
+      <c r="J260" s="36"/>
+      <c r="K260" s="36"/>
       <c r="L260" s="22"/>
       <c r="M260" s="22"/>
       <c r="N260" s="22"/>
@@ -12612,8 +12665,8 @@
       <c r="G261" s="22"/>
       <c r="H261" s="22"/>
       <c r="I261" s="22"/>
-      <c r="J261" s="33"/>
-      <c r="K261" s="33"/>
+      <c r="J261" s="36"/>
+      <c r="K261" s="36"/>
       <c r="L261" s="22"/>
       <c r="M261" s="22"/>
       <c r="N261" s="22"/>
@@ -12657,8 +12710,8 @@
       <c r="G262" s="22"/>
       <c r="H262" s="22"/>
       <c r="I262" s="22"/>
-      <c r="J262" s="33"/>
-      <c r="K262" s="33"/>
+      <c r="J262" s="36"/>
+      <c r="K262" s="36"/>
       <c r="L262" s="22"/>
       <c r="M262" s="22"/>
       <c r="N262" s="22"/>
@@ -12702,8 +12755,8 @@
       <c r="G263" s="22"/>
       <c r="H263" s="22"/>
       <c r="I263" s="22"/>
-      <c r="J263" s="33"/>
-      <c r="K263" s="33"/>
+      <c r="J263" s="36"/>
+      <c r="K263" s="36"/>
       <c r="L263" s="22"/>
       <c r="M263" s="22"/>
       <c r="N263" s="22"/>
@@ -12747,8 +12800,8 @@
       <c r="G264" s="22"/>
       <c r="H264" s="22"/>
       <c r="I264" s="22"/>
-      <c r="J264" s="33"/>
-      <c r="K264" s="33"/>
+      <c r="J264" s="36"/>
+      <c r="K264" s="36"/>
       <c r="L264" s="22"/>
       <c r="M264" s="22"/>
       <c r="N264" s="22"/>
@@ -12792,8 +12845,8 @@
       <c r="G265" s="22"/>
       <c r="H265" s="22"/>
       <c r="I265" s="22"/>
-      <c r="J265" s="33"/>
-      <c r="K265" s="33"/>
+      <c r="J265" s="36"/>
+      <c r="K265" s="36"/>
       <c r="L265" s="22"/>
       <c r="M265" s="22"/>
       <c r="N265" s="22"/>
@@ -12837,8 +12890,8 @@
       <c r="G266" s="22"/>
       <c r="H266" s="22"/>
       <c r="I266" s="22"/>
-      <c r="J266" s="33"/>
-      <c r="K266" s="33"/>
+      <c r="J266" s="36"/>
+      <c r="K266" s="36"/>
       <c r="L266" s="22"/>
       <c r="M266" s="22"/>
       <c r="N266" s="22"/>
@@ -12882,8 +12935,8 @@
       <c r="G267" s="22"/>
       <c r="H267" s="22"/>
       <c r="I267" s="22"/>
-      <c r="J267" s="33"/>
-      <c r="K267" s="33"/>
+      <c r="J267" s="36"/>
+      <c r="K267" s="36"/>
       <c r="L267" s="22"/>
       <c r="M267" s="22"/>
       <c r="N267" s="22"/>
@@ -12927,8 +12980,8 @@
       <c r="G268" s="22"/>
       <c r="H268" s="22"/>
       <c r="I268" s="22"/>
-      <c r="J268" s="33"/>
-      <c r="K268" s="33"/>
+      <c r="J268" s="36"/>
+      <c r="K268" s="36"/>
       <c r="L268" s="22"/>
       <c r="M268" s="22"/>
       <c r="N268" s="22"/>
@@ -12972,8 +13025,8 @@
       <c r="G269" s="22"/>
       <c r="H269" s="22"/>
       <c r="I269" s="22"/>
-      <c r="J269" s="33"/>
-      <c r="K269" s="33"/>
+      <c r="J269" s="36"/>
+      <c r="K269" s="36"/>
       <c r="L269" s="22"/>
       <c r="M269" s="22"/>
       <c r="N269" s="22"/>
@@ -13017,8 +13070,8 @@
       <c r="G270" s="22"/>
       <c r="H270" s="22"/>
       <c r="I270" s="22"/>
-      <c r="J270" s="33"/>
-      <c r="K270" s="33"/>
+      <c r="J270" s="36"/>
+      <c r="K270" s="36"/>
       <c r="L270" s="22"/>
       <c r="M270" s="22"/>
       <c r="N270" s="22"/>
@@ -13062,8 +13115,8 @@
       <c r="G271" s="22"/>
       <c r="H271" s="22"/>
       <c r="I271" s="22"/>
-      <c r="J271" s="33"/>
-      <c r="K271" s="33"/>
+      <c r="J271" s="36"/>
+      <c r="K271" s="36"/>
       <c r="L271" s="22"/>
       <c r="M271" s="22"/>
       <c r="N271" s="22"/>
@@ -13107,8 +13160,8 @@
       <c r="G272" s="22"/>
       <c r="H272" s="22"/>
       <c r="I272" s="22"/>
-      <c r="J272" s="33"/>
-      <c r="K272" s="33"/>
+      <c r="J272" s="36"/>
+      <c r="K272" s="36"/>
       <c r="L272" s="22"/>
       <c r="M272" s="22"/>
       <c r="N272" s="22"/>
@@ -13152,8 +13205,8 @@
       <c r="G273" s="22"/>
       <c r="H273" s="22"/>
       <c r="I273" s="22"/>
-      <c r="J273" s="33"/>
-      <c r="K273" s="33"/>
+      <c r="J273" s="36"/>
+      <c r="K273" s="36"/>
       <c r="L273" s="22"/>
       <c r="M273" s="22"/>
       <c r="N273" s="22"/>
@@ -13197,8 +13250,8 @@
       <c r="G274" s="22"/>
       <c r="H274" s="22"/>
       <c r="I274" s="22"/>
-      <c r="J274" s="33"/>
-      <c r="K274" s="33"/>
+      <c r="J274" s="36"/>
+      <c r="K274" s="36"/>
       <c r="L274" s="22"/>
       <c r="M274" s="22"/>
       <c r="N274" s="22"/>
@@ -13242,8 +13295,8 @@
       <c r="G275" s="22"/>
       <c r="H275" s="22"/>
       <c r="I275" s="22"/>
-      <c r="J275" s="33"/>
-      <c r="K275" s="33"/>
+      <c r="J275" s="36"/>
+      <c r="K275" s="36"/>
       <c r="L275" s="22"/>
       <c r="M275" s="22"/>
       <c r="N275" s="22"/>
@@ -13287,8 +13340,8 @@
       <c r="G276" s="22"/>
       <c r="H276" s="22"/>
       <c r="I276" s="22"/>
-      <c r="J276" s="33"/>
-      <c r="K276" s="33"/>
+      <c r="J276" s="36"/>
+      <c r="K276" s="36"/>
       <c r="L276" s="22"/>
       <c r="M276" s="22"/>
       <c r="N276" s="22"/>
@@ -13332,8 +13385,8 @@
       <c r="G277" s="22"/>
       <c r="H277" s="22"/>
       <c r="I277" s="22"/>
-      <c r="J277" s="33"/>
-      <c r="K277" s="33"/>
+      <c r="J277" s="36"/>
+      <c r="K277" s="36"/>
       <c r="L277" s="22"/>
       <c r="M277" s="22"/>
       <c r="N277" s="22"/>
@@ -13377,8 +13430,8 @@
       <c r="G278" s="22"/>
       <c r="H278" s="22"/>
       <c r="I278" s="22"/>
-      <c r="J278" s="33"/>
-      <c r="K278" s="33"/>
+      <c r="J278" s="36"/>
+      <c r="K278" s="36"/>
       <c r="L278" s="22"/>
       <c r="M278" s="22"/>
       <c r="N278" s="22"/>
@@ -13422,8 +13475,8 @@
       <c r="G279" s="22"/>
       <c r="H279" s="22"/>
       <c r="I279" s="22"/>
-      <c r="J279" s="33"/>
-      <c r="K279" s="33"/>
+      <c r="J279" s="36"/>
+      <c r="K279" s="36"/>
       <c r="L279" s="22"/>
       <c r="M279" s="22"/>
       <c r="N279" s="22"/>
@@ -13467,8 +13520,8 @@
       <c r="G280" s="22"/>
       <c r="H280" s="22"/>
       <c r="I280" s="22"/>
-      <c r="J280" s="33"/>
-      <c r="K280" s="33"/>
+      <c r="J280" s="36"/>
+      <c r="K280" s="36"/>
       <c r="L280" s="22"/>
       <c r="M280" s="22"/>
       <c r="N280" s="22"/>
@@ -13512,8 +13565,8 @@
       <c r="G281" s="22"/>
       <c r="H281" s="22"/>
       <c r="I281" s="22"/>
-      <c r="J281" s="33"/>
-      <c r="K281" s="33"/>
+      <c r="J281" s="36"/>
+      <c r="K281" s="36"/>
       <c r="L281" s="22"/>
       <c r="M281" s="22"/>
       <c r="N281" s="22"/>
@@ -13557,8 +13610,8 @@
       <c r="G282" s="22"/>
       <c r="H282" s="22"/>
       <c r="I282" s="22"/>
-      <c r="J282" s="33"/>
-      <c r="K282" s="33"/>
+      <c r="J282" s="36"/>
+      <c r="K282" s="36"/>
       <c r="L282" s="22"/>
       <c r="M282" s="22"/>
       <c r="N282" s="22"/>
@@ -13602,8 +13655,8 @@
       <c r="G283" s="22"/>
       <c r="H283" s="22"/>
       <c r="I283" s="22"/>
-      <c r="J283" s="33"/>
-      <c r="K283" s="33"/>
+      <c r="J283" s="36"/>
+      <c r="K283" s="36"/>
       <c r="L283" s="22"/>
       <c r="M283" s="22"/>
       <c r="N283" s="22"/>
@@ -13647,8 +13700,8 @@
       <c r="G284" s="22"/>
       <c r="H284" s="22"/>
       <c r="I284" s="22"/>
-      <c r="J284" s="33"/>
-      <c r="K284" s="33"/>
+      <c r="J284" s="36"/>
+      <c r="K284" s="36"/>
       <c r="L284" s="22"/>
       <c r="M284" s="22"/>
       <c r="N284" s="22"/>
@@ -13692,8 +13745,8 @@
       <c r="G285" s="22"/>
       <c r="H285" s="22"/>
       <c r="I285" s="22"/>
-      <c r="J285" s="33"/>
-      <c r="K285" s="33"/>
+      <c r="J285" s="36"/>
+      <c r="K285" s="36"/>
       <c r="L285" s="22"/>
       <c r="M285" s="22"/>
       <c r="N285" s="22"/>
@@ -13737,8 +13790,8 @@
       <c r="G286" s="22"/>
       <c r="H286" s="22"/>
       <c r="I286" s="22"/>
-      <c r="J286" s="33"/>
-      <c r="K286" s="33"/>
+      <c r="J286" s="36"/>
+      <c r="K286" s="36"/>
       <c r="L286" s="22"/>
       <c r="M286" s="22"/>
       <c r="N286" s="22"/>
@@ -13782,8 +13835,8 @@
       <c r="G287" s="22"/>
       <c r="H287" s="22"/>
       <c r="I287" s="22"/>
-      <c r="J287" s="33"/>
-      <c r="K287" s="33"/>
+      <c r="J287" s="36"/>
+      <c r="K287" s="36"/>
       <c r="L287" s="22"/>
       <c r="M287" s="22"/>
       <c r="N287" s="22"/>
@@ -13827,8 +13880,8 @@
       <c r="G288" s="22"/>
       <c r="H288" s="22"/>
       <c r="I288" s="22"/>
-      <c r="J288" s="33"/>
-      <c r="K288" s="33"/>
+      <c r="J288" s="36"/>
+      <c r="K288" s="36"/>
       <c r="L288" s="22"/>
       <c r="M288" s="22"/>
       <c r="N288" s="22"/>
@@ -13872,8 +13925,8 @@
       <c r="G289" s="22"/>
       <c r="H289" s="22"/>
       <c r="I289" s="22"/>
-      <c r="J289" s="33"/>
-      <c r="K289" s="33"/>
+      <c r="J289" s="36"/>
+      <c r="K289" s="36"/>
       <c r="L289" s="22"/>
       <c r="M289" s="22"/>
       <c r="N289" s="22"/>
@@ -13917,8 +13970,8 @@
       <c r="G290" s="22"/>
       <c r="H290" s="22"/>
       <c r="I290" s="22"/>
-      <c r="J290" s="33"/>
-      <c r="K290" s="33"/>
+      <c r="J290" s="36"/>
+      <c r="K290" s="36"/>
       <c r="L290" s="22"/>
       <c r="M290" s="22"/>
       <c r="N290" s="22"/>
@@ -13962,8 +14015,8 @@
       <c r="G291" s="22"/>
       <c r="H291" s="22"/>
       <c r="I291" s="22"/>
-      <c r="J291" s="33"/>
-      <c r="K291" s="33"/>
+      <c r="J291" s="36"/>
+      <c r="K291" s="36"/>
       <c r="L291" s="22"/>
       <c r="M291" s="22"/>
       <c r="N291" s="22"/>
@@ -14007,8 +14060,8 @@
       <c r="G292" s="22"/>
       <c r="H292" s="22"/>
       <c r="I292" s="22"/>
-      <c r="J292" s="33"/>
-      <c r="K292" s="33"/>
+      <c r="J292" s="36"/>
+      <c r="K292" s="36"/>
       <c r="L292" s="22"/>
       <c r="M292" s="22"/>
       <c r="N292" s="22"/>
@@ -14052,8 +14105,8 @@
       <c r="G293" s="22"/>
       <c r="H293" s="22"/>
       <c r="I293" s="22"/>
-      <c r="J293" s="33"/>
-      <c r="K293" s="33"/>
+      <c r="J293" s="36"/>
+      <c r="K293" s="36"/>
       <c r="L293" s="22"/>
       <c r="M293" s="22"/>
       <c r="N293" s="22"/>
@@ -14097,8 +14150,8 @@
       <c r="G294" s="22"/>
       <c r="H294" s="22"/>
       <c r="I294" s="22"/>
-      <c r="J294" s="33"/>
-      <c r="K294" s="33"/>
+      <c r="J294" s="36"/>
+      <c r="K294" s="36"/>
       <c r="L294" s="22"/>
       <c r="M294" s="22"/>
       <c r="N294" s="22"/>
@@ -14142,8 +14195,8 @@
       <c r="G295" s="22"/>
       <c r="H295" s="22"/>
       <c r="I295" s="22"/>
-      <c r="J295" s="33"/>
-      <c r="K295" s="33"/>
+      <c r="J295" s="36"/>
+      <c r="K295" s="36"/>
       <c r="L295" s="22"/>
       <c r="M295" s="22"/>
       <c r="N295" s="22"/>
@@ -14187,8 +14240,8 @@
       <c r="G296" s="22"/>
       <c r="H296" s="22"/>
       <c r="I296" s="22"/>
-      <c r="J296" s="33"/>
-      <c r="K296" s="33"/>
+      <c r="J296" s="36"/>
+      <c r="K296" s="36"/>
       <c r="L296" s="22"/>
       <c r="M296" s="22"/>
       <c r="N296" s="22"/>
@@ -14232,8 +14285,8 @@
       <c r="G297" s="22"/>
       <c r="H297" s="22"/>
       <c r="I297" s="22"/>
-      <c r="J297" s="33"/>
-      <c r="K297" s="33"/>
+      <c r="J297" s="36"/>
+      <c r="K297" s="36"/>
       <c r="L297" s="22"/>
       <c r="M297" s="22"/>
       <c r="N297" s="22"/>
@@ -14277,8 +14330,8 @@
       <c r="G298" s="22"/>
       <c r="H298" s="22"/>
       <c r="I298" s="22"/>
-      <c r="J298" s="33"/>
-      <c r="K298" s="33"/>
+      <c r="J298" s="36"/>
+      <c r="K298" s="36"/>
       <c r="L298" s="22"/>
       <c r="M298" s="22"/>
       <c r="N298" s="22"/>
@@ -14322,8 +14375,8 @@
       <c r="G299" s="22"/>
       <c r="H299" s="22"/>
       <c r="I299" s="22"/>
-      <c r="J299" s="33"/>
-      <c r="K299" s="33"/>
+      <c r="J299" s="36"/>
+      <c r="K299" s="36"/>
       <c r="L299" s="22"/>
       <c r="M299" s="22"/>
       <c r="N299" s="22"/>
@@ -14367,8 +14420,8 @@
       <c r="G300" s="22"/>
       <c r="H300" s="22"/>
       <c r="I300" s="22"/>
-      <c r="J300" s="33"/>
-      <c r="K300" s="33"/>
+      <c r="J300" s="36"/>
+      <c r="K300" s="36"/>
       <c r="L300" s="22"/>
       <c r="M300" s="22"/>
       <c r="N300" s="22"/>
@@ -14412,8 +14465,8 @@
       <c r="G301" s="22"/>
       <c r="H301" s="22"/>
       <c r="I301" s="22"/>
-      <c r="J301" s="33"/>
-      <c r="K301" s="33"/>
+      <c r="J301" s="36"/>
+      <c r="K301" s="36"/>
       <c r="L301" s="22"/>
       <c r="M301" s="22"/>
       <c r="N301" s="22"/>
@@ -14457,8 +14510,8 @@
       <c r="G302" s="22"/>
       <c r="H302" s="22"/>
       <c r="I302" s="22"/>
-      <c r="J302" s="33"/>
-      <c r="K302" s="33"/>
+      <c r="J302" s="36"/>
+      <c r="K302" s="36"/>
       <c r="L302" s="22"/>
       <c r="M302" s="22"/>
       <c r="N302" s="22"/>
@@ -14502,8 +14555,8 @@
       <c r="G303" s="22"/>
       <c r="H303" s="22"/>
       <c r="I303" s="22"/>
-      <c r="J303" s="33"/>
-      <c r="K303" s="33"/>
+      <c r="J303" s="36"/>
+      <c r="K303" s="36"/>
       <c r="L303" s="22"/>
       <c r="M303" s="22"/>
       <c r="N303" s="22"/>
@@ -14547,8 +14600,8 @@
       <c r="G304" s="22"/>
       <c r="H304" s="22"/>
       <c r="I304" s="22"/>
-      <c r="J304" s="33"/>
-      <c r="K304" s="33"/>
+      <c r="J304" s="36"/>
+      <c r="K304" s="36"/>
       <c r="L304" s="22"/>
       <c r="M304" s="22"/>
       <c r="N304" s="22"/>
@@ -14592,8 +14645,8 @@
       <c r="G305" s="22"/>
       <c r="H305" s="22"/>
       <c r="I305" s="22"/>
-      <c r="J305" s="33"/>
-      <c r="K305" s="33"/>
+      <c r="J305" s="36"/>
+      <c r="K305" s="36"/>
       <c r="L305" s="22"/>
       <c r="M305" s="22"/>
       <c r="N305" s="22"/>
@@ -14637,8 +14690,8 @@
       <c r="G306" s="22"/>
       <c r="H306" s="22"/>
       <c r="I306" s="22"/>
-      <c r="J306" s="33"/>
-      <c r="K306" s="33"/>
+      <c r="J306" s="36"/>
+      <c r="K306" s="36"/>
       <c r="L306" s="22"/>
       <c r="M306" s="22"/>
       <c r="N306" s="22"/>
@@ -14682,8 +14735,8 @@
       <c r="G307" s="22"/>
       <c r="H307" s="22"/>
       <c r="I307" s="22"/>
-      <c r="J307" s="33"/>
-      <c r="K307" s="33"/>
+      <c r="J307" s="36"/>
+      <c r="K307" s="36"/>
       <c r="L307" s="22"/>
       <c r="M307" s="22"/>
       <c r="N307" s="22"/>
@@ -14727,8 +14780,8 @@
       <c r="G308" s="22"/>
       <c r="H308" s="22"/>
       <c r="I308" s="22"/>
-      <c r="J308" s="33"/>
-      <c r="K308" s="33"/>
+      <c r="J308" s="36"/>
+      <c r="K308" s="36"/>
       <c r="L308" s="22"/>
       <c r="M308" s="22"/>
       <c r="N308" s="22"/>
@@ -14772,8 +14825,8 @@
       <c r="G309" s="22"/>
       <c r="H309" s="22"/>
       <c r="I309" s="22"/>
-      <c r="J309" s="33"/>
-      <c r="K309" s="33"/>
+      <c r="J309" s="36"/>
+      <c r="K309" s="36"/>
       <c r="L309" s="22"/>
       <c r="M309" s="22"/>
       <c r="N309" s="22"/>
@@ -14817,8 +14870,8 @@
       <c r="G310" s="22"/>
       <c r="H310" s="22"/>
       <c r="I310" s="22"/>
-      <c r="J310" s="33"/>
-      <c r="K310" s="33"/>
+      <c r="J310" s="36"/>
+      <c r="K310" s="36"/>
       <c r="L310" s="22"/>
       <c r="M310" s="22"/>
       <c r="N310" s="22"/>
@@ -14862,8 +14915,8 @@
       <c r="G311" s="22"/>
       <c r="H311" s="22"/>
       <c r="I311" s="22"/>
-      <c r="J311" s="33"/>
-      <c r="K311" s="33"/>
+      <c r="J311" s="36"/>
+      <c r="K311" s="36"/>
       <c r="L311" s="22"/>
       <c r="M311" s="22"/>
       <c r="N311" s="22"/>
@@ -14907,8 +14960,8 @@
       <c r="G312" s="22"/>
       <c r="H312" s="22"/>
       <c r="I312" s="22"/>
-      <c r="J312" s="33"/>
-      <c r="K312" s="33"/>
+      <c r="J312" s="36"/>
+      <c r="K312" s="36"/>
       <c r="L312" s="22"/>
       <c r="M312" s="22"/>
       <c r="N312" s="22"/>
@@ -14952,8 +15005,8 @@
       <c r="G313" s="22"/>
       <c r="H313" s="22"/>
       <c r="I313" s="22"/>
-      <c r="J313" s="33"/>
-      <c r="K313" s="33"/>
+      <c r="J313" s="36"/>
+      <c r="K313" s="36"/>
       <c r="L313" s="22"/>
       <c r="M313" s="22"/>
       <c r="N313" s="22"/>
@@ -14997,8 +15050,8 @@
       <c r="G314" s="22"/>
       <c r="H314" s="22"/>
       <c r="I314" s="22"/>
-      <c r="J314" s="33"/>
-      <c r="K314" s="33"/>
+      <c r="J314" s="36"/>
+      <c r="K314" s="36"/>
       <c r="L314" s="22"/>
       <c r="M314" s="22"/>
       <c r="N314" s="22"/>
@@ -15042,8 +15095,8 @@
       <c r="G315" s="22"/>
       <c r="H315" s="22"/>
       <c r="I315" s="22"/>
-      <c r="J315" s="33"/>
-      <c r="K315" s="33"/>
+      <c r="J315" s="36"/>
+      <c r="K315" s="36"/>
       <c r="L315" s="22"/>
       <c r="M315" s="22"/>
       <c r="N315" s="22"/>
@@ -15087,8 +15140,8 @@
       <c r="G316" s="22"/>
       <c r="H316" s="22"/>
       <c r="I316" s="22"/>
-      <c r="J316" s="33"/>
-      <c r="K316" s="33"/>
+      <c r="J316" s="36"/>
+      <c r="K316" s="36"/>
       <c r="L316" s="22"/>
       <c r="M316" s="22"/>
       <c r="N316" s="22"/>
@@ -15132,8 +15185,8 @@
       <c r="G317" s="22"/>
       <c r="H317" s="22"/>
       <c r="I317" s="22"/>
-      <c r="J317" s="33"/>
-      <c r="K317" s="33"/>
+      <c r="J317" s="36"/>
+      <c r="K317" s="36"/>
       <c r="L317" s="22"/>
       <c r="M317" s="22"/>
       <c r="N317" s="22"/>
@@ -15177,8 +15230,8 @@
       <c r="G318" s="22"/>
       <c r="H318" s="22"/>
       <c r="I318" s="22"/>
-      <c r="J318" s="33"/>
-      <c r="K318" s="33"/>
+      <c r="J318" s="36"/>
+      <c r="K318" s="36"/>
       <c r="L318" s="22"/>
       <c r="M318" s="22"/>
       <c r="N318" s="22"/>
@@ -15222,8 +15275,8 @@
       <c r="G319" s="22"/>
       <c r="H319" s="22"/>
       <c r="I319" s="22"/>
-      <c r="J319" s="33"/>
-      <c r="K319" s="33"/>
+      <c r="J319" s="36"/>
+      <c r="K319" s="36"/>
       <c r="L319" s="22"/>
       <c r="M319" s="22"/>
       <c r="N319" s="22"/>
@@ -15267,8 +15320,8 @@
       <c r="G320" s="22"/>
       <c r="H320" s="22"/>
       <c r="I320" s="22"/>
-      <c r="J320" s="33"/>
-      <c r="K320" s="33"/>
+      <c r="J320" s="36"/>
+      <c r="K320" s="36"/>
       <c r="L320" s="22"/>
       <c r="M320" s="22"/>
       <c r="N320" s="22"/>
@@ -15312,8 +15365,8 @@
       <c r="G321" s="22"/>
       <c r="H321" s="22"/>
       <c r="I321" s="22"/>
-      <c r="J321" s="33"/>
-      <c r="K321" s="33"/>
+      <c r="J321" s="36"/>
+      <c r="K321" s="36"/>
       <c r="L321" s="22"/>
       <c r="M321" s="22"/>
       <c r="N321" s="22"/>
@@ -15357,8 +15410,8 @@
       <c r="G322" s="22"/>
       <c r="H322" s="22"/>
       <c r="I322" s="22"/>
-      <c r="J322" s="33"/>
-      <c r="K322" s="33"/>
+      <c r="J322" s="36"/>
+      <c r="K322" s="36"/>
       <c r="L322" s="22"/>
       <c r="M322" s="22"/>
       <c r="N322" s="22"/>
@@ -15402,8 +15455,8 @@
       <c r="G323" s="22"/>
       <c r="H323" s="22"/>
       <c r="I323" s="22"/>
-      <c r="J323" s="33"/>
-      <c r="K323" s="33"/>
+      <c r="J323" s="36"/>
+      <c r="K323" s="36"/>
       <c r="L323" s="22"/>
       <c r="M323" s="22"/>
       <c r="N323" s="22"/>
@@ -15447,8 +15500,8 @@
       <c r="G324" s="22"/>
       <c r="H324" s="22"/>
       <c r="I324" s="22"/>
-      <c r="J324" s="33"/>
-      <c r="K324" s="33"/>
+      <c r="J324" s="36"/>
+      <c r="K324" s="36"/>
       <c r="L324" s="22"/>
       <c r="M324" s="22"/>
       <c r="N324" s="22"/>
@@ -15492,8 +15545,8 @@
       <c r="G325" s="22"/>
       <c r="H325" s="22"/>
       <c r="I325" s="22"/>
-      <c r="J325" s="33"/>
-      <c r="K325" s="33"/>
+      <c r="J325" s="36"/>
+      <c r="K325" s="36"/>
       <c r="L325" s="22"/>
       <c r="M325" s="22"/>
       <c r="N325" s="22"/>
@@ -15537,8 +15590,8 @@
       <c r="G326" s="22"/>
       <c r="H326" s="22"/>
       <c r="I326" s="22"/>
-      <c r="J326" s="33"/>
-      <c r="K326" s="33"/>
+      <c r="J326" s="36"/>
+      <c r="K326" s="36"/>
       <c r="L326" s="22"/>
       <c r="M326" s="22"/>
       <c r="N326" s="22"/>
@@ -15582,8 +15635,8 @@
       <c r="G327" s="22"/>
       <c r="H327" s="22"/>
       <c r="I327" s="22"/>
-      <c r="J327" s="33"/>
-      <c r="K327" s="33"/>
+      <c r="J327" s="36"/>
+      <c r="K327" s="36"/>
       <c r="L327" s="22"/>
       <c r="M327" s="22"/>
       <c r="N327" s="22"/>
@@ -15627,8 +15680,8 @@
       <c r="G328" s="22"/>
       <c r="H328" s="22"/>
       <c r="I328" s="22"/>
-      <c r="J328" s="33"/>
-      <c r="K328" s="33"/>
+      <c r="J328" s="36"/>
+      <c r="K328" s="36"/>
       <c r="L328" s="22"/>
       <c r="M328" s="22"/>
       <c r="N328" s="22"/>
@@ -15672,8 +15725,8 @@
       <c r="G329" s="22"/>
       <c r="H329" s="22"/>
       <c r="I329" s="22"/>
-      <c r="J329" s="33"/>
-      <c r="K329" s="33"/>
+      <c r="J329" s="36"/>
+      <c r="K329" s="36"/>
       <c r="L329" s="22"/>
       <c r="M329" s="22"/>
       <c r="N329" s="22"/>
@@ -15717,8 +15770,8 @@
       <c r="G330" s="22"/>
       <c r="H330" s="22"/>
       <c r="I330" s="22"/>
-      <c r="J330" s="33"/>
-      <c r="K330" s="33"/>
+      <c r="J330" s="36"/>
+      <c r="K330" s="36"/>
       <c r="L330" s="22"/>
       <c r="M330" s="22"/>
       <c r="N330" s="22"/>
@@ -15762,8 +15815,8 @@
       <c r="G331" s="22"/>
       <c r="H331" s="22"/>
       <c r="I331" s="22"/>
-      <c r="J331" s="33"/>
-      <c r="K331" s="33"/>
+      <c r="J331" s="36"/>
+      <c r="K331" s="36"/>
       <c r="L331" s="22"/>
       <c r="M331" s="22"/>
       <c r="N331" s="22"/>
@@ -15807,8 +15860,8 @@
       <c r="G332" s="22"/>
       <c r="H332" s="22"/>
       <c r="I332" s="22"/>
-      <c r="J332" s="33"/>
-      <c r="K332" s="33"/>
+      <c r="J332" s="36"/>
+      <c r="K332" s="36"/>
       <c r="L332" s="22"/>
       <c r="M332" s="22"/>
       <c r="N332" s="22"/>
@@ -15852,8 +15905,8 @@
       <c r="G333" s="22"/>
       <c r="H333" s="22"/>
       <c r="I333" s="22"/>
-      <c r="J333" s="33"/>
-      <c r="K333" s="33"/>
+      <c r="J333" s="36"/>
+      <c r="K333" s="36"/>
       <c r="L333" s="22"/>
       <c r="M333" s="22"/>
       <c r="N333" s="22"/>
@@ -15897,8 +15950,8 @@
       <c r="G334" s="22"/>
       <c r="H334" s="22"/>
       <c r="I334" s="22"/>
-      <c r="J334" s="33"/>
-      <c r="K334" s="33"/>
+      <c r="J334" s="36"/>
+      <c r="K334" s="36"/>
       <c r="L334" s="22"/>
       <c r="M334" s="22"/>
       <c r="N334" s="22"/>
@@ -15942,8 +15995,8 @@
       <c r="G335" s="22"/>
       <c r="H335" s="22"/>
       <c r="I335" s="22"/>
-      <c r="J335" s="33"/>
-      <c r="K335" s="33"/>
+      <c r="J335" s="36"/>
+      <c r="K335" s="36"/>
       <c r="L335" s="22"/>
       <c r="M335" s="22"/>
       <c r="N335" s="22"/>
@@ -15987,8 +16040,8 @@
       <c r="G336" s="22"/>
       <c r="H336" s="22"/>
       <c r="I336" s="22"/>
-      <c r="J336" s="33"/>
-      <c r="K336" s="33"/>
+      <c r="J336" s="36"/>
+      <c r="K336" s="36"/>
       <c r="L336" s="22"/>
       <c r="M336" s="22"/>
       <c r="N336" s="22"/>
@@ -16032,8 +16085,8 @@
       <c r="G337" s="22"/>
       <c r="H337" s="22"/>
       <c r="I337" s="22"/>
-      <c r="J337" s="33"/>
-      <c r="K337" s="33"/>
+      <c r="J337" s="36"/>
+      <c r="K337" s="36"/>
       <c r="L337" s="22"/>
       <c r="M337" s="22"/>
       <c r="N337" s="22"/>
@@ -16077,8 +16130,8 @@
       <c r="G338" s="22"/>
       <c r="H338" s="22"/>
       <c r="I338" s="22"/>
-      <c r="J338" s="33"/>
-      <c r="K338" s="33"/>
+      <c r="J338" s="36"/>
+      <c r="K338" s="36"/>
       <c r="L338" s="22"/>
       <c r="M338" s="22"/>
       <c r="N338" s="22"/>
@@ -16122,8 +16175,8 @@
       <c r="G339" s="22"/>
       <c r="H339" s="22"/>
       <c r="I339" s="22"/>
-      <c r="J339" s="33"/>
-      <c r="K339" s="33"/>
+      <c r="J339" s="36"/>
+      <c r="K339" s="36"/>
       <c r="L339" s="22"/>
       <c r="M339" s="22"/>
       <c r="N339" s="22"/>
@@ -16167,8 +16220,8 @@
       <c r="G340" s="22"/>
       <c r="H340" s="22"/>
       <c r="I340" s="22"/>
-      <c r="J340" s="33"/>
-      <c r="K340" s="33"/>
+      <c r="J340" s="36"/>
+      <c r="K340" s="36"/>
       <c r="L340" s="22"/>
       <c r="M340" s="22"/>
       <c r="N340" s="22"/>
@@ -16212,8 +16265,8 @@
       <c r="G341" s="22"/>
       <c r="H341" s="22"/>
       <c r="I341" s="22"/>
-      <c r="J341" s="33"/>
-      <c r="K341" s="33"/>
+      <c r="J341" s="36"/>
+      <c r="K341" s="36"/>
       <c r="L341" s="22"/>
       <c r="M341" s="22"/>
       <c r="N341" s="22"/>
@@ -16257,8 +16310,8 @@
       <c r="G342" s="22"/>
       <c r="H342" s="22"/>
       <c r="I342" s="22"/>
-      <c r="J342" s="33"/>
-      <c r="K342" s="33"/>
+      <c r="J342" s="36"/>
+      <c r="K342" s="36"/>
       <c r="L342" s="22"/>
       <c r="M342" s="22"/>
       <c r="N342" s="22"/>
@@ -16302,8 +16355,8 @@
       <c r="G343" s="22"/>
       <c r="H343" s="22"/>
       <c r="I343" s="22"/>
-      <c r="J343" s="33"/>
-      <c r="K343" s="33"/>
+      <c r="J343" s="36"/>
+      <c r="K343" s="36"/>
       <c r="L343" s="22"/>
       <c r="M343" s="22"/>
       <c r="N343" s="22"/>
@@ -16347,8 +16400,8 @@
       <c r="G344" s="22"/>
       <c r="H344" s="22"/>
       <c r="I344" s="22"/>
-      <c r="J344" s="33"/>
-      <c r="K344" s="33"/>
+      <c r="J344" s="36"/>
+      <c r="K344" s="36"/>
       <c r="L344" s="22"/>
       <c r="M344" s="22"/>
       <c r="N344" s="22"/>
@@ -16392,8 +16445,8 @@
       <c r="G345" s="22"/>
       <c r="H345" s="22"/>
       <c r="I345" s="22"/>
-      <c r="J345" s="33"/>
-      <c r="K345" s="33"/>
+      <c r="J345" s="36"/>
+      <c r="K345" s="36"/>
       <c r="L345" s="22"/>
       <c r="M345" s="22"/>
       <c r="N345" s="22"/>
@@ -16437,8 +16490,8 @@
       <c r="G346" s="22"/>
       <c r="H346" s="22"/>
       <c r="I346" s="22"/>
-      <c r="J346" s="33"/>
-      <c r="K346" s="33"/>
+      <c r="J346" s="36"/>
+      <c r="K346" s="36"/>
       <c r="L346" s="22"/>
       <c r="M346" s="22"/>
       <c r="N346" s="22"/>
@@ -16482,8 +16535,8 @@
       <c r="G347" s="22"/>
       <c r="H347" s="22"/>
       <c r="I347" s="22"/>
-      <c r="J347" s="33"/>
-      <c r="K347" s="33"/>
+      <c r="J347" s="36"/>
+      <c r="K347" s="36"/>
       <c r="L347" s="22"/>
       <c r="M347" s="22"/>
       <c r="N347" s="22"/>
@@ -16527,8 +16580,8 @@
       <c r="G348" s="22"/>
       <c r="H348" s="22"/>
       <c r="I348" s="22"/>
-      <c r="J348" s="33"/>
-      <c r="K348" s="33"/>
+      <c r="J348" s="36"/>
+      <c r="K348" s="36"/>
       <c r="L348" s="22"/>
       <c r="M348" s="22"/>
       <c r="N348" s="22"/>
@@ -16572,8 +16625,8 @@
       <c r="G349" s="22"/>
       <c r="H349" s="22"/>
       <c r="I349" s="22"/>
-      <c r="J349" s="33"/>
-      <c r="K349" s="33"/>
+      <c r="J349" s="36"/>
+      <c r="K349" s="36"/>
       <c r="L349" s="22"/>
       <c r="M349" s="22"/>
       <c r="N349" s="22"/>
@@ -16617,8 +16670,8 @@
       <c r="G350" s="22"/>
       <c r="H350" s="22"/>
       <c r="I350" s="22"/>
-      <c r="J350" s="33"/>
-      <c r="K350" s="33"/>
+      <c r="J350" s="36"/>
+      <c r="K350" s="36"/>
       <c r="L350" s="22"/>
       <c r="M350" s="22"/>
       <c r="N350" s="22"/>
@@ -16662,8 +16715,8 @@
       <c r="G351" s="22"/>
       <c r="H351" s="22"/>
       <c r="I351" s="22"/>
-      <c r="J351" s="33"/>
-      <c r="K351" s="33"/>
+      <c r="J351" s="36"/>
+      <c r="K351" s="36"/>
       <c r="L351" s="22"/>
       <c r="M351" s="22"/>
       <c r="N351" s="22"/>
@@ -16707,8 +16760,8 @@
       <c r="G352" s="22"/>
       <c r="H352" s="22"/>
       <c r="I352" s="22"/>
-      <c r="J352" s="33"/>
-      <c r="K352" s="33"/>
+      <c r="J352" s="36"/>
+      <c r="K352" s="36"/>
       <c r="L352" s="22"/>
       <c r="M352" s="22"/>
       <c r="N352" s="22"/>
@@ -16752,8 +16805,8 @@
       <c r="G353" s="22"/>
       <c r="H353" s="22"/>
       <c r="I353" s="22"/>
-      <c r="J353" s="33"/>
-      <c r="K353" s="33"/>
+      <c r="J353" s="36"/>
+      <c r="K353" s="36"/>
       <c r="L353" s="22"/>
       <c r="M353" s="22"/>
       <c r="N353" s="22"/>
@@ -16797,8 +16850,8 @@
       <c r="G354" s="22"/>
       <c r="H354" s="22"/>
       <c r="I354" s="22"/>
-      <c r="J354" s="33"/>
-      <c r="K354" s="33"/>
+      <c r="J354" s="36"/>
+      <c r="K354" s="36"/>
       <c r="L354" s="22"/>
       <c r="M354" s="22"/>
       <c r="N354" s="22"/>
@@ -16842,8 +16895,8 @@
       <c r="G355" s="22"/>
       <c r="H355" s="22"/>
       <c r="I355" s="22"/>
-      <c r="J355" s="33"/>
-      <c r="K355" s="33"/>
+      <c r="J355" s="36"/>
+      <c r="K355" s="36"/>
       <c r="L355" s="22"/>
       <c r="M355" s="22"/>
       <c r="N355" s="22"/>
@@ -16887,8 +16940,8 @@
       <c r="G356" s="22"/>
       <c r="H356" s="22"/>
       <c r="I356" s="22"/>
-      <c r="J356" s="33"/>
-      <c r="K356" s="33"/>
+      <c r="J356" s="36"/>
+      <c r="K356" s="36"/>
       <c r="L356" s="22"/>
       <c r="M356" s="22"/>
       <c r="N356" s="22"/>
@@ -16932,8 +16985,8 @@
       <c r="G357" s="22"/>
       <c r="H357" s="22"/>
       <c r="I357" s="22"/>
-      <c r="J357" s="33"/>
-      <c r="K357" s="33"/>
+      <c r="J357" s="36"/>
+      <c r="K357" s="36"/>
       <c r="L357" s="22"/>
       <c r="M357" s="22"/>
       <c r="N357" s="22"/>
@@ -16977,8 +17030,8 @@
       <c r="G358" s="22"/>
       <c r="H358" s="22"/>
       <c r="I358" s="22"/>
-      <c r="J358" s="33"/>
-      <c r="K358" s="33"/>
+      <c r="J358" s="36"/>
+      <c r="K358" s="36"/>
       <c r="L358" s="22"/>
       <c r="M358" s="22"/>
       <c r="N358" s="22"/>
@@ -17022,8 +17075,8 @@
       <c r="G359" s="22"/>
       <c r="H359" s="22"/>
       <c r="I359" s="22"/>
-      <c r="J359" s="33"/>
-      <c r="K359" s="33"/>
+      <c r="J359" s="36"/>
+      <c r="K359" s="36"/>
       <c r="L359" s="22"/>
       <c r="M359" s="22"/>
       <c r="N359" s="22"/>
@@ -17067,8 +17120,8 @@
       <c r="G360" s="22"/>
       <c r="H360" s="22"/>
       <c r="I360" s="22"/>
-      <c r="J360" s="33"/>
-      <c r="K360" s="33"/>
+      <c r="J360" s="36"/>
+      <c r="K360" s="36"/>
       <c r="L360" s="22"/>
       <c r="M360" s="22"/>
       <c r="N360" s="22"/>
@@ -17112,8 +17165,8 @@
       <c r="G361" s="22"/>
       <c r="H361" s="22"/>
       <c r="I361" s="22"/>
-      <c r="J361" s="33"/>
-      <c r="K361" s="33"/>
+      <c r="J361" s="36"/>
+      <c r="K361" s="36"/>
       <c r="L361" s="22"/>
       <c r="M361" s="22"/>
       <c r="N361" s="22"/>
@@ -17157,8 +17210,8 @@
       <c r="G362" s="22"/>
       <c r="H362" s="22"/>
       <c r="I362" s="22"/>
-      <c r="J362" s="33"/>
-      <c r="K362" s="33"/>
+      <c r="J362" s="36"/>
+      <c r="K362" s="36"/>
       <c r="L362" s="22"/>
       <c r="M362" s="22"/>
       <c r="N362" s="22"/>
@@ -17202,8 +17255,8 @@
       <c r="G363" s="22"/>
       <c r="H363" s="22"/>
       <c r="I363" s="22"/>
-      <c r="J363" s="33"/>
-      <c r="K363" s="33"/>
+      <c r="J363" s="36"/>
+      <c r="K363" s="36"/>
       <c r="L363" s="22"/>
       <c r="M363" s="22"/>
       <c r="N363" s="22"/>
@@ -17247,8 +17300,8 @@
       <c r="G364" s="22"/>
       <c r="H364" s="22"/>
       <c r="I364" s="22"/>
-      <c r="J364" s="33"/>
-      <c r="K364" s="33"/>
+      <c r="J364" s="36"/>
+      <c r="K364" s="36"/>
       <c r="L364" s="22"/>
       <c r="M364" s="22"/>
       <c r="N364" s="22"/>
@@ -17292,8 +17345,8 @@
       <c r="G365" s="22"/>
       <c r="H365" s="22"/>
       <c r="I365" s="22"/>
-      <c r="J365" s="33"/>
-      <c r="K365" s="33"/>
+      <c r="J365" s="36"/>
+      <c r="K365" s="36"/>
       <c r="L365" s="22"/>
       <c r="M365" s="22"/>
       <c r="N365" s="22"/>
@@ -17337,8 +17390,8 @@
       <c r="G366" s="22"/>
       <c r="H366" s="22"/>
       <c r="I366" s="22"/>
-      <c r="J366" s="33"/>
-      <c r="K366" s="33"/>
+      <c r="J366" s="36"/>
+      <c r="K366" s="36"/>
       <c r="L366" s="22"/>
       <c r="M366" s="22"/>
       <c r="N366" s="22"/>
@@ -17382,8 +17435,8 @@
       <c r="G367" s="22"/>
       <c r="H367" s="22"/>
       <c r="I367" s="22"/>
-      <c r="J367" s="33"/>
-      <c r="K367" s="33"/>
+      <c r="J367" s="36"/>
+      <c r="K367" s="36"/>
       <c r="L367" s="22"/>
       <c r="M367" s="22"/>
       <c r="N367" s="22"/>
@@ -17427,8 +17480,8 @@
       <c r="G368" s="22"/>
       <c r="H368" s="22"/>
       <c r="I368" s="22"/>
-      <c r="J368" s="33"/>
-      <c r="K368" s="33"/>
+      <c r="J368" s="36"/>
+      <c r="K368" s="36"/>
       <c r="L368" s="22"/>
       <c r="M368" s="22"/>
       <c r="N368" s="22"/>
@@ -17472,8 +17525,8 @@
       <c r="G369" s="22"/>
       <c r="H369" s="22"/>
       <c r="I369" s="22"/>
-      <c r="J369" s="33"/>
-      <c r="K369" s="33"/>
+      <c r="J369" s="36"/>
+      <c r="K369" s="36"/>
       <c r="L369" s="22"/>
       <c r="M369" s="22"/>
       <c r="N369" s="22"/>
@@ -17517,8 +17570,8 @@
       <c r="G370" s="22"/>
       <c r="H370" s="22"/>
       <c r="I370" s="22"/>
-      <c r="J370" s="33"/>
-      <c r="K370" s="33"/>
+      <c r="J370" s="36"/>
+      <c r="K370" s="36"/>
       <c r="L370" s="22"/>
       <c r="M370" s="22"/>
       <c r="N370" s="22"/>
@@ -17562,8 +17615,8 @@
       <c r="G371" s="22"/>
       <c r="H371" s="22"/>
       <c r="I371" s="22"/>
-      <c r="J371" s="33"/>
-      <c r="K371" s="33"/>
+      <c r="J371" s="36"/>
+      <c r="K371" s="36"/>
       <c r="L371" s="22"/>
       <c r="M371" s="22"/>
       <c r="N371" s="22"/>
@@ -17607,8 +17660,8 @@
       <c r="G372" s="22"/>
       <c r="H372" s="22"/>
       <c r="I372" s="22"/>
-      <c r="J372" s="33"/>
-      <c r="K372" s="33"/>
+      <c r="J372" s="36"/>
+      <c r="K372" s="36"/>
       <c r="L372" s="22"/>
       <c r="M372" s="22"/>
       <c r="N372" s="22"/>
@@ -17652,8 +17705,8 @@
       <c r="G373" s="22"/>
       <c r="H373" s="22"/>
       <c r="I373" s="22"/>
-      <c r="J373" s="33"/>
-      <c r="K373" s="33"/>
+      <c r="J373" s="36"/>
+      <c r="K373" s="36"/>
       <c r="L373" s="22"/>
       <c r="M373" s="22"/>
       <c r="N373" s="22"/>
@@ -17697,8 +17750,8 @@
       <c r="G374" s="22"/>
       <c r="H374" s="22"/>
       <c r="I374" s="22"/>
-      <c r="J374" s="33"/>
-      <c r="K374" s="33"/>
+      <c r="J374" s="36"/>
+      <c r="K374" s="36"/>
       <c r="L374" s="22"/>
       <c r="M374" s="22"/>
       <c r="N374" s="22"/>
@@ -17742,8 +17795,8 @@
       <c r="G375" s="22"/>
       <c r="H375" s="22"/>
       <c r="I375" s="22"/>
-      <c r="J375" s="33"/>
-      <c r="K375" s="33"/>
+      <c r="J375" s="36"/>
+      <c r="K375" s="36"/>
       <c r="L375" s="22"/>
       <c r="M375" s="22"/>
       <c r="N375" s="22"/>
@@ -17787,8 +17840,8 @@
       <c r="G376" s="22"/>
       <c r="H376" s="22"/>
       <c r="I376" s="22"/>
-      <c r="J376" s="33"/>
-      <c r="K376" s="33"/>
+      <c r="J376" s="36"/>
+      <c r="K376" s="36"/>
       <c r="L376" s="22"/>
       <c r="M376" s="22"/>
       <c r="N376" s="22"/>
@@ -17832,8 +17885,8 @@
       <c r="G377" s="22"/>
       <c r="H377" s="22"/>
       <c r="I377" s="22"/>
-      <c r="J377" s="33"/>
-      <c r="K377" s="33"/>
+      <c r="J377" s="36"/>
+      <c r="K377" s="36"/>
       <c r="L377" s="22"/>
       <c r="M377" s="22"/>
       <c r="N377" s="22"/>
@@ -17877,8 +17930,8 @@
       <c r="G378" s="22"/>
       <c r="H378" s="22"/>
       <c r="I378" s="22"/>
-      <c r="J378" s="33"/>
-      <c r="K378" s="33"/>
+      <c r="J378" s="36"/>
+      <c r="K378" s="36"/>
       <c r="L378" s="22"/>
       <c r="M378" s="22"/>
       <c r="N378" s="22"/>
@@ -17922,8 +17975,8 @@
       <c r="G379" s="22"/>
       <c r="H379" s="22"/>
       <c r="I379" s="22"/>
-      <c r="J379" s="33"/>
-      <c r="K379" s="33"/>
+      <c r="J379" s="36"/>
+      <c r="K379" s="36"/>
       <c r="L379" s="22"/>
       <c r="M379" s="22"/>
       <c r="N379" s="22"/>
@@ -17967,8 +18020,8 @@
       <c r="G380" s="22"/>
       <c r="H380" s="22"/>
       <c r="I380" s="22"/>
-      <c r="J380" s="33"/>
-      <c r="K380" s="33"/>
+      <c r="J380" s="36"/>
+      <c r="K380" s="36"/>
       <c r="L380" s="22"/>
       <c r="M380" s="22"/>
       <c r="N380" s="22"/>
@@ -18012,8 +18065,8 @@
       <c r="G381" s="22"/>
       <c r="H381" s="22"/>
       <c r="I381" s="22"/>
-      <c r="J381" s="33"/>
-      <c r="K381" s="33"/>
+      <c r="J381" s="36"/>
+      <c r="K381" s="36"/>
       <c r="L381" s="22"/>
       <c r="M381" s="22"/>
       <c r="N381" s="22"/>
@@ -18057,8 +18110,8 @@
       <c r="G382" s="22"/>
       <c r="H382" s="22"/>
       <c r="I382" s="22"/>
-      <c r="J382" s="33"/>
-      <c r="K382" s="33"/>
+      <c r="J382" s="36"/>
+      <c r="K382" s="36"/>
       <c r="L382" s="22"/>
       <c r="M382" s="22"/>
       <c r="N382" s="22"/>
@@ -18102,8 +18155,8 @@
       <c r="G383" s="22"/>
       <c r="H383" s="22"/>
       <c r="I383" s="22"/>
-      <c r="J383" s="33"/>
-      <c r="K383" s="33"/>
+      <c r="J383" s="36"/>
+      <c r="K383" s="36"/>
       <c r="L383" s="22"/>
       <c r="M383" s="22"/>
       <c r="N383" s="22"/>
@@ -18147,8 +18200,8 @@
       <c r="G384" s="22"/>
       <c r="H384" s="22"/>
       <c r="I384" s="22"/>
-      <c r="J384" s="33"/>
-      <c r="K384" s="33"/>
+      <c r="J384" s="36"/>
+      <c r="K384" s="36"/>
       <c r="L384" s="22"/>
       <c r="M384" s="22"/>
       <c r="N384" s="22"/>
@@ -18192,8 +18245,8 @@
       <c r="G385" s="22"/>
       <c r="H385" s="22"/>
       <c r="I385" s="22"/>
-      <c r="J385" s="33"/>
-      <c r="K385" s="33"/>
+      <c r="J385" s="36"/>
+      <c r="K385" s="36"/>
       <c r="L385" s="22"/>
       <c r="M385" s="22"/>
       <c r="N385" s="22"/>
@@ -18237,8 +18290,8 @@
       <c r="G386" s="22"/>
       <c r="H386" s="22"/>
       <c r="I386" s="22"/>
-      <c r="J386" s="33"/>
-      <c r="K386" s="33"/>
+      <c r="J386" s="36"/>
+      <c r="K386" s="36"/>
       <c r="L386" s="22"/>
       <c r="M386" s="22"/>
       <c r="N386" s="22"/>
@@ -18282,8 +18335,8 @@
       <c r="G387" s="22"/>
       <c r="H387" s="22"/>
       <c r="I387" s="22"/>
-      <c r="J387" s="33"/>
-      <c r="K387" s="33"/>
+      <c r="J387" s="36"/>
+      <c r="K387" s="36"/>
       <c r="L387" s="22"/>
       <c r="M387" s="22"/>
       <c r="N387" s="22"/>
@@ -18327,8 +18380,8 @@
       <c r="G388" s="22"/>
       <c r="H388" s="22"/>
       <c r="I388" s="22"/>
-      <c r="J388" s="33"/>
-      <c r="K388" s="33"/>
+      <c r="J388" s="36"/>
+      <c r="K388" s="36"/>
       <c r="L388" s="22"/>
       <c r="M388" s="22"/>
       <c r="N388" s="22"/>
@@ -18372,8 +18425,8 @@
       <c r="G389" s="22"/>
       <c r="H389" s="22"/>
       <c r="I389" s="22"/>
-      <c r="J389" s="33"/>
-      <c r="K389" s="33"/>
+      <c r="J389" s="36"/>
+      <c r="K389" s="36"/>
       <c r="L389" s="22"/>
       <c r="M389" s="22"/>
       <c r="N389" s="22"/>
@@ -18417,8 +18470,8 @@
       <c r="G390" s="22"/>
       <c r="H390" s="22"/>
       <c r="I390" s="22"/>
-      <c r="J390" s="33"/>
-      <c r="K390" s="33"/>
+      <c r="J390" s="36"/>
+      <c r="K390" s="36"/>
       <c r="L390" s="22"/>
       <c r="M390" s="22"/>
       <c r="N390" s="22"/>
@@ -18462,8 +18515,8 @@
       <c r="G391" s="22"/>
       <c r="H391" s="22"/>
       <c r="I391" s="22"/>
-      <c r="J391" s="33"/>
-      <c r="K391" s="33"/>
+      <c r="J391" s="36"/>
+      <c r="K391" s="36"/>
       <c r="L391" s="22"/>
       <c r="M391" s="22"/>
       <c r="N391" s="22"/>
@@ -18507,8 +18560,8 @@
       <c r="G392" s="22"/>
       <c r="H392" s="22"/>
       <c r="I392" s="22"/>
-      <c r="J392" s="33"/>
-      <c r="K392" s="33"/>
+      <c r="J392" s="36"/>
+      <c r="K392" s="36"/>
       <c r="L392" s="22"/>
       <c r="M392" s="22"/>
       <c r="N392" s="22"/>
@@ -18552,8 +18605,8 @@
       <c r="G393" s="22"/>
       <c r="H393" s="22"/>
       <c r="I393" s="22"/>
-      <c r="J393" s="33"/>
-      <c r="K393" s="33"/>
+      <c r="J393" s="36"/>
+      <c r="K393" s="36"/>
       <c r="L393" s="22"/>
       <c r="M393" s="22"/>
       <c r="N393" s="22"/>
@@ -18597,8 +18650,8 @@
       <c r="G394" s="22"/>
       <c r="H394" s="22"/>
       <c r="I394" s="22"/>
-      <c r="J394" s="33"/>
-      <c r="K394" s="33"/>
+      <c r="J394" s="36"/>
+      <c r="K394" s="36"/>
       <c r="L394" s="22"/>
       <c r="M394" s="22"/>
       <c r="N394" s="22"/>
@@ -18642,8 +18695,8 @@
       <c r="G395" s="22"/>
       <c r="H395" s="22"/>
       <c r="I395" s="22"/>
-      <c r="J395" s="33"/>
-      <c r="K395" s="33"/>
+      <c r="J395" s="36"/>
+      <c r="K395" s="36"/>
       <c r="L395" s="22"/>
       <c r="M395" s="22"/>
       <c r="N395" s="22"/>
@@ -18687,8 +18740,8 @@
       <c r="G396" s="22"/>
       <c r="H396" s="22"/>
       <c r="I396" s="22"/>
-      <c r="J396" s="33"/>
-      <c r="K396" s="33"/>
+      <c r="J396" s="36"/>
+      <c r="K396" s="36"/>
       <c r="L396" s="22"/>
       <c r="M396" s="22"/>
       <c r="N396" s="22"/>
@@ -18732,8 +18785,8 @@
       <c r="G397" s="22"/>
       <c r="H397" s="22"/>
       <c r="I397" s="22"/>
-      <c r="J397" s="33"/>
-      <c r="K397" s="33"/>
+      <c r="J397" s="36"/>
+      <c r="K397" s="36"/>
       <c r="L397" s="22"/>
       <c r="M397" s="22"/>
       <c r="N397" s="22"/>
@@ -18777,8 +18830,8 @@
       <c r="G398" s="22"/>
       <c r="H398" s="22"/>
       <c r="I398" s="22"/>
-      <c r="J398" s="33"/>
-      <c r="K398" s="33"/>
+      <c r="J398" s="36"/>
+      <c r="K398" s="36"/>
       <c r="L398" s="22"/>
       <c r="M398" s="22"/>
       <c r="N398" s="22"/>
@@ -18822,8 +18875,8 @@
       <c r="G399" s="22"/>
       <c r="H399" s="22"/>
       <c r="I399" s="22"/>
-      <c r="J399" s="33"/>
-      <c r="K399" s="33"/>
+      <c r="J399" s="36"/>
+      <c r="K399" s="36"/>
       <c r="L399" s="22"/>
       <c r="M399" s="22"/>
       <c r="N399" s="22"/>
@@ -18867,8 +18920,8 @@
       <c r="G400" s="22"/>
       <c r="H400" s="22"/>
       <c r="I400" s="22"/>
-      <c r="J400" s="33"/>
-      <c r="K400" s="33"/>
+      <c r="J400" s="36"/>
+      <c r="K400" s="36"/>
       <c r="L400" s="22"/>
       <c r="M400" s="22"/>
       <c r="N400" s="22"/>
@@ -18912,8 +18965,8 @@
       <c r="G401" s="22"/>
       <c r="H401" s="22"/>
       <c r="I401" s="22"/>
-      <c r="J401" s="33"/>
-      <c r="K401" s="33"/>
+      <c r="J401" s="36"/>
+      <c r="K401" s="36"/>
       <c r="L401" s="22"/>
       <c r="M401" s="22"/>
       <c r="N401" s="22"/>
@@ -18957,8 +19010,8 @@
       <c r="G402" s="22"/>
       <c r="H402" s="22"/>
       <c r="I402" s="22"/>
-      <c r="J402" s="33"/>
-      <c r="K402" s="33"/>
+      <c r="J402" s="36"/>
+      <c r="K402" s="36"/>
       <c r="L402" s="22"/>
       <c r="M402" s="22"/>
       <c r="N402" s="22"/>
@@ -19002,8 +19055,8 @@
       <c r="G403" s="22"/>
       <c r="H403" s="22"/>
       <c r="I403" s="22"/>
-      <c r="J403" s="33"/>
-      <c r="K403" s="33"/>
+      <c r="J403" s="36"/>
+      <c r="K403" s="36"/>
       <c r="L403" s="22"/>
       <c r="M403" s="22"/>
       <c r="N403" s="22"/>
@@ -19047,8 +19100,8 @@
       <c r="G404" s="22"/>
       <c r="H404" s="22"/>
       <c r="I404" s="22"/>
-      <c r="J404" s="33"/>
-      <c r="K404" s="33"/>
+      <c r="J404" s="36"/>
+      <c r="K404" s="36"/>
       <c r="L404" s="22"/>
       <c r="M404" s="22"/>
       <c r="N404" s="22"/>
@@ -19092,8 +19145,8 @@
       <c r="G405" s="22"/>
       <c r="H405" s="22"/>
       <c r="I405" s="22"/>
-      <c r="J405" s="33"/>
-      <c r="K405" s="33"/>
+      <c r="J405" s="36"/>
+      <c r="K405" s="36"/>
       <c r="L405" s="22"/>
       <c r="M405" s="22"/>
       <c r="N405" s="22"/>
@@ -19137,8 +19190,8 @@
       <c r="G406" s="22"/>
       <c r="H406" s="22"/>
       <c r="I406" s="22"/>
-      <c r="J406" s="33"/>
-      <c r="K406" s="33"/>
+      <c r="J406" s="36"/>
+      <c r="K406" s="36"/>
       <c r="L406" s="22"/>
       <c r="M406" s="22"/>
       <c r="N406" s="22"/>
@@ -19182,8 +19235,8 @@
       <c r="G407" s="22"/>
       <c r="H407" s="22"/>
       <c r="I407" s="22"/>
-      <c r="J407" s="33"/>
-      <c r="K407" s="33"/>
+      <c r="J407" s="36"/>
+      <c r="K407" s="36"/>
       <c r="L407" s="22"/>
       <c r="M407" s="22"/>
       <c r="N407" s="22"/>
@@ -19227,8 +19280,8 @@
       <c r="G408" s="22"/>
       <c r="H408" s="22"/>
       <c r="I408" s="22"/>
-      <c r="J408" s="33"/>
-      <c r="K408" s="33"/>
+      <c r="J408" s="36"/>
+      <c r="K408" s="36"/>
       <c r="L408" s="22"/>
       <c r="M408" s="22"/>
       <c r="N408" s="22"/>
@@ -19272,8 +19325,8 @@
       <c r="G409" s="22"/>
       <c r="H409" s="22"/>
       <c r="I409" s="22"/>
-      <c r="J409" s="33"/>
-      <c r="K409" s="33"/>
+      <c r="J409" s="36"/>
+      <c r="K409" s="36"/>
       <c r="L409" s="22"/>
       <c r="M409" s="22"/>
       <c r="N409" s="22"/>
@@ -19317,8 +19370,8 @@
       <c r="G410" s="22"/>
       <c r="H410" s="22"/>
       <c r="I410" s="22"/>
-      <c r="J410" s="33"/>
-      <c r="K410" s="33"/>
+      <c r="J410" s="36"/>
+      <c r="K410" s="36"/>
       <c r="L410" s="22"/>
       <c r="M410" s="22"/>
       <c r="N410" s="22"/>
@@ -19362,8 +19415,8 @@
       <c r="G411" s="22"/>
       <c r="H411" s="22"/>
       <c r="I411" s="22"/>
-      <c r="J411" s="33"/>
-      <c r="K411" s="33"/>
+      <c r="J411" s="36"/>
+      <c r="K411" s="36"/>
       <c r="L411" s="22"/>
       <c r="M411" s="22"/>
       <c r="N411" s="22"/>
@@ -19407,8 +19460,8 @@
       <c r="G412" s="22"/>
       <c r="H412" s="22"/>
       <c r="I412" s="22"/>
-      <c r="J412" s="33"/>
-      <c r="K412" s="33"/>
+      <c r="J412" s="36"/>
+      <c r="K412" s="36"/>
       <c r="L412" s="22"/>
       <c r="M412" s="22"/>
       <c r="N412" s="22"/>
@@ -19452,8 +19505,8 @@
       <c r="G413" s="22"/>
       <c r="H413" s="22"/>
       <c r="I413" s="22"/>
-      <c r="J413" s="33"/>
-      <c r="K413" s="33"/>
+      <c r="J413" s="36"/>
+      <c r="K413" s="36"/>
       <c r="L413" s="22"/>
       <c r="M413" s="22"/>
       <c r="N413" s="22"/>
@@ -19497,8 +19550,8 @@
       <c r="G414" s="22"/>
       <c r="H414" s="22"/>
       <c r="I414" s="22"/>
-      <c r="J414" s="33"/>
-      <c r="K414" s="33"/>
+      <c r="J414" s="36"/>
+      <c r="K414" s="36"/>
       <c r="L414" s="22"/>
       <c r="M414" s="22"/>
       <c r="N414" s="22"/>
@@ -19542,8 +19595,8 @@
       <c r="G415" s="22"/>
       <c r="H415" s="22"/>
       <c r="I415" s="22"/>
-      <c r="J415" s="33"/>
-      <c r="K415" s="33"/>
+      <c r="J415" s="36"/>
+      <c r="K415" s="36"/>
       <c r="L415" s="22"/>
       <c r="M415" s="22"/>
       <c r="N415" s="22"/>
@@ -19587,8 +19640,8 @@
       <c r="G416" s="22"/>
       <c r="H416" s="22"/>
       <c r="I416" s="22"/>
-      <c r="J416" s="33"/>
-      <c r="K416" s="33"/>
+      <c r="J416" s="36"/>
+      <c r="K416" s="36"/>
       <c r="L416" s="22"/>
       <c r="M416" s="22"/>
       <c r="N416" s="22"/>
@@ -19632,8 +19685,8 @@
       <c r="G417" s="22"/>
       <c r="H417" s="22"/>
       <c r="I417" s="22"/>
-      <c r="J417" s="33"/>
-      <c r="K417" s="33"/>
+      <c r="J417" s="36"/>
+      <c r="K417" s="36"/>
       <c r="L417" s="22"/>
       <c r="M417" s="22"/>
       <c r="N417" s="22"/>
@@ -19677,8 +19730,8 @@
       <c r="G418" s="22"/>
       <c r="H418" s="22"/>
       <c r="I418" s="22"/>
-      <c r="J418" s="33"/>
-      <c r="K418" s="33"/>
+      <c r="J418" s="36"/>
+      <c r="K418" s="36"/>
       <c r="L418" s="22"/>
       <c r="M418" s="22"/>
       <c r="N418" s="22"/>
@@ -19722,8 +19775,8 @@
       <c r="G419" s="22"/>
       <c r="H419" s="22"/>
       <c r="I419" s="22"/>
-      <c r="J419" s="33"/>
-      <c r="K419" s="33"/>
+      <c r="J419" s="36"/>
+      <c r="K419" s="36"/>
       <c r="L419" s="22"/>
       <c r="M419" s="22"/>
       <c r="N419" s="22"/>
@@ -19767,8 +19820,8 @@
       <c r="G420" s="22"/>
       <c r="H420" s="22"/>
       <c r="I420" s="22"/>
-      <c r="J420" s="33"/>
-      <c r="K420" s="33"/>
+      <c r="J420" s="36"/>
+      <c r="K420" s="36"/>
       <c r="L420" s="22"/>
       <c r="M420" s="22"/>
       <c r="N420" s="22"/>
@@ -19812,8 +19865,8 @@
       <c r="G421" s="22"/>
       <c r="H421" s="22"/>
       <c r="I421" s="22"/>
-      <c r="J421" s="33"/>
-      <c r="K421" s="33"/>
+      <c r="J421" s="36"/>
+      <c r="K421" s="36"/>
       <c r="L421" s="22"/>
       <c r="M421" s="22"/>
       <c r="N421" s="22"/>
@@ -19857,8 +19910,8 @@
       <c r="G422" s="22"/>
       <c r="H422" s="22"/>
       <c r="I422" s="22"/>
-      <c r="J422" s="33"/>
-      <c r="K422" s="33"/>
+      <c r="J422" s="36"/>
+      <c r="K422" s="36"/>
       <c r="L422" s="22"/>
       <c r="M422" s="22"/>
       <c r="N422" s="22"/>
@@ -19902,8 +19955,8 @@
       <c r="G423" s="22"/>
       <c r="H423" s="22"/>
       <c r="I423" s="22"/>
-      <c r="J423" s="33"/>
-      <c r="K423" s="33"/>
+      <c r="J423" s="36"/>
+      <c r="K423" s="36"/>
       <c r="L423" s="22"/>
       <c r="M423" s="22"/>
       <c r="N423" s="22"/>
@@ -19947,8 +20000,8 @@
       <c r="G424" s="22"/>
       <c r="H424" s="22"/>
       <c r="I424" s="22"/>
-      <c r="J424" s="33"/>
-      <c r="K424" s="33"/>
+      <c r="J424" s="36"/>
+      <c r="K424" s="36"/>
       <c r="L424" s="22"/>
       <c r="M424" s="22"/>
       <c r="N424" s="22"/>
@@ -19992,8 +20045,8 @@
       <c r="G425" s="22"/>
       <c r="H425" s="22"/>
       <c r="I425" s="22"/>
-      <c r="J425" s="33"/>
-      <c r="K425" s="33"/>
+      <c r="J425" s="36"/>
+      <c r="K425" s="36"/>
       <c r="L425" s="22"/>
       <c r="M425" s="22"/>
       <c r="N425" s="22"/>
@@ -20037,8 +20090,8 @@
       <c r="G426" s="22"/>
       <c r="H426" s="22"/>
       <c r="I426" s="22"/>
-      <c r="J426" s="33"/>
-      <c r="K426" s="33"/>
+      <c r="J426" s="36"/>
+      <c r="K426" s="36"/>
       <c r="L426" s="22"/>
       <c r="M426" s="22"/>
       <c r="N426" s="22"/>
@@ -20082,8 +20135,8 @@
       <c r="G427" s="22"/>
       <c r="H427" s="22"/>
       <c r="I427" s="22"/>
-      <c r="J427" s="33"/>
-      <c r="K427" s="33"/>
+      <c r="J427" s="36"/>
+      <c r="K427" s="36"/>
       <c r="L427" s="22"/>
       <c r="M427" s="22"/>
       <c r="N427" s="22"/>
@@ -20127,8 +20180,8 @@
       <c r="G428" s="22"/>
       <c r="H428" s="22"/>
       <c r="I428" s="22"/>
-      <c r="J428" s="33"/>
-      <c r="K428" s="33"/>
+      <c r="J428" s="36"/>
+      <c r="K428" s="36"/>
       <c r="L428" s="22"/>
       <c r="M428" s="22"/>
       <c r="N428" s="22"/>
@@ -20172,8 +20225,8 @@
       <c r="G429" s="22"/>
       <c r="H429" s="22"/>
       <c r="I429" s="22"/>
-      <c r="J429" s="33"/>
-      <c r="K429" s="33"/>
+      <c r="J429" s="36"/>
+      <c r="K429" s="36"/>
       <c r="L429" s="22"/>
       <c r="M429" s="22"/>
       <c r="N429" s="22"/>
@@ -20217,8 +20270,8 @@
       <c r="G430" s="22"/>
       <c r="H430" s="22"/>
       <c r="I430" s="22"/>
-      <c r="J430" s="33"/>
-      <c r="K430" s="33"/>
+      <c r="J430" s="36"/>
+      <c r="K430" s="36"/>
       <c r="L430" s="22"/>
       <c r="M430" s="22"/>
       <c r="N430" s="22"/>
@@ -20262,8 +20315,8 @@
       <c r="G431" s="22"/>
       <c r="H431" s="22"/>
       <c r="I431" s="22"/>
-      <c r="J431" s="33"/>
-      <c r="K431" s="33"/>
+      <c r="J431" s="36"/>
+      <c r="K431" s="36"/>
       <c r="L431" s="22"/>
       <c r="M431" s="22"/>
       <c r="N431" s="22"/>
@@ -20307,8 +20360,8 @@
       <c r="G432" s="22"/>
       <c r="H432" s="22"/>
       <c r="I432" s="22"/>
-      <c r="J432" s="33"/>
-      <c r="K432" s="33"/>
+      <c r="J432" s="36"/>
+      <c r="K432" s="36"/>
       <c r="L432" s="22"/>
       <c r="M432" s="22"/>
       <c r="N432" s="22"/>
@@ -20352,8 +20405,8 @@
       <c r="G433" s="22"/>
       <c r="H433" s="22"/>
       <c r="I433" s="22"/>
-      <c r="J433" s="33"/>
-      <c r="K433" s="33"/>
+      <c r="J433" s="36"/>
+      <c r="K433" s="36"/>
       <c r="L433" s="22"/>
       <c r="M433" s="22"/>
       <c r="N433" s="22"/>
@@ -20397,8 +20450,8 @@
       <c r="G434" s="22"/>
       <c r="H434" s="22"/>
       <c r="I434" s="22"/>
-      <c r="J434" s="33"/>
-      <c r="K434" s="33"/>
+      <c r="J434" s="36"/>
+      <c r="K434" s="36"/>
       <c r="L434" s="22"/>
       <c r="M434" s="22"/>
       <c r="N434" s="22"/>
@@ -20442,8 +20495,8 @@
       <c r="G435" s="22"/>
       <c r="H435" s="22"/>
       <c r="I435" s="22"/>
-      <c r="J435" s="33"/>
-      <c r="K435" s="33"/>
+      <c r="J435" s="36"/>
+      <c r="K435" s="36"/>
       <c r="L435" s="22"/>
       <c r="M435" s="22"/>
       <c r="N435" s="22"/>
@@ -20487,8 +20540,8 @@
       <c r="G436" s="22"/>
       <c r="H436" s="22"/>
       <c r="I436" s="22"/>
-      <c r="J436" s="33"/>
-      <c r="K436" s="33"/>
+      <c r="J436" s="36"/>
+      <c r="K436" s="36"/>
       <c r="L436" s="22"/>
       <c r="M436" s="22"/>
       <c r="N436" s="22"/>
@@ -20532,8 +20585,8 @@
       <c r="G437" s="22"/>
       <c r="H437" s="22"/>
       <c r="I437" s="22"/>
-      <c r="J437" s="33"/>
-      <c r="K437" s="33"/>
+      <c r="J437" s="36"/>
+      <c r="K437" s="36"/>
       <c r="L437" s="22"/>
       <c r="M437" s="22"/>
       <c r="N437" s="22"/>
@@ -20577,8 +20630,8 @@
       <c r="G438" s="22"/>
       <c r="H438" s="22"/>
       <c r="I438" s="22"/>
-      <c r="J438" s="33"/>
-      <c r="K438" s="33"/>
+      <c r="J438" s="36"/>
+      <c r="K438" s="36"/>
       <c r="L438" s="22"/>
       <c r="M438" s="22"/>
       <c r="N438" s="22"/>
@@ -20622,8 +20675,8 @@
       <c r="G439" s="22"/>
       <c r="H439" s="22"/>
       <c r="I439" s="22"/>
-      <c r="J439" s="33"/>
-      <c r="K439" s="33"/>
+      <c r="J439" s="36"/>
+      <c r="K439" s="36"/>
       <c r="L439" s="22"/>
       <c r="M439" s="22"/>
       <c r="N439" s="22"/>
@@ -20667,8 +20720,8 @@
       <c r="G440" s="22"/>
       <c r="H440" s="22"/>
       <c r="I440" s="22"/>
-      <c r="J440" s="33"/>
-      <c r="K440" s="33"/>
+      <c r="J440" s="36"/>
+      <c r="K440" s="36"/>
       <c r="L440" s="22"/>
       <c r="M440" s="22"/>
       <c r="N440" s="22"/>
@@ -20712,8 +20765,8 @@
       <c r="G441" s="22"/>
       <c r="H441" s="22"/>
       <c r="I441" s="22"/>
-      <c r="J441" s="33"/>
-      <c r="K441" s="33"/>
+      <c r="J441" s="36"/>
+      <c r="K441" s="36"/>
       <c r="L441" s="22"/>
       <c r="M441" s="22"/>
       <c r="N441" s="22"/>
@@ -20757,8 +20810,8 @@
       <c r="G442" s="22"/>
       <c r="H442" s="22"/>
       <c r="I442" s="22"/>
-      <c r="J442" s="33"/>
-      <c r="K442" s="33"/>
+      <c r="J442" s="36"/>
+      <c r="K442" s="36"/>
       <c r="L442" s="22"/>
       <c r="M442" s="22"/>
       <c r="N442" s="22"/>
@@ -20802,8 +20855,8 @@
       <c r="G443" s="22"/>
       <c r="H443" s="22"/>
       <c r="I443" s="22"/>
-      <c r="J443" s="33"/>
-      <c r="K443" s="33"/>
+      <c r="J443" s="36"/>
+      <c r="K443" s="36"/>
       <c r="L443" s="22"/>
       <c r="M443" s="22"/>
       <c r="N443" s="22"/>
@@ -20847,8 +20900,8 @@
       <c r="G444" s="22"/>
       <c r="H444" s="22"/>
       <c r="I444" s="22"/>
-      <c r="J444" s="33"/>
-      <c r="K444" s="33"/>
+      <c r="J444" s="36"/>
+      <c r="K444" s="36"/>
       <c r="L444" s="22"/>
       <c r="M444" s="22"/>
       <c r="N444" s="22"/>
@@ -20892,8 +20945,8 @@
       <c r="G445" s="22"/>
       <c r="H445" s="22"/>
       <c r="I445" s="22"/>
-      <c r="J445" s="33"/>
-      <c r="K445" s="33"/>
+      <c r="J445" s="36"/>
+      <c r="K445" s="36"/>
       <c r="L445" s="22"/>
       <c r="M445" s="22"/>
       <c r="N445" s="22"/>
@@ -20937,8 +20990,8 @@
       <c r="G446" s="22"/>
       <c r="H446" s="22"/>
       <c r="I446" s="22"/>
-      <c r="J446" s="33"/>
-      <c r="K446" s="33"/>
+      <c r="J446" s="36"/>
+      <c r="K446" s="36"/>
       <c r="L446" s="22"/>
       <c r="M446" s="22"/>
       <c r="N446" s="22"/>
@@ -20982,8 +21035,8 @@
       <c r="G447" s="22"/>
       <c r="H447" s="22"/>
       <c r="I447" s="22"/>
-      <c r="J447" s="33"/>
-      <c r="K447" s="33"/>
+      <c r="J447" s="36"/>
+      <c r="K447" s="36"/>
       <c r="L447" s="22"/>
       <c r="M447" s="22"/>
       <c r="N447" s="22"/>
@@ -21027,8 +21080,8 @@
       <c r="G448" s="22"/>
       <c r="H448" s="22"/>
       <c r="I448" s="22"/>
-      <c r="J448" s="33"/>
-      <c r="K448" s="33"/>
+      <c r="J448" s="36"/>
+      <c r="K448" s="36"/>
       <c r="L448" s="22"/>
       <c r="M448" s="22"/>
       <c r="N448" s="22"/>
@@ -21072,8 +21125,8 @@
       <c r="G449" s="22"/>
       <c r="H449" s="22"/>
       <c r="I449" s="22"/>
-      <c r="J449" s="33"/>
-      <c r="K449" s="33"/>
+      <c r="J449" s="36"/>
+      <c r="K449" s="36"/>
       <c r="L449" s="22"/>
       <c r="M449" s="22"/>
       <c r="N449" s="22"/>
@@ -21117,8 +21170,8 @@
       <c r="G450" s="22"/>
       <c r="H450" s="22"/>
       <c r="I450" s="22"/>
-      <c r="J450" s="33"/>
-      <c r="K450" s="33"/>
+      <c r="J450" s="36"/>
+      <c r="K450" s="36"/>
       <c r="L450" s="22"/>
       <c r="M450" s="22"/>
       <c r="N450" s="22"/>
@@ -21162,8 +21215,8 @@
       <c r="G451" s="22"/>
       <c r="H451" s="22"/>
       <c r="I451" s="22"/>
-      <c r="J451" s="33"/>
-      <c r="K451" s="33"/>
+      <c r="J451" s="36"/>
+      <c r="K451" s="36"/>
       <c r="L451" s="22"/>
       <c r="M451" s="22"/>
       <c r="N451" s="22"/>
@@ -21207,8 +21260,8 @@
       <c r="G452" s="22"/>
       <c r="H452" s="22"/>
       <c r="I452" s="22"/>
-      <c r="J452" s="33"/>
-      <c r="K452" s="33"/>
+      <c r="J452" s="36"/>
+      <c r="K452" s="36"/>
       <c r="L452" s="22"/>
       <c r="M452" s="22"/>
       <c r="N452" s="22"/>
@@ -21252,8 +21305,8 @@
       <c r="G453" s="22"/>
       <c r="H453" s="22"/>
       <c r="I453" s="22"/>
-      <c r="J453" s="33"/>
-      <c r="K453" s="33"/>
+      <c r="J453" s="36"/>
+      <c r="K453" s="36"/>
       <c r="L453" s="22"/>
       <c r="M453" s="22"/>
       <c r="N453" s="22"/>
@@ -21297,8 +21350,8 @@
       <c r="G454" s="22"/>
       <c r="H454" s="22"/>
       <c r="I454" s="22"/>
-      <c r="J454" s="33"/>
-      <c r="K454" s="33"/>
+      <c r="J454" s="36"/>
+      <c r="K454" s="36"/>
       <c r="L454" s="22"/>
       <c r="M454" s="22"/>
       <c r="N454" s="22"/>
@@ -21342,8 +21395,8 @@
       <c r="G455" s="22"/>
       <c r="H455" s="22"/>
       <c r="I455" s="22"/>
-      <c r="J455" s="33"/>
-      <c r="K455" s="33"/>
+      <c r="J455" s="36"/>
+      <c r="K455" s="36"/>
       <c r="L455" s="22"/>
       <c r="M455" s="22"/>
       <c r="N455" s="22"/>
@@ -21387,8 +21440,8 @@
       <c r="G456" s="22"/>
       <c r="H456" s="22"/>
       <c r="I456" s="22"/>
-      <c r="J456" s="33"/>
-      <c r="K456" s="33"/>
+      <c r="J456" s="36"/>
+      <c r="K456" s="36"/>
       <c r="L456" s="22"/>
       <c r="M456" s="22"/>
       <c r="N456" s="22"/>
@@ -21432,8 +21485,8 @@
       <c r="G457" s="22"/>
       <c r="H457" s="22"/>
       <c r="I457" s="22"/>
-      <c r="J457" s="33"/>
-      <c r="K457" s="33"/>
+      <c r="J457" s="36"/>
+      <c r="K457" s="36"/>
       <c r="L457" s="22"/>
       <c r="M457" s="22"/>
       <c r="N457" s="22"/>
@@ -21477,8 +21530,8 @@
       <c r="G458" s="22"/>
       <c r="H458" s="22"/>
       <c r="I458" s="22"/>
-      <c r="J458" s="33"/>
-      <c r="K458" s="33"/>
+      <c r="J458" s="36"/>
+      <c r="K458" s="36"/>
       <c r="L458" s="22"/>
       <c r="M458" s="22"/>
       <c r="N458" s="22"/>
@@ -21522,8 +21575,8 @@
       <c r="G459" s="22"/>
       <c r="H459" s="22"/>
       <c r="I459" s="22"/>
-      <c r="J459" s="33"/>
-      <c r="K459" s="33"/>
+      <c r="J459" s="36"/>
+      <c r="K459" s="36"/>
       <c r="L459" s="22"/>
       <c r="M459" s="22"/>
       <c r="N459" s="22"/>
@@ -21567,8 +21620,8 @@
       <c r="G460" s="22"/>
       <c r="H460" s="22"/>
       <c r="I460" s="22"/>
-      <c r="J460" s="33"/>
-      <c r="K460" s="33"/>
+      <c r="J460" s="36"/>
+      <c r="K460" s="36"/>
       <c r="L460" s="22"/>
       <c r="M460" s="22"/>
       <c r="N460" s="22"/>
@@ -21612,8 +21665,8 @@
       <c r="G461" s="22"/>
       <c r="H461" s="22"/>
       <c r="I461" s="22"/>
-      <c r="J461" s="33"/>
-      <c r="K461" s="33"/>
+      <c r="J461" s="36"/>
+      <c r="K461" s="36"/>
       <c r="L461" s="22"/>
       <c r="M461" s="22"/>
       <c r="N461" s="22"/>
@@ -21657,8 +21710,8 @@
       <c r="G462" s="22"/>
       <c r="H462" s="22"/>
       <c r="I462" s="22"/>
-      <c r="J462" s="33"/>
-      <c r="K462" s="33"/>
+      <c r="J462" s="36"/>
+      <c r="K462" s="36"/>
       <c r="L462" s="22"/>
       <c r="M462" s="22"/>
       <c r="N462" s="22"/>
@@ -21702,8 +21755,8 @@
       <c r="G463" s="22"/>
       <c r="H463" s="22"/>
       <c r="I463" s="22"/>
-      <c r="J463" s="33"/>
-      <c r="K463" s="33"/>
+      <c r="J463" s="36"/>
+      <c r="K463" s="36"/>
       <c r="L463" s="22"/>
       <c r="M463" s="22"/>
       <c r="N463" s="22"/>
@@ -21747,8 +21800,8 @@
       <c r="G464" s="22"/>
       <c r="H464" s="22"/>
       <c r="I464" s="22"/>
-      <c r="J464" s="33"/>
-      <c r="K464" s="33"/>
+      <c r="J464" s="36"/>
+      <c r="K464" s="36"/>
       <c r="L464" s="22"/>
       <c r="M464" s="22"/>
       <c r="N464" s="22"/>
@@ -21792,8 +21845,8 @@
       <c r="G465" s="22"/>
       <c r="H465" s="22"/>
       <c r="I465" s="22"/>
-      <c r="J465" s="33"/>
-      <c r="K465" s="33"/>
+      <c r="J465" s="36"/>
+      <c r="K465" s="36"/>
       <c r="L465" s="22"/>
       <c r="M465" s="22"/>
       <c r="N465" s="22"/>
@@ -21837,8 +21890,8 @@
       <c r="G466" s="22"/>
       <c r="H466" s="22"/>
       <c r="I466" s="22"/>
-      <c r="J466" s="33"/>
-      <c r="K466" s="33"/>
+      <c r="J466" s="36"/>
+      <c r="K466" s="36"/>
       <c r="L466" s="22"/>
       <c r="M466" s="22"/>
       <c r="N466" s="22"/>
@@ -21882,8 +21935,8 @@
       <c r="G467" s="22"/>
       <c r="H467" s="22"/>
       <c r="I467" s="22"/>
-      <c r="J467" s="33"/>
-      <c r="K467" s="33"/>
+      <c r="J467" s="36"/>
+      <c r="K467" s="36"/>
       <c r="L467" s="22"/>
       <c r="M467" s="22"/>
       <c r="N467" s="22"/>
@@ -21927,8 +21980,8 @@
       <c r="G468" s="22"/>
       <c r="H468" s="22"/>
       <c r="I468" s="22"/>
-      <c r="J468" s="33"/>
-      <c r="K468" s="33"/>
+      <c r="J468" s="36"/>
+      <c r="K468" s="36"/>
       <c r="L468" s="22"/>
       <c r="M468" s="22"/>
       <c r="N468" s="22"/>
@@ -21972,8 +22025,8 @@
       <c r="G469" s="22"/>
       <c r="H469" s="22"/>
       <c r="I469" s="22"/>
-      <c r="J469" s="33"/>
-      <c r="K469" s="33"/>
+      <c r="J469" s="36"/>
+      <c r="K469" s="36"/>
       <c r="L469" s="22"/>
       <c r="M469" s="22"/>
       <c r="N469" s="22"/>
@@ -22017,8 +22070,8 @@
       <c r="G470" s="22"/>
       <c r="H470" s="22"/>
       <c r="I470" s="22"/>
-      <c r="J470" s="33"/>
-      <c r="K470" s="33"/>
+      <c r="J470" s="36"/>
+      <c r="K470" s="36"/>
       <c r="L470" s="22"/>
       <c r="M470" s="22"/>
       <c r="N470" s="22"/>
@@ -22062,8 +22115,8 @@
       <c r="G471" s="22"/>
       <c r="H471" s="22"/>
       <c r="I471" s="22"/>
-      <c r="J471" s="33"/>
-      <c r="K471" s="33"/>
+      <c r="J471" s="36"/>
+      <c r="K471" s="36"/>
       <c r="L471" s="22"/>
       <c r="M471" s="22"/>
       <c r="N471" s="22"/>
@@ -22107,8 +22160,8 @@
       <c r="G472" s="22"/>
       <c r="H472" s="22"/>
       <c r="I472" s="22"/>
-      <c r="J472" s="33"/>
-      <c r="K472" s="33"/>
+      <c r="J472" s="36"/>
+      <c r="K472" s="36"/>
       <c r="L472" s="22"/>
       <c r="M472" s="22"/>
       <c r="N472" s="22"/>
@@ -22152,8 +22205,8 @@
       <c r="G473" s="22"/>
       <c r="H473" s="22"/>
       <c r="I473" s="22"/>
-      <c r="J473" s="33"/>
-      <c r="K473" s="33"/>
+      <c r="J473" s="36"/>
+      <c r="K473" s="36"/>
       <c r="L473" s="22"/>
       <c r="M473" s="22"/>
       <c r="N473" s="22"/>
@@ -22197,8 +22250,8 @@
       <c r="G474" s="22"/>
       <c r="H474" s="22"/>
       <c r="I474" s="22"/>
-      <c r="J474" s="33"/>
-      <c r="K474" s="33"/>
+      <c r="J474" s="36"/>
+      <c r="K474" s="36"/>
       <c r="L474" s="22"/>
       <c r="M474" s="22"/>
       <c r="N474" s="22"/>
@@ -22242,8 +22295,8 @@
       <c r="G475" s="22"/>
       <c r="H475" s="22"/>
       <c r="I475" s="22"/>
-      <c r="J475" s="33"/>
-      <c r="K475" s="33"/>
+      <c r="J475" s="36"/>
+      <c r="K475" s="36"/>
       <c r="L475" s="22"/>
       <c r="M475" s="22"/>
       <c r="N475" s="22"/>
@@ -22287,8 +22340,8 @@
       <c r="G476" s="22"/>
       <c r="H476" s="22"/>
       <c r="I476" s="22"/>
-      <c r="J476" s="33"/>
-      <c r="K476" s="33"/>
+      <c r="J476" s="36"/>
+      <c r="K476" s="36"/>
       <c r="L476" s="22"/>
       <c r="M476" s="22"/>
       <c r="N476" s="22"/>
@@ -22332,8 +22385,8 @@
       <c r="G477" s="22"/>
       <c r="H477" s="22"/>
       <c r="I477" s="22"/>
-      <c r="J477" s="33"/>
-      <c r="K477" s="33"/>
+      <c r="J477" s="36"/>
+      <c r="K477" s="36"/>
       <c r="L477" s="22"/>
       <c r="M477" s="22"/>
       <c r="N477" s="22"/>
@@ -22377,8 +22430,8 @@
       <c r="G478" s="22"/>
       <c r="H478" s="22"/>
       <c r="I478" s="22"/>
-      <c r="J478" s="33"/>
-      <c r="K478" s="33"/>
+      <c r="J478" s="36"/>
+      <c r="K478" s="36"/>
       <c r="L478" s="22"/>
       <c r="M478" s="22"/>
       <c r="N478" s="22"/>
@@ -22422,8 +22475,8 @@
       <c r="G479" s="22"/>
       <c r="H479" s="22"/>
       <c r="I479" s="22"/>
-      <c r="J479" s="33"/>
-      <c r="K479" s="33"/>
+      <c r="J479" s="36"/>
+      <c r="K479" s="36"/>
       <c r="L479" s="22"/>
       <c r="M479" s="22"/>
       <c r="N479" s="22"/>
@@ -22467,8 +22520,8 @@
       <c r="G480" s="22"/>
       <c r="H480" s="22"/>
       <c r="I480" s="22"/>
-      <c r="J480" s="33"/>
-      <c r="K480" s="33"/>
+      <c r="J480" s="36"/>
+      <c r="K480" s="36"/>
       <c r="L480" s="22"/>
       <c r="M480" s="22"/>
       <c r="N480" s="22"/>
@@ -22512,8 +22565,8 @@
       <c r="G481" s="22"/>
       <c r="H481" s="22"/>
       <c r="I481" s="22"/>
-      <c r="J481" s="33"/>
-      <c r="K481" s="33"/>
+      <c r="J481" s="36"/>
+      <c r="K481" s="36"/>
       <c r="L481" s="22"/>
       <c r="M481" s="22"/>
       <c r="N481" s="22"/>
@@ -22557,8 +22610,8 @@
       <c r="G482" s="22"/>
       <c r="H482" s="22"/>
       <c r="I482" s="22"/>
-      <c r="J482" s="33"/>
-      <c r="K482" s="33"/>
+      <c r="J482" s="36"/>
+      <c r="K482" s="36"/>
       <c r="L482" s="22"/>
       <c r="M482" s="22"/>
       <c r="N482" s="22"/>
@@ -22602,8 +22655,8 @@
       <c r="G483" s="22"/>
       <c r="H483" s="22"/>
       <c r="I483" s="22"/>
-      <c r="J483" s="33"/>
-      <c r="K483" s="33"/>
+      <c r="J483" s="36"/>
+      <c r="K483" s="36"/>
       <c r="L483" s="22"/>
       <c r="M483" s="22"/>
       <c r="N483" s="22"/>
@@ -22647,8 +22700,8 @@
       <c r="G484" s="22"/>
       <c r="H484" s="22"/>
       <c r="I484" s="22"/>
-      <c r="J484" s="33"/>
-      <c r="K484" s="33"/>
+      <c r="J484" s="36"/>
+      <c r="K484" s="36"/>
       <c r="L484" s="22"/>
       <c r="M484" s="22"/>
       <c r="N484" s="22"/>
@@ -22692,8 +22745,8 @@
       <c r="G485" s="22"/>
       <c r="H485" s="22"/>
       <c r="I485" s="22"/>
-      <c r="J485" s="33"/>
-      <c r="K485" s="33"/>
+      <c r="J485" s="36"/>
+      <c r="K485" s="36"/>
       <c r="L485" s="22"/>
       <c r="M485" s="22"/>
       <c r="N485" s="22"/>
@@ -22737,8 +22790,8 @@
       <c r="G486" s="22"/>
       <c r="H486" s="22"/>
       <c r="I486" s="22"/>
-      <c r="J486" s="33"/>
-      <c r="K486" s="33"/>
+      <c r="J486" s="36"/>
+      <c r="K486" s="36"/>
       <c r="L486" s="22"/>
       <c r="M486" s="22"/>
       <c r="N486" s="22"/>
@@ -22782,8 +22835,8 @@
       <c r="G487" s="22"/>
       <c r="H487" s="22"/>
       <c r="I487" s="22"/>
-      <c r="J487" s="33"/>
-      <c r="K487" s="33"/>
+      <c r="J487" s="36"/>
+      <c r="K487" s="36"/>
       <c r="L487" s="22"/>
       <c r="M487" s="22"/>
       <c r="N487" s="22"/>
@@ -22827,8 +22880,8 @@
       <c r="G488" s="22"/>
       <c r="H488" s="22"/>
       <c r="I488" s="22"/>
-      <c r="J488" s="33"/>
-      <c r="K488" s="33"/>
+      <c r="J488" s="36"/>
+      <c r="K488" s="36"/>
       <c r="L488" s="22"/>
       <c r="M488" s="22"/>
       <c r="N488" s="22"/>
@@ -22872,8 +22925,8 @@
       <c r="G489" s="22"/>
       <c r="H489" s="22"/>
       <c r="I489" s="22"/>
-      <c r="J489" s="33"/>
-      <c r="K489" s="33"/>
+      <c r="J489" s="36"/>
+      <c r="K489" s="36"/>
       <c r="L489" s="22"/>
       <c r="M489" s="22"/>
       <c r="N489" s="22"/>
@@ -22917,8 +22970,8 @@
       <c r="G490" s="22"/>
       <c r="H490" s="22"/>
       <c r="I490" s="22"/>
-      <c r="J490" s="33"/>
-      <c r="K490" s="33"/>
+      <c r="J490" s="36"/>
+      <c r="K490" s="36"/>
       <c r="L490" s="22"/>
       <c r="M490" s="22"/>
       <c r="N490" s="22"/>
@@ -22962,8 +23015,8 @@
       <c r="G491" s="22"/>
       <c r="H491" s="22"/>
       <c r="I491" s="22"/>
-      <c r="J491" s="33"/>
-      <c r="K491" s="33"/>
+      <c r="J491" s="36"/>
+      <c r="K491" s="36"/>
       <c r="L491" s="22"/>
       <c r="M491" s="22"/>
       <c r="N491" s="22"/>
@@ -23007,8 +23060,8 @@
       <c r="G492" s="22"/>
       <c r="H492" s="22"/>
       <c r="I492" s="22"/>
-      <c r="J492" s="33"/>
-      <c r="K492" s="33"/>
+      <c r="J492" s="36"/>
+      <c r="K492" s="36"/>
       <c r="L492" s="22"/>
       <c r="M492" s="22"/>
       <c r="N492" s="22"/>
@@ -23052,8 +23105,8 @@
       <c r="G493" s="22"/>
       <c r="H493" s="22"/>
       <c r="I493" s="22"/>
-      <c r="J493" s="33"/>
-      <c r="K493" s="33"/>
+      <c r="J493" s="36"/>
+      <c r="K493" s="36"/>
       <c r="L493" s="22"/>
       <c r="M493" s="22"/>
       <c r="N493" s="22"/>
@@ -23097,8 +23150,8 @@
       <c r="G494" s="22"/>
       <c r="H494" s="22"/>
       <c r="I494" s="22"/>
-      <c r="J494" s="33"/>
-      <c r="K494" s="33"/>
+      <c r="J494" s="36"/>
+      <c r="K494" s="36"/>
       <c r="L494" s="22"/>
       <c r="M494" s="22"/>
       <c r="N494" s="22"/>
@@ -23142,8 +23195,8 @@
       <c r="G495" s="22"/>
       <c r="H495" s="22"/>
       <c r="I495" s="22"/>
-      <c r="J495" s="33"/>
-      <c r="K495" s="33"/>
+      <c r="J495" s="36"/>
+      <c r="K495" s="36"/>
       <c r="L495" s="22"/>
       <c r="M495" s="22"/>
       <c r="N495" s="22"/>
@@ -23187,8 +23240,8 @@
       <c r="G496" s="22"/>
       <c r="H496" s="22"/>
       <c r="I496" s="22"/>
-      <c r="J496" s="33"/>
-      <c r="K496" s="33"/>
+      <c r="J496" s="36"/>
+      <c r="K496" s="36"/>
       <c r="L496" s="22"/>
       <c r="M496" s="22"/>
       <c r="N496" s="22"/>
@@ -23232,8 +23285,8 @@
       <c r="G497" s="22"/>
       <c r="H497" s="22"/>
       <c r="I497" s="22"/>
-      <c r="J497" s="33"/>
-      <c r="K497" s="33"/>
+      <c r="J497" s="36"/>
+      <c r="K497" s="36"/>
       <c r="L497" s="22"/>
       <c r="M497" s="22"/>
       <c r="N497" s="22"/>
@@ -23277,8 +23330,8 @@
       <c r="G498" s="22"/>
       <c r="H498" s="22"/>
       <c r="I498" s="22"/>
-      <c r="J498" s="33"/>
-      <c r="K498" s="33"/>
+      <c r="J498" s="36"/>
+      <c r="K498" s="36"/>
       <c r="L498" s="22"/>
       <c r="M498" s="22"/>
       <c r="N498" s="22"/>
@@ -23322,8 +23375,8 @@
       <c r="G499" s="22"/>
       <c r="H499" s="22"/>
       <c r="I499" s="22"/>
-      <c r="J499" s="33"/>
-      <c r="K499" s="33"/>
+      <c r="J499" s="36"/>
+      <c r="K499" s="36"/>
       <c r="L499" s="22"/>
       <c r="M499" s="22"/>
       <c r="N499" s="22"/>
@@ -23367,8 +23420,8 @@
       <c r="G500" s="22"/>
       <c r="H500" s="22"/>
       <c r="I500" s="22"/>
-      <c r="J500" s="33"/>
-      <c r="K500" s="33"/>
+      <c r="J500" s="36"/>
+      <c r="K500" s="36"/>
       <c r="L500" s="22"/>
       <c r="M500" s="22"/>
       <c r="N500" s="22"/>
@@ -23412,8 +23465,8 @@
       <c r="G501" s="22"/>
       <c r="H501" s="22"/>
       <c r="I501" s="22"/>
-      <c r="J501" s="33"/>
-      <c r="K501" s="33"/>
+      <c r="J501" s="36"/>
+      <c r="K501" s="36"/>
       <c r="L501" s="22"/>
       <c r="M501" s="22"/>
       <c r="N501" s="22"/>
@@ -23457,8 +23510,8 @@
       <c r="G502" s="22"/>
       <c r="H502" s="22"/>
       <c r="I502" s="22"/>
-      <c r="J502" s="33"/>
-      <c r="K502" s="33"/>
+      <c r="J502" s="36"/>
+      <c r="K502" s="36"/>
       <c r="L502" s="22"/>
       <c r="M502" s="22"/>
       <c r="N502" s="22"/>
@@ -23502,8 +23555,8 @@
       <c r="G503" s="22"/>
       <c r="H503" s="22"/>
       <c r="I503" s="22"/>
-      <c r="J503" s="33"/>
-      <c r="K503" s="33"/>
+      <c r="J503" s="36"/>
+      <c r="K503" s="36"/>
       <c r="L503" s="22"/>
       <c r="M503" s="22"/>
       <c r="N503" s="22"/>
@@ -23547,8 +23600,8 @@
       <c r="G504" s="22"/>
       <c r="H504" s="22"/>
       <c r="I504" s="22"/>
-      <c r="J504" s="33"/>
-      <c r="K504" s="33"/>
+      <c r="J504" s="36"/>
+      <c r="K504" s="36"/>
       <c r="L504" s="22"/>
       <c r="M504" s="22"/>
       <c r="N504" s="22"/>
@@ -23592,8 +23645,8 @@
       <c r="G505" s="22"/>
       <c r="H505" s="22"/>
       <c r="I505" s="22"/>
-      <c r="J505" s="33"/>
-      <c r="K505" s="33"/>
+      <c r="J505" s="36"/>
+      <c r="K505" s="36"/>
       <c r="L505" s="22"/>
       <c r="M505" s="22"/>
       <c r="N505" s="22"/>
@@ -23637,8 +23690,8 @@
       <c r="G506" s="22"/>
       <c r="H506" s="22"/>
       <c r="I506" s="22"/>
-      <c r="J506" s="33"/>
-      <c r="K506" s="33"/>
+      <c r="J506" s="36"/>
+      <c r="K506" s="36"/>
       <c r="L506" s="22"/>
       <c r="M506" s="22"/>
       <c r="N506" s="22"/>
@@ -23682,8 +23735,8 @@
       <c r="G507" s="22"/>
       <c r="H507" s="22"/>
       <c r="I507" s="22"/>
-      <c r="J507" s="33"/>
-      <c r="K507" s="33"/>
+      <c r="J507" s="36"/>
+      <c r="K507" s="36"/>
       <c r="L507" s="22"/>
       <c r="M507" s="22"/>
       <c r="N507" s="22"/>
@@ -23727,8 +23780,8 @@
       <c r="G508" s="22"/>
       <c r="H508" s="22"/>
       <c r="I508" s="22"/>
-      <c r="J508" s="33"/>
-      <c r="K508" s="33"/>
+      <c r="J508" s="36"/>
+      <c r="K508" s="36"/>
       <c r="L508" s="22"/>
       <c r="M508" s="22"/>
       <c r="N508" s="22"/>
@@ -23772,8 +23825,8 @@
       <c r="G509" s="22"/>
       <c r="H509" s="22"/>
       <c r="I509" s="22"/>
-      <c r="J509" s="33"/>
-      <c r="K509" s="33"/>
+      <c r="J509" s="36"/>
+      <c r="K509" s="36"/>
       <c r="L509" s="22"/>
       <c r="M509" s="22"/>
       <c r="N509" s="22"/>
@@ -23817,8 +23870,8 @@
       <c r="G510" s="22"/>
       <c r="H510" s="22"/>
       <c r="I510" s="22"/>
-      <c r="J510" s="33"/>
-      <c r="K510" s="33"/>
+      <c r="J510" s="36"/>
+      <c r="K510" s="36"/>
       <c r="L510" s="22"/>
       <c r="M510" s="22"/>
       <c r="N510" s="22"/>
@@ -23862,8 +23915,8 @@
       <c r="G511" s="22"/>
       <c r="H511" s="22"/>
       <c r="I511" s="22"/>
-      <c r="J511" s="33"/>
-      <c r="K511" s="33"/>
+      <c r="J511" s="36"/>
+      <c r="K511" s="36"/>
       <c r="L511" s="22"/>
       <c r="M511" s="22"/>
       <c r="N511" s="22"/>
@@ -23907,8 +23960,8 @@
       <c r="G512" s="22"/>
       <c r="H512" s="22"/>
       <c r="I512" s="22"/>
-      <c r="J512" s="33"/>
-      <c r="K512" s="33"/>
+      <c r="J512" s="36"/>
+      <c r="K512" s="36"/>
       <c r="L512" s="22"/>
       <c r="M512" s="22"/>
       <c r="N512" s="22"/>
@@ -23952,8 +24005,8 @@
       <c r="G513" s="22"/>
       <c r="H513" s="22"/>
       <c r="I513" s="22"/>
-      <c r="J513" s="33"/>
-      <c r="K513" s="33"/>
+      <c r="J513" s="36"/>
+      <c r="K513" s="36"/>
       <c r="L513" s="22"/>
       <c r="M513" s="22"/>
       <c r="N513" s="22"/>
@@ -23997,8 +24050,8 @@
       <c r="G514" s="22"/>
       <c r="H514" s="22"/>
       <c r="I514" s="22"/>
-      <c r="J514" s="33"/>
-      <c r="K514" s="33"/>
+      <c r="J514" s="36"/>
+      <c r="K514" s="36"/>
       <c r="L514" s="22"/>
       <c r="M514" s="22"/>
       <c r="N514" s="22"/>
@@ -24042,8 +24095,8 @@
       <c r="G515" s="22"/>
       <c r="H515" s="22"/>
       <c r="I515" s="22"/>
-      <c r="J515" s="33"/>
-      <c r="K515" s="33"/>
+      <c r="J515" s="36"/>
+      <c r="K515" s="36"/>
       <c r="L515" s="22"/>
       <c r="M515" s="22"/>
       <c r="N515" s="22"/>
@@ -24087,8 +24140,8 @@
       <c r="G516" s="22"/>
       <c r="H516" s="22"/>
       <c r="I516" s="22"/>
-      <c r="J516" s="33"/>
-      <c r="K516" s="33"/>
+      <c r="J516" s="36"/>
+      <c r="K516" s="36"/>
       <c r="L516" s="22"/>
       <c r="M516" s="22"/>
       <c r="N516" s="22"/>
@@ -24132,8 +24185,8 @@
       <c r="G517" s="22"/>
       <c r="H517" s="22"/>
       <c r="I517" s="22"/>
-      <c r="J517" s="33"/>
-      <c r="K517" s="33"/>
+      <c r="J517" s="36"/>
+      <c r="K517" s="36"/>
       <c r="L517" s="22"/>
       <c r="M517" s="22"/>
       <c r="N517" s="22"/>
@@ -24177,8 +24230,8 @@
       <c r="G518" s="22"/>
       <c r="H518" s="22"/>
       <c r="I518" s="22"/>
-      <c r="J518" s="33"/>
-      <c r="K518" s="33"/>
+      <c r="J518" s="36"/>
+      <c r="K518" s="36"/>
       <c r="L518" s="22"/>
       <c r="M518" s="22"/>
       <c r="N518" s="22"/>
@@ -24222,8 +24275,8 @@
       <c r="G519" s="22"/>
       <c r="H519" s="22"/>
       <c r="I519" s="22"/>
-      <c r="J519" s="33"/>
-      <c r="K519" s="33"/>
+      <c r="J519" s="36"/>
+      <c r="K519" s="36"/>
       <c r="L519" s="22"/>
       <c r="M519" s="22"/>
       <c r="N519" s="22"/>
@@ -24267,8 +24320,8 @@
       <c r="G520" s="22"/>
       <c r="H520" s="22"/>
       <c r="I520" s="22"/>
-      <c r="J520" s="33"/>
-      <c r="K520" s="33"/>
+      <c r="J520" s="36"/>
+      <c r="K520" s="36"/>
       <c r="L520" s="22"/>
       <c r="M520" s="22"/>
       <c r="N520" s="22"/>
@@ -24312,8 +24365,8 @@
       <c r="G521" s="22"/>
       <c r="H521" s="22"/>
       <c r="I521" s="22"/>
-      <c r="J521" s="33"/>
-      <c r="K521" s="33"/>
+      <c r="J521" s="36"/>
+      <c r="K521" s="36"/>
       <c r="L521" s="22"/>
       <c r="M521" s="22"/>
       <c r="N521" s="22"/>
@@ -24357,8 +24410,8 @@
       <c r="G522" s="22"/>
       <c r="H522" s="22"/>
       <c r="I522" s="22"/>
-      <c r="J522" s="33"/>
-      <c r="K522" s="33"/>
+      <c r="J522" s="36"/>
+      <c r="K522" s="36"/>
       <c r="L522" s="22"/>
       <c r="M522" s="22"/>
       <c r="N522" s="22"/>
@@ -24402,8 +24455,8 @@
       <c r="G523" s="22"/>
       <c r="H523" s="22"/>
       <c r="I523" s="22"/>
-      <c r="J523" s="33"/>
-      <c r="K523" s="33"/>
+      <c r="J523" s="36"/>
+      <c r="K523" s="36"/>
       <c r="L523" s="22"/>
       <c r="M523" s="22"/>
       <c r="N523" s="22"/>
@@ -24447,8 +24500,8 @@
       <c r="G524" s="22"/>
       <c r="H524" s="22"/>
       <c r="I524" s="22"/>
-      <c r="J524" s="33"/>
-      <c r="K524" s="33"/>
+      <c r="J524" s="36"/>
+      <c r="K524" s="36"/>
       <c r="L524" s="22"/>
       <c r="M524" s="22"/>
       <c r="N524" s="22"/>
@@ -24492,8 +24545,8 @@
       <c r="G525" s="22"/>
       <c r="H525" s="22"/>
       <c r="I525" s="22"/>
-      <c r="J525" s="33"/>
-      <c r="K525" s="33"/>
+      <c r="J525" s="36"/>
+      <c r="K525" s="36"/>
       <c r="L525" s="22"/>
       <c r="M525" s="22"/>
       <c r="N525" s="22"/>
@@ -24537,8 +24590,8 @@
       <c r="G526" s="22"/>
       <c r="H526" s="22"/>
       <c r="I526" s="22"/>
-      <c r="J526" s="33"/>
-      <c r="K526" s="33"/>
+      <c r="J526" s="36"/>
+      <c r="K526" s="36"/>
       <c r="L526" s="22"/>
       <c r="M526" s="22"/>
       <c r="N526" s="22"/>
@@ -24582,8 +24635,8 @@
       <c r="G527" s="22"/>
       <c r="H527" s="22"/>
       <c r="I527" s="22"/>
-      <c r="J527" s="33"/>
-      <c r="K527" s="33"/>
+      <c r="J527" s="36"/>
+      <c r="K527" s="36"/>
       <c r="L527" s="22"/>
       <c r="M527" s="22"/>
       <c r="N527" s="22"/>
@@ -24627,8 +24680,8 @@
       <c r="G528" s="22"/>
       <c r="H528" s="22"/>
       <c r="I528" s="22"/>
-      <c r="J528" s="33"/>
-      <c r="K528" s="33"/>
+      <c r="J528" s="36"/>
+      <c r="K528" s="36"/>
       <c r="L528" s="22"/>
       <c r="M528" s="22"/>
       <c r="N528" s="22"/>
@@ -24672,8 +24725,8 @@
       <c r="G529" s="22"/>
       <c r="H529" s="22"/>
       <c r="I529" s="22"/>
-      <c r="J529" s="33"/>
-      <c r="K529" s="33"/>
+      <c r="J529" s="36"/>
+      <c r="K529" s="36"/>
       <c r="L529" s="22"/>
       <c r="M529" s="22"/>
       <c r="N529" s="22"/>
@@ -24717,8 +24770,8 @@
       <c r="G530" s="22"/>
       <c r="H530" s="22"/>
       <c r="I530" s="22"/>
-      <c r="J530" s="33"/>
-      <c r="K530" s="33"/>
+      <c r="J530" s="36"/>
+      <c r="K530" s="36"/>
       <c r="L530" s="22"/>
       <c r="M530" s="22"/>
       <c r="N530" s="22"/>
@@ -24762,8 +24815,8 @@
       <c r="G531" s="22"/>
       <c r="H531" s="22"/>
       <c r="I531" s="22"/>
-      <c r="J531" s="33"/>
-      <c r="K531" s="33"/>
+      <c r="J531" s="36"/>
+      <c r="K531" s="36"/>
       <c r="L531" s="22"/>
       <c r="M531" s="22"/>
       <c r="N531" s="22"/>
@@ -24807,8 +24860,8 @@
       <c r="G532" s="22"/>
       <c r="H532" s="22"/>
       <c r="I532" s="22"/>
-      <c r="J532" s="33"/>
-      <c r="K532" s="33"/>
+      <c r="J532" s="36"/>
+      <c r="K532" s="36"/>
       <c r="L532" s="22"/>
       <c r="M532" s="22"/>
       <c r="N532" s="22"/>
@@ -24852,8 +24905,8 @@
       <c r="G533" s="22"/>
       <c r="H533" s="22"/>
       <c r="I533" s="22"/>
-      <c r="J533" s="33"/>
-      <c r="K533" s="33"/>
+      <c r="J533" s="36"/>
+      <c r="K533" s="36"/>
       <c r="L533" s="22"/>
       <c r="M533" s="22"/>
       <c r="N533" s="22"/>
@@ -24897,8 +24950,8 @@
       <c r="G534" s="22"/>
       <c r="H534" s="22"/>
       <c r="I534" s="22"/>
-      <c r="J534" s="33"/>
-      <c r="K534" s="33"/>
+      <c r="J534" s="36"/>
+      <c r="K534" s="36"/>
       <c r="L534" s="22"/>
       <c r="M534" s="22"/>
       <c r="N534" s="22"/>
@@ -24942,8 +24995,8 @@
       <c r="G535" s="22"/>
       <c r="H535" s="22"/>
       <c r="I535" s="22"/>
-      <c r="J535" s="33"/>
-      <c r="K535" s="33"/>
+      <c r="J535" s="36"/>
+      <c r="K535" s="36"/>
       <c r="L535" s="22"/>
       <c r="M535" s="22"/>
       <c r="N535" s="22"/>
@@ -24987,8 +25040,8 @@
       <c r="G536" s="22"/>
       <c r="H536" s="22"/>
       <c r="I536" s="22"/>
-      <c r="J536" s="33"/>
-      <c r="K536" s="33"/>
+      <c r="J536" s="36"/>
+      <c r="K536" s="36"/>
       <c r="L536" s="22"/>
       <c r="M536" s="22"/>
       <c r="N536" s="22"/>
@@ -25032,8 +25085,8 @@
       <c r="G537" s="22"/>
       <c r="H537" s="22"/>
       <c r="I537" s="22"/>
-      <c r="J537" s="33"/>
-      <c r="K537" s="33"/>
+      <c r="J537" s="36"/>
+      <c r="K537" s="36"/>
       <c r="L537" s="22"/>
       <c r="M537" s="22"/>
       <c r="N537" s="22"/>
@@ -25077,8 +25130,8 @@
       <c r="G538" s="22"/>
       <c r="H538" s="22"/>
       <c r="I538" s="22"/>
-      <c r="J538" s="33"/>
-      <c r="K538" s="33"/>
+      <c r="J538" s="36"/>
+      <c r="K538" s="36"/>
       <c r="L538" s="22"/>
       <c r="M538" s="22"/>
       <c r="N538" s="22"/>
@@ -25122,8 +25175,8 @@
       <c r="G539" s="22"/>
       <c r="H539" s="22"/>
       <c r="I539" s="22"/>
-      <c r="J539" s="33"/>
-      <c r="K539" s="33"/>
+      <c r="J539" s="36"/>
+      <c r="K539" s="36"/>
       <c r="L539" s="22"/>
       <c r="M539" s="22"/>
       <c r="N539" s="22"/>
@@ -25167,8 +25220,8 @@
       <c r="G540" s="22"/>
       <c r="H540" s="22"/>
       <c r="I540" s="22"/>
-      <c r="J540" s="33"/>
-      <c r="K540" s="33"/>
+      <c r="J540" s="36"/>
+      <c r="K540" s="36"/>
       <c r="L540" s="22"/>
       <c r="M540" s="22"/>
       <c r="N540" s="22"/>
@@ -25212,8 +25265,8 @@
       <c r="G541" s="22"/>
       <c r="H541" s="22"/>
       <c r="I541" s="22"/>
-      <c r="J541" s="33"/>
-      <c r="K541" s="33"/>
+      <c r="J541" s="36"/>
+      <c r="K541" s="36"/>
       <c r="L541" s="22"/>
       <c r="M541" s="22"/>
       <c r="N541" s="22"/>
@@ -25257,8 +25310,8 @@
       <c r="G542" s="22"/>
       <c r="H542" s="22"/>
       <c r="I542" s="22"/>
-      <c r="J542" s="33"/>
-      <c r="K542" s="33"/>
+      <c r="J542" s="36"/>
+      <c r="K542" s="36"/>
       <c r="L542" s="22"/>
       <c r="M542" s="22"/>
       <c r="N542" s="22"/>
@@ -25302,8 +25355,8 @@
       <c r="G543" s="22"/>
       <c r="H543" s="22"/>
       <c r="I543" s="22"/>
-      <c r="J543" s="33"/>
-      <c r="K543" s="33"/>
+      <c r="J543" s="36"/>
+      <c r="K543" s="36"/>
       <c r="L543" s="22"/>
       <c r="M543" s="22"/>
       <c r="N543" s="22"/>
@@ -25347,8 +25400,8 @@
       <c r="G544" s="22"/>
       <c r="H544" s="22"/>
       <c r="I544" s="22"/>
-      <c r="J544" s="33"/>
-      <c r="K544" s="33"/>
+      <c r="J544" s="36"/>
+      <c r="K544" s="36"/>
       <c r="L544" s="22"/>
       <c r="M544" s="22"/>
       <c r="N544" s="22"/>
@@ -25392,8 +25445,8 @@
       <c r="G545" s="22"/>
       <c r="H545" s="22"/>
       <c r="I545" s="22"/>
-      <c r="J545" s="33"/>
-      <c r="K545" s="33"/>
+      <c r="J545" s="36"/>
+      <c r="K545" s="36"/>
       <c r="L545" s="22"/>
       <c r="M545" s="22"/>
       <c r="N545" s="22"/>
@@ -25437,8 +25490,8 @@
       <c r="G546" s="22"/>
       <c r="H546" s="22"/>
       <c r="I546" s="22"/>
-      <c r="J546" s="33"/>
-      <c r="K546" s="33"/>
+      <c r="J546" s="36"/>
+      <c r="K546" s="36"/>
       <c r="L546" s="22"/>
       <c r="M546" s="22"/>
       <c r="N546" s="22"/>
@@ -25482,8 +25535,8 @@
       <c r="G547" s="22"/>
       <c r="H547" s="22"/>
       <c r="I547" s="22"/>
-      <c r="J547" s="33"/>
-      <c r="K547" s="33"/>
+      <c r="J547" s="36"/>
+      <c r="K547" s="36"/>
       <c r="L547" s="22"/>
       <c r="M547" s="22"/>
       <c r="N547" s="22"/>
@@ -25527,8 +25580,8 @@
       <c r="G548" s="22"/>
       <c r="H548" s="22"/>
       <c r="I548" s="22"/>
-      <c r="J548" s="33"/>
-      <c r="K548" s="33"/>
+      <c r="J548" s="36"/>
+      <c r="K548" s="36"/>
       <c r="L548" s="22"/>
       <c r="M548" s="22"/>
       <c r="N548" s="22"/>
@@ -25572,8 +25625,8 @@
       <c r="G549" s="22"/>
       <c r="H549" s="22"/>
       <c r="I549" s="22"/>
-      <c r="J549" s="33"/>
-      <c r="K549" s="33"/>
+      <c r="J549" s="36"/>
+      <c r="K549" s="36"/>
       <c r="L549" s="22"/>
       <c r="M549" s="22"/>
       <c r="N549" s="22"/>
@@ -25617,8 +25670,8 @@
       <c r="G550" s="22"/>
       <c r="H550" s="22"/>
       <c r="I550" s="22"/>
-      <c r="J550" s="33"/>
-      <c r="K550" s="33"/>
+      <c r="J550" s="36"/>
+      <c r="K550" s="36"/>
       <c r="L550" s="22"/>
       <c r="M550" s="22"/>
       <c r="N550" s="22"/>
@@ -25662,8 +25715,8 @@
       <c r="G551" s="22"/>
       <c r="H551" s="22"/>
       <c r="I551" s="22"/>
-      <c r="J551" s="33"/>
-      <c r="K551" s="33"/>
+      <c r="J551" s="36"/>
+      <c r="K551" s="36"/>
       <c r="L551" s="22"/>
       <c r="M551" s="22"/>
       <c r="N551" s="22"/>
@@ -25707,8 +25760,8 @@
       <c r="G552" s="22"/>
       <c r="H552" s="22"/>
       <c r="I552" s="22"/>
-      <c r="J552" s="33"/>
-      <c r="K552" s="33"/>
+      <c r="J552" s="36"/>
+      <c r="K552" s="36"/>
       <c r="L552" s="22"/>
       <c r="M552" s="22"/>
       <c r="N552" s="22"/>
@@ -25752,8 +25805,8 @@
       <c r="G553" s="22"/>
       <c r="H553" s="22"/>
       <c r="I553" s="22"/>
-      <c r="J553" s="33"/>
-      <c r="K553" s="33"/>
+      <c r="J553" s="36"/>
+      <c r="K553" s="36"/>
       <c r="L553" s="22"/>
       <c r="M553" s="22"/>
       <c r="N553" s="22"/>
@@ -25797,8 +25850,8 @@
       <c r="G554" s="22"/>
       <c r="H554" s="22"/>
       <c r="I554" s="22"/>
-      <c r="J554" s="33"/>
-      <c r="K554" s="33"/>
+      <c r="J554" s="36"/>
+      <c r="K554" s="36"/>
       <c r="L554" s="22"/>
       <c r="M554" s="22"/>
       <c r="N554" s="22"/>
@@ -25842,8 +25895,8 @@
       <c r="G555" s="22"/>
       <c r="H555" s="22"/>
       <c r="I555" s="22"/>
-      <c r="J555" s="33"/>
-      <c r="K555" s="33"/>
+      <c r="J555" s="36"/>
+      <c r="K555" s="36"/>
       <c r="L555" s="22"/>
       <c r="M555" s="22"/>
       <c r="N555" s="22"/>
@@ -25887,8 +25940,8 @@
       <c r="G556" s="22"/>
       <c r="H556" s="22"/>
       <c r="I556" s="22"/>
-      <c r="J556" s="33"/>
-      <c r="K556" s="33"/>
+      <c r="J556" s="36"/>
+      <c r="K556" s="36"/>
       <c r="L556" s="22"/>
       <c r="M556" s="22"/>
       <c r="N556" s="22"/>
@@ -25932,8 +25985,8 @@
       <c r="G557" s="22"/>
       <c r="H557" s="22"/>
       <c r="I557" s="22"/>
-      <c r="J557" s="33"/>
-      <c r="K557" s="33"/>
+      <c r="J557" s="36"/>
+      <c r="K557" s="36"/>
       <c r="L557" s="22"/>
       <c r="M557" s="22"/>
       <c r="N557" s="22"/>
@@ -25977,8 +26030,8 @@
       <c r="G558" s="22"/>
       <c r="H558" s="22"/>
       <c r="I558" s="22"/>
-      <c r="J558" s="33"/>
-      <c r="K558" s="33"/>
+      <c r="J558" s="36"/>
+      <c r="K558" s="36"/>
       <c r="L558" s="22"/>
       <c r="M558" s="22"/>
       <c r="N558" s="22"/>
@@ -26022,8 +26075,8 @@
       <c r="G559" s="22"/>
       <c r="H559" s="22"/>
       <c r="I559" s="22"/>
-      <c r="J559" s="33"/>
-      <c r="K559" s="33"/>
+      <c r="J559" s="36"/>
+      <c r="K559" s="36"/>
       <c r="L559" s="22"/>
       <c r="M559" s="22"/>
       <c r="N559" s="22"/>
@@ -26067,8 +26120,8 @@
       <c r="G560" s="22"/>
       <c r="H560" s="22"/>
       <c r="I560" s="22"/>
-      <c r="J560" s="33"/>
-      <c r="K560" s="33"/>
+      <c r="J560" s="36"/>
+      <c r="K560" s="36"/>
       <c r="L560" s="22"/>
       <c r="M560" s="22"/>
       <c r="N560" s="22"/>
@@ -26112,8 +26165,8 @@
       <c r="G561" s="22"/>
       <c r="H561" s="22"/>
       <c r="I561" s="22"/>
-      <c r="J561" s="33"/>
-      <c r="K561" s="33"/>
+      <c r="J561" s="36"/>
+      <c r="K561" s="36"/>
       <c r="L561" s="22"/>
       <c r="M561" s="22"/>
       <c r="N561" s="22"/>
@@ -26157,8 +26210,8 @@
       <c r="G562" s="22"/>
       <c r="H562" s="22"/>
       <c r="I562" s="22"/>
-      <c r="J562" s="33"/>
-      <c r="K562" s="33"/>
+      <c r="J562" s="36"/>
+      <c r="K562" s="36"/>
       <c r="L562" s="22"/>
       <c r="M562" s="22"/>
       <c r="N562" s="22"/>
@@ -26202,8 +26255,8 @@
       <c r="G563" s="22"/>
       <c r="H563" s="22"/>
       <c r="I563" s="22"/>
-      <c r="J563" s="33"/>
-      <c r="K563" s="33"/>
+      <c r="J563" s="36"/>
+      <c r="K563" s="36"/>
       <c r="L563" s="22"/>
       <c r="M563" s="22"/>
       <c r="N563" s="22"/>
@@ -26247,8 +26300,8 @@
       <c r="G564" s="22"/>
       <c r="H564" s="22"/>
       <c r="I564" s="22"/>
-      <c r="J564" s="33"/>
-      <c r="K564" s="33"/>
+      <c r="J564" s="36"/>
+      <c r="K564" s="36"/>
       <c r="L564" s="22"/>
       <c r="M564" s="22"/>
       <c r="N564" s="22"/>
@@ -26292,8 +26345,8 @@
       <c r="G565" s="22"/>
       <c r="H565" s="22"/>
       <c r="I565" s="22"/>
-      <c r="J565" s="33"/>
-      <c r="K565" s="33"/>
+      <c r="J565" s="36"/>
+      <c r="K565" s="36"/>
       <c r="L565" s="22"/>
       <c r="M565" s="22"/>
       <c r="N565" s="22"/>
@@ -26337,8 +26390,8 @@
       <c r="G566" s="22"/>
       <c r="H566" s="22"/>
       <c r="I566" s="22"/>
-      <c r="J566" s="33"/>
-      <c r="K566" s="33"/>
+      <c r="J566" s="36"/>
+      <c r="K566" s="36"/>
       <c r="L566" s="22"/>
       <c r="M566" s="22"/>
       <c r="N566" s="22"/>
@@ -26382,8 +26435,8 @@
       <c r="G567" s="22"/>
       <c r="H567" s="22"/>
       <c r="I567" s="22"/>
-      <c r="J567" s="33"/>
-      <c r="K567" s="33"/>
+      <c r="J567" s="36"/>
+      <c r="K567" s="36"/>
       <c r="L567" s="22"/>
       <c r="M567" s="22"/>
       <c r="N567" s="22"/>
@@ -26427,8 +26480,8 @@
       <c r="G568" s="22"/>
       <c r="H568" s="22"/>
       <c r="I568" s="22"/>
-      <c r="J568" s="33"/>
-      <c r="K568" s="33"/>
+      <c r="J568" s="36"/>
+      <c r="K568" s="36"/>
       <c r="L568" s="22"/>
       <c r="M568" s="22"/>
       <c r="N568" s="22"/>
@@ -26472,8 +26525,8 @@
       <c r="G569" s="22"/>
       <c r="H569" s="22"/>
       <c r="I569" s="22"/>
-      <c r="J569" s="33"/>
-      <c r="K569" s="33"/>
+      <c r="J569" s="36"/>
+      <c r="K569" s="36"/>
       <c r="L569" s="22"/>
       <c r="M569" s="22"/>
       <c r="N569" s="22"/>
@@ -26517,8 +26570,8 @@
       <c r="G570" s="22"/>
       <c r="H570" s="22"/>
       <c r="I570" s="22"/>
-      <c r="J570" s="33"/>
-      <c r="K570" s="33"/>
+      <c r="J570" s="36"/>
+      <c r="K570" s="36"/>
       <c r="L570" s="22"/>
       <c r="M570" s="22"/>
       <c r="N570" s="22"/>
@@ -26562,8 +26615,8 @@
       <c r="G571" s="22"/>
       <c r="H571" s="22"/>
       <c r="I571" s="22"/>
-      <c r="J571" s="33"/>
-      <c r="K571" s="33"/>
+      <c r="J571" s="36"/>
+      <c r="K571" s="36"/>
       <c r="L571" s="22"/>
       <c r="M571" s="22"/>
       <c r="N571" s="22"/>
@@ -26607,8 +26660,8 @@
       <c r="G572" s="22"/>
       <c r="H572" s="22"/>
       <c r="I572" s="22"/>
-      <c r="J572" s="33"/>
-      <c r="K572" s="33"/>
+      <c r="J572" s="36"/>
+      <c r="K572" s="36"/>
       <c r="L572" s="22"/>
       <c r="M572" s="22"/>
       <c r="N572" s="22"/>
@@ -26652,8 +26705,8 @@
       <c r="G573" s="22"/>
       <c r="H573" s="22"/>
       <c r="I573" s="22"/>
-      <c r="J573" s="33"/>
-      <c r="K573" s="33"/>
+      <c r="J573" s="36"/>
+      <c r="K573" s="36"/>
       <c r="L573" s="22"/>
       <c r="M573" s="22"/>
       <c r="N573" s="22"/>
@@ -26697,8 +26750,8 @@
       <c r="G574" s="22"/>
       <c r="H574" s="22"/>
       <c r="I574" s="22"/>
-      <c r="J574" s="33"/>
-      <c r="K574" s="33"/>
+      <c r="J574" s="36"/>
+      <c r="K574" s="36"/>
       <c r="L574" s="22"/>
       <c r="M574" s="22"/>
       <c r="N574" s="22"/>
@@ -26742,8 +26795,8 @@
       <c r="G575" s="22"/>
       <c r="H575" s="22"/>
       <c r="I575" s="22"/>
-      <c r="J575" s="33"/>
-      <c r="K575" s="33"/>
+      <c r="J575" s="36"/>
+      <c r="K575" s="36"/>
       <c r="L575" s="22"/>
       <c r="M575" s="22"/>
       <c r="N575" s="22"/>
@@ -26787,8 +26840,8 @@
       <c r="G576" s="22"/>
       <c r="H576" s="22"/>
       <c r="I576" s="22"/>
-      <c r="J576" s="33"/>
-      <c r="K576" s="33"/>
+      <c r="J576" s="36"/>
+      <c r="K576" s="36"/>
       <c r="L576" s="22"/>
       <c r="M576" s="22"/>
       <c r="N576" s="22"/>
@@ -26832,8 +26885,8 @@
       <c r="G577" s="22"/>
       <c r="H577" s="22"/>
       <c r="I577" s="22"/>
-      <c r="J577" s="33"/>
-      <c r="K577" s="33"/>
+      <c r="J577" s="36"/>
+      <c r="K577" s="36"/>
       <c r="L577" s="22"/>
       <c r="M577" s="22"/>
       <c r="N577" s="22"/>
@@ -26877,8 +26930,8 @@
       <c r="G578" s="22"/>
       <c r="H578" s="22"/>
       <c r="I578" s="22"/>
-      <c r="J578" s="33"/>
-      <c r="K578" s="33"/>
+      <c r="J578" s="36"/>
+      <c r="K578" s="36"/>
       <c r="L578" s="22"/>
       <c r="M578" s="22"/>
       <c r="N578" s="22"/>
@@ -26922,8 +26975,8 @@
       <c r="G579" s="22"/>
       <c r="H579" s="22"/>
       <c r="I579" s="22"/>
-      <c r="J579" s="33"/>
-      <c r="K579" s="33"/>
+      <c r="J579" s="36"/>
+      <c r="K579" s="36"/>
       <c r="L579" s="22"/>
       <c r="M579" s="22"/>
       <c r="N579" s="22"/>
@@ -26967,8 +27020,8 @@
       <c r="G580" s="22"/>
       <c r="H580" s="22"/>
       <c r="I580" s="22"/>
-      <c r="J580" s="33"/>
-      <c r="K580" s="33"/>
+      <c r="J580" s="36"/>
+      <c r="K580" s="36"/>
       <c r="L580" s="22"/>
       <c r="M580" s="22"/>
       <c r="N580" s="22"/>
@@ -27012,8 +27065,8 @@
       <c r="G581" s="22"/>
       <c r="H581" s="22"/>
       <c r="I581" s="22"/>
-      <c r="J581" s="33"/>
-      <c r="K581" s="33"/>
+      <c r="J581" s="36"/>
+      <c r="K581" s="36"/>
       <c r="L581" s="22"/>
       <c r="M581" s="22"/>
       <c r="N581" s="22"/>
@@ -27057,8 +27110,8 @@
       <c r="G582" s="22"/>
       <c r="H582" s="22"/>
       <c r="I582" s="22"/>
-      <c r="J582" s="33"/>
-      <c r="K582" s="33"/>
+      <c r="J582" s="36"/>
+      <c r="K582" s="36"/>
       <c r="L582" s="22"/>
       <c r="M582" s="22"/>
       <c r="N582" s="22"/>
@@ -27102,8 +27155,8 @@
       <c r="G583" s="22"/>
       <c r="H583" s="22"/>
       <c r="I583" s="22"/>
-      <c r="J583" s="33"/>
-      <c r="K583" s="33"/>
+      <c r="J583" s="36"/>
+      <c r="K583" s="36"/>
       <c r="L583" s="22"/>
       <c r="M583" s="22"/>
       <c r="N583" s="22"/>
@@ -27147,8 +27200,8 @@
       <c r="G584" s="22"/>
       <c r="H584" s="22"/>
       <c r="I584" s="22"/>
-      <c r="J584" s="33"/>
-      <c r="K584" s="33"/>
+      <c r="J584" s="36"/>
+      <c r="K584" s="36"/>
       <c r="L584" s="22"/>
       <c r="M584" s="22"/>
       <c r="N584" s="22"/>
@@ -27192,8 +27245,8 @@
       <c r="G585" s="22"/>
       <c r="H585" s="22"/>
       <c r="I585" s="22"/>
-      <c r="J585" s="33"/>
-      <c r="K585" s="33"/>
+      <c r="J585" s="36"/>
+      <c r="K585" s="36"/>
       <c r="L585" s="22"/>
       <c r="M585" s="22"/>
       <c r="N585" s="22"/>
@@ -27237,8 +27290,8 @@
       <c r="G586" s="22"/>
       <c r="H586" s="22"/>
       <c r="I586" s="22"/>
-      <c r="J586" s="33"/>
-      <c r="K586" s="33"/>
+      <c r="J586" s="36"/>
+      <c r="K586" s="36"/>
       <c r="L586" s="22"/>
       <c r="M586" s="22"/>
       <c r="N586" s="22"/>
@@ -27282,8 +27335,8 @@
       <c r="G587" s="22"/>
       <c r="H587" s="22"/>
       <c r="I587" s="22"/>
-      <c r="J587" s="33"/>
-      <c r="K587" s="33"/>
+      <c r="J587" s="36"/>
+      <c r="K587" s="36"/>
       <c r="L587" s="22"/>
       <c r="M587" s="22"/>
       <c r="N587" s="22"/>
@@ -27327,8 +27380,8 @@
       <c r="G588" s="22"/>
       <c r="H588" s="22"/>
       <c r="I588" s="22"/>
-      <c r="J588" s="33"/>
-      <c r="K588" s="33"/>
+      <c r="J588" s="36"/>
+      <c r="K588" s="36"/>
       <c r="L588" s="22"/>
       <c r="M588" s="22"/>
       <c r="N588" s="22"/>
@@ -27372,8 +27425,8 @@
       <c r="G589" s="22"/>
       <c r="H589" s="22"/>
       <c r="I589" s="22"/>
-      <c r="J589" s="33"/>
-      <c r="K589" s="33"/>
+      <c r="J589" s="36"/>
+      <c r="K589" s="36"/>
       <c r="L589" s="22"/>
       <c r="M589" s="22"/>
       <c r="N589" s="22"/>
@@ -27417,8 +27470,8 @@
       <c r="G590" s="22"/>
       <c r="H590" s="22"/>
       <c r="I590" s="22"/>
-      <c r="J590" s="33"/>
-      <c r="K590" s="33"/>
+      <c r="J590" s="36"/>
+      <c r="K590" s="36"/>
       <c r="L590" s="22"/>
       <c r="M590" s="22"/>
       <c r="N590" s="22"/>
@@ -27462,8 +27515,8 @@
       <c r="G591" s="22"/>
       <c r="H591" s="22"/>
       <c r="I591" s="22"/>
-      <c r="J591" s="33"/>
-      <c r="K591" s="33"/>
+      <c r="J591" s="36"/>
+      <c r="K591" s="36"/>
       <c r="L591" s="22"/>
       <c r="M591" s="22"/>
       <c r="N591" s="22"/>
@@ -27507,8 +27560,8 @@
       <c r="G592" s="22"/>
       <c r="H592" s="22"/>
       <c r="I592" s="22"/>
-      <c r="J592" s="33"/>
-      <c r="K592" s="33"/>
+      <c r="J592" s="36"/>
+      <c r="K592" s="36"/>
       <c r="L592" s="22"/>
       <c r="M592" s="22"/>
       <c r="N592" s="22"/>
@@ -27552,8 +27605,8 @@
       <c r="G593" s="22"/>
       <c r="H593" s="22"/>
       <c r="I593" s="22"/>
-      <c r="J593" s="33"/>
-      <c r="K593" s="33"/>
+      <c r="J593" s="36"/>
+      <c r="K593" s="36"/>
       <c r="L593" s="22"/>
       <c r="M593" s="22"/>
       <c r="N593" s="22"/>
@@ -27597,8 +27650,8 @@
       <c r="G594" s="22"/>
       <c r="H594" s="22"/>
       <c r="I594" s="22"/>
-      <c r="J594" s="33"/>
-      <c r="K594" s="33"/>
+      <c r="J594" s="36"/>
+      <c r="K594" s="36"/>
       <c r="L594" s="22"/>
       <c r="M594" s="22"/>
       <c r="N594" s="22"/>
@@ -27642,8 +27695,8 @@
       <c r="G595" s="22"/>
       <c r="H595" s="22"/>
       <c r="I595" s="22"/>
-      <c r="J595" s="33"/>
-      <c r="K595" s="33"/>
+      <c r="J595" s="36"/>
+      <c r="K595" s="36"/>
       <c r="L595" s="22"/>
       <c r="M595" s="22"/>
       <c r="N595" s="22"/>
@@ -27687,8 +27740,8 @@
       <c r="G596" s="22"/>
       <c r="H596" s="22"/>
       <c r="I596" s="22"/>
-      <c r="J596" s="33"/>
-      <c r="K596" s="33"/>
+      <c r="J596" s="36"/>
+      <c r="K596" s="36"/>
       <c r="L596" s="22"/>
       <c r="M596" s="22"/>
       <c r="N596" s="22"/>
@@ -27732,8 +27785,8 @@
       <c r="G597" s="22"/>
       <c r="H597" s="22"/>
       <c r="I597" s="22"/>
-      <c r="J597" s="33"/>
-      <c r="K597" s="33"/>
+      <c r="J597" s="36"/>
+      <c r="K597" s="36"/>
       <c r="L597" s="22"/>
       <c r="M597" s="22"/>
       <c r="N597" s="22"/>
@@ -27777,8 +27830,8 @@
       <c r="G598" s="22"/>
       <c r="H598" s="22"/>
       <c r="I598" s="22"/>
-      <c r="J598" s="33"/>
-      <c r="K598" s="33"/>
+      <c r="J598" s="36"/>
+      <c r="K598" s="36"/>
       <c r="L598" s="22"/>
       <c r="M598" s="22"/>
       <c r="N598" s="22"/>
@@ -27822,8 +27875,8 @@
       <c r="G599" s="22"/>
       <c r="H599" s="22"/>
       <c r="I599" s="22"/>
-      <c r="J599" s="33"/>
-      <c r="K599" s="33"/>
+      <c r="J599" s="36"/>
+      <c r="K599" s="36"/>
       <c r="L599" s="22"/>
       <c r="M599" s="22"/>
       <c r="N599" s="22"/>
@@ -27867,8 +27920,8 @@
       <c r="G600" s="22"/>
       <c r="H600" s="22"/>
       <c r="I600" s="22"/>
-      <c r="J600" s="33"/>
-      <c r="K600" s="33"/>
+      <c r="J600" s="36"/>
+      <c r="K600" s="36"/>
       <c r="L600" s="22"/>
       <c r="M600" s="22"/>
       <c r="N600" s="22"/>
@@ -27912,8 +27965,8 @@
       <c r="G601" s="22"/>
       <c r="H601" s="22"/>
       <c r="I601" s="22"/>
-      <c r="J601" s="33"/>
-      <c r="K601" s="33"/>
+      <c r="J601" s="36"/>
+      <c r="K601" s="36"/>
       <c r="L601" s="22"/>
       <c r="M601" s="22"/>
       <c r="N601" s="22"/>
@@ -27957,8 +28010,8 @@
       <c r="G602" s="22"/>
       <c r="H602" s="22"/>
       <c r="I602" s="22"/>
-      <c r="J602" s="33"/>
-      <c r="K602" s="33"/>
+      <c r="J602" s="36"/>
+      <c r="K602" s="36"/>
       <c r="L602" s="22"/>
       <c r="M602" s="22"/>
       <c r="N602" s="22"/>
@@ -28002,8 +28055,8 @@
       <c r="G603" s="22"/>
       <c r="H603" s="22"/>
       <c r="I603" s="22"/>
-      <c r="J603" s="33"/>
-      <c r="K603" s="33"/>
+      <c r="J603" s="36"/>
+      <c r="K603" s="36"/>
       <c r="L603" s="22"/>
       <c r="M603" s="22"/>
       <c r="N603" s="22"/>
@@ -28047,8 +28100,8 @@
       <c r="G604" s="22"/>
       <c r="H604" s="22"/>
       <c r="I604" s="22"/>
-      <c r="J604" s="33"/>
-      <c r="K604" s="33"/>
+      <c r="J604" s="36"/>
+      <c r="K604" s="36"/>
       <c r="L604" s="22"/>
       <c r="M604" s="22"/>
       <c r="N604" s="22"/>
@@ -28092,8 +28145,8 @@
       <c r="G605" s="22"/>
       <c r="H605" s="22"/>
       <c r="I605" s="22"/>
-      <c r="J605" s="33"/>
-      <c r="K605" s="33"/>
+      <c r="J605" s="36"/>
+      <c r="K605" s="36"/>
       <c r="L605" s="22"/>
       <c r="M605" s="22"/>
       <c r="N605" s="22"/>
@@ -28137,8 +28190,8 @@
       <c r="G606" s="22"/>
       <c r="H606" s="22"/>
       <c r="I606" s="22"/>
-      <c r="J606" s="33"/>
-      <c r="K606" s="33"/>
+      <c r="J606" s="36"/>
+      <c r="K606" s="36"/>
       <c r="L606" s="22"/>
       <c r="M606" s="22"/>
       <c r="N606" s="22"/>
@@ -28182,8 +28235,8 @@
       <c r="G607" s="22"/>
       <c r="H607" s="22"/>
       <c r="I607" s="22"/>
-      <c r="J607" s="33"/>
-      <c r="K607" s="33"/>
+      <c r="J607" s="36"/>
+      <c r="K607" s="36"/>
       <c r="L607" s="22"/>
       <c r="M607" s="22"/>
       <c r="N607" s="22"/>
@@ -28227,8 +28280,8 @@
       <c r="G608" s="22"/>
       <c r="H608" s="22"/>
       <c r="I608" s="22"/>
-      <c r="J608" s="33"/>
-      <c r="K608" s="33"/>
+      <c r="J608" s="36"/>
+      <c r="K608" s="36"/>
       <c r="L608" s="22"/>
       <c r="M608" s="22"/>
       <c r="N608" s="22"/>
@@ -28272,8 +28325,8 @@
       <c r="G609" s="22"/>
       <c r="H609" s="22"/>
       <c r="I609" s="22"/>
-      <c r="J609" s="33"/>
-      <c r="K609" s="33"/>
+      <c r="J609" s="36"/>
+      <c r="K609" s="36"/>
       <c r="L609" s="22"/>
       <c r="M609" s="22"/>
       <c r="N609" s="22"/>
@@ -28317,8 +28370,8 @@
       <c r="G610" s="22"/>
       <c r="H610" s="22"/>
       <c r="I610" s="22"/>
-      <c r="J610" s="33"/>
-      <c r="K610" s="33"/>
+      <c r="J610" s="36"/>
+      <c r="K610" s="36"/>
       <c r="L610" s="22"/>
       <c r="M610" s="22"/>
       <c r="N610" s="22"/>
@@ -28362,8 +28415,8 @@
       <c r="G611" s="22"/>
       <c r="H611" s="22"/>
       <c r="I611" s="22"/>
-      <c r="J611" s="33"/>
-      <c r="K611" s="33"/>
+      <c r="J611" s="36"/>
+      <c r="K611" s="36"/>
       <c r="L611" s="22"/>
       <c r="M611" s="22"/>
       <c r="N611" s="22"/>
@@ -28407,8 +28460,8 @@
       <c r="G612" s="22"/>
       <c r="H612" s="22"/>
       <c r="I612" s="22"/>
-      <c r="J612" s="33"/>
-      <c r="K612" s="33"/>
+      <c r="J612" s="36"/>
+      <c r="K612" s="36"/>
       <c r="L612" s="22"/>
       <c r="M612" s="22"/>
       <c r="N612" s="22"/>
@@ -28452,8 +28505,8 @@
       <c r="G613" s="22"/>
       <c r="H613" s="22"/>
       <c r="I613" s="22"/>
-      <c r="J613" s="33"/>
-      <c r="K613" s="33"/>
+      <c r="J613" s="36"/>
+      <c r="K613" s="36"/>
       <c r="L613" s="22"/>
       <c r="M613" s="22"/>
       <c r="N613" s="22"/>
@@ -28497,8 +28550,8 @@
       <c r="G614" s="22"/>
       <c r="H614" s="22"/>
       <c r="I614" s="22"/>
-      <c r="J614" s="33"/>
-      <c r="K614" s="33"/>
+      <c r="J614" s="36"/>
+      <c r="K614" s="36"/>
       <c r="L614" s="22"/>
       <c r="M614" s="22"/>
       <c r="N614" s="22"/>
@@ -28542,8 +28595,8 @@
       <c r="G615" s="22"/>
       <c r="H615" s="22"/>
       <c r="I615" s="22"/>
-      <c r="J615" s="33"/>
-      <c r="K615" s="33"/>
+      <c r="J615" s="36"/>
+      <c r="K615" s="36"/>
       <c r="L615" s="22"/>
       <c r="M615" s="22"/>
       <c r="N615" s="22"/>
@@ -28587,8 +28640,8 @@
       <c r="G616" s="22"/>
       <c r="H616" s="22"/>
       <c r="I616" s="22"/>
-      <c r="J616" s="33"/>
-      <c r="K616" s="33"/>
+      <c r="J616" s="36"/>
+      <c r="K616" s="36"/>
       <c r="L616" s="22"/>
       <c r="M616" s="22"/>
       <c r="N616" s="22"/>
@@ -28632,8 +28685,8 @@
       <c r="G617" s="22"/>
       <c r="H617" s="22"/>
       <c r="I617" s="22"/>
-      <c r="J617" s="33"/>
-      <c r="K617" s="33"/>
+      <c r="J617" s="36"/>
+      <c r="K617" s="36"/>
       <c r="L617" s="22"/>
       <c r="M617" s="22"/>
       <c r="N617" s="22"/>
@@ -28677,8 +28730,8 @@
       <c r="G618" s="22"/>
       <c r="H618" s="22"/>
       <c r="I618" s="22"/>
-      <c r="J618" s="33"/>
-      <c r="K618" s="33"/>
+      <c r="J618" s="36"/>
+      <c r="K618" s="36"/>
       <c r="L618" s="22"/>
       <c r="M618" s="22"/>
       <c r="N618" s="22"/>
@@ -28722,8 +28775,8 @@
       <c r="G619" s="22"/>
       <c r="H619" s="22"/>
       <c r="I619" s="22"/>
-      <c r="J619" s="33"/>
-      <c r="K619" s="33"/>
+      <c r="J619" s="36"/>
+      <c r="K619" s="36"/>
       <c r="L619" s="22"/>
       <c r="M619" s="22"/>
       <c r="N619" s="22"/>
@@ -28767,8 +28820,8 @@
       <c r="G620" s="22"/>
       <c r="H620" s="22"/>
       <c r="I620" s="22"/>
-      <c r="J620" s="33"/>
-      <c r="K620" s="33"/>
+      <c r="J620" s="36"/>
+      <c r="K620" s="36"/>
       <c r="L620" s="22"/>
       <c r="M620" s="22"/>
       <c r="N620" s="22"/>
@@ -28812,8 +28865,8 @@
       <c r="G621" s="22"/>
       <c r="H621" s="22"/>
       <c r="I621" s="22"/>
-      <c r="J621" s="33"/>
-      <c r="K621" s="33"/>
+      <c r="J621" s="36"/>
+      <c r="K621" s="36"/>
       <c r="L621" s="22"/>
       <c r="M621" s="22"/>
       <c r="N621" s="22"/>
@@ -28857,8 +28910,8 @@
       <c r="G622" s="22"/>
       <c r="H622" s="22"/>
       <c r="I622" s="22"/>
-      <c r="J622" s="33"/>
-      <c r="K622" s="33"/>
+      <c r="J622" s="36"/>
+      <c r="K622" s="36"/>
       <c r="L622" s="22"/>
       <c r="M622" s="22"/>
       <c r="N622" s="22"/>
@@ -28902,8 +28955,8 @@
       <c r="G623" s="22"/>
       <c r="H623" s="22"/>
       <c r="I623" s="22"/>
-      <c r="J623" s="33"/>
-      <c r="K623" s="33"/>
+      <c r="J623" s="36"/>
+      <c r="K623" s="36"/>
       <c r="L623" s="22"/>
       <c r="M623" s="22"/>
       <c r="N623" s="22"/>
@@ -28947,8 +29000,8 @@
       <c r="G624" s="22"/>
       <c r="H624" s="22"/>
       <c r="I624" s="22"/>
-      <c r="J624" s="33"/>
-      <c r="K624" s="33"/>
+      <c r="J624" s="36"/>
+      <c r="K624" s="36"/>
       <c r="L624" s="22"/>
       <c r="M624" s="22"/>
       <c r="N624" s="22"/>
@@ -28992,8 +29045,8 @@
       <c r="G625" s="22"/>
       <c r="H625" s="22"/>
       <c r="I625" s="22"/>
-      <c r="J625" s="33"/>
-      <c r="K625" s="33"/>
+      <c r="J625" s="36"/>
+      <c r="K625" s="36"/>
       <c r="L625" s="22"/>
       <c r="M625" s="22"/>
       <c r="N625" s="22"/>
@@ -29037,8 +29090,8 @@
       <c r="G626" s="22"/>
       <c r="H626" s="22"/>
       <c r="I626" s="22"/>
-      <c r="J626" s="33"/>
-      <c r="K626" s="33"/>
+      <c r="J626" s="36"/>
+      <c r="K626" s="36"/>
       <c r="L626" s="22"/>
       <c r="M626" s="22"/>
       <c r="N626" s="22"/>
@@ -29082,8 +29135,8 @@
       <c r="G627" s="22"/>
       <c r="H627" s="22"/>
       <c r="I627" s="22"/>
-      <c r="J627" s="33"/>
-      <c r="K627" s="33"/>
+      <c r="J627" s="36"/>
+      <c r="K627" s="36"/>
       <c r="L627" s="22"/>
       <c r="M627" s="22"/>
       <c r="N627" s="22"/>
@@ -29127,8 +29180,8 @@
       <c r="G628" s="22"/>
       <c r="H628" s="22"/>
       <c r="I628" s="22"/>
-      <c r="J628" s="33"/>
-      <c r="K628" s="33"/>
+      <c r="J628" s="36"/>
+      <c r="K628" s="36"/>
       <c r="L628" s="22"/>
       <c r="M628" s="22"/>
       <c r="N628" s="22"/>
@@ -29172,8 +29225,8 @@
       <c r="G629" s="22"/>
       <c r="H629" s="22"/>
       <c r="I629" s="22"/>
-      <c r="J629" s="33"/>
-      <c r="K629" s="33"/>
+      <c r="J629" s="36"/>
+      <c r="K629" s="36"/>
       <c r="L629" s="22"/>
       <c r="M629" s="22"/>
       <c r="N629" s="22"/>
@@ -29217,8 +29270,8 @@
       <c r="G630" s="22"/>
       <c r="H630" s="22"/>
       <c r="I630" s="22"/>
-      <c r="J630" s="33"/>
-      <c r="K630" s="33"/>
+      <c r="J630" s="36"/>
+      <c r="K630" s="36"/>
       <c r="L630" s="22"/>
       <c r="M630" s="22"/>
       <c r="N630" s="22"/>
@@ -29262,8 +29315,8 @@
       <c r="G631" s="22"/>
       <c r="H631" s="22"/>
       <c r="I631" s="22"/>
-      <c r="J631" s="33"/>
-      <c r="K631" s="33"/>
+      <c r="J631" s="36"/>
+      <c r="K631" s="36"/>
       <c r="L631" s="22"/>
       <c r="M631" s="22"/>
       <c r="N631" s="22"/>
@@ -29307,8 +29360,8 @@
       <c r="G632" s="22"/>
       <c r="H632" s="22"/>
       <c r="I632" s="22"/>
-      <c r="J632" s="33"/>
-      <c r="K632" s="33"/>
+      <c r="J632" s="36"/>
+      <c r="K632" s="36"/>
       <c r="L632" s="22"/>
       <c r="M632" s="22"/>
       <c r="N632" s="22"/>
@@ -29352,8 +29405,8 @@
       <c r="G633" s="22"/>
       <c r="H633" s="22"/>
       <c r="I633" s="22"/>
-      <c r="J633" s="33"/>
-      <c r="K633" s="33"/>
+      <c r="J633" s="36"/>
+      <c r="K633" s="36"/>
       <c r="L633" s="22"/>
       <c r="M633" s="22"/>
       <c r="N633" s="22"/>
@@ -29397,8 +29450,8 @@
       <c r="G634" s="22"/>
       <c r="H634" s="22"/>
       <c r="I634" s="22"/>
-      <c r="J634" s="33"/>
-      <c r="K634" s="33"/>
+      <c r="J634" s="36"/>
+      <c r="K634" s="36"/>
       <c r="L634" s="22"/>
       <c r="M634" s="22"/>
       <c r="N634" s="22"/>
@@ -29442,8 +29495,8 @@
       <c r="G635" s="22"/>
       <c r="H635" s="22"/>
       <c r="I635" s="22"/>
-      <c r="J635" s="33"/>
-      <c r="K635" s="33"/>
+      <c r="J635" s="36"/>
+      <c r="K635" s="36"/>
       <c r="L635" s="22"/>
       <c r="M635" s="22"/>
       <c r="N635" s="22"/>
@@ -29487,8 +29540,8 @@
       <c r="G636" s="22"/>
       <c r="H636" s="22"/>
       <c r="I636" s="22"/>
-      <c r="J636" s="33"/>
-      <c r="K636" s="33"/>
+      <c r="J636" s="36"/>
+      <c r="K636" s="36"/>
       <c r="L636" s="22"/>
       <c r="M636" s="22"/>
       <c r="N636" s="22"/>
@@ -29532,8 +29585,8 @@
       <c r="G637" s="22"/>
       <c r="H637" s="22"/>
       <c r="I637" s="22"/>
-      <c r="J637" s="33"/>
-      <c r="K637" s="33"/>
+      <c r="J637" s="36"/>
+      <c r="K637" s="36"/>
       <c r="L637" s="22"/>
       <c r="M637" s="22"/>
       <c r="N637" s="22"/>
@@ -29577,8 +29630,8 @@
       <c r="G638" s="22"/>
       <c r="H638" s="22"/>
       <c r="I638" s="22"/>
-      <c r="J638" s="33"/>
-      <c r="K638" s="33"/>
+      <c r="J638" s="36"/>
+      <c r="K638" s="36"/>
       <c r="L638" s="22"/>
       <c r="M638" s="22"/>
       <c r="N638" s="22"/>
@@ -29622,8 +29675,8 @@
       <c r="G639" s="22"/>
       <c r="H639" s="22"/>
       <c r="I639" s="22"/>
-      <c r="J639" s="33"/>
-      <c r="K639" s="33"/>
+      <c r="J639" s="36"/>
+      <c r="K639" s="36"/>
       <c r="L639" s="22"/>
       <c r="M639" s="22"/>
       <c r="N639" s="22"/>
@@ -29667,8 +29720,8 @@
       <c r="G640" s="22"/>
       <c r="H640" s="22"/>
       <c r="I640" s="22"/>
-      <c r="J640" s="33"/>
-      <c r="K640" s="33"/>
+      <c r="J640" s="36"/>
+      <c r="K640" s="36"/>
       <c r="L640" s="22"/>
       <c r="M640" s="22"/>
       <c r="N640" s="22"/>
@@ -29712,8 +29765,8 @@
       <c r="G641" s="22"/>
       <c r="H641" s="22"/>
       <c r="I641" s="22"/>
-      <c r="J641" s="33"/>
-      <c r="K641" s="33"/>
+      <c r="J641" s="36"/>
+      <c r="K641" s="36"/>
       <c r="L641" s="22"/>
       <c r="M641" s="22"/>
       <c r="N641" s="22"/>
@@ -29757,8 +29810,8 @@
       <c r="G642" s="22"/>
       <c r="H642" s="22"/>
       <c r="I642" s="22"/>
-      <c r="J642" s="33"/>
-      <c r="K642" s="33"/>
+      <c r="J642" s="36"/>
+      <c r="K642" s="36"/>
       <c r="L642" s="22"/>
       <c r="M642" s="22"/>
       <c r="N642" s="22"/>
@@ -29802,8 +29855,8 @@
       <c r="G643" s="22"/>
       <c r="H643" s="22"/>
       <c r="I643" s="22"/>
-      <c r="J643" s="33"/>
-      <c r="K643" s="33"/>
+      <c r="J643" s="36"/>
+      <c r="K643" s="36"/>
       <c r="L643" s="22"/>
       <c r="M643" s="22"/>
       <c r="N643" s="22"/>
@@ -29847,8 +29900,8 @@
       <c r="G644" s="22"/>
       <c r="H644" s="22"/>
       <c r="I644" s="22"/>
-      <c r="J644" s="33"/>
-      <c r="K644" s="33"/>
+      <c r="J644" s="36"/>
+      <c r="K644" s="36"/>
       <c r="L644" s="22"/>
       <c r="M644" s="22"/>
       <c r="N644" s="22"/>
@@ -29892,8 +29945,8 @@
       <c r="G645" s="22"/>
       <c r="H645" s="22"/>
       <c r="I645" s="22"/>
-      <c r="J645" s="33"/>
-      <c r="K645" s="33"/>
+      <c r="J645" s="36"/>
+      <c r="K645" s="36"/>
       <c r="L645" s="22"/>
       <c r="M645" s="22"/>
       <c r="N645" s="22"/>
@@ -29937,8 +29990,8 @@
       <c r="G646" s="22"/>
       <c r="H646" s="22"/>
       <c r="I646" s="22"/>
-      <c r="J646" s="33"/>
-      <c r="K646" s="33"/>
+      <c r="J646" s="36"/>
+      <c r="K646" s="36"/>
       <c r="L646" s="22"/>
       <c r="M646" s="22"/>
       <c r="N646" s="22"/>
@@ -29982,8 +30035,8 @@
       <c r="G647" s="22"/>
       <c r="H647" s="22"/>
       <c r="I647" s="22"/>
-      <c r="J647" s="33"/>
-      <c r="K647" s="33"/>
+      <c r="J647" s="36"/>
+      <c r="K647" s="36"/>
       <c r="L647" s="22"/>
       <c r="M647" s="22"/>
       <c r="N647" s="22"/>
@@ -30027,8 +30080,8 @@
       <c r="G648" s="22"/>
       <c r="H648" s="22"/>
       <c r="I648" s="22"/>
-      <c r="J648" s="33"/>
-      <c r="K648" s="33"/>
+      <c r="J648" s="36"/>
+      <c r="K648" s="36"/>
       <c r="L648" s="22"/>
       <c r="M648" s="22"/>
       <c r="N648" s="22"/>
@@ -30072,8 +30125,8 @@
       <c r="G649" s="22"/>
       <c r="H649" s="22"/>
       <c r="I649" s="22"/>
-      <c r="J649" s="33"/>
-      <c r="K649" s="33"/>
+      <c r="J649" s="36"/>
+      <c r="K649" s="36"/>
       <c r="L649" s="22"/>
       <c r="M649" s="22"/>
       <c r="N649" s="22"/>
@@ -30117,8 +30170,8 @@
       <c r="G650" s="22"/>
       <c r="H650" s="22"/>
       <c r="I650" s="22"/>
-      <c r="J650" s="33"/>
-      <c r="K650" s="33"/>
+      <c r="J650" s="36"/>
+      <c r="K650" s="36"/>
       <c r="L650" s="22"/>
       <c r="M650" s="22"/>
       <c r="N650" s="22"/>
@@ -30162,8 +30215,8 @@
       <c r="G651" s="22"/>
       <c r="H651" s="22"/>
       <c r="I651" s="22"/>
-      <c r="J651" s="33"/>
-      <c r="K651" s="33"/>
+      <c r="J651" s="36"/>
+      <c r="K651" s="36"/>
       <c r="L651" s="22"/>
       <c r="M651" s="22"/>
       <c r="N651" s="22"/>
@@ -30207,8 +30260,8 @@
       <c r="G652" s="22"/>
       <c r="H652" s="22"/>
       <c r="I652" s="22"/>
-      <c r="J652" s="33"/>
-      <c r="K652" s="33"/>
+      <c r="J652" s="36"/>
+      <c r="K652" s="36"/>
       <c r="L652" s="22"/>
       <c r="M652" s="22"/>
       <c r="N652" s="22"/>
@@ -30252,8 +30305,8 @@
       <c r="G653" s="22"/>
       <c r="H653" s="22"/>
       <c r="I653" s="22"/>
-      <c r="J653" s="33"/>
-      <c r="K653" s="33"/>
+      <c r="J653" s="36"/>
+      <c r="K653" s="36"/>
       <c r="L653" s="22"/>
       <c r="M653" s="22"/>
       <c r="N653" s="22"/>
@@ -30297,8 +30350,8 @@
       <c r="G654" s="22"/>
       <c r="H654" s="22"/>
       <c r="I654" s="22"/>
-      <c r="J654" s="33"/>
-      <c r="K654" s="33"/>
+      <c r="J654" s="36"/>
+      <c r="K654" s="36"/>
       <c r="L654" s="22"/>
       <c r="M654" s="22"/>
       <c r="N654" s="22"/>
@@ -30342,8 +30395,8 @@
       <c r="G655" s="22"/>
       <c r="H655" s="22"/>
       <c r="I655" s="22"/>
-      <c r="J655" s="33"/>
-      <c r="K655" s="33"/>
+      <c r="J655" s="36"/>
+      <c r="K655" s="36"/>
       <c r="L655" s="22"/>
       <c r="M655" s="22"/>
       <c r="N655" s="22"/>
@@ -30387,8 +30440,8 @@
       <c r="G656" s="22"/>
       <c r="H656" s="22"/>
       <c r="I656" s="22"/>
-      <c r="J656" s="33"/>
-      <c r="K656" s="33"/>
+      <c r="J656" s="36"/>
+      <c r="K656" s="36"/>
       <c r="L656" s="22"/>
       <c r="M656" s="22"/>
       <c r="N656" s="22"/>
@@ -30432,8 +30485,8 @@
       <c r="G657" s="22"/>
       <c r="H657" s="22"/>
       <c r="I657" s="22"/>
-      <c r="J657" s="33"/>
-      <c r="K657" s="33"/>
+      <c r="J657" s="36"/>
+      <c r="K657" s="36"/>
       <c r="L657" s="22"/>
       <c r="M657" s="22"/>
       <c r="N657" s="22"/>
@@ -30477,8 +30530,8 @@
       <c r="G658" s="22"/>
       <c r="H658" s="22"/>
       <c r="I658" s="22"/>
-      <c r="J658" s="33"/>
-      <c r="K658" s="33"/>
+      <c r="J658" s="36"/>
+      <c r="K658" s="36"/>
       <c r="L658" s="22"/>
       <c r="M658" s="22"/>
       <c r="N658" s="22"/>
@@ -30522,8 +30575,8 @@
       <c r="G659" s="22"/>
       <c r="H659" s="22"/>
       <c r="I659" s="22"/>
-      <c r="J659" s="33"/>
-      <c r="K659" s="33"/>
+      <c r="J659" s="36"/>
+      <c r="K659" s="36"/>
       <c r="L659" s="22"/>
       <c r="M659" s="22"/>
       <c r="N659" s="22"/>
@@ -30567,8 +30620,8 @@
       <c r="G660" s="22"/>
       <c r="H660" s="22"/>
       <c r="I660" s="22"/>
-      <c r="J660" s="33"/>
-      <c r="K660" s="33"/>
+      <c r="J660" s="36"/>
+      <c r="K660" s="36"/>
       <c r="L660" s="22"/>
       <c r="M660" s="22"/>
       <c r="N660" s="22"/>
@@ -30612,8 +30665,8 @@
       <c r="G661" s="22"/>
       <c r="H661" s="22"/>
       <c r="I661" s="22"/>
-      <c r="J661" s="33"/>
-      <c r="K661" s="33"/>
+      <c r="J661" s="36"/>
+      <c r="K661" s="36"/>
       <c r="L661" s="22"/>
       <c r="M661" s="22"/>
       <c r="N661" s="22"/>
@@ -30657,8 +30710,8 @@
       <c r="G662" s="22"/>
       <c r="H662" s="22"/>
       <c r="I662" s="22"/>
-      <c r="J662" s="33"/>
-      <c r="K662" s="33"/>
+      <c r="J662" s="36"/>
+      <c r="K662" s="36"/>
       <c r="L662" s="22"/>
       <c r="M662" s="22"/>
       <c r="N662" s="22"/>
@@ -30702,8 +30755,8 @@
       <c r="G663" s="22"/>
       <c r="H663" s="22"/>
       <c r="I663" s="22"/>
-      <c r="J663" s="33"/>
-      <c r="K663" s="33"/>
+      <c r="J663" s="36"/>
+      <c r="K663" s="36"/>
       <c r="L663" s="22"/>
       <c r="M663" s="22"/>
       <c r="N663" s="22"/>
@@ -30747,8 +30800,8 @@
       <c r="G664" s="22"/>
       <c r="H664" s="22"/>
       <c r="I664" s="22"/>
-      <c r="J664" s="33"/>
-      <c r="K664" s="33"/>
+      <c r="J664" s="36"/>
+      <c r="K664" s="36"/>
       <c r="L664" s="22"/>
       <c r="M664" s="22"/>
       <c r="N664" s="22"/>
@@ -30792,8 +30845,8 @@
       <c r="G665" s="22"/>
       <c r="H665" s="22"/>
       <c r="I665" s="22"/>
-      <c r="J665" s="33"/>
-      <c r="K665" s="33"/>
+      <c r="J665" s="36"/>
+      <c r="K665" s="36"/>
       <c r="L665" s="22"/>
       <c r="M665" s="22"/>
       <c r="N665" s="22"/>
@@ -30837,8 +30890,8 @@
       <c r="G666" s="22"/>
       <c r="H666" s="22"/>
       <c r="I666" s="22"/>
-      <c r="J666" s="33"/>
-      <c r="K666" s="33"/>
+      <c r="J666" s="36"/>
+      <c r="K666" s="36"/>
       <c r="L666" s="22"/>
       <c r="M666" s="22"/>
       <c r="N666" s="22"/>
@@ -30882,8 +30935,8 @@
       <c r="G667" s="22"/>
       <c r="H667" s="22"/>
       <c r="I667" s="22"/>
-      <c r="J667" s="33"/>
-      <c r="K667" s="33"/>
+      <c r="J667" s="36"/>
+      <c r="K667" s="36"/>
       <c r="L667" s="22"/>
       <c r="M667" s="22"/>
       <c r="N667" s="22"/>
@@ -30927,8 +30980,8 @@
       <c r="G668" s="22"/>
       <c r="H668" s="22"/>
       <c r="I668" s="22"/>
-      <c r="J668" s="33"/>
-      <c r="K668" s="33"/>
+      <c r="J668" s="36"/>
+      <c r="K668" s="36"/>
       <c r="L668" s="22"/>
       <c r="M668" s="22"/>
       <c r="N668" s="22"/>
@@ -30972,8 +31025,8 @@
       <c r="G669" s="22"/>
       <c r="H669" s="22"/>
       <c r="I669" s="22"/>
-      <c r="J669" s="33"/>
-      <c r="K669" s="33"/>
+      <c r="J669" s="36"/>
+      <c r="K669" s="36"/>
       <c r="L669" s="22"/>
       <c r="M669" s="22"/>
       <c r="N669" s="22"/>
@@ -31017,8 +31070,8 @@
       <c r="G670" s="22"/>
       <c r="H670" s="22"/>
       <c r="I670" s="22"/>
-      <c r="J670" s="33"/>
-      <c r="K670" s="33"/>
+      <c r="J670" s="36"/>
+      <c r="K670" s="36"/>
       <c r="L670" s="22"/>
       <c r="M670" s="22"/>
       <c r="N670" s="22"/>
@@ -31062,8 +31115,8 @@
       <c r="G671" s="22"/>
       <c r="H671" s="22"/>
       <c r="I671" s="22"/>
-      <c r="J671" s="33"/>
-      <c r="K671" s="33"/>
+      <c r="J671" s="36"/>
+      <c r="K671" s="36"/>
       <c r="L671" s="22"/>
       <c r="M671" s="22"/>
       <c r="N671" s="22"/>
@@ -31107,8 +31160,8 @@
       <c r="G672" s="22"/>
       <c r="H672" s="22"/>
       <c r="I672" s="22"/>
-      <c r="J672" s="33"/>
-      <c r="K672" s="33"/>
+      <c r="J672" s="36"/>
+      <c r="K672" s="36"/>
       <c r="L672" s="22"/>
       <c r="M672" s="22"/>
       <c r="N672" s="22"/>
@@ -31152,8 +31205,8 @@
       <c r="G673" s="22"/>
       <c r="H673" s="22"/>
       <c r="I673" s="22"/>
-      <c r="J673" s="33"/>
-      <c r="K673" s="33"/>
+      <c r="J673" s="36"/>
+      <c r="K673" s="36"/>
       <c r="L673" s="22"/>
       <c r="M673" s="22"/>
       <c r="N673" s="22"/>
@@ -31197,8 +31250,8 @@
       <c r="G674" s="22"/>
       <c r="H674" s="22"/>
       <c r="I674" s="22"/>
-      <c r="J674" s="33"/>
-      <c r="K674" s="33"/>
+      <c r="J674" s="36"/>
+      <c r="K674" s="36"/>
       <c r="L674" s="22"/>
       <c r="M674" s="22"/>
       <c r="N674" s="22"/>
@@ -31242,8 +31295,8 @@
       <c r="G675" s="22"/>
       <c r="H675" s="22"/>
       <c r="I675" s="22"/>
-      <c r="J675" s="33"/>
-      <c r="K675" s="33"/>
+      <c r="J675" s="36"/>
+      <c r="K675" s="36"/>
       <c r="L675" s="22"/>
       <c r="M675" s="22"/>
       <c r="N675" s="22"/>
@@ -31287,8 +31340,8 @@
       <c r="G676" s="22"/>
       <c r="H676" s="22"/>
       <c r="I676" s="22"/>
-      <c r="J676" s="33"/>
-      <c r="K676" s="33"/>
+      <c r="J676" s="36"/>
+      <c r="K676" s="36"/>
       <c r="L676" s="22"/>
       <c r="M676" s="22"/>
       <c r="N676" s="22"/>
@@ -31332,8 +31385,8 @@
       <c r="G677" s="22"/>
       <c r="H677" s="22"/>
       <c r="I677" s="22"/>
-      <c r="J677" s="33"/>
-      <c r="K677" s="33"/>
+      <c r="J677" s="36"/>
+      <c r="K677" s="36"/>
       <c r="L677" s="22"/>
       <c r="M677" s="22"/>
       <c r="N677" s="22"/>
@@ -31377,8 +31430,8 @@
       <c r="G678" s="22"/>
       <c r="H678" s="22"/>
       <c r="I678" s="22"/>
-      <c r="J678" s="33"/>
-      <c r="K678" s="33"/>
+      <c r="J678" s="36"/>
+      <c r="K678" s="36"/>
       <c r="L678" s="22"/>
       <c r="M678" s="22"/>
       <c r="N678" s="22"/>
@@ -31422,8 +31475,8 @@
       <c r="G679" s="22"/>
       <c r="H679" s="22"/>
       <c r="I679" s="22"/>
-      <c r="J679" s="33"/>
-      <c r="K679" s="33"/>
+      <c r="J679" s="36"/>
+      <c r="K679" s="36"/>
       <c r="L679" s="22"/>
       <c r="M679" s="22"/>
       <c r="N679" s="22"/>
@@ -31467,8 +31520,8 @@
       <c r="G680" s="22"/>
       <c r="H680" s="22"/>
       <c r="I680" s="22"/>
-      <c r="J680" s="33"/>
-      <c r="K680" s="33"/>
+      <c r="J680" s="36"/>
+      <c r="K680" s="36"/>
       <c r="L680" s="22"/>
       <c r="M680" s="22"/>
       <c r="N680" s="22"/>
@@ -31512,8 +31565,8 @@
       <c r="G681" s="22"/>
       <c r="H681" s="22"/>
       <c r="I681" s="22"/>
-      <c r="J681" s="33"/>
-      <c r="K681" s="33"/>
+      <c r="J681" s="36"/>
+      <c r="K681" s="36"/>
       <c r="L681" s="22"/>
       <c r="M681" s="22"/>
       <c r="N681" s="22"/>
@@ -31557,8 +31610,8 @@
       <c r="G682" s="22"/>
       <c r="H682" s="22"/>
       <c r="I682" s="22"/>
-      <c r="J682" s="33"/>
-      <c r="K682" s="33"/>
+      <c r="J682" s="36"/>
+      <c r="K682" s="36"/>
       <c r="L682" s="22"/>
       <c r="M682" s="22"/>
       <c r="N682" s="22"/>
@@ -31602,8 +31655,8 @@
       <c r="G683" s="22"/>
       <c r="H683" s="22"/>
       <c r="I683" s="22"/>
-      <c r="J683" s="33"/>
-      <c r="K683" s="33"/>
+      <c r="J683" s="36"/>
+      <c r="K683" s="36"/>
       <c r="L683" s="22"/>
       <c r="M683" s="22"/>
       <c r="N683" s="22"/>
@@ -31647,8 +31700,8 @@
       <c r="G684" s="22"/>
       <c r="H684" s="22"/>
       <c r="I684" s="22"/>
-      <c r="J684" s="33"/>
-      <c r="K684" s="33"/>
+      <c r="J684" s="36"/>
+      <c r="K684" s="36"/>
       <c r="L684" s="22"/>
       <c r="M684" s="22"/>
       <c r="N684" s="22"/>
@@ -31692,8 +31745,8 @@
       <c r="G685" s="22"/>
       <c r="H685" s="22"/>
       <c r="I685" s="22"/>
-      <c r="J685" s="33"/>
-      <c r="K685" s="33"/>
+      <c r="J685" s="36"/>
+      <c r="K685" s="36"/>
       <c r="L685" s="22"/>
       <c r="M685" s="22"/>
       <c r="N685" s="22"/>
@@ -31737,8 +31790,8 @@
       <c r="G686" s="22"/>
       <c r="H686" s="22"/>
       <c r="I686" s="22"/>
-      <c r="J686" s="33"/>
-      <c r="K686" s="33"/>
+      <c r="J686" s="36"/>
+      <c r="K686" s="36"/>
       <c r="L686" s="22"/>
       <c r="M686" s="22"/>
       <c r="N686" s="22"/>
@@ -31782,8 +31835,8 @@
       <c r="G687" s="22"/>
       <c r="H687" s="22"/>
       <c r="I687" s="22"/>
-      <c r="J687" s="33"/>
-      <c r="K687" s="33"/>
+      <c r="J687" s="36"/>
+      <c r="K687" s="36"/>
       <c r="L687" s="22"/>
       <c r="M687" s="22"/>
       <c r="N687" s="22"/>
@@ -31827,8 +31880,8 @@
       <c r="G688" s="22"/>
       <c r="H688" s="22"/>
       <c r="I688" s="22"/>
-      <c r="J688" s="33"/>
-      <c r="K688" s="33"/>
+      <c r="J688" s="36"/>
+      <c r="K688" s="36"/>
       <c r="L688" s="22"/>
       <c r="M688" s="22"/>
       <c r="N688" s="22"/>
@@ -31872,8 +31925,8 @@
       <c r="G689" s="22"/>
       <c r="H689" s="22"/>
       <c r="I689" s="22"/>
-      <c r="J689" s="33"/>
-      <c r="K689" s="33"/>
+      <c r="J689" s="36"/>
+      <c r="K689" s="36"/>
       <c r="L689" s="22"/>
       <c r="M689" s="22"/>
       <c r="N689" s="22"/>

--- a/vgp_database/Coso_Range_volcanics.xlsx
+++ b/vgp_database/Coso_Range_volcanics.xlsx
@@ -337,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -433,6 +433,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -1339,11 +1342,11 @@
       <c r="B10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="26">
-        <v>36.3162282046206</v>
+      <c r="C10" s="34">
+        <v>35.9</v>
       </c>
-      <c r="D10" s="26">
-        <v>-121.186997349883</v>
+      <c r="D10" s="34">
+        <v>-117.3</v>
       </c>
       <c r="E10" s="27">
         <v>8.0</v>
@@ -1502,7 +1505,7 @@
       <c r="AG11" s="12">
         <v>1.0</v>
       </c>
-      <c r="AH11" s="34"/>
+      <c r="AH11" s="35"/>
       <c r="AI11" s="4" t="s">
         <v>46</v>
       </c>
@@ -1590,7 +1593,7 @@
       <c r="AG12" s="12">
         <v>1.0</v>
       </c>
-      <c r="AH12" s="34"/>
+      <c r="AH12" s="35"/>
       <c r="AI12" s="4" t="s">
         <v>46</v>
       </c>
@@ -1614,8 +1617,8 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="AM14" s="33"/>
       <c r="AN14" s="33"/>
       <c r="AO14" s="22"/>
@@ -1640,8 +1643,8 @@
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
@@ -1685,8 +1688,8 @@
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
@@ -1730,8 +1733,8 @@
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
@@ -1775,8 +1778,8 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
@@ -1820,8 +1823,8 @@
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
@@ -1865,8 +1868,8 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
@@ -1910,8 +1913,8 @@
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
@@ -1955,8 +1958,8 @@
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
@@ -2000,8 +2003,8 @@
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
@@ -2045,8 +2048,8 @@
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
@@ -2090,8 +2093,8 @@
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
@@ -2135,8 +2138,8 @@
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
@@ -2180,8 +2183,8 @@
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
@@ -2225,8 +2228,8 @@
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
@@ -2270,8 +2273,8 @@
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
@@ -2315,8 +2318,8 @@
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -2360,8 +2363,8 @@
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -2405,8 +2408,8 @@
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -2450,8 +2453,8 @@
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -2495,8 +2498,8 @@
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -2540,8 +2543,8 @@
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -2585,8 +2588,8 @@
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -2630,8 +2633,8 @@
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -2675,8 +2678,8 @@
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -2720,8 +2723,8 @@
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -2765,8 +2768,8 @@
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -2810,8 +2813,8 @@
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -2855,8 +2858,8 @@
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -2900,8 +2903,8 @@
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -2945,8 +2948,8 @@
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -2990,8 +2993,8 @@
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -3035,8 +3038,8 @@
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -3080,8 +3083,8 @@
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -3125,8 +3128,8 @@
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -3170,8 +3173,8 @@
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -3215,8 +3218,8 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -3260,8 +3263,8 @@
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -3305,8 +3308,8 @@
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -3350,8 +3353,8 @@
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -3395,8 +3398,8 @@
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -3440,8 +3443,8 @@
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -3485,8 +3488,8 @@
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
@@ -3530,8 +3533,8 @@
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
       <c r="L58" s="22"/>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
@@ -3575,8 +3578,8 @@
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
@@ -3620,8 +3623,8 @@
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
       <c r="L60" s="22"/>
       <c r="M60" s="22"/>
       <c r="N60" s="22"/>
@@ -3665,8 +3668,8 @@
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
       <c r="N61" s="22"/>
@@ -3710,8 +3713,8 @@
       <c r="G62" s="22"/>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
       <c r="L62" s="22"/>
       <c r="M62" s="22"/>
       <c r="N62" s="22"/>
@@ -3755,8 +3758,8 @@
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
       <c r="L63" s="22"/>
       <c r="M63" s="22"/>
       <c r="N63" s="22"/>
@@ -3800,8 +3803,8 @@
       <c r="G64" s="22"/>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
       <c r="N64" s="22"/>
@@ -3845,8 +3848,8 @@
       <c r="G65" s="22"/>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
       <c r="L65" s="22"/>
       <c r="M65" s="22"/>
       <c r="N65" s="22"/>
@@ -3890,8 +3893,8 @@
       <c r="G66" s="22"/>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
       <c r="L66" s="22"/>
       <c r="M66" s="22"/>
       <c r="N66" s="22"/>
@@ -3935,8 +3938,8 @@
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
       <c r="L67" s="22"/>
       <c r="M67" s="22"/>
       <c r="N67" s="22"/>
@@ -3980,8 +3983,8 @@
       <c r="G68" s="22"/>
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
       <c r="L68" s="22"/>
       <c r="M68" s="22"/>
       <c r="N68" s="22"/>
@@ -4025,8 +4028,8 @@
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
       <c r="L69" s="22"/>
       <c r="M69" s="22"/>
       <c r="N69" s="22"/>
@@ -4070,8 +4073,8 @@
       <c r="G70" s="22"/>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
       <c r="L70" s="22"/>
       <c r="M70" s="22"/>
       <c r="N70" s="22"/>
@@ -4115,8 +4118,8 @@
       <c r="G71" s="22"/>
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
       <c r="L71" s="22"/>
       <c r="M71" s="22"/>
       <c r="N71" s="22"/>
@@ -4160,8 +4163,8 @@
       <c r="G72" s="22"/>
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
       <c r="N72" s="22"/>
@@ -4205,8 +4208,8 @@
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
       <c r="L73" s="22"/>
       <c r="M73" s="22"/>
       <c r="N73" s="22"/>
@@ -4250,8 +4253,8 @@
       <c r="G74" s="22"/>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
       <c r="L74" s="22"/>
       <c r="M74" s="22"/>
       <c r="N74" s="22"/>
@@ -4295,8 +4298,8 @@
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
       <c r="L75" s="22"/>
       <c r="M75" s="22"/>
       <c r="N75" s="22"/>
@@ -4340,8 +4343,8 @@
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
       <c r="L76" s="22"/>
       <c r="M76" s="22"/>
       <c r="N76" s="22"/>
@@ -4385,8 +4388,8 @@
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
       <c r="N77" s="22"/>
@@ -4430,8 +4433,8 @@
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
       <c r="L78" s="22"/>
       <c r="M78" s="22"/>
       <c r="N78" s="22"/>
@@ -4475,8 +4478,8 @@
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
       <c r="L79" s="22"/>
       <c r="M79" s="22"/>
       <c r="N79" s="22"/>
@@ -4520,8 +4523,8 @@
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
       <c r="N80" s="22"/>
@@ -4565,8 +4568,8 @@
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
@@ -4610,8 +4613,8 @@
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
       <c r="L82" s="22"/>
       <c r="M82" s="22"/>
       <c r="N82" s="22"/>
@@ -4655,8 +4658,8 @@
       <c r="G83" s="22"/>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="37"/>
       <c r="L83" s="22"/>
       <c r="M83" s="22"/>
       <c r="N83" s="22"/>
@@ -4700,8 +4703,8 @@
       <c r="G84" s="22"/>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
       <c r="L84" s="22"/>
       <c r="M84" s="22"/>
       <c r="N84" s="22"/>
@@ -4745,8 +4748,8 @@
       <c r="G85" s="22"/>
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
       <c r="L85" s="22"/>
       <c r="M85" s="22"/>
       <c r="N85" s="22"/>
@@ -4790,8 +4793,8 @@
       <c r="G86" s="22"/>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
       <c r="L86" s="22"/>
       <c r="M86" s="22"/>
       <c r="N86" s="22"/>
@@ -4835,8 +4838,8 @@
       <c r="G87" s="22"/>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="37"/>
       <c r="L87" s="22"/>
       <c r="M87" s="22"/>
       <c r="N87" s="22"/>
@@ -4880,8 +4883,8 @@
       <c r="G88" s="22"/>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
       <c r="L88" s="22"/>
       <c r="M88" s="22"/>
       <c r="N88" s="22"/>
@@ -4925,8 +4928,8 @@
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
       <c r="N89" s="22"/>
@@ -4970,8 +4973,8 @@
       <c r="G90" s="22"/>
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
       <c r="L90" s="22"/>
       <c r="M90" s="22"/>
       <c r="N90" s="22"/>
@@ -5015,8 +5018,8 @@
       <c r="G91" s="22"/>
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
       <c r="L91" s="22"/>
       <c r="M91" s="22"/>
       <c r="N91" s="22"/>
@@ -5060,8 +5063,8 @@
       <c r="G92" s="22"/>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="37"/>
       <c r="L92" s="22"/>
       <c r="M92" s="22"/>
       <c r="N92" s="22"/>
@@ -5105,8 +5108,8 @@
       <c r="G93" s="22"/>
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="37"/>
       <c r="L93" s="22"/>
       <c r="M93" s="22"/>
       <c r="N93" s="22"/>
@@ -5150,8 +5153,8 @@
       <c r="G94" s="22"/>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="37"/>
       <c r="L94" s="22"/>
       <c r="M94" s="22"/>
       <c r="N94" s="22"/>
@@ -5195,8 +5198,8 @@
       <c r="G95" s="22"/>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="37"/>
       <c r="L95" s="22"/>
       <c r="M95" s="22"/>
       <c r="N95" s="22"/>
@@ -5240,8 +5243,8 @@
       <c r="G96" s="22"/>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="37"/>
       <c r="L96" s="22"/>
       <c r="M96" s="22"/>
       <c r="N96" s="22"/>
@@ -5285,8 +5288,8 @@
       <c r="G97" s="22"/>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="37"/>
       <c r="L97" s="22"/>
       <c r="M97" s="22"/>
       <c r="N97" s="22"/>
@@ -5330,8 +5333,8 @@
       <c r="G98" s="22"/>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="37"/>
       <c r="L98" s="22"/>
       <c r="M98" s="22"/>
       <c r="N98" s="22"/>
@@ -5375,8 +5378,8 @@
       <c r="G99" s="22"/>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="37"/>
       <c r="L99" s="22"/>
       <c r="M99" s="22"/>
       <c r="N99" s="22"/>
@@ -5420,8 +5423,8 @@
       <c r="G100" s="22"/>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="37"/>
       <c r="L100" s="22"/>
       <c r="M100" s="22"/>
       <c r="N100" s="22"/>
@@ -5465,8 +5468,8 @@
       <c r="G101" s="22"/>
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
       <c r="L101" s="22"/>
       <c r="M101" s="22"/>
       <c r="N101" s="22"/>
@@ -5510,8 +5513,8 @@
       <c r="G102" s="22"/>
       <c r="H102" s="22"/>
       <c r="I102" s="22"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="37"/>
       <c r="L102" s="22"/>
       <c r="M102" s="22"/>
       <c r="N102" s="22"/>
@@ -5555,8 +5558,8 @@
       <c r="G103" s="22"/>
       <c r="H103" s="22"/>
       <c r="I103" s="22"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="37"/>
       <c r="L103" s="22"/>
       <c r="M103" s="22"/>
       <c r="N103" s="22"/>
@@ -5600,8 +5603,8 @@
       <c r="G104" s="22"/>
       <c r="H104" s="22"/>
       <c r="I104" s="22"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
+      <c r="J104" s="37"/>
+      <c r="K104" s="37"/>
       <c r="L104" s="22"/>
       <c r="M104" s="22"/>
       <c r="N104" s="22"/>
@@ -5645,8 +5648,8 @@
       <c r="G105" s="22"/>
       <c r="H105" s="22"/>
       <c r="I105" s="22"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="37"/>
       <c r="L105" s="22"/>
       <c r="M105" s="22"/>
       <c r="N105" s="22"/>
@@ -5690,8 +5693,8 @@
       <c r="G106" s="22"/>
       <c r="H106" s="22"/>
       <c r="I106" s="22"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="37"/>
       <c r="L106" s="22"/>
       <c r="M106" s="22"/>
       <c r="N106" s="22"/>
@@ -5735,8 +5738,8 @@
       <c r="G107" s="22"/>
       <c r="H107" s="22"/>
       <c r="I107" s="22"/>
-      <c r="J107" s="36"/>
-      <c r="K107" s="36"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="37"/>
       <c r="L107" s="22"/>
       <c r="M107" s="22"/>
       <c r="N107" s="22"/>
@@ -5780,8 +5783,8 @@
       <c r="G108" s="22"/>
       <c r="H108" s="22"/>
       <c r="I108" s="22"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
+      <c r="J108" s="37"/>
+      <c r="K108" s="37"/>
       <c r="L108" s="22"/>
       <c r="M108" s="22"/>
       <c r="N108" s="22"/>
@@ -5825,8 +5828,8 @@
       <c r="G109" s="22"/>
       <c r="H109" s="22"/>
       <c r="I109" s="22"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="36"/>
+      <c r="J109" s="37"/>
+      <c r="K109" s="37"/>
       <c r="L109" s="22"/>
       <c r="M109" s="22"/>
       <c r="N109" s="22"/>
@@ -5870,8 +5873,8 @@
       <c r="G110" s="22"/>
       <c r="H110" s="22"/>
       <c r="I110" s="22"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="36"/>
+      <c r="J110" s="37"/>
+      <c r="K110" s="37"/>
       <c r="L110" s="22"/>
       <c r="M110" s="22"/>
       <c r="N110" s="22"/>
@@ -5915,8 +5918,8 @@
       <c r="G111" s="22"/>
       <c r="H111" s="22"/>
       <c r="I111" s="22"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="36"/>
+      <c r="J111" s="37"/>
+      <c r="K111" s="37"/>
       <c r="L111" s="22"/>
       <c r="M111" s="22"/>
       <c r="N111" s="22"/>
@@ -5960,8 +5963,8 @@
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="36"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="37"/>
       <c r="L112" s="22"/>
       <c r="M112" s="22"/>
       <c r="N112" s="22"/>
@@ -6005,8 +6008,8 @@
       <c r="G113" s="22"/>
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
-      <c r="J113" s="36"/>
-      <c r="K113" s="36"/>
+      <c r="J113" s="37"/>
+      <c r="K113" s="37"/>
       <c r="L113" s="22"/>
       <c r="M113" s="22"/>
       <c r="N113" s="22"/>
@@ -6050,8 +6053,8 @@
       <c r="G114" s="22"/>
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="36"/>
+      <c r="J114" s="37"/>
+      <c r="K114" s="37"/>
       <c r="L114" s="22"/>
       <c r="M114" s="22"/>
       <c r="N114" s="22"/>
@@ -6095,8 +6098,8 @@
       <c r="G115" s="22"/>
       <c r="H115" s="22"/>
       <c r="I115" s="22"/>
-      <c r="J115" s="36"/>
-      <c r="K115" s="36"/>
+      <c r="J115" s="37"/>
+      <c r="K115" s="37"/>
       <c r="L115" s="22"/>
       <c r="M115" s="22"/>
       <c r="N115" s="22"/>
@@ -6140,8 +6143,8 @@
       <c r="G116" s="22"/>
       <c r="H116" s="22"/>
       <c r="I116" s="22"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="36"/>
+      <c r="J116" s="37"/>
+      <c r="K116" s="37"/>
       <c r="L116" s="22"/>
       <c r="M116" s="22"/>
       <c r="N116" s="22"/>
@@ -6185,8 +6188,8 @@
       <c r="G117" s="22"/>
       <c r="H117" s="22"/>
       <c r="I117" s="22"/>
-      <c r="J117" s="36"/>
-      <c r="K117" s="36"/>
+      <c r="J117" s="37"/>
+      <c r="K117" s="37"/>
       <c r="L117" s="22"/>
       <c r="M117" s="22"/>
       <c r="N117" s="22"/>
@@ -6230,8 +6233,8 @@
       <c r="G118" s="22"/>
       <c r="H118" s="22"/>
       <c r="I118" s="22"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="36"/>
+      <c r="J118" s="37"/>
+      <c r="K118" s="37"/>
       <c r="L118" s="22"/>
       <c r="M118" s="22"/>
       <c r="N118" s="22"/>
@@ -6275,8 +6278,8 @@
       <c r="G119" s="22"/>
       <c r="H119" s="22"/>
       <c r="I119" s="22"/>
-      <c r="J119" s="36"/>
-      <c r="K119" s="36"/>
+      <c r="J119" s="37"/>
+      <c r="K119" s="37"/>
       <c r="L119" s="22"/>
       <c r="M119" s="22"/>
       <c r="N119" s="22"/>
@@ -6320,8 +6323,8 @@
       <c r="G120" s="22"/>
       <c r="H120" s="22"/>
       <c r="I120" s="22"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="36"/>
+      <c r="J120" s="37"/>
+      <c r="K120" s="37"/>
       <c r="L120" s="22"/>
       <c r="M120" s="22"/>
       <c r="N120" s="22"/>
@@ -6365,8 +6368,8 @@
       <c r="G121" s="22"/>
       <c r="H121" s="22"/>
       <c r="I121" s="22"/>
-      <c r="J121" s="36"/>
-      <c r="K121" s="36"/>
+      <c r="J121" s="37"/>
+      <c r="K121" s="37"/>
       <c r="L121" s="22"/>
       <c r="M121" s="22"/>
       <c r="N121" s="22"/>
@@ -6410,8 +6413,8 @@
       <c r="G122" s="22"/>
       <c r="H122" s="22"/>
       <c r="I122" s="22"/>
-      <c r="J122" s="36"/>
-      <c r="K122" s="36"/>
+      <c r="J122" s="37"/>
+      <c r="K122" s="37"/>
       <c r="L122" s="22"/>
       <c r="M122" s="22"/>
       <c r="N122" s="22"/>
@@ -6455,8 +6458,8 @@
       <c r="G123" s="22"/>
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
-      <c r="J123" s="36"/>
-      <c r="K123" s="36"/>
+      <c r="J123" s="37"/>
+      <c r="K123" s="37"/>
       <c r="L123" s="22"/>
       <c r="M123" s="22"/>
       <c r="N123" s="22"/>
@@ -6500,8 +6503,8 @@
       <c r="G124" s="22"/>
       <c r="H124" s="22"/>
       <c r="I124" s="22"/>
-      <c r="J124" s="36"/>
-      <c r="K124" s="36"/>
+      <c r="J124" s="37"/>
+      <c r="K124" s="37"/>
       <c r="L124" s="22"/>
       <c r="M124" s="22"/>
       <c r="N124" s="22"/>
@@ -6545,8 +6548,8 @@
       <c r="G125" s="22"/>
       <c r="H125" s="22"/>
       <c r="I125" s="22"/>
-      <c r="J125" s="36"/>
-      <c r="K125" s="36"/>
+      <c r="J125" s="37"/>
+      <c r="K125" s="37"/>
       <c r="L125" s="22"/>
       <c r="M125" s="22"/>
       <c r="N125" s="22"/>
@@ -6590,8 +6593,8 @@
       <c r="G126" s="22"/>
       <c r="H126" s="22"/>
       <c r="I126" s="22"/>
-      <c r="J126" s="36"/>
-      <c r="K126" s="36"/>
+      <c r="J126" s="37"/>
+      <c r="K126" s="37"/>
       <c r="L126" s="22"/>
       <c r="M126" s="22"/>
       <c r="N126" s="22"/>
@@ -6635,8 +6638,8 @@
       <c r="G127" s="22"/>
       <c r="H127" s="22"/>
       <c r="I127" s="22"/>
-      <c r="J127" s="36"/>
-      <c r="K127" s="36"/>
+      <c r="J127" s="37"/>
+      <c r="K127" s="37"/>
       <c r="L127" s="22"/>
       <c r="M127" s="22"/>
       <c r="N127" s="22"/>
@@ -6680,8 +6683,8 @@
       <c r="G128" s="22"/>
       <c r="H128" s="22"/>
       <c r="I128" s="22"/>
-      <c r="J128" s="36"/>
-      <c r="K128" s="36"/>
+      <c r="J128" s="37"/>
+      <c r="K128" s="37"/>
       <c r="L128" s="22"/>
       <c r="M128" s="22"/>
       <c r="N128" s="22"/>
@@ -6725,8 +6728,8 @@
       <c r="G129" s="22"/>
       <c r="H129" s="22"/>
       <c r="I129" s="22"/>
-      <c r="J129" s="36"/>
-      <c r="K129" s="36"/>
+      <c r="J129" s="37"/>
+      <c r="K129" s="37"/>
       <c r="L129" s="22"/>
       <c r="M129" s="22"/>
       <c r="N129" s="22"/>
@@ -6770,8 +6773,8 @@
       <c r="G130" s="22"/>
       <c r="H130" s="22"/>
       <c r="I130" s="22"/>
-      <c r="J130" s="36"/>
-      <c r="K130" s="36"/>
+      <c r="J130" s="37"/>
+      <c r="K130" s="37"/>
       <c r="L130" s="22"/>
       <c r="M130" s="22"/>
       <c r="N130" s="22"/>
@@ -6815,8 +6818,8 @@
       <c r="G131" s="22"/>
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
-      <c r="J131" s="36"/>
-      <c r="K131" s="36"/>
+      <c r="J131" s="37"/>
+      <c r="K131" s="37"/>
       <c r="L131" s="22"/>
       <c r="M131" s="22"/>
       <c r="N131" s="22"/>
@@ -6860,8 +6863,8 @@
       <c r="G132" s="22"/>
       <c r="H132" s="22"/>
       <c r="I132" s="22"/>
-      <c r="J132" s="36"/>
-      <c r="K132" s="36"/>
+      <c r="J132" s="37"/>
+      <c r="K132" s="37"/>
       <c r="L132" s="22"/>
       <c r="M132" s="22"/>
       <c r="N132" s="22"/>
@@ -6905,8 +6908,8 @@
       <c r="G133" s="22"/>
       <c r="H133" s="22"/>
       <c r="I133" s="22"/>
-      <c r="J133" s="36"/>
-      <c r="K133" s="36"/>
+      <c r="J133" s="37"/>
+      <c r="K133" s="37"/>
       <c r="L133" s="22"/>
       <c r="M133" s="22"/>
       <c r="N133" s="22"/>
@@ -6950,8 +6953,8 @@
       <c r="G134" s="22"/>
       <c r="H134" s="22"/>
       <c r="I134" s="22"/>
-      <c r="J134" s="36"/>
-      <c r="K134" s="36"/>
+      <c r="J134" s="37"/>
+      <c r="K134" s="37"/>
       <c r="L134" s="22"/>
       <c r="M134" s="22"/>
       <c r="N134" s="22"/>
@@ -6995,8 +6998,8 @@
       <c r="G135" s="22"/>
       <c r="H135" s="22"/>
       <c r="I135" s="22"/>
-      <c r="J135" s="36"/>
-      <c r="K135" s="36"/>
+      <c r="J135" s="37"/>
+      <c r="K135" s="37"/>
       <c r="L135" s="22"/>
       <c r="M135" s="22"/>
       <c r="N135" s="22"/>
@@ -7040,8 +7043,8 @@
       <c r="G136" s="22"/>
       <c r="H136" s="22"/>
       <c r="I136" s="22"/>
-      <c r="J136" s="36"/>
-      <c r="K136" s="36"/>
+      <c r="J136" s="37"/>
+      <c r="K136" s="37"/>
       <c r="L136" s="22"/>
       <c r="M136" s="22"/>
       <c r="N136" s="22"/>
@@ -7085,8 +7088,8 @@
       <c r="G137" s="22"/>
       <c r="H137" s="22"/>
       <c r="I137" s="22"/>
-      <c r="J137" s="36"/>
-      <c r="K137" s="36"/>
+      <c r="J137" s="37"/>
+      <c r="K137" s="37"/>
       <c r="L137" s="22"/>
       <c r="M137" s="22"/>
       <c r="N137" s="22"/>
@@ -7130,8 +7133,8 @@
       <c r="G138" s="22"/>
       <c r="H138" s="22"/>
       <c r="I138" s="22"/>
-      <c r="J138" s="36"/>
-      <c r="K138" s="36"/>
+      <c r="J138" s="37"/>
+      <c r="K138" s="37"/>
       <c r="L138" s="22"/>
       <c r="M138" s="22"/>
       <c r="N138" s="22"/>
@@ -7175,8 +7178,8 @@
       <c r="G139" s="22"/>
       <c r="H139" s="22"/>
       <c r="I139" s="22"/>
-      <c r="J139" s="36"/>
-      <c r="K139" s="36"/>
+      <c r="J139" s="37"/>
+      <c r="K139" s="37"/>
       <c r="L139" s="22"/>
       <c r="M139" s="22"/>
       <c r="N139" s="22"/>
@@ -7220,8 +7223,8 @@
       <c r="G140" s="22"/>
       <c r="H140" s="22"/>
       <c r="I140" s="22"/>
-      <c r="J140" s="36"/>
-      <c r="K140" s="36"/>
+      <c r="J140" s="37"/>
+      <c r="K140" s="37"/>
       <c r="L140" s="22"/>
       <c r="M140" s="22"/>
       <c r="N140" s="22"/>
@@ -7265,8 +7268,8 @@
       <c r="G141" s="22"/>
       <c r="H141" s="22"/>
       <c r="I141" s="22"/>
-      <c r="J141" s="36"/>
-      <c r="K141" s="36"/>
+      <c r="J141" s="37"/>
+      <c r="K141" s="37"/>
       <c r="L141" s="22"/>
       <c r="M141" s="22"/>
       <c r="N141" s="22"/>
@@ -7310,8 +7313,8 @@
       <c r="G142" s="22"/>
       <c r="H142" s="22"/>
       <c r="I142" s="22"/>
-      <c r="J142" s="36"/>
-      <c r="K142" s="36"/>
+      <c r="J142" s="37"/>
+      <c r="K142" s="37"/>
       <c r="L142" s="22"/>
       <c r="M142" s="22"/>
       <c r="N142" s="22"/>
@@ -7355,8 +7358,8 @@
       <c r="G143" s="22"/>
       <c r="H143" s="22"/>
       <c r="I143" s="22"/>
-      <c r="J143" s="36"/>
-      <c r="K143" s="36"/>
+      <c r="J143" s="37"/>
+      <c r="K143" s="37"/>
       <c r="L143" s="22"/>
       <c r="M143" s="22"/>
       <c r="N143" s="22"/>
@@ -7400,8 +7403,8 @@
       <c r="G144" s="22"/>
       <c r="H144" s="22"/>
       <c r="I144" s="22"/>
-      <c r="J144" s="36"/>
-      <c r="K144" s="36"/>
+      <c r="J144" s="37"/>
+      <c r="K144" s="37"/>
       <c r="L144" s="22"/>
       <c r="M144" s="22"/>
       <c r="N144" s="22"/>
@@ -7445,8 +7448,8 @@
       <c r="G145" s="22"/>
       <c r="H145" s="22"/>
       <c r="I145" s="22"/>
-      <c r="J145" s="36"/>
-      <c r="K145" s="36"/>
+      <c r="J145" s="37"/>
+      <c r="K145" s="37"/>
       <c r="L145" s="22"/>
       <c r="M145" s="22"/>
       <c r="N145" s="22"/>
@@ -7490,8 +7493,8 @@
       <c r="G146" s="22"/>
       <c r="H146" s="22"/>
       <c r="I146" s="22"/>
-      <c r="J146" s="36"/>
-      <c r="K146" s="36"/>
+      <c r="J146" s="37"/>
+      <c r="K146" s="37"/>
       <c r="L146" s="22"/>
       <c r="M146" s="22"/>
       <c r="N146" s="22"/>
@@ -7535,8 +7538,8 @@
       <c r="G147" s="22"/>
       <c r="H147" s="22"/>
       <c r="I147" s="22"/>
-      <c r="J147" s="36"/>
-      <c r="K147" s="36"/>
+      <c r="J147" s="37"/>
+      <c r="K147" s="37"/>
       <c r="L147" s="22"/>
       <c r="M147" s="22"/>
       <c r="N147" s="22"/>
@@ -7580,8 +7583,8 @@
       <c r="G148" s="22"/>
       <c r="H148" s="22"/>
       <c r="I148" s="22"/>
-      <c r="J148" s="36"/>
-      <c r="K148" s="36"/>
+      <c r="J148" s="37"/>
+      <c r="K148" s="37"/>
       <c r="L148" s="22"/>
       <c r="M148" s="22"/>
       <c r="N148" s="22"/>
@@ -7625,8 +7628,8 @@
       <c r="G149" s="22"/>
       <c r="H149" s="22"/>
       <c r="I149" s="22"/>
-      <c r="J149" s="36"/>
-      <c r="K149" s="36"/>
+      <c r="J149" s="37"/>
+      <c r="K149" s="37"/>
       <c r="L149" s="22"/>
       <c r="M149" s="22"/>
       <c r="N149" s="22"/>
@@ -7670,8 +7673,8 @@
       <c r="G150" s="22"/>
       <c r="H150" s="22"/>
       <c r="I150" s="22"/>
-      <c r="J150" s="36"/>
-      <c r="K150" s="36"/>
+      <c r="J150" s="37"/>
+      <c r="K150" s="37"/>
       <c r="L150" s="22"/>
       <c r="M150" s="22"/>
       <c r="N150" s="22"/>
@@ -7715,8 +7718,8 @@
       <c r="G151" s="22"/>
       <c r="H151" s="22"/>
       <c r="I151" s="22"/>
-      <c r="J151" s="36"/>
-      <c r="K151" s="36"/>
+      <c r="J151" s="37"/>
+      <c r="K151" s="37"/>
       <c r="L151" s="22"/>
       <c r="M151" s="22"/>
       <c r="N151" s="22"/>
@@ -7760,8 +7763,8 @@
       <c r="G152" s="22"/>
       <c r="H152" s="22"/>
       <c r="I152" s="22"/>
-      <c r="J152" s="36"/>
-      <c r="K152" s="36"/>
+      <c r="J152" s="37"/>
+      <c r="K152" s="37"/>
       <c r="L152" s="22"/>
       <c r="M152" s="22"/>
       <c r="N152" s="22"/>
@@ -7805,8 +7808,8 @@
       <c r="G153" s="22"/>
       <c r="H153" s="22"/>
       <c r="I153" s="22"/>
-      <c r="J153" s="36"/>
-      <c r="K153" s="36"/>
+      <c r="J153" s="37"/>
+      <c r="K153" s="37"/>
       <c r="L153" s="22"/>
       <c r="M153" s="22"/>
       <c r="N153" s="22"/>
@@ -7850,8 +7853,8 @@
       <c r="G154" s="22"/>
       <c r="H154" s="22"/>
       <c r="I154" s="22"/>
-      <c r="J154" s="36"/>
-      <c r="K154" s="36"/>
+      <c r="J154" s="37"/>
+      <c r="K154" s="37"/>
       <c r="L154" s="22"/>
       <c r="M154" s="22"/>
       <c r="N154" s="22"/>
@@ -7895,8 +7898,8 @@
       <c r="G155" s="22"/>
       <c r="H155" s="22"/>
       <c r="I155" s="22"/>
-      <c r="J155" s="36"/>
-      <c r="K155" s="36"/>
+      <c r="J155" s="37"/>
+      <c r="K155" s="37"/>
       <c r="L155" s="22"/>
       <c r="M155" s="22"/>
       <c r="N155" s="22"/>
@@ -7940,8 +7943,8 @@
       <c r="G156" s="22"/>
       <c r="H156" s="22"/>
       <c r="I156" s="22"/>
-      <c r="J156" s="36"/>
-      <c r="K156" s="36"/>
+      <c r="J156" s="37"/>
+      <c r="K156" s="37"/>
       <c r="L156" s="22"/>
       <c r="M156" s="22"/>
       <c r="N156" s="22"/>
@@ -7985,8 +7988,8 @@
       <c r="G157" s="22"/>
       <c r="H157" s="22"/>
       <c r="I157" s="22"/>
-      <c r="J157" s="36"/>
-      <c r="K157" s="36"/>
+      <c r="J157" s="37"/>
+      <c r="K157" s="37"/>
       <c r="L157" s="22"/>
       <c r="M157" s="22"/>
       <c r="N157" s="22"/>
@@ -8030,8 +8033,8 @@
       <c r="G158" s="22"/>
       <c r="H158" s="22"/>
       <c r="I158" s="22"/>
-      <c r="J158" s="36"/>
-      <c r="K158" s="36"/>
+      <c r="J158" s="37"/>
+      <c r="K158" s="37"/>
       <c r="L158" s="22"/>
       <c r="M158" s="22"/>
       <c r="N158" s="22"/>
@@ -8075,8 +8078,8 @@
       <c r="G159" s="22"/>
       <c r="H159" s="22"/>
       <c r="I159" s="22"/>
-      <c r="J159" s="36"/>
-      <c r="K159" s="36"/>
+      <c r="J159" s="37"/>
+      <c r="K159" s="37"/>
       <c r="L159" s="22"/>
       <c r="M159" s="22"/>
       <c r="N159" s="22"/>
@@ -8120,8 +8123,8 @@
       <c r="G160" s="22"/>
       <c r="H160" s="22"/>
       <c r="I160" s="22"/>
-      <c r="J160" s="36"/>
-      <c r="K160" s="36"/>
+      <c r="J160" s="37"/>
+      <c r="K160" s="37"/>
       <c r="L160" s="22"/>
       <c r="M160" s="22"/>
       <c r="N160" s="22"/>
@@ -8165,8 +8168,8 @@
       <c r="G161" s="22"/>
       <c r="H161" s="22"/>
       <c r="I161" s="22"/>
-      <c r="J161" s="36"/>
-      <c r="K161" s="36"/>
+      <c r="J161" s="37"/>
+      <c r="K161" s="37"/>
       <c r="L161" s="22"/>
       <c r="M161" s="22"/>
       <c r="N161" s="22"/>
@@ -8210,8 +8213,8 @@
       <c r="G162" s="22"/>
       <c r="H162" s="22"/>
       <c r="I162" s="22"/>
-      <c r="J162" s="36"/>
-      <c r="K162" s="36"/>
+      <c r="J162" s="37"/>
+      <c r="K162" s="37"/>
       <c r="L162" s="22"/>
       <c r="M162" s="22"/>
       <c r="N162" s="22"/>
@@ -8255,8 +8258,8 @@
       <c r="G163" s="22"/>
       <c r="H163" s="22"/>
       <c r="I163" s="22"/>
-      <c r="J163" s="36"/>
-      <c r="K163" s="36"/>
+      <c r="J163" s="37"/>
+      <c r="K163" s="37"/>
       <c r="L163" s="22"/>
       <c r="M163" s="22"/>
       <c r="N163" s="22"/>
@@ -8300,8 +8303,8 @@
       <c r="G164" s="22"/>
       <c r="H164" s="22"/>
       <c r="I164" s="22"/>
-      <c r="J164" s="36"/>
-      <c r="K164" s="36"/>
+      <c r="J164" s="37"/>
+      <c r="K164" s="37"/>
       <c r="L164" s="22"/>
       <c r="M164" s="22"/>
       <c r="N164" s="22"/>
@@ -8345,8 +8348,8 @@
       <c r="G165" s="22"/>
       <c r="H165" s="22"/>
       <c r="I165" s="22"/>
-      <c r="J165" s="36"/>
-      <c r="K165" s="36"/>
+      <c r="J165" s="37"/>
+      <c r="K165" s="37"/>
       <c r="L165" s="22"/>
       <c r="M165" s="22"/>
       <c r="N165" s="22"/>
@@ -8390,8 +8393,8 @@
       <c r="G166" s="22"/>
       <c r="H166" s="22"/>
       <c r="I166" s="22"/>
-      <c r="J166" s="36"/>
-      <c r="K166" s="36"/>
+      <c r="J166" s="37"/>
+      <c r="K166" s="37"/>
       <c r="L166" s="22"/>
       <c r="M166" s="22"/>
       <c r="N166" s="22"/>
@@ -8435,8 +8438,8 @@
       <c r="G167" s="22"/>
       <c r="H167" s="22"/>
       <c r="I167" s="22"/>
-      <c r="J167" s="36"/>
-      <c r="K167" s="36"/>
+      <c r="J167" s="37"/>
+      <c r="K167" s="37"/>
       <c r="L167" s="22"/>
       <c r="M167" s="22"/>
       <c r="N167" s="22"/>
@@ -8480,8 +8483,8 @@
       <c r="G168" s="22"/>
       <c r="H168" s="22"/>
       <c r="I168" s="22"/>
-      <c r="J168" s="36"/>
-      <c r="K168" s="36"/>
+      <c r="J168" s="37"/>
+      <c r="K168" s="37"/>
       <c r="L168" s="22"/>
       <c r="M168" s="22"/>
       <c r="N168" s="22"/>
@@ -8525,8 +8528,8 @@
       <c r="G169" s="22"/>
       <c r="H169" s="22"/>
       <c r="I169" s="22"/>
-      <c r="J169" s="36"/>
-      <c r="K169" s="36"/>
+      <c r="J169" s="37"/>
+      <c r="K169" s="37"/>
       <c r="L169" s="22"/>
       <c r="M169" s="22"/>
       <c r="N169" s="22"/>
@@ -8570,8 +8573,8 @@
       <c r="G170" s="22"/>
       <c r="H170" s="22"/>
       <c r="I170" s="22"/>
-      <c r="J170" s="36"/>
-      <c r="K170" s="36"/>
+      <c r="J170" s="37"/>
+      <c r="K170" s="37"/>
       <c r="L170" s="22"/>
       <c r="M170" s="22"/>
       <c r="N170" s="22"/>
@@ -8615,8 +8618,8 @@
       <c r="G171" s="22"/>
       <c r="H171" s="22"/>
       <c r="I171" s="22"/>
-      <c r="J171" s="36"/>
-      <c r="K171" s="36"/>
+      <c r="J171" s="37"/>
+      <c r="K171" s="37"/>
       <c r="L171" s="22"/>
       <c r="M171" s="22"/>
       <c r="N171" s="22"/>
@@ -8660,8 +8663,8 @@
       <c r="G172" s="22"/>
       <c r="H172" s="22"/>
       <c r="I172" s="22"/>
-      <c r="J172" s="36"/>
-      <c r="K172" s="36"/>
+      <c r="J172" s="37"/>
+      <c r="K172" s="37"/>
       <c r="L172" s="22"/>
       <c r="M172" s="22"/>
       <c r="N172" s="22"/>
@@ -8705,8 +8708,8 @@
       <c r="G173" s="22"/>
       <c r="H173" s="22"/>
       <c r="I173" s="22"/>
-      <c r="J173" s="36"/>
-      <c r="K173" s="36"/>
+      <c r="J173" s="37"/>
+      <c r="K173" s="37"/>
       <c r="L173" s="22"/>
       <c r="M173" s="22"/>
       <c r="N173" s="22"/>
@@ -8750,8 +8753,8 @@
       <c r="G174" s="22"/>
       <c r="H174" s="22"/>
       <c r="I174" s="22"/>
-      <c r="J174" s="36"/>
-      <c r="K174" s="36"/>
+      <c r="J174" s="37"/>
+      <c r="K174" s="37"/>
       <c r="L174" s="22"/>
       <c r="M174" s="22"/>
       <c r="N174" s="22"/>
@@ -8795,8 +8798,8 @@
       <c r="G175" s="22"/>
       <c r="H175" s="22"/>
       <c r="I175" s="22"/>
-      <c r="J175" s="36"/>
-      <c r="K175" s="36"/>
+      <c r="J175" s="37"/>
+      <c r="K175" s="37"/>
       <c r="L175" s="22"/>
       <c r="M175" s="22"/>
       <c r="N175" s="22"/>
@@ -8840,8 +8843,8 @@
       <c r="G176" s="22"/>
       <c r="H176" s="22"/>
       <c r="I176" s="22"/>
-      <c r="J176" s="36"/>
-      <c r="K176" s="36"/>
+      <c r="J176" s="37"/>
+      <c r="K176" s="37"/>
       <c r="L176" s="22"/>
       <c r="M176" s="22"/>
       <c r="N176" s="22"/>
@@ -8885,8 +8888,8 @@
       <c r="G177" s="22"/>
       <c r="H177" s="22"/>
       <c r="I177" s="22"/>
-      <c r="J177" s="36"/>
-      <c r="K177" s="36"/>
+      <c r="J177" s="37"/>
+      <c r="K177" s="37"/>
       <c r="L177" s="22"/>
       <c r="M177" s="22"/>
       <c r="N177" s="22"/>
@@ -8930,8 +8933,8 @@
       <c r="G178" s="22"/>
       <c r="H178" s="22"/>
       <c r="I178" s="22"/>
-      <c r="J178" s="36"/>
-      <c r="K178" s="36"/>
+      <c r="J178" s="37"/>
+      <c r="K178" s="37"/>
       <c r="L178" s="22"/>
       <c r="M178" s="22"/>
       <c r="N178" s="22"/>
@@ -8975,8 +8978,8 @@
       <c r="G179" s="22"/>
       <c r="H179" s="22"/>
       <c r="I179" s="22"/>
-      <c r="J179" s="36"/>
-      <c r="K179" s="36"/>
+      <c r="J179" s="37"/>
+      <c r="K179" s="37"/>
       <c r="L179" s="22"/>
       <c r="M179" s="22"/>
       <c r="N179" s="22"/>
@@ -9020,8 +9023,8 @@
       <c r="G180" s="22"/>
       <c r="H180" s="22"/>
       <c r="I180" s="22"/>
-      <c r="J180" s="36"/>
-      <c r="K180" s="36"/>
+      <c r="J180" s="37"/>
+      <c r="K180" s="37"/>
       <c r="L180" s="22"/>
       <c r="M180" s="22"/>
       <c r="N180" s="22"/>
@@ -9065,8 +9068,8 @@
       <c r="G181" s="22"/>
       <c r="H181" s="22"/>
       <c r="I181" s="22"/>
-      <c r="J181" s="36"/>
-      <c r="K181" s="36"/>
+      <c r="J181" s="37"/>
+      <c r="K181" s="37"/>
       <c r="L181" s="22"/>
       <c r="M181" s="22"/>
       <c r="N181" s="22"/>
@@ -9110,8 +9113,8 @@
       <c r="G182" s="22"/>
       <c r="H182" s="22"/>
       <c r="I182" s="22"/>
-      <c r="J182" s="36"/>
-      <c r="K182" s="36"/>
+      <c r="J182" s="37"/>
+      <c r="K182" s="37"/>
       <c r="L182" s="22"/>
       <c r="M182" s="22"/>
       <c r="N182" s="22"/>
@@ -9155,8 +9158,8 @@
       <c r="G183" s="22"/>
       <c r="H183" s="22"/>
       <c r="I183" s="22"/>
-      <c r="J183" s="36"/>
-      <c r="K183" s="36"/>
+      <c r="J183" s="37"/>
+      <c r="K183" s="37"/>
       <c r="L183" s="22"/>
       <c r="M183" s="22"/>
       <c r="N183" s="22"/>
@@ -9200,8 +9203,8 @@
       <c r="G184" s="22"/>
       <c r="H184" s="22"/>
       <c r="I184" s="22"/>
-      <c r="J184" s="36"/>
-      <c r="K184" s="36"/>
+      <c r="J184" s="37"/>
+      <c r="K184" s="37"/>
       <c r="L184" s="22"/>
       <c r="M184" s="22"/>
       <c r="N184" s="22"/>
@@ -9245,8 +9248,8 @@
       <c r="G185" s="22"/>
       <c r="H185" s="22"/>
       <c r="I185" s="22"/>
-      <c r="J185" s="36"/>
-      <c r="K185" s="36"/>
+      <c r="J185" s="37"/>
+      <c r="K185" s="37"/>
       <c r="L185" s="22"/>
       <c r="M185" s="22"/>
       <c r="N185" s="22"/>
@@ -9290,8 +9293,8 @@
       <c r="G186" s="22"/>
       <c r="H186" s="22"/>
       <c r="I186" s="22"/>
-      <c r="J186" s="36"/>
-      <c r="K186" s="36"/>
+      <c r="J186" s="37"/>
+      <c r="K186" s="37"/>
       <c r="L186" s="22"/>
       <c r="M186" s="22"/>
       <c r="N186" s="22"/>
@@ -9335,8 +9338,8 @@
       <c r="G187" s="22"/>
       <c r="H187" s="22"/>
       <c r="I187" s="22"/>
-      <c r="J187" s="36"/>
-      <c r="K187" s="36"/>
+      <c r="J187" s="37"/>
+      <c r="K187" s="37"/>
       <c r="L187" s="22"/>
       <c r="M187" s="22"/>
       <c r="N187" s="22"/>
@@ -9380,8 +9383,8 @@
       <c r="G188" s="22"/>
       <c r="H188" s="22"/>
       <c r="I188" s="22"/>
-      <c r="J188" s="36"/>
-      <c r="K188" s="36"/>
+      <c r="J188" s="37"/>
+      <c r="K188" s="37"/>
       <c r="L188" s="22"/>
       <c r="M188" s="22"/>
       <c r="N188" s="22"/>
@@ -9425,8 +9428,8 @@
       <c r="G189" s="22"/>
       <c r="H189" s="22"/>
       <c r="I189" s="22"/>
-      <c r="J189" s="36"/>
-      <c r="K189" s="36"/>
+      <c r="J189" s="37"/>
+      <c r="K189" s="37"/>
       <c r="L189" s="22"/>
       <c r="M189" s="22"/>
       <c r="N189" s="22"/>
@@ -9470,8 +9473,8 @@
       <c r="G190" s="22"/>
       <c r="H190" s="22"/>
       <c r="I190" s="22"/>
-      <c r="J190" s="36"/>
-      <c r="K190" s="36"/>
+      <c r="J190" s="37"/>
+      <c r="K190" s="37"/>
       <c r="L190" s="22"/>
       <c r="M190" s="22"/>
       <c r="N190" s="22"/>
@@ -9515,8 +9518,8 @@
       <c r="G191" s="22"/>
       <c r="H191" s="22"/>
       <c r="I191" s="22"/>
-      <c r="J191" s="36"/>
-      <c r="K191" s="36"/>
+      <c r="J191" s="37"/>
+      <c r="K191" s="37"/>
       <c r="L191" s="22"/>
       <c r="M191" s="22"/>
       <c r="N191" s="22"/>
@@ -9560,8 +9563,8 @@
       <c r="G192" s="22"/>
       <c r="H192" s="22"/>
       <c r="I192" s="22"/>
-      <c r="J192" s="36"/>
-      <c r="K192" s="36"/>
+      <c r="J192" s="37"/>
+      <c r="K192" s="37"/>
       <c r="L192" s="22"/>
       <c r="M192" s="22"/>
       <c r="N192" s="22"/>
@@ -9605,8 +9608,8 @@
       <c r="G193" s="22"/>
       <c r="H193" s="22"/>
       <c r="I193" s="22"/>
-      <c r="J193" s="36"/>
-      <c r="K193" s="36"/>
+      <c r="J193" s="37"/>
+      <c r="K193" s="37"/>
       <c r="L193" s="22"/>
       <c r="M193" s="22"/>
       <c r="N193" s="22"/>
@@ -9650,8 +9653,8 @@
       <c r="G194" s="22"/>
       <c r="H194" s="22"/>
       <c r="I194" s="22"/>
-      <c r="J194" s="36"/>
-      <c r="K194" s="36"/>
+      <c r="J194" s="37"/>
+      <c r="K194" s="37"/>
       <c r="L194" s="22"/>
       <c r="M194" s="22"/>
       <c r="N194" s="22"/>
@@ -9695,8 +9698,8 @@
       <c r="G195" s="22"/>
       <c r="H195" s="22"/>
       <c r="I195" s="22"/>
-      <c r="J195" s="36"/>
-      <c r="K195" s="36"/>
+      <c r="J195" s="37"/>
+      <c r="K195" s="37"/>
       <c r="L195" s="22"/>
       <c r="M195" s="22"/>
       <c r="N195" s="22"/>
@@ -9740,8 +9743,8 @@
       <c r="G196" s="22"/>
       <c r="H196" s="22"/>
       <c r="I196" s="22"/>
-      <c r="J196" s="36"/>
-      <c r="K196" s="36"/>
+      <c r="J196" s="37"/>
+      <c r="K196" s="37"/>
       <c r="L196" s="22"/>
       <c r="M196" s="22"/>
       <c r="N196" s="22"/>
@@ -9785,8 +9788,8 @@
       <c r="G197" s="22"/>
       <c r="H197" s="22"/>
       <c r="I197" s="22"/>
-      <c r="J197" s="36"/>
-      <c r="K197" s="36"/>
+      <c r="J197" s="37"/>
+      <c r="K197" s="37"/>
       <c r="L197" s="22"/>
       <c r="M197" s="22"/>
       <c r="N197" s="22"/>
@@ -9830,8 +9833,8 @@
       <c r="G198" s="22"/>
       <c r="H198" s="22"/>
       <c r="I198" s="22"/>
-      <c r="J198" s="36"/>
-      <c r="K198" s="36"/>
+      <c r="J198" s="37"/>
+      <c r="K198" s="37"/>
       <c r="L198" s="22"/>
       <c r="M198" s="22"/>
       <c r="N198" s="22"/>
@@ -9875,8 +9878,8 @@
       <c r="G199" s="22"/>
       <c r="H199" s="22"/>
       <c r="I199" s="22"/>
-      <c r="J199" s="36"/>
-      <c r="K199" s="36"/>
+      <c r="J199" s="37"/>
+      <c r="K199" s="37"/>
       <c r="L199" s="22"/>
       <c r="M199" s="22"/>
       <c r="N199" s="22"/>
@@ -9920,8 +9923,8 @@
       <c r="G200" s="22"/>
       <c r="H200" s="22"/>
       <c r="I200" s="22"/>
-      <c r="J200" s="36"/>
-      <c r="K200" s="36"/>
+      <c r="J200" s="37"/>
+      <c r="K200" s="37"/>
       <c r="L200" s="22"/>
       <c r="M200" s="22"/>
       <c r="N200" s="22"/>
@@ -9965,8 +9968,8 @@
       <c r="G201" s="22"/>
       <c r="H201" s="22"/>
       <c r="I201" s="22"/>
-      <c r="J201" s="36"/>
-      <c r="K201" s="36"/>
+      <c r="J201" s="37"/>
+      <c r="K201" s="37"/>
       <c r="L201" s="22"/>
       <c r="M201" s="22"/>
       <c r="N201" s="22"/>
@@ -10010,8 +10013,8 @@
       <c r="G202" s="22"/>
       <c r="H202" s="22"/>
       <c r="I202" s="22"/>
-      <c r="J202" s="36"/>
-      <c r="K202" s="36"/>
+      <c r="J202" s="37"/>
+      <c r="K202" s="37"/>
       <c r="L202" s="22"/>
       <c r="M202" s="22"/>
       <c r="N202" s="22"/>
@@ -10055,8 +10058,8 @@
       <c r="G203" s="22"/>
       <c r="H203" s="22"/>
       <c r="I203" s="22"/>
-      <c r="J203" s="36"/>
-      <c r="K203" s="36"/>
+      <c r="J203" s="37"/>
+      <c r="K203" s="37"/>
       <c r="L203" s="22"/>
       <c r="M203" s="22"/>
       <c r="N203" s="22"/>
@@ -10100,8 +10103,8 @@
       <c r="G204" s="22"/>
       <c r="H204" s="22"/>
       <c r="I204" s="22"/>
-      <c r="J204" s="36"/>
-      <c r="K204" s="36"/>
+      <c r="J204" s="37"/>
+      <c r="K204" s="37"/>
       <c r="L204" s="22"/>
       <c r="M204" s="22"/>
       <c r="N204" s="22"/>
@@ -10145,8 +10148,8 @@
       <c r="G205" s="22"/>
       <c r="H205" s="22"/>
       <c r="I205" s="22"/>
-      <c r="J205" s="36"/>
-      <c r="K205" s="36"/>
+      <c r="J205" s="37"/>
+      <c r="K205" s="37"/>
       <c r="L205" s="22"/>
       <c r="M205" s="22"/>
       <c r="N205" s="22"/>
@@ -10190,8 +10193,8 @@
       <c r="G206" s="22"/>
       <c r="H206" s="22"/>
       <c r="I206" s="22"/>
-      <c r="J206" s="36"/>
-      <c r="K206" s="36"/>
+      <c r="J206" s="37"/>
+      <c r="K206" s="37"/>
       <c r="L206" s="22"/>
       <c r="M206" s="22"/>
       <c r="N206" s="22"/>
@@ -10235,8 +10238,8 @@
       <c r="G207" s="22"/>
       <c r="H207" s="22"/>
       <c r="I207" s="22"/>
-      <c r="J207" s="36"/>
-      <c r="K207" s="36"/>
+      <c r="J207" s="37"/>
+      <c r="K207" s="37"/>
       <c r="L207" s="22"/>
       <c r="M207" s="22"/>
       <c r="N207" s="22"/>
@@ -10280,8 +10283,8 @@
       <c r="G208" s="22"/>
       <c r="H208" s="22"/>
       <c r="I208" s="22"/>
-      <c r="J208" s="36"/>
-      <c r="K208" s="36"/>
+      <c r="J208" s="37"/>
+      <c r="K208" s="37"/>
       <c r="L208" s="22"/>
       <c r="M208" s="22"/>
       <c r="N208" s="22"/>
@@ -10325,8 +10328,8 @@
       <c r="G209" s="22"/>
       <c r="H209" s="22"/>
       <c r="I209" s="22"/>
-      <c r="J209" s="36"/>
-      <c r="K209" s="36"/>
+      <c r="J209" s="37"/>
+      <c r="K209" s="37"/>
       <c r="L209" s="22"/>
       <c r="M209" s="22"/>
       <c r="N209" s="22"/>
@@ -10370,8 +10373,8 @@
       <c r="G210" s="22"/>
       <c r="H210" s="22"/>
       <c r="I210" s="22"/>
-      <c r="J210" s="36"/>
-      <c r="K210" s="36"/>
+      <c r="J210" s="37"/>
+      <c r="K210" s="37"/>
       <c r="L210" s="22"/>
       <c r="M210" s="22"/>
       <c r="N210" s="22"/>
@@ -10415,8 +10418,8 @@
       <c r="G211" s="22"/>
       <c r="H211" s="22"/>
       <c r="I211" s="22"/>
-      <c r="J211" s="36"/>
-      <c r="K211" s="36"/>
+      <c r="J211" s="37"/>
+      <c r="K211" s="37"/>
       <c r="L211" s="22"/>
       <c r="M211" s="22"/>
       <c r="N211" s="22"/>
@@ -10460,8 +10463,8 @@
       <c r="G212" s="22"/>
       <c r="H212" s="22"/>
       <c r="I212" s="22"/>
-      <c r="J212" s="36"/>
-      <c r="K212" s="36"/>
+      <c r="J212" s="37"/>
+      <c r="K212" s="37"/>
       <c r="L212" s="22"/>
       <c r="M212" s="22"/>
       <c r="N212" s="22"/>
@@ -10505,8 +10508,8 @@
       <c r="G213" s="22"/>
       <c r="H213" s="22"/>
       <c r="I213" s="22"/>
-      <c r="J213" s="36"/>
-      <c r="K213" s="36"/>
+      <c r="J213" s="37"/>
+      <c r="K213" s="37"/>
       <c r="L213" s="22"/>
       <c r="M213" s="22"/>
       <c r="N213" s="22"/>
@@ -10550,8 +10553,8 @@
       <c r="G214" s="22"/>
       <c r="H214" s="22"/>
       <c r="I214" s="22"/>
-      <c r="J214" s="36"/>
-      <c r="K214" s="36"/>
+      <c r="J214" s="37"/>
+      <c r="K214" s="37"/>
       <c r="L214" s="22"/>
       <c r="M214" s="22"/>
       <c r="N214" s="22"/>
@@ -10595,8 +10598,8 @@
       <c r="G215" s="22"/>
       <c r="H215" s="22"/>
       <c r="I215" s="22"/>
-      <c r="J215" s="36"/>
-      <c r="K215" s="36"/>
+      <c r="J215" s="37"/>
+      <c r="K215" s="37"/>
       <c r="L215" s="22"/>
       <c r="M215" s="22"/>
       <c r="N215" s="22"/>
@@ -10640,8 +10643,8 @@
       <c r="G216" s="22"/>
       <c r="H216" s="22"/>
       <c r="I216" s="22"/>
-      <c r="J216" s="36"/>
-      <c r="K216" s="36"/>
+      <c r="J216" s="37"/>
+      <c r="K216" s="37"/>
       <c r="L216" s="22"/>
       <c r="M216" s="22"/>
       <c r="N216" s="22"/>
@@ -10685,8 +10688,8 @@
       <c r="G217" s="22"/>
       <c r="H217" s="22"/>
       <c r="I217" s="22"/>
-      <c r="J217" s="36"/>
-      <c r="K217" s="36"/>
+      <c r="J217" s="37"/>
+      <c r="K217" s="37"/>
       <c r="L217" s="22"/>
       <c r="M217" s="22"/>
       <c r="N217" s="22"/>
@@ -10730,8 +10733,8 @@
       <c r="G218" s="22"/>
       <c r="H218" s="22"/>
       <c r="I218" s="22"/>
-      <c r="J218" s="36"/>
-      <c r="K218" s="36"/>
+      <c r="J218" s="37"/>
+      <c r="K218" s="37"/>
       <c r="L218" s="22"/>
       <c r="M218" s="22"/>
       <c r="N218" s="22"/>
@@ -10775,8 +10778,8 @@
       <c r="G219" s="22"/>
       <c r="H219" s="22"/>
       <c r="I219" s="22"/>
-      <c r="J219" s="36"/>
-      <c r="K219" s="36"/>
+      <c r="J219" s="37"/>
+      <c r="K219" s="37"/>
       <c r="L219" s="22"/>
       <c r="M219" s="22"/>
       <c r="N219" s="22"/>
@@ -10820,8 +10823,8 @@
       <c r="G220" s="22"/>
       <c r="H220" s="22"/>
       <c r="I220" s="22"/>
-      <c r="J220" s="36"/>
-      <c r="K220" s="36"/>
+      <c r="J220" s="37"/>
+      <c r="K220" s="37"/>
       <c r="L220" s="22"/>
       <c r="M220" s="22"/>
       <c r="N220" s="22"/>
@@ -10865,8 +10868,8 @@
       <c r="G221" s="22"/>
       <c r="H221" s="22"/>
       <c r="I221" s="22"/>
-      <c r="J221" s="36"/>
-      <c r="K221" s="36"/>
+      <c r="J221" s="37"/>
+      <c r="K221" s="37"/>
       <c r="L221" s="22"/>
       <c r="M221" s="22"/>
       <c r="N221" s="22"/>
@@ -10910,8 +10913,8 @@
       <c r="G222" s="22"/>
       <c r="H222" s="22"/>
       <c r="I222" s="22"/>
-      <c r="J222" s="36"/>
-      <c r="K222" s="36"/>
+      <c r="J222" s="37"/>
+      <c r="K222" s="37"/>
       <c r="L222" s="22"/>
       <c r="M222" s="22"/>
       <c r="N222" s="22"/>
@@ -10955,8 +10958,8 @@
       <c r="G223" s="22"/>
       <c r="H223" s="22"/>
       <c r="I223" s="22"/>
-      <c r="J223" s="36"/>
-      <c r="K223" s="36"/>
+      <c r="J223" s="37"/>
+      <c r="K223" s="37"/>
       <c r="L223" s="22"/>
       <c r="M223" s="22"/>
       <c r="N223" s="22"/>
@@ -11000,8 +11003,8 @@
       <c r="G224" s="22"/>
       <c r="H224" s="22"/>
       <c r="I224" s="22"/>
-      <c r="J224" s="36"/>
-      <c r="K224" s="36"/>
+      <c r="J224" s="37"/>
+      <c r="K224" s="37"/>
       <c r="L224" s="22"/>
       <c r="M224" s="22"/>
       <c r="N224" s="22"/>
@@ -11045,8 +11048,8 @@
       <c r="G225" s="22"/>
       <c r="H225" s="22"/>
       <c r="I225" s="22"/>
-      <c r="J225" s="36"/>
-      <c r="K225" s="36"/>
+      <c r="J225" s="37"/>
+      <c r="K225" s="37"/>
       <c r="L225" s="22"/>
       <c r="M225" s="22"/>
       <c r="N225" s="22"/>
@@ -11090,8 +11093,8 @@
       <c r="G226" s="22"/>
       <c r="H226" s="22"/>
       <c r="I226" s="22"/>
-      <c r="J226" s="36"/>
-      <c r="K226" s="36"/>
+      <c r="J226" s="37"/>
+      <c r="K226" s="37"/>
       <c r="L226" s="22"/>
       <c r="M226" s="22"/>
       <c r="N226" s="22"/>
@@ -11135,8 +11138,8 @@
       <c r="G227" s="22"/>
       <c r="H227" s="22"/>
       <c r="I227" s="22"/>
-      <c r="J227" s="36"/>
-      <c r="K227" s="36"/>
+      <c r="J227" s="37"/>
+      <c r="K227" s="37"/>
       <c r="L227" s="22"/>
       <c r="M227" s="22"/>
       <c r="N227" s="22"/>
@@ -11180,8 +11183,8 @@
       <c r="G228" s="22"/>
       <c r="H228" s="22"/>
       <c r="I228" s="22"/>
-      <c r="J228" s="36"/>
-      <c r="K228" s="36"/>
+      <c r="J228" s="37"/>
+      <c r="K228" s="37"/>
       <c r="L228" s="22"/>
       <c r="M228" s="22"/>
       <c r="N228" s="22"/>
@@ -11225,8 +11228,8 @@
       <c r="G229" s="22"/>
       <c r="H229" s="22"/>
       <c r="I229" s="22"/>
-      <c r="J229" s="36"/>
-      <c r="K229" s="36"/>
+      <c r="J229" s="37"/>
+      <c r="K229" s="37"/>
       <c r="L229" s="22"/>
       <c r="M229" s="22"/>
       <c r="N229" s="22"/>
@@ -11270,8 +11273,8 @@
       <c r="G230" s="22"/>
       <c r="H230" s="22"/>
       <c r="I230" s="22"/>
-      <c r="J230" s="36"/>
-      <c r="K230" s="36"/>
+      <c r="J230" s="37"/>
+      <c r="K230" s="37"/>
       <c r="L230" s="22"/>
       <c r="M230" s="22"/>
       <c r="N230" s="22"/>
@@ -11315,8 +11318,8 @@
       <c r="G231" s="22"/>
       <c r="H231" s="22"/>
       <c r="I231" s="22"/>
-      <c r="J231" s="36"/>
-      <c r="K231" s="36"/>
+      <c r="J231" s="37"/>
+      <c r="K231" s="37"/>
       <c r="L231" s="22"/>
       <c r="M231" s="22"/>
       <c r="N231" s="22"/>
@@ -11360,8 +11363,8 @@
       <c r="G232" s="22"/>
       <c r="H232" s="22"/>
       <c r="I232" s="22"/>
-      <c r="J232" s="36"/>
-      <c r="K232" s="36"/>
+      <c r="J232" s="37"/>
+      <c r="K232" s="37"/>
       <c r="L232" s="22"/>
       <c r="M232" s="22"/>
       <c r="N232" s="22"/>
@@ -11405,8 +11408,8 @@
       <c r="G233" s="22"/>
       <c r="H233" s="22"/>
       <c r="I233" s="22"/>
-      <c r="J233" s="36"/>
-      <c r="K233" s="36"/>
+      <c r="J233" s="37"/>
+      <c r="K233" s="37"/>
       <c r="L233" s="22"/>
       <c r="M233" s="22"/>
       <c r="N233" s="22"/>
@@ -11450,8 +11453,8 @@
       <c r="G234" s="22"/>
       <c r="H234" s="22"/>
       <c r="I234" s="22"/>
-      <c r="J234" s="36"/>
-      <c r="K234" s="36"/>
+      <c r="J234" s="37"/>
+      <c r="K234" s="37"/>
       <c r="L234" s="22"/>
       <c r="M234" s="22"/>
       <c r="N234" s="22"/>
@@ -11495,8 +11498,8 @@
       <c r="G235" s="22"/>
       <c r="H235" s="22"/>
       <c r="I235" s="22"/>
-      <c r="J235" s="36"/>
-      <c r="K235" s="36"/>
+      <c r="J235" s="37"/>
+      <c r="K235" s="37"/>
       <c r="L235" s="22"/>
       <c r="M235" s="22"/>
       <c r="N235" s="22"/>
@@ -11540,8 +11543,8 @@
       <c r="G236" s="22"/>
       <c r="H236" s="22"/>
       <c r="I236" s="22"/>
-      <c r="J236" s="36"/>
-      <c r="K236" s="36"/>
+      <c r="J236" s="37"/>
+      <c r="K236" s="37"/>
       <c r="L236" s="22"/>
       <c r="M236" s="22"/>
       <c r="N236" s="22"/>
@@ -11585,8 +11588,8 @@
       <c r="G237" s="22"/>
       <c r="H237" s="22"/>
       <c r="I237" s="22"/>
-      <c r="J237" s="36"/>
-      <c r="K237" s="36"/>
+      <c r="J237" s="37"/>
+      <c r="K237" s="37"/>
       <c r="L237" s="22"/>
       <c r="M237" s="22"/>
       <c r="N237" s="22"/>
@@ -11630,8 +11633,8 @@
       <c r="G238" s="22"/>
       <c r="H238" s="22"/>
       <c r="I238" s="22"/>
-      <c r="J238" s="36"/>
-      <c r="K238" s="36"/>
+      <c r="J238" s="37"/>
+      <c r="K238" s="37"/>
       <c r="L238" s="22"/>
       <c r="M238" s="22"/>
       <c r="N238" s="22"/>
@@ -11675,8 +11678,8 @@
       <c r="G239" s="22"/>
       <c r="H239" s="22"/>
       <c r="I239" s="22"/>
-      <c r="J239" s="36"/>
-      <c r="K239" s="36"/>
+      <c r="J239" s="37"/>
+      <c r="K239" s="37"/>
       <c r="L239" s="22"/>
       <c r="M239" s="22"/>
       <c r="N239" s="22"/>
@@ -11720,8 +11723,8 @@
       <c r="G240" s="22"/>
       <c r="H240" s="22"/>
       <c r="I240" s="22"/>
-      <c r="J240" s="36"/>
-      <c r="K240" s="36"/>
+      <c r="J240" s="37"/>
+      <c r="K240" s="37"/>
       <c r="L240" s="22"/>
       <c r="M240" s="22"/>
       <c r="N240" s="22"/>
@@ -11765,8 +11768,8 @@
       <c r="G241" s="22"/>
       <c r="H241" s="22"/>
       <c r="I241" s="22"/>
-      <c r="J241" s="36"/>
-      <c r="K241" s="36"/>
+      <c r="J241" s="37"/>
+      <c r="K241" s="37"/>
       <c r="L241" s="22"/>
       <c r="M241" s="22"/>
       <c r="N241" s="22"/>
@@ -11810,8 +11813,8 @@
       <c r="G242" s="22"/>
       <c r="H242" s="22"/>
       <c r="I242" s="22"/>
-      <c r="J242" s="36"/>
-      <c r="K242" s="36"/>
+      <c r="J242" s="37"/>
+      <c r="K242" s="37"/>
       <c r="L242" s="22"/>
       <c r="M242" s="22"/>
       <c r="N242" s="22"/>
@@ -11855,8 +11858,8 @@
       <c r="G243" s="22"/>
       <c r="H243" s="22"/>
       <c r="I243" s="22"/>
-      <c r="J243" s="36"/>
-      <c r="K243" s="36"/>
+      <c r="J243" s="37"/>
+      <c r="K243" s="37"/>
       <c r="L243" s="22"/>
       <c r="M243" s="22"/>
       <c r="N243" s="22"/>
@@ -11900,8 +11903,8 @@
       <c r="G244" s="22"/>
       <c r="H244" s="22"/>
       <c r="I244" s="22"/>
-      <c r="J244" s="36"/>
-      <c r="K244" s="36"/>
+      <c r="J244" s="37"/>
+      <c r="K244" s="37"/>
       <c r="L244" s="22"/>
       <c r="M244" s="22"/>
       <c r="N244" s="22"/>
@@ -11945,8 +11948,8 @@
       <c r="G245" s="22"/>
       <c r="H245" s="22"/>
       <c r="I245" s="22"/>
-      <c r="J245" s="36"/>
-      <c r="K245" s="36"/>
+      <c r="J245" s="37"/>
+      <c r="K245" s="37"/>
       <c r="L245" s="22"/>
       <c r="M245" s="22"/>
       <c r="N245" s="22"/>
@@ -11990,8 +11993,8 @@
       <c r="G246" s="22"/>
       <c r="H246" s="22"/>
       <c r="I246" s="22"/>
-      <c r="J246" s="36"/>
-      <c r="K246" s="36"/>
+      <c r="J246" s="37"/>
+      <c r="K246" s="37"/>
       <c r="L246" s="22"/>
       <c r="M246" s="22"/>
       <c r="N246" s="22"/>
@@ -12035,8 +12038,8 @@
       <c r="G247" s="22"/>
       <c r="H247" s="22"/>
       <c r="I247" s="22"/>
-      <c r="J247" s="36"/>
-      <c r="K247" s="36"/>
+      <c r="J247" s="37"/>
+      <c r="K247" s="37"/>
       <c r="L247" s="22"/>
       <c r="M247" s="22"/>
       <c r="N247" s="22"/>
@@ -12080,8 +12083,8 @@
       <c r="G248" s="22"/>
       <c r="H248" s="22"/>
       <c r="I248" s="22"/>
-      <c r="J248" s="36"/>
-      <c r="K248" s="36"/>
+      <c r="J248" s="37"/>
+      <c r="K248" s="37"/>
       <c r="L248" s="22"/>
       <c r="M248" s="22"/>
       <c r="N248" s="22"/>
@@ -12125,8 +12128,8 @@
       <c r="G249" s="22"/>
       <c r="H249" s="22"/>
       <c r="I249" s="22"/>
-      <c r="J249" s="36"/>
-      <c r="K249" s="36"/>
+      <c r="J249" s="37"/>
+      <c r="K249" s="37"/>
       <c r="L249" s="22"/>
       <c r="M249" s="22"/>
       <c r="N249" s="22"/>
@@ -12170,8 +12173,8 @@
       <c r="G250" s="22"/>
       <c r="H250" s="22"/>
       <c r="I250" s="22"/>
-      <c r="J250" s="36"/>
-      <c r="K250" s="36"/>
+      <c r="J250" s="37"/>
+      <c r="K250" s="37"/>
       <c r="L250" s="22"/>
       <c r="M250" s="22"/>
       <c r="N250" s="22"/>
@@ -12215,8 +12218,8 @@
       <c r="G251" s="22"/>
       <c r="H251" s="22"/>
       <c r="I251" s="22"/>
-      <c r="J251" s="36"/>
-      <c r="K251" s="36"/>
+      <c r="J251" s="37"/>
+      <c r="K251" s="37"/>
       <c r="L251" s="22"/>
       <c r="M251" s="22"/>
       <c r="N251" s="22"/>
@@ -12260,8 +12263,8 @@
       <c r="G252" s="22"/>
       <c r="H252" s="22"/>
       <c r="I252" s="22"/>
-      <c r="J252" s="36"/>
-      <c r="K252" s="36"/>
+      <c r="J252" s="37"/>
+      <c r="K252" s="37"/>
       <c r="L252" s="22"/>
       <c r="M252" s="22"/>
       <c r="N252" s="22"/>
@@ -12305,8 +12308,8 @@
       <c r="G253" s="22"/>
       <c r="H253" s="22"/>
       <c r="I253" s="22"/>
-      <c r="J253" s="36"/>
-      <c r="K253" s="36"/>
+      <c r="J253" s="37"/>
+      <c r="K253" s="37"/>
       <c r="L253" s="22"/>
       <c r="M253" s="22"/>
       <c r="N253" s="22"/>
@@ -12350,8 +12353,8 @@
       <c r="G254" s="22"/>
       <c r="H254" s="22"/>
       <c r="I254" s="22"/>
-      <c r="J254" s="36"/>
-      <c r="K254" s="36"/>
+      <c r="J254" s="37"/>
+      <c r="K254" s="37"/>
       <c r="L254" s="22"/>
       <c r="M254" s="22"/>
       <c r="N254" s="22"/>
@@ -12395,8 +12398,8 @@
       <c r="G255" s="22"/>
       <c r="H255" s="22"/>
       <c r="I255" s="22"/>
-      <c r="J255" s="36"/>
-      <c r="K255" s="36"/>
+      <c r="J255" s="37"/>
+      <c r="K255" s="37"/>
       <c r="L255" s="22"/>
       <c r="M255" s="22"/>
       <c r="N255" s="22"/>
@@ -12440,8 +12443,8 @@
       <c r="G256" s="22"/>
       <c r="H256" s="22"/>
       <c r="I256" s="22"/>
-      <c r="J256" s="36"/>
-      <c r="K256" s="36"/>
+      <c r="J256" s="37"/>
+      <c r="K256" s="37"/>
       <c r="L256" s="22"/>
       <c r="M256" s="22"/>
       <c r="N256" s="22"/>
@@ -12485,8 +12488,8 @@
       <c r="G257" s="22"/>
       <c r="H257" s="22"/>
       <c r="I257" s="22"/>
-      <c r="J257" s="36"/>
-      <c r="K257" s="36"/>
+      <c r="J257" s="37"/>
+      <c r="K257" s="37"/>
       <c r="L257" s="22"/>
       <c r="M257" s="22"/>
       <c r="N257" s="22"/>
@@ -12530,8 +12533,8 @@
       <c r="G258" s="22"/>
       <c r="H258" s="22"/>
       <c r="I258" s="22"/>
-      <c r="J258" s="36"/>
-      <c r="K258" s="36"/>
+      <c r="J258" s="37"/>
+      <c r="K258" s="37"/>
       <c r="L258" s="22"/>
       <c r="M258" s="22"/>
       <c r="N258" s="22"/>
@@ -12575,8 +12578,8 @@
       <c r="G259" s="22"/>
       <c r="H259" s="22"/>
       <c r="I259" s="22"/>
-      <c r="J259" s="36"/>
-      <c r="K259" s="36"/>
+      <c r="J259" s="37"/>
+      <c r="K259" s="37"/>
       <c r="L259" s="22"/>
       <c r="M259" s="22"/>
       <c r="N259" s="22"/>
@@ -12620,8 +12623,8 @@
       <c r="G260" s="22"/>
       <c r="H260" s="22"/>
       <c r="I260" s="22"/>
-      <c r="J260" s="36"/>
-      <c r="K260" s="36"/>
+      <c r="J260" s="37"/>
+      <c r="K260" s="37"/>
       <c r="L260" s="22"/>
       <c r="M260" s="22"/>
       <c r="N260" s="22"/>
@@ -12665,8 +12668,8 @@
       <c r="G261" s="22"/>
       <c r="H261" s="22"/>
       <c r="I261" s="22"/>
-      <c r="J261" s="36"/>
-      <c r="K261" s="36"/>
+      <c r="J261" s="37"/>
+      <c r="K261" s="37"/>
       <c r="L261" s="22"/>
       <c r="M261" s="22"/>
       <c r="N261" s="22"/>
@@ -12710,8 +12713,8 @@
       <c r="G262" s="22"/>
       <c r="H262" s="22"/>
       <c r="I262" s="22"/>
-      <c r="J262" s="36"/>
-      <c r="K262" s="36"/>
+      <c r="J262" s="37"/>
+      <c r="K262" s="37"/>
       <c r="L262" s="22"/>
       <c r="M262" s="22"/>
       <c r="N262" s="22"/>
@@ -12755,8 +12758,8 @@
       <c r="G263" s="22"/>
       <c r="H263" s="22"/>
       <c r="I263" s="22"/>
-      <c r="J263" s="36"/>
-      <c r="K263" s="36"/>
+      <c r="J263" s="37"/>
+      <c r="K263" s="37"/>
       <c r="L263" s="22"/>
       <c r="M263" s="22"/>
       <c r="N263" s="22"/>
@@ -12800,8 +12803,8 @@
       <c r="G264" s="22"/>
       <c r="H264" s="22"/>
       <c r="I264" s="22"/>
-      <c r="J264" s="36"/>
-      <c r="K264" s="36"/>
+      <c r="J264" s="37"/>
+      <c r="K264" s="37"/>
       <c r="L264" s="22"/>
       <c r="M264" s="22"/>
       <c r="N264" s="22"/>
@@ -12845,8 +12848,8 @@
       <c r="G265" s="22"/>
       <c r="H265" s="22"/>
       <c r="I265" s="22"/>
-      <c r="J265" s="36"/>
-      <c r="K265" s="36"/>
+      <c r="J265" s="37"/>
+      <c r="K265" s="37"/>
       <c r="L265" s="22"/>
       <c r="M265" s="22"/>
       <c r="N265" s="22"/>
@@ -12890,8 +12893,8 @@
       <c r="G266" s="22"/>
       <c r="H266" s="22"/>
       <c r="I266" s="22"/>
-      <c r="J266" s="36"/>
-      <c r="K266" s="36"/>
+      <c r="J266" s="37"/>
+      <c r="K266" s="37"/>
       <c r="L266" s="22"/>
       <c r="M266" s="22"/>
       <c r="N266" s="22"/>
@@ -12935,8 +12938,8 @@
       <c r="G267" s="22"/>
       <c r="H267" s="22"/>
       <c r="I267" s="22"/>
-      <c r="J267" s="36"/>
-      <c r="K267" s="36"/>
+      <c r="J267" s="37"/>
+      <c r="K267" s="37"/>
       <c r="L267" s="22"/>
       <c r="M267" s="22"/>
       <c r="N267" s="22"/>
@@ -12980,8 +12983,8 @@
       <c r="G268" s="22"/>
       <c r="H268" s="22"/>
       <c r="I268" s="22"/>
-      <c r="J268" s="36"/>
-      <c r="K268" s="36"/>
+      <c r="J268" s="37"/>
+      <c r="K268" s="37"/>
       <c r="L268" s="22"/>
       <c r="M268" s="22"/>
       <c r="N268" s="22"/>
@@ -13025,8 +13028,8 @@
       <c r="G269" s="22"/>
       <c r="H269" s="22"/>
       <c r="I269" s="22"/>
-      <c r="J269" s="36"/>
-      <c r="K269" s="36"/>
+      <c r="J269" s="37"/>
+      <c r="K269" s="37"/>
       <c r="L269" s="22"/>
       <c r="M269" s="22"/>
       <c r="N269" s="22"/>
@@ -13070,8 +13073,8 @@
       <c r="G270" s="22"/>
       <c r="H270" s="22"/>
       <c r="I270" s="22"/>
-      <c r="J270" s="36"/>
-      <c r="K270" s="36"/>
+      <c r="J270" s="37"/>
+      <c r="K270" s="37"/>
       <c r="L270" s="22"/>
       <c r="M270" s="22"/>
       <c r="N270" s="22"/>
@@ -13115,8 +13118,8 @@
       <c r="G271" s="22"/>
       <c r="H271" s="22"/>
       <c r="I271" s="22"/>
-      <c r="J271" s="36"/>
-      <c r="K271" s="36"/>
+      <c r="J271" s="37"/>
+      <c r="K271" s="37"/>
       <c r="L271" s="22"/>
       <c r="M271" s="22"/>
       <c r="N271" s="22"/>
@@ -13160,8 +13163,8 @@
       <c r="G272" s="22"/>
       <c r="H272" s="22"/>
       <c r="I272" s="22"/>
-      <c r="J272" s="36"/>
-      <c r="K272" s="36"/>
+      <c r="J272" s="37"/>
+      <c r="K272" s="37"/>
       <c r="L272" s="22"/>
       <c r="M272" s="22"/>
       <c r="N272" s="22"/>
@@ -13205,8 +13208,8 @@
       <c r="G273" s="22"/>
       <c r="H273" s="22"/>
       <c r="I273" s="22"/>
-      <c r="J273" s="36"/>
-      <c r="K273" s="36"/>
+      <c r="J273" s="37"/>
+      <c r="K273" s="37"/>
       <c r="L273" s="22"/>
       <c r="M273" s="22"/>
       <c r="N273" s="22"/>
@@ -13250,8 +13253,8 @@
       <c r="G274" s="22"/>
       <c r="H274" s="22"/>
       <c r="I274" s="22"/>
-      <c r="J274" s="36"/>
-      <c r="K274" s="36"/>
+      <c r="J274" s="37"/>
+      <c r="K274" s="37"/>
       <c r="L274" s="22"/>
       <c r="M274" s="22"/>
       <c r="N274" s="22"/>
@@ -13295,8 +13298,8 @@
       <c r="G275" s="22"/>
       <c r="H275" s="22"/>
       <c r="I275" s="22"/>
-      <c r="J275" s="36"/>
-      <c r="K275" s="36"/>
+      <c r="J275" s="37"/>
+      <c r="K275" s="37"/>
       <c r="L275" s="22"/>
       <c r="M275" s="22"/>
       <c r="N275" s="22"/>
@@ -13340,8 +13343,8 @@
       <c r="G276" s="22"/>
       <c r="H276" s="22"/>
       <c r="I276" s="22"/>
-      <c r="J276" s="36"/>
-      <c r="K276" s="36"/>
+      <c r="J276" s="37"/>
+      <c r="K276" s="37"/>
       <c r="L276" s="22"/>
       <c r="M276" s="22"/>
       <c r="N276" s="22"/>
@@ -13385,8 +13388,8 @@
       <c r="G277" s="22"/>
       <c r="H277" s="22"/>
       <c r="I277" s="22"/>
-      <c r="J277" s="36"/>
-      <c r="K277" s="36"/>
+      <c r="J277" s="37"/>
+      <c r="K277" s="37"/>
       <c r="L277" s="22"/>
       <c r="M277" s="22"/>
       <c r="N277" s="22"/>
@@ -13430,8 +13433,8 @@
       <c r="G278" s="22"/>
       <c r="H278" s="22"/>
       <c r="I278" s="22"/>
-      <c r="J278" s="36"/>
-      <c r="K278" s="36"/>
+      <c r="J278" s="37"/>
+      <c r="K278" s="37"/>
       <c r="L278" s="22"/>
       <c r="M278" s="22"/>
       <c r="N278" s="22"/>
@@ -13475,8 +13478,8 @@
       <c r="G279" s="22"/>
       <c r="H279" s="22"/>
       <c r="I279" s="22"/>
-      <c r="J279" s="36"/>
-      <c r="K279" s="36"/>
+      <c r="J279" s="37"/>
+      <c r="K279" s="37"/>
       <c r="L279" s="22"/>
       <c r="M279" s="22"/>
       <c r="N279" s="22"/>
@@ -13520,8 +13523,8 @@
       <c r="G280" s="22"/>
       <c r="H280" s="22"/>
       <c r="I280" s="22"/>
-      <c r="J280" s="36"/>
-      <c r="K280" s="36"/>
+      <c r="J280" s="37"/>
+      <c r="K280" s="37"/>
       <c r="L280" s="22"/>
       <c r="M280" s="22"/>
       <c r="N280" s="22"/>
@@ -13565,8 +13568,8 @@
       <c r="G281" s="22"/>
       <c r="H281" s="22"/>
       <c r="I281" s="22"/>
-      <c r="J281" s="36"/>
-      <c r="K281" s="36"/>
+      <c r="J281" s="37"/>
+      <c r="K281" s="37"/>
       <c r="L281" s="22"/>
       <c r="M281" s="22"/>
       <c r="N281" s="22"/>
@@ -13610,8 +13613,8 @@
       <c r="G282" s="22"/>
       <c r="H282" s="22"/>
       <c r="I282" s="22"/>
-      <c r="J282" s="36"/>
-      <c r="K282" s="36"/>
+      <c r="J282" s="37"/>
+      <c r="K282" s="37"/>
       <c r="L282" s="22"/>
       <c r="M282" s="22"/>
       <c r="N282" s="22"/>
@@ -13655,8 +13658,8 @@
       <c r="G283" s="22"/>
       <c r="H283" s="22"/>
       <c r="I283" s="22"/>
-      <c r="J283" s="36"/>
-      <c r="K283" s="36"/>
+      <c r="J283" s="37"/>
+      <c r="K283" s="37"/>
       <c r="L283" s="22"/>
       <c r="M283" s="22"/>
       <c r="N283" s="22"/>
@@ -13700,8 +13703,8 @@
       <c r="G284" s="22"/>
       <c r="H284" s="22"/>
       <c r="I284" s="22"/>
-      <c r="J284" s="36"/>
-      <c r="K284" s="36"/>
+      <c r="J284" s="37"/>
+      <c r="K284" s="37"/>
       <c r="L284" s="22"/>
       <c r="M284" s="22"/>
       <c r="N284" s="22"/>
@@ -13745,8 +13748,8 @@
       <c r="G285" s="22"/>
       <c r="H285" s="22"/>
       <c r="I285" s="22"/>
-      <c r="J285" s="36"/>
-      <c r="K285" s="36"/>
+      <c r="J285" s="37"/>
+      <c r="K285" s="37"/>
       <c r="L285" s="22"/>
       <c r="M285" s="22"/>
       <c r="N285" s="22"/>
@@ -13790,8 +13793,8 @@
       <c r="G286" s="22"/>
       <c r="H286" s="22"/>
       <c r="I286" s="22"/>
-      <c r="J286" s="36"/>
-      <c r="K286" s="36"/>
+      <c r="J286" s="37"/>
+      <c r="K286" s="37"/>
       <c r="L286" s="22"/>
       <c r="M286" s="22"/>
       <c r="N286" s="22"/>
@@ -13835,8 +13838,8 @@
       <c r="G287" s="22"/>
       <c r="H287" s="22"/>
       <c r="I287" s="22"/>
-      <c r="J287" s="36"/>
-      <c r="K287" s="36"/>
+      <c r="J287" s="37"/>
+      <c r="K287" s="37"/>
       <c r="L287" s="22"/>
       <c r="M287" s="22"/>
       <c r="N287" s="22"/>
@@ -13880,8 +13883,8 @@
       <c r="G288" s="22"/>
       <c r="H288" s="22"/>
       <c r="I288" s="22"/>
-      <c r="J288" s="36"/>
-      <c r="K288" s="36"/>
+      <c r="J288" s="37"/>
+      <c r="K288" s="37"/>
       <c r="L288" s="22"/>
       <c r="M288" s="22"/>
       <c r="N288" s="22"/>
@@ -13925,8 +13928,8 @@
       <c r="G289" s="22"/>
       <c r="H289" s="22"/>
       <c r="I289" s="22"/>
-      <c r="J289" s="36"/>
-      <c r="K289" s="36"/>
+      <c r="J289" s="37"/>
+      <c r="K289" s="37"/>
       <c r="L289" s="22"/>
       <c r="M289" s="22"/>
       <c r="N289" s="22"/>
@@ -13970,8 +13973,8 @@
       <c r="G290" s="22"/>
       <c r="H290" s="22"/>
       <c r="I290" s="22"/>
-      <c r="J290" s="36"/>
-      <c r="K290" s="36"/>
+      <c r="J290" s="37"/>
+      <c r="K290" s="37"/>
       <c r="L290" s="22"/>
       <c r="M290" s="22"/>
       <c r="N290" s="22"/>
@@ -14015,8 +14018,8 @@
       <c r="G291" s="22"/>
       <c r="H291" s="22"/>
       <c r="I291" s="22"/>
-      <c r="J291" s="36"/>
-      <c r="K291" s="36"/>
+      <c r="J291" s="37"/>
+      <c r="K291" s="37"/>
       <c r="L291" s="22"/>
       <c r="M291" s="22"/>
       <c r="N291" s="22"/>
@@ -14060,8 +14063,8 @@
       <c r="G292" s="22"/>
       <c r="H292" s="22"/>
       <c r="I292" s="22"/>
-      <c r="J292" s="36"/>
-      <c r="K292" s="36"/>
+      <c r="J292" s="37"/>
+      <c r="K292" s="37"/>
       <c r="L292" s="22"/>
       <c r="M292" s="22"/>
       <c r="N292" s="22"/>
@@ -14105,8 +14108,8 @@
       <c r="G293" s="22"/>
       <c r="H293" s="22"/>
       <c r="I293" s="22"/>
-      <c r="J293" s="36"/>
-      <c r="K293" s="36"/>
+      <c r="J293" s="37"/>
+      <c r="K293" s="37"/>
       <c r="L293" s="22"/>
       <c r="M293" s="22"/>
       <c r="N293" s="22"/>
@@ -14150,8 +14153,8 @@
       <c r="G294" s="22"/>
       <c r="H294" s="22"/>
       <c r="I294" s="22"/>
-      <c r="J294" s="36"/>
-      <c r="K294" s="36"/>
+      <c r="J294" s="37"/>
+      <c r="K294" s="37"/>
       <c r="L294" s="22"/>
       <c r="M294" s="22"/>
       <c r="N294" s="22"/>
@@ -14195,8 +14198,8 @@
       <c r="G295" s="22"/>
       <c r="H295" s="22"/>
       <c r="I295" s="22"/>
-      <c r="J295" s="36"/>
-      <c r="K295" s="36"/>
+      <c r="J295" s="37"/>
+      <c r="K295" s="37"/>
       <c r="L295" s="22"/>
       <c r="M295" s="22"/>
       <c r="N295" s="22"/>
@@ -14240,8 +14243,8 @@
       <c r="G296" s="22"/>
       <c r="H296" s="22"/>
       <c r="I296" s="22"/>
-      <c r="J296" s="36"/>
-      <c r="K296" s="36"/>
+      <c r="J296" s="37"/>
+      <c r="K296" s="37"/>
       <c r="L296" s="22"/>
       <c r="M296" s="22"/>
       <c r="N296" s="22"/>
@@ -14285,8 +14288,8 @@
       <c r="G297" s="22"/>
       <c r="H297" s="22"/>
       <c r="I297" s="22"/>
-      <c r="J297" s="36"/>
-      <c r="K297" s="36"/>
+      <c r="J297" s="37"/>
+      <c r="K297" s="37"/>
       <c r="L297" s="22"/>
       <c r="M297" s="22"/>
       <c r="N297" s="22"/>
@@ -14330,8 +14333,8 @@
       <c r="G298" s="22"/>
       <c r="H298" s="22"/>
       <c r="I298" s="22"/>
-      <c r="J298" s="36"/>
-      <c r="K298" s="36"/>
+      <c r="J298" s="37"/>
+      <c r="K298" s="37"/>
       <c r="L298" s="22"/>
       <c r="M298" s="22"/>
       <c r="N298" s="22"/>
@@ -14375,8 +14378,8 @@
       <c r="G299" s="22"/>
       <c r="H299" s="22"/>
       <c r="I299" s="22"/>
-      <c r="J299" s="36"/>
-      <c r="K299" s="36"/>
+      <c r="J299" s="37"/>
+      <c r="K299" s="37"/>
       <c r="L299" s="22"/>
       <c r="M299" s="22"/>
       <c r="N299" s="22"/>
@@ -14420,8 +14423,8 @@
       <c r="G300" s="22"/>
       <c r="H300" s="22"/>
       <c r="I300" s="22"/>
-      <c r="J300" s="36"/>
-      <c r="K300" s="36"/>
+      <c r="J300" s="37"/>
+      <c r="K300" s="37"/>
       <c r="L300" s="22"/>
       <c r="M300" s="22"/>
       <c r="N300" s="22"/>
@@ -14465,8 +14468,8 @@
       <c r="G301" s="22"/>
       <c r="H301" s="22"/>
       <c r="I301" s="22"/>
-      <c r="J301" s="36"/>
-      <c r="K301" s="36"/>
+      <c r="J301" s="37"/>
+      <c r="K301" s="37"/>
       <c r="L301" s="22"/>
       <c r="M301" s="22"/>
       <c r="N301" s="22"/>
@@ -14510,8 +14513,8 @@
       <c r="G302" s="22"/>
       <c r="H302" s="22"/>
       <c r="I302" s="22"/>
-      <c r="J302" s="36"/>
-      <c r="K302" s="36"/>
+      <c r="J302" s="37"/>
+      <c r="K302" s="37"/>
       <c r="L302" s="22"/>
       <c r="M302" s="22"/>
       <c r="N302" s="22"/>
@@ -14555,8 +14558,8 @@
       <c r="G303" s="22"/>
       <c r="H303" s="22"/>
       <c r="I303" s="22"/>
-      <c r="J303" s="36"/>
-      <c r="K303" s="36"/>
+      <c r="J303" s="37"/>
+      <c r="K303" s="37"/>
       <c r="L303" s="22"/>
       <c r="M303" s="22"/>
       <c r="N303" s="22"/>
@@ -14600,8 +14603,8 @@
       <c r="G304" s="22"/>
       <c r="H304" s="22"/>
       <c r="I304" s="22"/>
-      <c r="J304" s="36"/>
-      <c r="K304" s="36"/>
+      <c r="J304" s="37"/>
+      <c r="K304" s="37"/>
       <c r="L304" s="22"/>
       <c r="M304" s="22"/>
       <c r="N304" s="22"/>
@@ -14645,8 +14648,8 @@
       <c r="G305" s="22"/>
       <c r="H305" s="22"/>
       <c r="I305" s="22"/>
-      <c r="J305" s="36"/>
-      <c r="K305" s="36"/>
+      <c r="J305" s="37"/>
+      <c r="K305" s="37"/>
       <c r="L305" s="22"/>
       <c r="M305" s="22"/>
       <c r="N305" s="22"/>
@@ -14690,8 +14693,8 @@
       <c r="G306" s="22"/>
       <c r="H306" s="22"/>
       <c r="I306" s="22"/>
-      <c r="J306" s="36"/>
-      <c r="K306" s="36"/>
+      <c r="J306" s="37"/>
+      <c r="K306" s="37"/>
       <c r="L306" s="22"/>
       <c r="M306" s="22"/>
       <c r="N306" s="22"/>
@@ -14735,8 +14738,8 @@
       <c r="G307" s="22"/>
       <c r="H307" s="22"/>
       <c r="I307" s="22"/>
-      <c r="J307" s="36"/>
-      <c r="K307" s="36"/>
+      <c r="J307" s="37"/>
+      <c r="K307" s="37"/>
       <c r="L307" s="22"/>
       <c r="M307" s="22"/>
       <c r="N307" s="22"/>
@@ -14780,8 +14783,8 @@
       <c r="G308" s="22"/>
       <c r="H308" s="22"/>
       <c r="I308" s="22"/>
-      <c r="J308" s="36"/>
-      <c r="K308" s="36"/>
+      <c r="J308" s="37"/>
+      <c r="K308" s="37"/>
       <c r="L308" s="22"/>
       <c r="M308" s="22"/>
       <c r="N308" s="22"/>
@@ -14825,8 +14828,8 @@
       <c r="G309" s="22"/>
       <c r="H309" s="22"/>
       <c r="I309" s="22"/>
-      <c r="J309" s="36"/>
-      <c r="K309" s="36"/>
+      <c r="J309" s="37"/>
+      <c r="K309" s="37"/>
       <c r="L309" s="22"/>
       <c r="M309" s="22"/>
       <c r="N309" s="22"/>
@@ -14870,8 +14873,8 @@
       <c r="G310" s="22"/>
       <c r="H310" s="22"/>
       <c r="I310" s="22"/>
-      <c r="J310" s="36"/>
-      <c r="K310" s="36"/>
+      <c r="J310" s="37"/>
+      <c r="K310" s="37"/>
       <c r="L310" s="22"/>
       <c r="M310" s="22"/>
       <c r="N310" s="22"/>
@@ -14915,8 +14918,8 @@
       <c r="G311" s="22"/>
       <c r="H311" s="22"/>
       <c r="I311" s="22"/>
-      <c r="J311" s="36"/>
-      <c r="K311" s="36"/>
+      <c r="J311" s="37"/>
+      <c r="K311" s="37"/>
       <c r="L311" s="22"/>
       <c r="M311" s="22"/>
       <c r="N311" s="22"/>
@@ -14960,8 +14963,8 @@
       <c r="G312" s="22"/>
       <c r="H312" s="22"/>
       <c r="I312" s="22"/>
-      <c r="J312" s="36"/>
-      <c r="K312" s="36"/>
+      <c r="J312" s="37"/>
+      <c r="K312" s="37"/>
       <c r="L312" s="22"/>
       <c r="M312" s="22"/>
       <c r="N312" s="22"/>
@@ -15005,8 +15008,8 @@
       <c r="G313" s="22"/>
       <c r="H313" s="22"/>
       <c r="I313" s="22"/>
-      <c r="J313" s="36"/>
-      <c r="K313" s="36"/>
+      <c r="J313" s="37"/>
+      <c r="K313" s="37"/>
       <c r="L313" s="22"/>
       <c r="M313" s="22"/>
       <c r="N313" s="22"/>
@@ -15050,8 +15053,8 @@
       <c r="G314" s="22"/>
       <c r="H314" s="22"/>
       <c r="I314" s="22"/>
-      <c r="J314" s="36"/>
-      <c r="K314" s="36"/>
+      <c r="J314" s="37"/>
+      <c r="K314" s="37"/>
       <c r="L314" s="22"/>
       <c r="M314" s="22"/>
       <c r="N314" s="22"/>
@@ -15095,8 +15098,8 @@
       <c r="G315" s="22"/>
       <c r="H315" s="22"/>
       <c r="I315" s="22"/>
-      <c r="J315" s="36"/>
-      <c r="K315" s="36"/>
+      <c r="J315" s="37"/>
+      <c r="K315" s="37"/>
       <c r="L315" s="22"/>
       <c r="M315" s="22"/>
       <c r="N315" s="22"/>
@@ -15140,8 +15143,8 @@
       <c r="G316" s="22"/>
       <c r="H316" s="22"/>
       <c r="I316" s="22"/>
-      <c r="J316" s="36"/>
-      <c r="K316" s="36"/>
+      <c r="J316" s="37"/>
+      <c r="K316" s="37"/>
       <c r="L316" s="22"/>
       <c r="M316" s="22"/>
       <c r="N316" s="22"/>
@@ -15185,8 +15188,8 @@
       <c r="G317" s="22"/>
       <c r="H317" s="22"/>
       <c r="I317" s="22"/>
-      <c r="J317" s="36"/>
-      <c r="K317" s="36"/>
+      <c r="J317" s="37"/>
+      <c r="K317" s="37"/>
       <c r="L317" s="22"/>
       <c r="M317" s="22"/>
       <c r="N317" s="22"/>
@@ -15230,8 +15233,8 @@
       <c r="G318" s="22"/>
       <c r="H318" s="22"/>
       <c r="I318" s="22"/>
-      <c r="J318" s="36"/>
-      <c r="K318" s="36"/>
+      <c r="J318" s="37"/>
+      <c r="K318" s="37"/>
       <c r="L318" s="22"/>
       <c r="M318" s="22"/>
       <c r="N318" s="22"/>
@@ -15275,8 +15278,8 @@
       <c r="G319" s="22"/>
       <c r="H319" s="22"/>
       <c r="I319" s="22"/>
-      <c r="J319" s="36"/>
-      <c r="K319" s="36"/>
+      <c r="J319" s="37"/>
+      <c r="K319" s="37"/>
       <c r="L319" s="22"/>
       <c r="M319" s="22"/>
       <c r="N319" s="22"/>
@@ -15320,8 +15323,8 @@
       <c r="G320" s="22"/>
       <c r="H320" s="22"/>
       <c r="I320" s="22"/>
-      <c r="J320" s="36"/>
-      <c r="K320" s="36"/>
+      <c r="J320" s="37"/>
+      <c r="K320" s="37"/>
       <c r="L320" s="22"/>
       <c r="M320" s="22"/>
       <c r="N320" s="22"/>
@@ -15365,8 +15368,8 @@
       <c r="G321" s="22"/>
       <c r="H321" s="22"/>
       <c r="I321" s="22"/>
-      <c r="J321" s="36"/>
-      <c r="K321" s="36"/>
+      <c r="J321" s="37"/>
+      <c r="K321" s="37"/>
       <c r="L321" s="22"/>
       <c r="M321" s="22"/>
       <c r="N321" s="22"/>
@@ -15410,8 +15413,8 @@
       <c r="G322" s="22"/>
       <c r="H322" s="22"/>
       <c r="I322" s="22"/>
-      <c r="J322" s="36"/>
-      <c r="K322" s="36"/>
+      <c r="J322" s="37"/>
+      <c r="K322" s="37"/>
       <c r="L322" s="22"/>
       <c r="M322" s="22"/>
       <c r="N322" s="22"/>
@@ -15455,8 +15458,8 @@
       <c r="G323" s="22"/>
       <c r="H323" s="22"/>
       <c r="I323" s="22"/>
-      <c r="J323" s="36"/>
-      <c r="K323" s="36"/>
+      <c r="J323" s="37"/>
+      <c r="K323" s="37"/>
       <c r="L323" s="22"/>
       <c r="M323" s="22"/>
       <c r="N323" s="22"/>
@@ -15500,8 +15503,8 @@
       <c r="G324" s="22"/>
       <c r="H324" s="22"/>
       <c r="I324" s="22"/>
-      <c r="J324" s="36"/>
-      <c r="K324" s="36"/>
+      <c r="J324" s="37"/>
+      <c r="K324" s="37"/>
       <c r="L324" s="22"/>
       <c r="M324" s="22"/>
       <c r="N324" s="22"/>
@@ -15545,8 +15548,8 @@
       <c r="G325" s="22"/>
       <c r="H325" s="22"/>
       <c r="I325" s="22"/>
-      <c r="J325" s="36"/>
-      <c r="K325" s="36"/>
+      <c r="J325" s="37"/>
+      <c r="K325" s="37"/>
       <c r="L325" s="22"/>
       <c r="M325" s="22"/>
       <c r="N325" s="22"/>
@@ -15590,8 +15593,8 @@
       <c r="G326" s="22"/>
       <c r="H326" s="22"/>
       <c r="I326" s="22"/>
-      <c r="J326" s="36"/>
-      <c r="K326" s="36"/>
+      <c r="J326" s="37"/>
+      <c r="K326" s="37"/>
       <c r="L326" s="22"/>
       <c r="M326" s="22"/>
       <c r="N326" s="22"/>
@@ -15635,8 +15638,8 @@
       <c r="G327" s="22"/>
       <c r="H327" s="22"/>
       <c r="I327" s="22"/>
-      <c r="J327" s="36"/>
-      <c r="K327" s="36"/>
+      <c r="J327" s="37"/>
+      <c r="K327" s="37"/>
       <c r="L327" s="22"/>
       <c r="M327" s="22"/>
       <c r="N327" s="22"/>
@@ -15680,8 +15683,8 @@
       <c r="G328" s="22"/>
       <c r="H328" s="22"/>
       <c r="I328" s="22"/>
-      <c r="J328" s="36"/>
-      <c r="K328" s="36"/>
+      <c r="J328" s="37"/>
+      <c r="K328" s="37"/>
       <c r="L328" s="22"/>
       <c r="M328" s="22"/>
       <c r="N328" s="22"/>
@@ -15725,8 +15728,8 @@
       <c r="G329" s="22"/>
       <c r="H329" s="22"/>
       <c r="I329" s="22"/>
-      <c r="J329" s="36"/>
-      <c r="K329" s="36"/>
+      <c r="J329" s="37"/>
+      <c r="K329" s="37"/>
       <c r="L329" s="22"/>
       <c r="M329" s="22"/>
       <c r="N329" s="22"/>
@@ -15770,8 +15773,8 @@
       <c r="G330" s="22"/>
       <c r="H330" s="22"/>
       <c r="I330" s="22"/>
-      <c r="J330" s="36"/>
-      <c r="K330" s="36"/>
+      <c r="J330" s="37"/>
+      <c r="K330" s="37"/>
       <c r="L330" s="22"/>
       <c r="M330" s="22"/>
       <c r="N330" s="22"/>
@@ -15815,8 +15818,8 @@
       <c r="G331" s="22"/>
       <c r="H331" s="22"/>
       <c r="I331" s="22"/>
-      <c r="J331" s="36"/>
-      <c r="K331" s="36"/>
+      <c r="J331" s="37"/>
+      <c r="K331" s="37"/>
       <c r="L331" s="22"/>
       <c r="M331" s="22"/>
       <c r="N331" s="22"/>
@@ -15860,8 +15863,8 @@
       <c r="G332" s="22"/>
       <c r="H332" s="22"/>
       <c r="I332" s="22"/>
-      <c r="J332" s="36"/>
-      <c r="K332" s="36"/>
+      <c r="J332" s="37"/>
+      <c r="K332" s="37"/>
       <c r="L332" s="22"/>
       <c r="M332" s="22"/>
       <c r="N332" s="22"/>
@@ -15905,8 +15908,8 @@
       <c r="G333" s="22"/>
       <c r="H333" s="22"/>
       <c r="I333" s="22"/>
-      <c r="J333" s="36"/>
-      <c r="K333" s="36"/>
+      <c r="J333" s="37"/>
+      <c r="K333" s="37"/>
       <c r="L333" s="22"/>
       <c r="M333" s="22"/>
       <c r="N333" s="22"/>
@@ -15950,8 +15953,8 @@
       <c r="G334" s="22"/>
       <c r="H334" s="22"/>
       <c r="I334" s="22"/>
-      <c r="J334" s="36"/>
-      <c r="K334" s="36"/>
+      <c r="J334" s="37"/>
+      <c r="K334" s="37"/>
       <c r="L334" s="22"/>
       <c r="M334" s="22"/>
       <c r="N334" s="22"/>
@@ -15995,8 +15998,8 @@
       <c r="G335" s="22"/>
       <c r="H335" s="22"/>
       <c r="I335" s="22"/>
-      <c r="J335" s="36"/>
-      <c r="K335" s="36"/>
+      <c r="J335" s="37"/>
+      <c r="K335" s="37"/>
       <c r="L335" s="22"/>
       <c r="M335" s="22"/>
       <c r="N335" s="22"/>
@@ -16040,8 +16043,8 @@
       <c r="G336" s="22"/>
       <c r="H336" s="22"/>
       <c r="I336" s="22"/>
-      <c r="J336" s="36"/>
-      <c r="K336" s="36"/>
+      <c r="J336" s="37"/>
+      <c r="K336" s="37"/>
       <c r="L336" s="22"/>
       <c r="M336" s="22"/>
       <c r="N336" s="22"/>
@@ -16085,8 +16088,8 @@
       <c r="G337" s="22"/>
       <c r="H337" s="22"/>
       <c r="I337" s="22"/>
-      <c r="J337" s="36"/>
-      <c r="K337" s="36"/>
+      <c r="J337" s="37"/>
+      <c r="K337" s="37"/>
       <c r="L337" s="22"/>
       <c r="M337" s="22"/>
       <c r="N337" s="22"/>
@@ -16130,8 +16133,8 @@
       <c r="G338" s="22"/>
       <c r="H338" s="22"/>
       <c r="I338" s="22"/>
-      <c r="J338" s="36"/>
-      <c r="K338" s="36"/>
+      <c r="J338" s="37"/>
+      <c r="K338" s="37"/>
       <c r="L338" s="22"/>
       <c r="M338" s="22"/>
       <c r="N338" s="22"/>
@@ -16175,8 +16178,8 @@
       <c r="G339" s="22"/>
       <c r="H339" s="22"/>
       <c r="I339" s="22"/>
-      <c r="J339" s="36"/>
-      <c r="K339" s="36"/>
+      <c r="J339" s="37"/>
+      <c r="K339" s="37"/>
       <c r="L339" s="22"/>
       <c r="M339" s="22"/>
       <c r="N339" s="22"/>
@@ -16220,8 +16223,8 @@
       <c r="G340" s="22"/>
       <c r="H340" s="22"/>
       <c r="I340" s="22"/>
-      <c r="J340" s="36"/>
-      <c r="K340" s="36"/>
+      <c r="J340" s="37"/>
+      <c r="K340" s="37"/>
       <c r="L340" s="22"/>
       <c r="M340" s="22"/>
       <c r="N340" s="22"/>
@@ -16265,8 +16268,8 @@
       <c r="G341" s="22"/>
       <c r="H341" s="22"/>
       <c r="I341" s="22"/>
-      <c r="J341" s="36"/>
-      <c r="K341" s="36"/>
+      <c r="J341" s="37"/>
+      <c r="K341" s="37"/>
       <c r="L341" s="22"/>
       <c r="M341" s="22"/>
       <c r="N341" s="22"/>
@@ -16310,8 +16313,8 @@
       <c r="G342" s="22"/>
       <c r="H342" s="22"/>
       <c r="I342" s="22"/>
-      <c r="J342" s="36"/>
-      <c r="K342" s="36"/>
+      <c r="J342" s="37"/>
+      <c r="K342" s="37"/>
       <c r="L342" s="22"/>
       <c r="M342" s="22"/>
       <c r="N342" s="22"/>
@@ -16355,8 +16358,8 @@
       <c r="G343" s="22"/>
       <c r="H343" s="22"/>
       <c r="I343" s="22"/>
-      <c r="J343" s="36"/>
-      <c r="K343" s="36"/>
+      <c r="J343" s="37"/>
+      <c r="K343" s="37"/>
       <c r="L343" s="22"/>
       <c r="M343" s="22"/>
       <c r="N343" s="22"/>
@@ -16400,8 +16403,8 @@
       <c r="G344" s="22"/>
       <c r="H344" s="22"/>
       <c r="I344" s="22"/>
-      <c r="J344" s="36"/>
-      <c r="K344" s="36"/>
+      <c r="J344" s="37"/>
+      <c r="K344" s="37"/>
       <c r="L344" s="22"/>
       <c r="M344" s="22"/>
       <c r="N344" s="22"/>
@@ -16445,8 +16448,8 @@
       <c r="G345" s="22"/>
       <c r="H345" s="22"/>
       <c r="I345" s="22"/>
-      <c r="J345" s="36"/>
-      <c r="K345" s="36"/>
+      <c r="J345" s="37"/>
+      <c r="K345" s="37"/>
       <c r="L345" s="22"/>
       <c r="M345" s="22"/>
       <c r="N345" s="22"/>
@@ -16490,8 +16493,8 @@
       <c r="G346" s="22"/>
       <c r="H346" s="22"/>
       <c r="I346" s="22"/>
-      <c r="J346" s="36"/>
-      <c r="K346" s="36"/>
+      <c r="J346" s="37"/>
+      <c r="K346" s="37"/>
       <c r="L346" s="22"/>
       <c r="M346" s="22"/>
       <c r="N346" s="22"/>
@@ -16535,8 +16538,8 @@
       <c r="G347" s="22"/>
       <c r="H347" s="22"/>
       <c r="I347" s="22"/>
-      <c r="J347" s="36"/>
-      <c r="K347" s="36"/>
+      <c r="J347" s="37"/>
+      <c r="K347" s="37"/>
       <c r="L347" s="22"/>
       <c r="M347" s="22"/>
       <c r="N347" s="22"/>
@@ -16580,8 +16583,8 @@
       <c r="G348" s="22"/>
       <c r="H348" s="22"/>
       <c r="I348" s="22"/>
-      <c r="J348" s="36"/>
-      <c r="K348" s="36"/>
+      <c r="J348" s="37"/>
+      <c r="K348" s="37"/>
       <c r="L348" s="22"/>
       <c r="M348" s="22"/>
       <c r="N348" s="22"/>
@@ -16625,8 +16628,8 @@
       <c r="G349" s="22"/>
       <c r="H349" s="22"/>
       <c r="I349" s="22"/>
-      <c r="J349" s="36"/>
-      <c r="K349" s="36"/>
+      <c r="J349" s="37"/>
+      <c r="K349" s="37"/>
       <c r="L349" s="22"/>
       <c r="M349" s="22"/>
       <c r="N349" s="22"/>
@@ -16670,8 +16673,8 @@
       <c r="G350" s="22"/>
       <c r="H350" s="22"/>
       <c r="I350" s="22"/>
-      <c r="J350" s="36"/>
-      <c r="K350" s="36"/>
+      <c r="J350" s="37"/>
+      <c r="K350" s="37"/>
       <c r="L350" s="22"/>
       <c r="M350" s="22"/>
       <c r="N350" s="22"/>
@@ -16715,8 +16718,8 @@
       <c r="G351" s="22"/>
       <c r="H351" s="22"/>
       <c r="I351" s="22"/>
-      <c r="J351" s="36"/>
-      <c r="K351" s="36"/>
+      <c r="J351" s="37"/>
+      <c r="K351" s="37"/>
       <c r="L351" s="22"/>
       <c r="M351" s="22"/>
       <c r="N351" s="22"/>
@@ -16760,8 +16763,8 @@
       <c r="G352" s="22"/>
       <c r="H352" s="22"/>
       <c r="I352" s="22"/>
-      <c r="J352" s="36"/>
-      <c r="K352" s="36"/>
+      <c r="J352" s="37"/>
+      <c r="K352" s="37"/>
       <c r="L352" s="22"/>
       <c r="M352" s="22"/>
       <c r="N352" s="22"/>
@@ -16805,8 +16808,8 @@
       <c r="G353" s="22"/>
       <c r="H353" s="22"/>
       <c r="I353" s="22"/>
-      <c r="J353" s="36"/>
-      <c r="K353" s="36"/>
+      <c r="J353" s="37"/>
+      <c r="K353" s="37"/>
       <c r="L353" s="22"/>
       <c r="M353" s="22"/>
       <c r="N353" s="22"/>
@@ -16850,8 +16853,8 @@
       <c r="G354" s="22"/>
       <c r="H354" s="22"/>
       <c r="I354" s="22"/>
-      <c r="J354" s="36"/>
-      <c r="K354" s="36"/>
+      <c r="J354" s="37"/>
+      <c r="K354" s="37"/>
       <c r="L354" s="22"/>
       <c r="M354" s="22"/>
       <c r="N354" s="22"/>
@@ -16895,8 +16898,8 @@
       <c r="G355" s="22"/>
       <c r="H355" s="22"/>
       <c r="I355" s="22"/>
-      <c r="J355" s="36"/>
-      <c r="K355" s="36"/>
+      <c r="J355" s="37"/>
+      <c r="K355" s="37"/>
       <c r="L355" s="22"/>
       <c r="M355" s="22"/>
       <c r="N355" s="22"/>
@@ -16940,8 +16943,8 @@
       <c r="G356" s="22"/>
       <c r="H356" s="22"/>
       <c r="I356" s="22"/>
-      <c r="J356" s="36"/>
-      <c r="K356" s="36"/>
+      <c r="J356" s="37"/>
+      <c r="K356" s="37"/>
       <c r="L356" s="22"/>
       <c r="M356" s="22"/>
       <c r="N356" s="22"/>
@@ -16985,8 +16988,8 @@
       <c r="G357" s="22"/>
       <c r="H357" s="22"/>
       <c r="I357" s="22"/>
-      <c r="J357" s="36"/>
-      <c r="K357" s="36"/>
+      <c r="J357" s="37"/>
+      <c r="K357" s="37"/>
       <c r="L357" s="22"/>
       <c r="M357" s="22"/>
       <c r="N357" s="22"/>
@@ -17030,8 +17033,8 @@
       <c r="G358" s="22"/>
       <c r="H358" s="22"/>
       <c r="I358" s="22"/>
-      <c r="J358" s="36"/>
-      <c r="K358" s="36"/>
+      <c r="J358" s="37"/>
+      <c r="K358" s="37"/>
       <c r="L358" s="22"/>
       <c r="M358" s="22"/>
       <c r="N358" s="22"/>
@@ -17075,8 +17078,8 @@
       <c r="G359" s="22"/>
       <c r="H359" s="22"/>
       <c r="I359" s="22"/>
-      <c r="J359" s="36"/>
-      <c r="K359" s="36"/>
+      <c r="J359" s="37"/>
+      <c r="K359" s="37"/>
       <c r="L359" s="22"/>
       <c r="M359" s="22"/>
       <c r="N359" s="22"/>
@@ -17120,8 +17123,8 @@
       <c r="G360" s="22"/>
       <c r="H360" s="22"/>
       <c r="I360" s="22"/>
-      <c r="J360" s="36"/>
-      <c r="K360" s="36"/>
+      <c r="J360" s="37"/>
+      <c r="K360" s="37"/>
       <c r="L360" s="22"/>
       <c r="M360" s="22"/>
       <c r="N360" s="22"/>
@@ -17165,8 +17168,8 @@
       <c r="G361" s="22"/>
       <c r="H361" s="22"/>
       <c r="I361" s="22"/>
-      <c r="J361" s="36"/>
-      <c r="K361" s="36"/>
+      <c r="J361" s="37"/>
+      <c r="K361" s="37"/>
       <c r="L361" s="22"/>
       <c r="M361" s="22"/>
       <c r="N361" s="22"/>
@@ -17210,8 +17213,8 @@
       <c r="G362" s="22"/>
       <c r="H362" s="22"/>
       <c r="I362" s="22"/>
-      <c r="J362" s="36"/>
-      <c r="K362" s="36"/>
+      <c r="J362" s="37"/>
+      <c r="K362" s="37"/>
       <c r="L362" s="22"/>
       <c r="M362" s="22"/>
       <c r="N362" s="22"/>
@@ -17255,8 +17258,8 @@
       <c r="G363" s="22"/>
       <c r="H363" s="22"/>
       <c r="I363" s="22"/>
-      <c r="J363" s="36"/>
-      <c r="K363" s="36"/>
+      <c r="J363" s="37"/>
+      <c r="K363" s="37"/>
       <c r="L363" s="22"/>
       <c r="M363" s="22"/>
       <c r="N363" s="22"/>
@@ -17300,8 +17303,8 @@
       <c r="G364" s="22"/>
       <c r="H364" s="22"/>
       <c r="I364" s="22"/>
-      <c r="J364" s="36"/>
-      <c r="K364" s="36"/>
+      <c r="J364" s="37"/>
+      <c r="K364" s="37"/>
       <c r="L364" s="22"/>
       <c r="M364" s="22"/>
       <c r="N364" s="22"/>
@@ -17345,8 +17348,8 @@
       <c r="G365" s="22"/>
       <c r="H365" s="22"/>
       <c r="I365" s="22"/>
-      <c r="J365" s="36"/>
-      <c r="K365" s="36"/>
+      <c r="J365" s="37"/>
+      <c r="K365" s="37"/>
       <c r="L365" s="22"/>
       <c r="M365" s="22"/>
       <c r="N365" s="22"/>
@@ -17390,8 +17393,8 @@
       <c r="G366" s="22"/>
       <c r="H366" s="22"/>
       <c r="I366" s="22"/>
-      <c r="J366" s="36"/>
-      <c r="K366" s="36"/>
+      <c r="J366" s="37"/>
+      <c r="K366" s="37"/>
       <c r="L366" s="22"/>
       <c r="M366" s="22"/>
       <c r="N366" s="22"/>
@@ -17435,8 +17438,8 @@
       <c r="G367" s="22"/>
       <c r="H367" s="22"/>
       <c r="I367" s="22"/>
-      <c r="J367" s="36"/>
-      <c r="K367" s="36"/>
+      <c r="J367" s="37"/>
+      <c r="K367" s="37"/>
       <c r="L367" s="22"/>
       <c r="M367" s="22"/>
       <c r="N367" s="22"/>
@@ -17480,8 +17483,8 @@
       <c r="G368" s="22"/>
       <c r="H368" s="22"/>
       <c r="I368" s="22"/>
-      <c r="J368" s="36"/>
-      <c r="K368" s="36"/>
+      <c r="J368" s="37"/>
+      <c r="K368" s="37"/>
       <c r="L368" s="22"/>
       <c r="M368" s="22"/>
       <c r="N368" s="22"/>
@@ -17525,8 +17528,8 @@
       <c r="G369" s="22"/>
       <c r="H369" s="22"/>
       <c r="I369" s="22"/>
-      <c r="J369" s="36"/>
-      <c r="K369" s="36"/>
+      <c r="J369" s="37"/>
+      <c r="K369" s="37"/>
       <c r="L369" s="22"/>
       <c r="M369" s="22"/>
       <c r="N369" s="22"/>
@@ -17570,8 +17573,8 @@
       <c r="G370" s="22"/>
       <c r="H370" s="22"/>
       <c r="I370" s="22"/>
-      <c r="J370" s="36"/>
-      <c r="K370" s="36"/>
+      <c r="J370" s="37"/>
+      <c r="K370" s="37"/>
       <c r="L370" s="22"/>
       <c r="M370" s="22"/>
       <c r="N370" s="22"/>
@@ -17615,8 +17618,8 @@
       <c r="G371" s="22"/>
       <c r="H371" s="22"/>
       <c r="I371" s="22"/>
-      <c r="J371" s="36"/>
-      <c r="K371" s="36"/>
+      <c r="J371" s="37"/>
+      <c r="K371" s="37"/>
       <c r="L371" s="22"/>
       <c r="M371" s="22"/>
       <c r="N371" s="22"/>
@@ -17660,8 +17663,8 @@
       <c r="G372" s="22"/>
       <c r="H372" s="22"/>
       <c r="I372" s="22"/>
-      <c r="J372" s="36"/>
-      <c r="K372" s="36"/>
+      <c r="J372" s="37"/>
+      <c r="K372" s="37"/>
       <c r="L372" s="22"/>
       <c r="M372" s="22"/>
       <c r="N372" s="22"/>
@@ -17705,8 +17708,8 @@
       <c r="G373" s="22"/>
       <c r="H373" s="22"/>
       <c r="I373" s="22"/>
-      <c r="J373" s="36"/>
-      <c r="K373" s="36"/>
+      <c r="J373" s="37"/>
+      <c r="K373" s="37"/>
       <c r="L373" s="22"/>
       <c r="M373" s="22"/>
       <c r="N373" s="22"/>
@@ -17750,8 +17753,8 @@
       <c r="G374" s="22"/>
       <c r="H374" s="22"/>
       <c r="I374" s="22"/>
-      <c r="J374" s="36"/>
-      <c r="K374" s="36"/>
+      <c r="J374" s="37"/>
+      <c r="K374" s="37"/>
       <c r="L374" s="22"/>
       <c r="M374" s="22"/>
       <c r="N374" s="22"/>
@@ -17795,8 +17798,8 @@
       <c r="G375" s="22"/>
       <c r="H375" s="22"/>
       <c r="I375" s="22"/>
-      <c r="J375" s="36"/>
-      <c r="K375" s="36"/>
+      <c r="J375" s="37"/>
+      <c r="K375" s="37"/>
       <c r="L375" s="22"/>
       <c r="M375" s="22"/>
       <c r="N375" s="22"/>
@@ -17840,8 +17843,8 @@
       <c r="G376" s="22"/>
       <c r="H376" s="22"/>
       <c r="I376" s="22"/>
-      <c r="J376" s="36"/>
-      <c r="K376" s="36"/>
+      <c r="J376" s="37"/>
+      <c r="K376" s="37"/>
       <c r="L376" s="22"/>
       <c r="M376" s="22"/>
       <c r="N376" s="22"/>
@@ -17885,8 +17888,8 @@
       <c r="G377" s="22"/>
       <c r="H377" s="22"/>
       <c r="I377" s="22"/>
-      <c r="J377" s="36"/>
-      <c r="K377" s="36"/>
+      <c r="J377" s="37"/>
+      <c r="K377" s="37"/>
       <c r="L377" s="22"/>
       <c r="M377" s="22"/>
       <c r="N377" s="22"/>
@@ -17930,8 +17933,8 @@
       <c r="G378" s="22"/>
       <c r="H378" s="22"/>
       <c r="I378" s="22"/>
-      <c r="J378" s="36"/>
-      <c r="K378" s="36"/>
+      <c r="J378" s="37"/>
+      <c r="K378" s="37"/>
       <c r="L378" s="22"/>
       <c r="M378" s="22"/>
       <c r="N378" s="22"/>
@@ -17975,8 +17978,8 @@
       <c r="G379" s="22"/>
       <c r="H379" s="22"/>
       <c r="I379" s="22"/>
-      <c r="J379" s="36"/>
-      <c r="K379" s="36"/>
+      <c r="J379" s="37"/>
+      <c r="K379" s="37"/>
       <c r="L379" s="22"/>
       <c r="M379" s="22"/>
       <c r="N379" s="22"/>
@@ -18020,8 +18023,8 @@
       <c r="G380" s="22"/>
       <c r="H380" s="22"/>
       <c r="I380" s="22"/>
-      <c r="J380" s="36"/>
-      <c r="K380" s="36"/>
+      <c r="J380" s="37"/>
+      <c r="K380" s="37"/>
       <c r="L380" s="22"/>
       <c r="M380" s="22"/>
       <c r="N380" s="22"/>
@@ -18065,8 +18068,8 @@
       <c r="G381" s="22"/>
       <c r="H381" s="22"/>
       <c r="I381" s="22"/>
-      <c r="J381" s="36"/>
-      <c r="K381" s="36"/>
+      <c r="J381" s="37"/>
+      <c r="K381" s="37"/>
       <c r="L381" s="22"/>
       <c r="M381" s="22"/>
       <c r="N381" s="22"/>
@@ -18110,8 +18113,8 @@
       <c r="G382" s="22"/>
       <c r="H382" s="22"/>
       <c r="I382" s="22"/>
-      <c r="J382" s="36"/>
-      <c r="K382" s="36"/>
+      <c r="J382" s="37"/>
+      <c r="K382" s="37"/>
       <c r="L382" s="22"/>
       <c r="M382" s="22"/>
       <c r="N382" s="22"/>
@@ -18155,8 +18158,8 @@
       <c r="G383" s="22"/>
       <c r="H383" s="22"/>
       <c r="I383" s="22"/>
-      <c r="J383" s="36"/>
-      <c r="K383" s="36"/>
+      <c r="J383" s="37"/>
+      <c r="K383" s="37"/>
       <c r="L383" s="22"/>
       <c r="M383" s="22"/>
       <c r="N383" s="22"/>
@@ -18200,8 +18203,8 @@
       <c r="G384" s="22"/>
       <c r="H384" s="22"/>
       <c r="I384" s="22"/>
-      <c r="J384" s="36"/>
-      <c r="K384" s="36"/>
+      <c r="J384" s="37"/>
+      <c r="K384" s="37"/>
       <c r="L384" s="22"/>
       <c r="M384" s="22"/>
       <c r="N384" s="22"/>
@@ -18245,8 +18248,8 @@
       <c r="G385" s="22"/>
       <c r="H385" s="22"/>
       <c r="I385" s="22"/>
-      <c r="J385" s="36"/>
-      <c r="K385" s="36"/>
+      <c r="J385" s="37"/>
+      <c r="K385" s="37"/>
       <c r="L385" s="22"/>
       <c r="M385" s="22"/>
       <c r="N385" s="22"/>
@@ -18290,8 +18293,8 @@
       <c r="G386" s="22"/>
       <c r="H386" s="22"/>
       <c r="I386" s="22"/>
-      <c r="J386" s="36"/>
-      <c r="K386" s="36"/>
+      <c r="J386" s="37"/>
+      <c r="K386" s="37"/>
       <c r="L386" s="22"/>
       <c r="M386" s="22"/>
       <c r="N386" s="22"/>
@@ -18335,8 +18338,8 @@
       <c r="G387" s="22"/>
       <c r="H387" s="22"/>
       <c r="I387" s="22"/>
-      <c r="J387" s="36"/>
-      <c r="K387" s="36"/>
+      <c r="J387" s="37"/>
+      <c r="K387" s="37"/>
       <c r="L387" s="22"/>
       <c r="M387" s="22"/>
       <c r="N387" s="22"/>
@@ -18380,8 +18383,8 @@
       <c r="G388" s="22"/>
       <c r="H388" s="22"/>
       <c r="I388" s="22"/>
-      <c r="J388" s="36"/>
-      <c r="K388" s="36"/>
+      <c r="J388" s="37"/>
+      <c r="K388" s="37"/>
       <c r="L388" s="22"/>
       <c r="M388" s="22"/>
       <c r="N388" s="22"/>
@@ -18425,8 +18428,8 @@
       <c r="G389" s="22"/>
       <c r="H389" s="22"/>
       <c r="I389" s="22"/>
-      <c r="J389" s="36"/>
-      <c r="K389" s="36"/>
+      <c r="J389" s="37"/>
+      <c r="K389" s="37"/>
       <c r="L389" s="22"/>
       <c r="M389" s="22"/>
       <c r="N389" s="22"/>
@@ -18470,8 +18473,8 @@
       <c r="G390" s="22"/>
       <c r="H390" s="22"/>
       <c r="I390" s="22"/>
-      <c r="J390" s="36"/>
-      <c r="K390" s="36"/>
+      <c r="J390" s="37"/>
+      <c r="K390" s="37"/>
       <c r="L390" s="22"/>
       <c r="M390" s="22"/>
       <c r="N390" s="22"/>
@@ -18515,8 +18518,8 @@
       <c r="G391" s="22"/>
       <c r="H391" s="22"/>
       <c r="I391" s="22"/>
-      <c r="J391" s="36"/>
-      <c r="K391" s="36"/>
+      <c r="J391" s="37"/>
+      <c r="K391" s="37"/>
       <c r="L391" s="22"/>
       <c r="M391" s="22"/>
       <c r="N391" s="22"/>
@@ -18560,8 +18563,8 @@
       <c r="G392" s="22"/>
       <c r="H392" s="22"/>
       <c r="I392" s="22"/>
-      <c r="J392" s="36"/>
-      <c r="K392" s="36"/>
+      <c r="J392" s="37"/>
+      <c r="K392" s="37"/>
       <c r="L392" s="22"/>
       <c r="M392" s="22"/>
       <c r="N392" s="22"/>
@@ -18605,8 +18608,8 @@
       <c r="G393" s="22"/>
       <c r="H393" s="22"/>
       <c r="I393" s="22"/>
-      <c r="J393" s="36"/>
-      <c r="K393" s="36"/>
+      <c r="J393" s="37"/>
+      <c r="K393" s="37"/>
       <c r="L393" s="22"/>
       <c r="M393" s="22"/>
       <c r="N393" s="22"/>
@@ -18650,8 +18653,8 @@
       <c r="G394" s="22"/>
       <c r="H394" s="22"/>
       <c r="I394" s="22"/>
-      <c r="J394" s="36"/>
-      <c r="K394" s="36"/>
+      <c r="J394" s="37"/>
+      <c r="K394" s="37"/>
       <c r="L394" s="22"/>
       <c r="M394" s="22"/>
       <c r="N394" s="22"/>
@@ -18695,8 +18698,8 @@
       <c r="G395" s="22"/>
       <c r="H395" s="22"/>
       <c r="I395" s="22"/>
-      <c r="J395" s="36"/>
-      <c r="K395" s="36"/>
+      <c r="J395" s="37"/>
+      <c r="K395" s="37"/>
       <c r="L395" s="22"/>
       <c r="M395" s="22"/>
       <c r="N395" s="22"/>
@@ -18740,8 +18743,8 @@
       <c r="G396" s="22"/>
       <c r="H396" s="22"/>
       <c r="I396" s="22"/>
-      <c r="J396" s="36"/>
-      <c r="K396" s="36"/>
+      <c r="J396" s="37"/>
+      <c r="K396" s="37"/>
       <c r="L396" s="22"/>
       <c r="M396" s="22"/>
       <c r="N396" s="22"/>
@@ -18785,8 +18788,8 @@
       <c r="G397" s="22"/>
       <c r="H397" s="22"/>
       <c r="I397" s="22"/>
-      <c r="J397" s="36"/>
-      <c r="K397" s="36"/>
+      <c r="J397" s="37"/>
+      <c r="K397" s="37"/>
       <c r="L397" s="22"/>
       <c r="M397" s="22"/>
       <c r="N397" s="22"/>
@@ -18830,8 +18833,8 @@
       <c r="G398" s="22"/>
       <c r="H398" s="22"/>
       <c r="I398" s="22"/>
-      <c r="J398" s="36"/>
-      <c r="K398" s="36"/>
+      <c r="J398" s="37"/>
+      <c r="K398" s="37"/>
       <c r="L398" s="22"/>
       <c r="M398" s="22"/>
       <c r="N398" s="22"/>
@@ -18875,8 +18878,8 @@
       <c r="G399" s="22"/>
       <c r="H399" s="22"/>
       <c r="I399" s="22"/>
-      <c r="J399" s="36"/>
-      <c r="K399" s="36"/>
+      <c r="J399" s="37"/>
+      <c r="K399" s="37"/>
       <c r="L399" s="22"/>
       <c r="M399" s="22"/>
       <c r="N399" s="22"/>
@@ -18920,8 +18923,8 @@
       <c r="G400" s="22"/>
       <c r="H400" s="22"/>
       <c r="I400" s="22"/>
-      <c r="J400" s="36"/>
-      <c r="K400" s="36"/>
+      <c r="J400" s="37"/>
+      <c r="K400" s="37"/>
       <c r="L400" s="22"/>
       <c r="M400" s="22"/>
       <c r="N400" s="22"/>
@@ -18965,8 +18968,8 @@
       <c r="G401" s="22"/>
       <c r="H401" s="22"/>
       <c r="I401" s="22"/>
-      <c r="J401" s="36"/>
-      <c r="K401" s="36"/>
+      <c r="J401" s="37"/>
+      <c r="K401" s="37"/>
       <c r="L401" s="22"/>
       <c r="M401" s="22"/>
       <c r="N401" s="22"/>
@@ -19010,8 +19013,8 @@
       <c r="G402" s="22"/>
       <c r="H402" s="22"/>
       <c r="I402" s="22"/>
-      <c r="J402" s="36"/>
-      <c r="K402" s="36"/>
+      <c r="J402" s="37"/>
+      <c r="K402" s="37"/>
       <c r="L402" s="22"/>
       <c r="M402" s="22"/>
       <c r="N402" s="22"/>
@@ -19055,8 +19058,8 @@
       <c r="G403" s="22"/>
       <c r="H403" s="22"/>
       <c r="I403" s="22"/>
-      <c r="J403" s="36"/>
-      <c r="K403" s="36"/>
+      <c r="J403" s="37"/>
+      <c r="K403" s="37"/>
       <c r="L403" s="22"/>
       <c r="M403" s="22"/>
       <c r="N403" s="22"/>
@@ -19100,8 +19103,8 @@
       <c r="G404" s="22"/>
       <c r="H404" s="22"/>
       <c r="I404" s="22"/>
-      <c r="J404" s="36"/>
-      <c r="K404" s="36"/>
+      <c r="J404" s="37"/>
+      <c r="K404" s="37"/>
       <c r="L404" s="22"/>
       <c r="M404" s="22"/>
       <c r="N404" s="22"/>
@@ -19145,8 +19148,8 @@
       <c r="G405" s="22"/>
       <c r="H405" s="22"/>
       <c r="I405" s="22"/>
-      <c r="J405" s="36"/>
-      <c r="K405" s="36"/>
+      <c r="J405" s="37"/>
+      <c r="K405" s="37"/>
       <c r="L405" s="22"/>
       <c r="M405" s="22"/>
       <c r="N405" s="22"/>
@@ -19190,8 +19193,8 @@
       <c r="G406" s="22"/>
       <c r="H406" s="22"/>
       <c r="I406" s="22"/>
-      <c r="J406" s="36"/>
-      <c r="K406" s="36"/>
+      <c r="J406" s="37"/>
+      <c r="K406" s="37"/>
       <c r="L406" s="22"/>
       <c r="M406" s="22"/>
       <c r="N406" s="22"/>
@@ -19235,8 +19238,8 @@
       <c r="G407" s="22"/>
       <c r="H407" s="22"/>
       <c r="I407" s="22"/>
-      <c r="J407" s="36"/>
-      <c r="K407" s="36"/>
+      <c r="J407" s="37"/>
+      <c r="K407" s="37"/>
       <c r="L407" s="22"/>
       <c r="M407" s="22"/>
       <c r="N407" s="22"/>
@@ -19280,8 +19283,8 @@
       <c r="G408" s="22"/>
       <c r="H408" s="22"/>
       <c r="I408" s="22"/>
-      <c r="J408" s="36"/>
-      <c r="K408" s="36"/>
+      <c r="J408" s="37"/>
+      <c r="K408" s="37"/>
       <c r="L408" s="22"/>
       <c r="M408" s="22"/>
       <c r="N408" s="22"/>
@@ -19325,8 +19328,8 @@
       <c r="G409" s="22"/>
       <c r="H409" s="22"/>
       <c r="I409" s="22"/>
-      <c r="J409" s="36"/>
-      <c r="K409" s="36"/>
+      <c r="J409" s="37"/>
+      <c r="K409" s="37"/>
       <c r="L409" s="22"/>
       <c r="M409" s="22"/>
       <c r="N409" s="22"/>
@@ -19370,8 +19373,8 @@
       <c r="G410" s="22"/>
       <c r="H410" s="22"/>
       <c r="I410" s="22"/>
-      <c r="J410" s="36"/>
-      <c r="K410" s="36"/>
+      <c r="J410" s="37"/>
+      <c r="K410" s="37"/>
       <c r="L410" s="22"/>
       <c r="M410" s="22"/>
       <c r="N410" s="22"/>
@@ -19415,8 +19418,8 @@
       <c r="G411" s="22"/>
       <c r="H411" s="22"/>
       <c r="I411" s="22"/>
-      <c r="J411" s="36"/>
-      <c r="K411" s="36"/>
+      <c r="J411" s="37"/>
+      <c r="K411" s="37"/>
       <c r="L411" s="22"/>
       <c r="M411" s="22"/>
       <c r="N411" s="22"/>
@@ -19460,8 +19463,8 @@
       <c r="G412" s="22"/>
       <c r="H412" s="22"/>
       <c r="I412" s="22"/>
-      <c r="J412" s="36"/>
-      <c r="K412" s="36"/>
+      <c r="J412" s="37"/>
+      <c r="K412" s="37"/>
       <c r="L412" s="22"/>
       <c r="M412" s="22"/>
       <c r="N412" s="22"/>
@@ -19505,8 +19508,8 @@
       <c r="G413" s="22"/>
       <c r="H413" s="22"/>
       <c r="I413" s="22"/>
-      <c r="J413" s="36"/>
-      <c r="K413" s="36"/>
+      <c r="J413" s="37"/>
+      <c r="K413" s="37"/>
       <c r="L413" s="22"/>
       <c r="M413" s="22"/>
       <c r="N413" s="22"/>
@@ -19550,8 +19553,8 @@
       <c r="G414" s="22"/>
       <c r="H414" s="22"/>
       <c r="I414" s="22"/>
-      <c r="J414" s="36"/>
-      <c r="K414" s="36"/>
+      <c r="J414" s="37"/>
+      <c r="K414" s="37"/>
       <c r="L414" s="22"/>
       <c r="M414" s="22"/>
       <c r="N414" s="22"/>
@@ -19595,8 +19598,8 @@
       <c r="G415" s="22"/>
       <c r="H415" s="22"/>
       <c r="I415" s="22"/>
-      <c r="J415" s="36"/>
-      <c r="K415" s="36"/>
+      <c r="J415" s="37"/>
+      <c r="K415" s="37"/>
       <c r="L415" s="22"/>
       <c r="M415" s="22"/>
       <c r="N415" s="22"/>
@@ -19640,8 +19643,8 @@
       <c r="G416" s="22"/>
       <c r="H416" s="22"/>
       <c r="I416" s="22"/>
-      <c r="J416" s="36"/>
-      <c r="K416" s="36"/>
+      <c r="J416" s="37"/>
+      <c r="K416" s="37"/>
       <c r="L416" s="22"/>
       <c r="M416" s="22"/>
       <c r="N416" s="22"/>
@@ -19685,8 +19688,8 @@
       <c r="G417" s="22"/>
       <c r="H417" s="22"/>
       <c r="I417" s="22"/>
-      <c r="J417" s="36"/>
-      <c r="K417" s="36"/>
+      <c r="J417" s="37"/>
+      <c r="K417" s="37"/>
       <c r="L417" s="22"/>
       <c r="M417" s="22"/>
       <c r="N417" s="22"/>
@@ -19730,8 +19733,8 @@
       <c r="G418" s="22"/>
       <c r="H418" s="22"/>
       <c r="I418" s="22"/>
-      <c r="J418" s="36"/>
-      <c r="K418" s="36"/>
+      <c r="J418" s="37"/>
+      <c r="K418" s="37"/>
       <c r="L418" s="22"/>
       <c r="M418" s="22"/>
       <c r="N418" s="22"/>
@@ -19775,8 +19778,8 @@
       <c r="G419" s="22"/>
       <c r="H419" s="22"/>
       <c r="I419" s="22"/>
-      <c r="J419" s="36"/>
-      <c r="K419" s="36"/>
+      <c r="J419" s="37"/>
+      <c r="K419" s="37"/>
       <c r="L419" s="22"/>
       <c r="M419" s="22"/>
       <c r="N419" s="22"/>
@@ -19820,8 +19823,8 @@
       <c r="G420" s="22"/>
       <c r="H420" s="22"/>
       <c r="I420" s="22"/>
-      <c r="J420" s="36"/>
-      <c r="K420" s="36"/>
+      <c r="J420" s="37"/>
+      <c r="K420" s="37"/>
       <c r="L420" s="22"/>
       <c r="M420" s="22"/>
       <c r="N420" s="22"/>
@@ -19865,8 +19868,8 @@
       <c r="G421" s="22"/>
       <c r="H421" s="22"/>
       <c r="I421" s="22"/>
-      <c r="J421" s="36"/>
-      <c r="K421" s="36"/>
+      <c r="J421" s="37"/>
+      <c r="K421" s="37"/>
       <c r="L421" s="22"/>
       <c r="M421" s="22"/>
       <c r="N421" s="22"/>
@@ -19910,8 +19913,8 @@
       <c r="G422" s="22"/>
       <c r="H422" s="22"/>
       <c r="I422" s="22"/>
-      <c r="J422" s="36"/>
-      <c r="K422" s="36"/>
+      <c r="J422" s="37"/>
+      <c r="K422" s="37"/>
       <c r="L422" s="22"/>
       <c r="M422" s="22"/>
       <c r="N422" s="22"/>
@@ -19955,8 +19958,8 @@
       <c r="G423" s="22"/>
       <c r="H423" s="22"/>
       <c r="I423" s="22"/>
-      <c r="J423" s="36"/>
-      <c r="K423" s="36"/>
+      <c r="J423" s="37"/>
+      <c r="K423" s="37"/>
       <c r="L423" s="22"/>
       <c r="M423" s="22"/>
       <c r="N423" s="22"/>
@@ -20000,8 +20003,8 @@
       <c r="G424" s="22"/>
       <c r="H424" s="22"/>
       <c r="I424" s="22"/>
-      <c r="J424" s="36"/>
-      <c r="K424" s="36"/>
+      <c r="J424" s="37"/>
+      <c r="K424" s="37"/>
       <c r="L424" s="22"/>
       <c r="M424" s="22"/>
       <c r="N424" s="22"/>
@@ -20045,8 +20048,8 @@
       <c r="G425" s="22"/>
       <c r="H425" s="22"/>
       <c r="I425" s="22"/>
-      <c r="J425" s="36"/>
-      <c r="K425" s="36"/>
+      <c r="J425" s="37"/>
+      <c r="K425" s="37"/>
       <c r="L425" s="22"/>
       <c r="M425" s="22"/>
       <c r="N425" s="22"/>
@@ -20090,8 +20093,8 @@
       <c r="G426" s="22"/>
       <c r="H426" s="22"/>
       <c r="I426" s="22"/>
-      <c r="J426" s="36"/>
-      <c r="K426" s="36"/>
+      <c r="J426" s="37"/>
+      <c r="K426" s="37"/>
       <c r="L426" s="22"/>
       <c r="M426" s="22"/>
       <c r="N426" s="22"/>
@@ -20135,8 +20138,8 @@
       <c r="G427" s="22"/>
       <c r="H427" s="22"/>
       <c r="I427" s="22"/>
-      <c r="J427" s="36"/>
-      <c r="K427" s="36"/>
+      <c r="J427" s="37"/>
+      <c r="K427" s="37"/>
       <c r="L427" s="22"/>
       <c r="M427" s="22"/>
       <c r="N427" s="22"/>
@@ -20180,8 +20183,8 @@
       <c r="G428" s="22"/>
       <c r="H428" s="22"/>
       <c r="I428" s="22"/>
-      <c r="J428" s="36"/>
-      <c r="K428" s="36"/>
+      <c r="J428" s="37"/>
+      <c r="K428" s="37"/>
       <c r="L428" s="22"/>
       <c r="M428" s="22"/>
       <c r="N428" s="22"/>
@@ -20225,8 +20228,8 @@
       <c r="G429" s="22"/>
       <c r="H429" s="22"/>
       <c r="I429" s="22"/>
-      <c r="J429" s="36"/>
-      <c r="K429" s="36"/>
+      <c r="J429" s="37"/>
+      <c r="K429" s="37"/>
       <c r="L429" s="22"/>
       <c r="M429" s="22"/>
       <c r="N429" s="22"/>
@@ -20270,8 +20273,8 @@
       <c r="G430" s="22"/>
       <c r="H430" s="22"/>
       <c r="I430" s="22"/>
-      <c r="J430" s="36"/>
-      <c r="K430" s="36"/>
+      <c r="J430" s="37"/>
+      <c r="K430" s="37"/>
       <c r="L430" s="22"/>
       <c r="M430" s="22"/>
       <c r="N430" s="22"/>
@@ -20315,8 +20318,8 @@
       <c r="G431" s="22"/>
       <c r="H431" s="22"/>
       <c r="I431" s="22"/>
-      <c r="J431" s="36"/>
-      <c r="K431" s="36"/>
+      <c r="J431" s="37"/>
+      <c r="K431" s="37"/>
       <c r="L431" s="22"/>
       <c r="M431" s="22"/>
       <c r="N431" s="22"/>
@@ -20360,8 +20363,8 @@
       <c r="G432" s="22"/>
       <c r="H432" s="22"/>
       <c r="I432" s="22"/>
-      <c r="J432" s="36"/>
-      <c r="K432" s="36"/>
+      <c r="J432" s="37"/>
+      <c r="K432" s="37"/>
       <c r="L432" s="22"/>
       <c r="M432" s="22"/>
       <c r="N432" s="22"/>
@@ -20405,8 +20408,8 @@
       <c r="G433" s="22"/>
       <c r="H433" s="22"/>
       <c r="I433" s="22"/>
-      <c r="J433" s="36"/>
-      <c r="K433" s="36"/>
+      <c r="J433" s="37"/>
+      <c r="K433" s="37"/>
       <c r="L433" s="22"/>
       <c r="M433" s="22"/>
       <c r="N433" s="22"/>
@@ -20450,8 +20453,8 @@
       <c r="G434" s="22"/>
       <c r="H434" s="22"/>
       <c r="I434" s="22"/>
-      <c r="J434" s="36"/>
-      <c r="K434" s="36"/>
+      <c r="J434" s="37"/>
+      <c r="K434" s="37"/>
       <c r="L434" s="22"/>
       <c r="M434" s="22"/>
       <c r="N434" s="22"/>
@@ -20495,8 +20498,8 @@
       <c r="G435" s="22"/>
       <c r="H435" s="22"/>
       <c r="I435" s="22"/>
-      <c r="J435" s="36"/>
-      <c r="K435" s="36"/>
+      <c r="J435" s="37"/>
+      <c r="K435" s="37"/>
       <c r="L435" s="22"/>
       <c r="M435" s="22"/>
       <c r="N435" s="22"/>
@@ -20540,8 +20543,8 @@
       <c r="G436" s="22"/>
       <c r="H436" s="22"/>
       <c r="I436" s="22"/>
-      <c r="J436" s="36"/>
-      <c r="K436" s="36"/>
+      <c r="J436" s="37"/>
+      <c r="K436" s="37"/>
       <c r="L436" s="22"/>
       <c r="M436" s="22"/>
       <c r="N436" s="22"/>
@@ -20585,8 +20588,8 @@
       <c r="G437" s="22"/>
       <c r="H437" s="22"/>
       <c r="I437" s="22"/>
-      <c r="J437" s="36"/>
-      <c r="K437" s="36"/>
+      <c r="J437" s="37"/>
+      <c r="K437" s="37"/>
       <c r="L437" s="22"/>
       <c r="M437" s="22"/>
       <c r="N437" s="22"/>
@@ -20630,8 +20633,8 @@
       <c r="G438" s="22"/>
       <c r="H438" s="22"/>
       <c r="I438" s="22"/>
-      <c r="J438" s="36"/>
-      <c r="K438" s="36"/>
+      <c r="J438" s="37"/>
+      <c r="K438" s="37"/>
       <c r="L438" s="22"/>
       <c r="M438" s="22"/>
       <c r="N438" s="22"/>
@@ -20675,8 +20678,8 @@
       <c r="G439" s="22"/>
       <c r="H439" s="22"/>
       <c r="I439" s="22"/>
-      <c r="J439" s="36"/>
-      <c r="K439" s="36"/>
+      <c r="J439" s="37"/>
+      <c r="K439" s="37"/>
       <c r="L439" s="22"/>
       <c r="M439" s="22"/>
       <c r="N439" s="22"/>
@@ -20720,8 +20723,8 @@
       <c r="G440" s="22"/>
       <c r="H440" s="22"/>
       <c r="I440" s="22"/>
-      <c r="J440" s="36"/>
-      <c r="K440" s="36"/>
+      <c r="J440" s="37"/>
+      <c r="K440" s="37"/>
       <c r="L440" s="22"/>
       <c r="M440" s="22"/>
       <c r="N440" s="22"/>
@@ -20765,8 +20768,8 @@
       <c r="G441" s="22"/>
       <c r="H441" s="22"/>
       <c r="I441" s="22"/>
-      <c r="J441" s="36"/>
-      <c r="K441" s="36"/>
+      <c r="J441" s="37"/>
+      <c r="K441" s="37"/>
       <c r="L441" s="22"/>
       <c r="M441" s="22"/>
       <c r="N441" s="22"/>
@@ -20810,8 +20813,8 @@
       <c r="G442" s="22"/>
       <c r="H442" s="22"/>
       <c r="I442" s="22"/>
-      <c r="J442" s="36"/>
-      <c r="K442" s="36"/>
+      <c r="J442" s="37"/>
+      <c r="K442" s="37"/>
       <c r="L442" s="22"/>
       <c r="M442" s="22"/>
       <c r="N442" s="22"/>
@@ -20855,8 +20858,8 @@
       <c r="G443" s="22"/>
       <c r="H443" s="22"/>
       <c r="I443" s="22"/>
-      <c r="J443" s="36"/>
-      <c r="K443" s="36"/>
+      <c r="J443" s="37"/>
+      <c r="K443" s="37"/>
       <c r="L443" s="22"/>
       <c r="M443" s="22"/>
       <c r="N443" s="22"/>
@@ -20900,8 +20903,8 @@
       <c r="G444" s="22"/>
       <c r="H444" s="22"/>
       <c r="I444" s="22"/>
-      <c r="J444" s="36"/>
-      <c r="K444" s="36"/>
+      <c r="J444" s="37"/>
+      <c r="K444" s="37"/>
       <c r="L444" s="22"/>
       <c r="M444" s="22"/>
       <c r="N444" s="22"/>
@@ -20945,8 +20948,8 @@
       <c r="G445" s="22"/>
       <c r="H445" s="22"/>
       <c r="I445" s="22"/>
-      <c r="J445" s="36"/>
-      <c r="K445" s="36"/>
+      <c r="J445" s="37"/>
+      <c r="K445" s="37"/>
       <c r="L445" s="22"/>
       <c r="M445" s="22"/>
       <c r="N445" s="22"/>
@@ -20990,8 +20993,8 @@
       <c r="G446" s="22"/>
       <c r="H446" s="22"/>
       <c r="I446" s="22"/>
-      <c r="J446" s="36"/>
-      <c r="K446" s="36"/>
+      <c r="J446" s="37"/>
+      <c r="K446" s="37"/>
       <c r="L446" s="22"/>
       <c r="M446" s="22"/>
       <c r="N446" s="22"/>
@@ -21035,8 +21038,8 @@
       <c r="G447" s="22"/>
       <c r="H447" s="22"/>
       <c r="I447" s="22"/>
-      <c r="J447" s="36"/>
-      <c r="K447" s="36"/>
+      <c r="J447" s="37"/>
+      <c r="K447" s="37"/>
       <c r="L447" s="22"/>
       <c r="M447" s="22"/>
       <c r="N447" s="22"/>
@@ -21080,8 +21083,8 @@
       <c r="G448" s="22"/>
       <c r="H448" s="22"/>
       <c r="I448" s="22"/>
-      <c r="J448" s="36"/>
-      <c r="K448" s="36"/>
+      <c r="J448" s="37"/>
+      <c r="K448" s="37"/>
       <c r="L448" s="22"/>
       <c r="M448" s="22"/>
       <c r="N448" s="22"/>
@@ -21125,8 +21128,8 @@
       <c r="G449" s="22"/>
       <c r="H449" s="22"/>
       <c r="I449" s="22"/>
-      <c r="J449" s="36"/>
-      <c r="K449" s="36"/>
+      <c r="J449" s="37"/>
+      <c r="K449" s="37"/>
       <c r="L449" s="22"/>
       <c r="M449" s="22"/>
       <c r="N449" s="22"/>
@@ -21170,8 +21173,8 @@
       <c r="G450" s="22"/>
       <c r="H450" s="22"/>
       <c r="I450" s="22"/>
-      <c r="J450" s="36"/>
-      <c r="K450" s="36"/>
+      <c r="J450" s="37"/>
+      <c r="K450" s="37"/>
       <c r="L450" s="22"/>
       <c r="M450" s="22"/>
       <c r="N450" s="22"/>
@@ -21215,8 +21218,8 @@
       <c r="G451" s="22"/>
       <c r="H451" s="22"/>
       <c r="I451" s="22"/>
-      <c r="J451" s="36"/>
-      <c r="K451" s="36"/>
+      <c r="J451" s="37"/>
+      <c r="K451" s="37"/>
       <c r="L451" s="22"/>
       <c r="M451" s="22"/>
       <c r="N451" s="22"/>
@@ -21260,8 +21263,8 @@
       <c r="G452" s="22"/>
       <c r="H452" s="22"/>
       <c r="I452" s="22"/>
-      <c r="J452" s="36"/>
-      <c r="K452" s="36"/>
+      <c r="J452" s="37"/>
+      <c r="K452" s="37"/>
       <c r="L452" s="22"/>
       <c r="M452" s="22"/>
       <c r="N452" s="22"/>
@@ -21305,8 +21308,8 @@
       <c r="G453" s="22"/>
       <c r="H453" s="22"/>
       <c r="I453" s="22"/>
-      <c r="J453" s="36"/>
-      <c r="K453" s="36"/>
+      <c r="J453" s="37"/>
+      <c r="K453" s="37"/>
       <c r="L453" s="22"/>
       <c r="M453" s="22"/>
       <c r="N453" s="22"/>
@@ -21350,8 +21353,8 @@
       <c r="G454" s="22"/>
       <c r="H454" s="22"/>
       <c r="I454" s="22"/>
-      <c r="J454" s="36"/>
-      <c r="K454" s="36"/>
+      <c r="J454" s="37"/>
+      <c r="K454" s="37"/>
       <c r="L454" s="22"/>
       <c r="M454" s="22"/>
       <c r="N454" s="22"/>
@@ -21395,8 +21398,8 @@
       <c r="G455" s="22"/>
       <c r="H455" s="22"/>
       <c r="I455" s="22"/>
-      <c r="J455" s="36"/>
-      <c r="K455" s="36"/>
+      <c r="J455" s="37"/>
+      <c r="K455" s="37"/>
       <c r="L455" s="22"/>
       <c r="M455" s="22"/>
       <c r="N455" s="22"/>
@@ -21440,8 +21443,8 @@
       <c r="G456" s="22"/>
       <c r="H456" s="22"/>
       <c r="I456" s="22"/>
-      <c r="J456" s="36"/>
-      <c r="K456" s="36"/>
+      <c r="J456" s="37"/>
+      <c r="K456" s="37"/>
       <c r="L456" s="22"/>
       <c r="M456" s="22"/>
       <c r="N456" s="22"/>
@@ -21485,8 +21488,8 @@
       <c r="G457" s="22"/>
       <c r="H457" s="22"/>
       <c r="I457" s="22"/>
-      <c r="J457" s="36"/>
-      <c r="K457" s="36"/>
+      <c r="J457" s="37"/>
+      <c r="K457" s="37"/>
       <c r="L457" s="22"/>
       <c r="M457" s="22"/>
       <c r="N457" s="22"/>
@@ -21530,8 +21533,8 @@
       <c r="G458" s="22"/>
       <c r="H458" s="22"/>
       <c r="I458" s="22"/>
-      <c r="J458" s="36"/>
-      <c r="K458" s="36"/>
+      <c r="J458" s="37"/>
+      <c r="K458" s="37"/>
       <c r="L458" s="22"/>
       <c r="M458" s="22"/>
       <c r="N458" s="22"/>
@@ -21575,8 +21578,8 @@
       <c r="G459" s="22"/>
       <c r="H459" s="22"/>
       <c r="I459" s="22"/>
-      <c r="J459" s="36"/>
-      <c r="K459" s="36"/>
+      <c r="J459" s="37"/>
+      <c r="K459" s="37"/>
       <c r="L459" s="22"/>
       <c r="M459" s="22"/>
       <c r="N459" s="22"/>
@@ -21620,8 +21623,8 @@
       <c r="G460" s="22"/>
       <c r="H460" s="22"/>
       <c r="I460" s="22"/>
-      <c r="J460" s="36"/>
-      <c r="K460" s="36"/>
+      <c r="J460" s="37"/>
+      <c r="K460" s="37"/>
       <c r="L460" s="22"/>
       <c r="M460" s="22"/>
       <c r="N460" s="22"/>
@@ -21665,8 +21668,8 @@
       <c r="G461" s="22"/>
       <c r="H461" s="22"/>
       <c r="I461" s="22"/>
-      <c r="J461" s="36"/>
-      <c r="K461" s="36"/>
+      <c r="J461" s="37"/>
+      <c r="K461" s="37"/>
       <c r="L461" s="22"/>
       <c r="M461" s="22"/>
       <c r="N461" s="22"/>
@@ -21710,8 +21713,8 @@
       <c r="G462" s="22"/>
       <c r="H462" s="22"/>
       <c r="I462" s="22"/>
-      <c r="J462" s="36"/>
-      <c r="K462" s="36"/>
+      <c r="J462" s="37"/>
+      <c r="K462" s="37"/>
       <c r="L462" s="22"/>
       <c r="M462" s="22"/>
       <c r="N462" s="22"/>
@@ -21755,8 +21758,8 @@
       <c r="G463" s="22"/>
       <c r="H463" s="22"/>
       <c r="I463" s="22"/>
-      <c r="J463" s="36"/>
-      <c r="K463" s="36"/>
+      <c r="J463" s="37"/>
+      <c r="K463" s="37"/>
       <c r="L463" s="22"/>
       <c r="M463" s="22"/>
       <c r="N463" s="22"/>
@@ -21800,8 +21803,8 @@
       <c r="G464" s="22"/>
       <c r="H464" s="22"/>
       <c r="I464" s="22"/>
-      <c r="J464" s="36"/>
-      <c r="K464" s="36"/>
+      <c r="J464" s="37"/>
+      <c r="K464" s="37"/>
       <c r="L464" s="22"/>
       <c r="M464" s="22"/>
       <c r="N464" s="22"/>
@@ -21845,8 +21848,8 @@
       <c r="G465" s="22"/>
       <c r="H465" s="22"/>
       <c r="I465" s="22"/>
-      <c r="J465" s="36"/>
-      <c r="K465" s="36"/>
+      <c r="J465" s="37"/>
+      <c r="K465" s="37"/>
       <c r="L465" s="22"/>
       <c r="M465" s="22"/>
       <c r="N465" s="22"/>
@@ -21890,8 +21893,8 @@
       <c r="G466" s="22"/>
       <c r="H466" s="22"/>
       <c r="I466" s="22"/>
-      <c r="J466" s="36"/>
-      <c r="K466" s="36"/>
+      <c r="J466" s="37"/>
+      <c r="K466" s="37"/>
       <c r="L466" s="22"/>
       <c r="M466" s="22"/>
       <c r="N466" s="22"/>
@@ -21935,8 +21938,8 @@
       <c r="G467" s="22"/>
       <c r="H467" s="22"/>
       <c r="I467" s="22"/>
-      <c r="J467" s="36"/>
-      <c r="K467" s="36"/>
+      <c r="J467" s="37"/>
+      <c r="K467" s="37"/>
       <c r="L467" s="22"/>
       <c r="M467" s="22"/>
       <c r="N467" s="22"/>
@@ -21980,8 +21983,8 @@
       <c r="G468" s="22"/>
       <c r="H468" s="22"/>
       <c r="I468" s="22"/>
-      <c r="J468" s="36"/>
-      <c r="K468" s="36"/>
+      <c r="J468" s="37"/>
+      <c r="K468" s="37"/>
       <c r="L468" s="22"/>
       <c r="M468" s="22"/>
       <c r="N468" s="22"/>
@@ -22025,8 +22028,8 @@
       <c r="G469" s="22"/>
       <c r="H469" s="22"/>
       <c r="I469" s="22"/>
-      <c r="J469" s="36"/>
-      <c r="K469" s="36"/>
+      <c r="J469" s="37"/>
+      <c r="K469" s="37"/>
       <c r="L469" s="22"/>
       <c r="M469" s="22"/>
       <c r="N469" s="22"/>
@@ -22070,8 +22073,8 @@
       <c r="G470" s="22"/>
       <c r="H470" s="22"/>
       <c r="I470" s="22"/>
-      <c r="J470" s="36"/>
-      <c r="K470" s="36"/>
+      <c r="J470" s="37"/>
+      <c r="K470" s="37"/>
       <c r="L470" s="22"/>
       <c r="M470" s="22"/>
       <c r="N470" s="22"/>
@@ -22115,8 +22118,8 @@
       <c r="G471" s="22"/>
       <c r="H471" s="22"/>
       <c r="I471" s="22"/>
-      <c r="J471" s="36"/>
-      <c r="K471" s="36"/>
+      <c r="J471" s="37"/>
+      <c r="K471" s="37"/>
       <c r="L471" s="22"/>
       <c r="M471" s="22"/>
       <c r="N471" s="22"/>
@@ -22160,8 +22163,8 @@
       <c r="G472" s="22"/>
       <c r="H472" s="22"/>
       <c r="I472" s="22"/>
-      <c r="J472" s="36"/>
-      <c r="K472" s="36"/>
+      <c r="J472" s="37"/>
+      <c r="K472" s="37"/>
       <c r="L472" s="22"/>
       <c r="M472" s="22"/>
       <c r="N472" s="22"/>
@@ -22205,8 +22208,8 @@
       <c r="G473" s="22"/>
       <c r="H473" s="22"/>
       <c r="I473" s="22"/>
-      <c r="J473" s="36"/>
-      <c r="K473" s="36"/>
+      <c r="J473" s="37"/>
+      <c r="K473" s="37"/>
       <c r="L473" s="22"/>
       <c r="M473" s="22"/>
       <c r="N473" s="22"/>
@@ -22250,8 +22253,8 @@
       <c r="G474" s="22"/>
       <c r="H474" s="22"/>
       <c r="I474" s="22"/>
-      <c r="J474" s="36"/>
-      <c r="K474" s="36"/>
+      <c r="J474" s="37"/>
+      <c r="K474" s="37"/>
       <c r="L474" s="22"/>
       <c r="M474" s="22"/>
       <c r="N474" s="22"/>
@@ -22295,8 +22298,8 @@
       <c r="G475" s="22"/>
       <c r="H475" s="22"/>
       <c r="I475" s="22"/>
-      <c r="J475" s="36"/>
-      <c r="K475" s="36"/>
+      <c r="J475" s="37"/>
+      <c r="K475" s="37"/>
       <c r="L475" s="22"/>
       <c r="M475" s="22"/>
       <c r="N475" s="22"/>
@@ -22340,8 +22343,8 @@
       <c r="G476" s="22"/>
       <c r="H476" s="22"/>
       <c r="I476" s="22"/>
-      <c r="J476" s="36"/>
-      <c r="K476" s="36"/>
+      <c r="J476" s="37"/>
+      <c r="K476" s="37"/>
       <c r="L476" s="22"/>
       <c r="M476" s="22"/>
       <c r="N476" s="22"/>
@@ -22385,8 +22388,8 @@
       <c r="G477" s="22"/>
       <c r="H477" s="22"/>
       <c r="I477" s="22"/>
-      <c r="J477" s="36"/>
-      <c r="K477" s="36"/>
+      <c r="J477" s="37"/>
+      <c r="K477" s="37"/>
       <c r="L477" s="22"/>
       <c r="M477" s="22"/>
       <c r="N477" s="22"/>
@@ -22430,8 +22433,8 @@
       <c r="G478" s="22"/>
       <c r="H478" s="22"/>
       <c r="I478" s="22"/>
-      <c r="J478" s="36"/>
-      <c r="K478" s="36"/>
+      <c r="J478" s="37"/>
+      <c r="K478" s="37"/>
       <c r="L478" s="22"/>
       <c r="M478" s="22"/>
       <c r="N478" s="22"/>
@@ -22475,8 +22478,8 @@
       <c r="G479" s="22"/>
       <c r="H479" s="22"/>
       <c r="I479" s="22"/>
-      <c r="J479" s="36"/>
-      <c r="K479" s="36"/>
+      <c r="J479" s="37"/>
+      <c r="K479" s="37"/>
       <c r="L479" s="22"/>
       <c r="M479" s="22"/>
       <c r="N479" s="22"/>
@@ -22520,8 +22523,8 @@
       <c r="G480" s="22"/>
       <c r="H480" s="22"/>
       <c r="I480" s="22"/>
-      <c r="J480" s="36"/>
-      <c r="K480" s="36"/>
+      <c r="J480" s="37"/>
+      <c r="K480" s="37"/>
       <c r="L480" s="22"/>
       <c r="M480" s="22"/>
       <c r="N480" s="22"/>
@@ -22565,8 +22568,8 @@
       <c r="G481" s="22"/>
       <c r="H481" s="22"/>
       <c r="I481" s="22"/>
-      <c r="J481" s="36"/>
-      <c r="K481" s="36"/>
+      <c r="J481" s="37"/>
+      <c r="K481" s="37"/>
       <c r="L481" s="22"/>
       <c r="M481" s="22"/>
       <c r="N481" s="22"/>
@@ -22610,8 +22613,8 @@
       <c r="G482" s="22"/>
       <c r="H482" s="22"/>
       <c r="I482" s="22"/>
-      <c r="J482" s="36"/>
-      <c r="K482" s="36"/>
+      <c r="J482" s="37"/>
+      <c r="K482" s="37"/>
       <c r="L482" s="22"/>
       <c r="M482" s="22"/>
       <c r="N482" s="22"/>
@@ -22655,8 +22658,8 @@
       <c r="G483" s="22"/>
       <c r="H483" s="22"/>
       <c r="I483" s="22"/>
-      <c r="J483" s="36"/>
-      <c r="K483" s="36"/>
+      <c r="J483" s="37"/>
+      <c r="K483" s="37"/>
       <c r="L483" s="22"/>
       <c r="M483" s="22"/>
       <c r="N483" s="22"/>
@@ -22700,8 +22703,8 @@
       <c r="G484" s="22"/>
       <c r="H484" s="22"/>
       <c r="I484" s="22"/>
-      <c r="J484" s="36"/>
-      <c r="K484" s="36"/>
+      <c r="J484" s="37"/>
+      <c r="K484" s="37"/>
       <c r="L484" s="22"/>
       <c r="M484" s="22"/>
       <c r="N484" s="22"/>
@@ -22745,8 +22748,8 @@
       <c r="G485" s="22"/>
       <c r="H485" s="22"/>
       <c r="I485" s="22"/>
-      <c r="J485" s="36"/>
-      <c r="K485" s="36"/>
+      <c r="J485" s="37"/>
+      <c r="K485" s="37"/>
       <c r="L485" s="22"/>
       <c r="M485" s="22"/>
       <c r="N485" s="22"/>
@@ -22790,8 +22793,8 @@
       <c r="G486" s="22"/>
       <c r="H486" s="22"/>
       <c r="I486" s="22"/>
-      <c r="J486" s="36"/>
-      <c r="K486" s="36"/>
+      <c r="J486" s="37"/>
+      <c r="K486" s="37"/>
       <c r="L486" s="22"/>
       <c r="M486" s="22"/>
       <c r="N486" s="22"/>
@@ -22835,8 +22838,8 @@
       <c r="G487" s="22"/>
       <c r="H487" s="22"/>
       <c r="I487" s="22"/>
-      <c r="J487" s="36"/>
-      <c r="K487" s="36"/>
+      <c r="J487" s="37"/>
+      <c r="K487" s="37"/>
       <c r="L487" s="22"/>
       <c r="M487" s="22"/>
       <c r="N487" s="22"/>
@@ -22880,8 +22883,8 @@
       <c r="G488" s="22"/>
       <c r="H488" s="22"/>
       <c r="I488" s="22"/>
-      <c r="J488" s="36"/>
-      <c r="K488" s="36"/>
+      <c r="J488" s="37"/>
+      <c r="K488" s="37"/>
       <c r="L488" s="22"/>
       <c r="M488" s="22"/>
       <c r="N488" s="22"/>
@@ -22925,8 +22928,8 @@
       <c r="G489" s="22"/>
       <c r="H489" s="22"/>
       <c r="I489" s="22"/>
-      <c r="J489" s="36"/>
-      <c r="K489" s="36"/>
+      <c r="J489" s="37"/>
+      <c r="K489" s="37"/>
       <c r="L489" s="22"/>
       <c r="M489" s="22"/>
       <c r="N489" s="22"/>
@@ -22970,8 +22973,8 @@
       <c r="G490" s="22"/>
       <c r="H490" s="22"/>
       <c r="I490" s="22"/>
-      <c r="J490" s="36"/>
-      <c r="K490" s="36"/>
+      <c r="J490" s="37"/>
+      <c r="K490" s="37"/>
       <c r="L490" s="22"/>
       <c r="M490" s="22"/>
       <c r="N490" s="22"/>
@@ -23015,8 +23018,8 @@
       <c r="G491" s="22"/>
       <c r="H491" s="22"/>
       <c r="I491" s="22"/>
-      <c r="J491" s="36"/>
-      <c r="K491" s="36"/>
+      <c r="J491" s="37"/>
+      <c r="K491" s="37"/>
       <c r="L491" s="22"/>
       <c r="M491" s="22"/>
       <c r="N491" s="22"/>
@@ -23060,8 +23063,8 @@
       <c r="G492" s="22"/>
       <c r="H492" s="22"/>
       <c r="I492" s="22"/>
-      <c r="J492" s="36"/>
-      <c r="K492" s="36"/>
+      <c r="J492" s="37"/>
+      <c r="K492" s="37"/>
       <c r="L492" s="22"/>
       <c r="M492" s="22"/>
       <c r="N492" s="22"/>
@@ -23105,8 +23108,8 @@
       <c r="G493" s="22"/>
       <c r="H493" s="22"/>
       <c r="I493" s="22"/>
-      <c r="J493" s="36"/>
-      <c r="K493" s="36"/>
+      <c r="J493" s="37"/>
+      <c r="K493" s="37"/>
       <c r="L493" s="22"/>
       <c r="M493" s="22"/>
       <c r="N493" s="22"/>
@@ -23150,8 +23153,8 @@
       <c r="G494" s="22"/>
       <c r="H494" s="22"/>
       <c r="I494" s="22"/>
-      <c r="J494" s="36"/>
-      <c r="K494" s="36"/>
+      <c r="J494" s="37"/>
+      <c r="K494" s="37"/>
       <c r="L494" s="22"/>
       <c r="M494" s="22"/>
       <c r="N494" s="22"/>
@@ -23195,8 +23198,8 @@
       <c r="G495" s="22"/>
       <c r="H495" s="22"/>
       <c r="I495" s="22"/>
-      <c r="J495" s="36"/>
-      <c r="K495" s="36"/>
+      <c r="J495" s="37"/>
+      <c r="K495" s="37"/>
       <c r="L495" s="22"/>
       <c r="M495" s="22"/>
       <c r="N495" s="22"/>
@@ -23240,8 +23243,8 @@
       <c r="G496" s="22"/>
       <c r="H496" s="22"/>
       <c r="I496" s="22"/>
-      <c r="J496" s="36"/>
-      <c r="K496" s="36"/>
+      <c r="J496" s="37"/>
+      <c r="K496" s="37"/>
       <c r="L496" s="22"/>
       <c r="M496" s="22"/>
       <c r="N496" s="22"/>
@@ -23285,8 +23288,8 @@
       <c r="G497" s="22"/>
       <c r="H497" s="22"/>
       <c r="I497" s="22"/>
-      <c r="J497" s="36"/>
-      <c r="K497" s="36"/>
+      <c r="J497" s="37"/>
+      <c r="K497" s="37"/>
       <c r="L497" s="22"/>
       <c r="M497" s="22"/>
       <c r="N497" s="22"/>
@@ -23330,8 +23333,8 @@
       <c r="G498" s="22"/>
       <c r="H498" s="22"/>
       <c r="I498" s="22"/>
-      <c r="J498" s="36"/>
-      <c r="K498" s="36"/>
+      <c r="J498" s="37"/>
+      <c r="K498" s="37"/>
       <c r="L498" s="22"/>
       <c r="M498" s="22"/>
       <c r="N498" s="22"/>
@@ -23375,8 +23378,8 @@
       <c r="G499" s="22"/>
       <c r="H499" s="22"/>
       <c r="I499" s="22"/>
-      <c r="J499" s="36"/>
-      <c r="K499" s="36"/>
+      <c r="J499" s="37"/>
+      <c r="K499" s="37"/>
       <c r="L499" s="22"/>
       <c r="M499" s="22"/>
       <c r="N499" s="22"/>
@@ -23420,8 +23423,8 @@
       <c r="G500" s="22"/>
       <c r="H500" s="22"/>
       <c r="I500" s="22"/>
-      <c r="J500" s="36"/>
-      <c r="K500" s="36"/>
+      <c r="J500" s="37"/>
+      <c r="K500" s="37"/>
       <c r="L500" s="22"/>
       <c r="M500" s="22"/>
       <c r="N500" s="22"/>
@@ -23465,8 +23468,8 @@
       <c r="G501" s="22"/>
       <c r="H501" s="22"/>
       <c r="I501" s="22"/>
-      <c r="J501" s="36"/>
-      <c r="K501" s="36"/>
+      <c r="J501" s="37"/>
+      <c r="K501" s="37"/>
       <c r="L501" s="22"/>
       <c r="M501" s="22"/>
       <c r="N501" s="22"/>
@@ -23510,8 +23513,8 @@
       <c r="G502" s="22"/>
       <c r="H502" s="22"/>
       <c r="I502" s="22"/>
-      <c r="J502" s="36"/>
-      <c r="K502" s="36"/>
+      <c r="J502" s="37"/>
+      <c r="K502" s="37"/>
       <c r="L502" s="22"/>
       <c r="M502" s="22"/>
       <c r="N502" s="22"/>
@@ -23555,8 +23558,8 @@
       <c r="G503" s="22"/>
       <c r="H503" s="22"/>
       <c r="I503" s="22"/>
-      <c r="J503" s="36"/>
-      <c r="K503" s="36"/>
+      <c r="J503" s="37"/>
+      <c r="K503" s="37"/>
       <c r="L503" s="22"/>
       <c r="M503" s="22"/>
       <c r="N503" s="22"/>
@@ -23600,8 +23603,8 @@
       <c r="G504" s="22"/>
       <c r="H504" s="22"/>
       <c r="I504" s="22"/>
-      <c r="J504" s="36"/>
-      <c r="K504" s="36"/>
+      <c r="J504" s="37"/>
+      <c r="K504" s="37"/>
       <c r="L504" s="22"/>
       <c r="M504" s="22"/>
       <c r="N504" s="22"/>
@@ -23645,8 +23648,8 @@
       <c r="G505" s="22"/>
       <c r="H505" s="22"/>
       <c r="I505" s="22"/>
-      <c r="J505" s="36"/>
-      <c r="K505" s="36"/>
+      <c r="J505" s="37"/>
+      <c r="K505" s="37"/>
       <c r="L505" s="22"/>
       <c r="M505" s="22"/>
       <c r="N505" s="22"/>
@@ -23690,8 +23693,8 @@
       <c r="G506" s="22"/>
       <c r="H506" s="22"/>
       <c r="I506" s="22"/>
-      <c r="J506" s="36"/>
-      <c r="K506" s="36"/>
+      <c r="J506" s="37"/>
+      <c r="K506" s="37"/>
       <c r="L506" s="22"/>
       <c r="M506" s="22"/>
       <c r="N506" s="22"/>
@@ -23735,8 +23738,8 @@
       <c r="G507" s="22"/>
       <c r="H507" s="22"/>
       <c r="I507" s="22"/>
-      <c r="J507" s="36"/>
-      <c r="K507" s="36"/>
+      <c r="J507" s="37"/>
+      <c r="K507" s="37"/>
       <c r="L507" s="22"/>
       <c r="M507" s="22"/>
       <c r="N507" s="22"/>
@@ -23780,8 +23783,8 @@
       <c r="G508" s="22"/>
       <c r="H508" s="22"/>
       <c r="I508" s="22"/>
-      <c r="J508" s="36"/>
-      <c r="K508" s="36"/>
+      <c r="J508" s="37"/>
+      <c r="K508" s="37"/>
       <c r="L508" s="22"/>
       <c r="M508" s="22"/>
       <c r="N508" s="22"/>
@@ -23825,8 +23828,8 @@
       <c r="G509" s="22"/>
       <c r="H509" s="22"/>
       <c r="I509" s="22"/>
-      <c r="J509" s="36"/>
-      <c r="K509" s="36"/>
+      <c r="J509" s="37"/>
+      <c r="K509" s="37"/>
       <c r="L509" s="22"/>
       <c r="M509" s="22"/>
       <c r="N509" s="22"/>
@@ -23870,8 +23873,8 @@
       <c r="G510" s="22"/>
       <c r="H510" s="22"/>
       <c r="I510" s="22"/>
-      <c r="J510" s="36"/>
-      <c r="K510" s="36"/>
+      <c r="J510" s="37"/>
+      <c r="K510" s="37"/>
       <c r="L510" s="22"/>
       <c r="M510" s="22"/>
       <c r="N510" s="22"/>
@@ -23915,8 +23918,8 @@
       <c r="G511" s="22"/>
       <c r="H511" s="22"/>
       <c r="I511" s="22"/>
-      <c r="J511" s="36"/>
-      <c r="K511" s="36"/>
+      <c r="J511" s="37"/>
+      <c r="K511" s="37"/>
       <c r="L511" s="22"/>
       <c r="M511" s="22"/>
       <c r="N511" s="22"/>
@@ -23960,8 +23963,8 @@
       <c r="G512" s="22"/>
       <c r="H512" s="22"/>
       <c r="I512" s="22"/>
-      <c r="J512" s="36"/>
-      <c r="K512" s="36"/>
+      <c r="J512" s="37"/>
+      <c r="K512" s="37"/>
       <c r="L512" s="22"/>
       <c r="M512" s="22"/>
       <c r="N512" s="22"/>
@@ -24005,8 +24008,8 @@
       <c r="G513" s="22"/>
       <c r="H513" s="22"/>
       <c r="I513" s="22"/>
-      <c r="J513" s="36"/>
-      <c r="K513" s="36"/>
+      <c r="J513" s="37"/>
+      <c r="K513" s="37"/>
       <c r="L513" s="22"/>
       <c r="M513" s="22"/>
       <c r="N513" s="22"/>
@@ -24050,8 +24053,8 @@
       <c r="G514" s="22"/>
       <c r="H514" s="22"/>
       <c r="I514" s="22"/>
-      <c r="J514" s="36"/>
-      <c r="K514" s="36"/>
+      <c r="J514" s="37"/>
+      <c r="K514" s="37"/>
       <c r="L514" s="22"/>
       <c r="M514" s="22"/>
       <c r="N514" s="22"/>
@@ -24095,8 +24098,8 @@
       <c r="G515" s="22"/>
       <c r="H515" s="22"/>
       <c r="I515" s="22"/>
-      <c r="J515" s="36"/>
-      <c r="K515" s="36"/>
+      <c r="J515" s="37"/>
+      <c r="K515" s="37"/>
       <c r="L515" s="22"/>
       <c r="M515" s="22"/>
       <c r="N515" s="22"/>
@@ -24140,8 +24143,8 @@
       <c r="G516" s="22"/>
       <c r="H516" s="22"/>
       <c r="I516" s="22"/>
-      <c r="J516" s="36"/>
-      <c r="K516" s="36"/>
+      <c r="J516" s="37"/>
+      <c r="K516" s="37"/>
       <c r="L516" s="22"/>
       <c r="M516" s="22"/>
       <c r="N516" s="22"/>
@@ -24185,8 +24188,8 @@
       <c r="G517" s="22"/>
       <c r="H517" s="22"/>
       <c r="I517" s="22"/>
-      <c r="J517" s="36"/>
-      <c r="K517" s="36"/>
+      <c r="J517" s="37"/>
+      <c r="K517" s="37"/>
       <c r="L517" s="22"/>
       <c r="M517" s="22"/>
       <c r="N517" s="22"/>
@@ -24230,8 +24233,8 @@
       <c r="G518" s="22"/>
       <c r="H518" s="22"/>
       <c r="I518" s="22"/>
-      <c r="J518" s="36"/>
-      <c r="K518" s="36"/>
+      <c r="J518" s="37"/>
+      <c r="K518" s="37"/>
       <c r="L518" s="22"/>
       <c r="M518" s="22"/>
       <c r="N518" s="22"/>
@@ -24275,8 +24278,8 @@
       <c r="G519" s="22"/>
       <c r="H519" s="22"/>
       <c r="I519" s="22"/>
-      <c r="J519" s="36"/>
-      <c r="K519" s="36"/>
+      <c r="J519" s="37"/>
+      <c r="K519" s="37"/>
       <c r="L519" s="22"/>
       <c r="M519" s="22"/>
       <c r="N519" s="22"/>
@@ -24320,8 +24323,8 @@
       <c r="G520" s="22"/>
       <c r="H520" s="22"/>
       <c r="I520" s="22"/>
-      <c r="J520" s="36"/>
-      <c r="K520" s="36"/>
+      <c r="J520" s="37"/>
+      <c r="K520" s="37"/>
       <c r="L520" s="22"/>
       <c r="M520" s="22"/>
       <c r="N520" s="22"/>
@@ -24365,8 +24368,8 @@
       <c r="G521" s="22"/>
       <c r="H521" s="22"/>
       <c r="I521" s="22"/>
-      <c r="J521" s="36"/>
-      <c r="K521" s="36"/>
+      <c r="J521" s="37"/>
+      <c r="K521" s="37"/>
       <c r="L521" s="22"/>
       <c r="M521" s="22"/>
       <c r="N521" s="22"/>
@@ -24410,8 +24413,8 @@
       <c r="G522" s="22"/>
       <c r="H522" s="22"/>
       <c r="I522" s="22"/>
-      <c r="J522" s="36"/>
-      <c r="K522" s="36"/>
+      <c r="J522" s="37"/>
+      <c r="K522" s="37"/>
       <c r="L522" s="22"/>
       <c r="M522" s="22"/>
       <c r="N522" s="22"/>
@@ -24455,8 +24458,8 @@
       <c r="G523" s="22"/>
       <c r="H523" s="22"/>
       <c r="I523" s="22"/>
-      <c r="J523" s="36"/>
-      <c r="K523" s="36"/>
+      <c r="J523" s="37"/>
+      <c r="K523" s="37"/>
       <c r="L523" s="22"/>
       <c r="M523" s="22"/>
       <c r="N523" s="22"/>
@@ -24500,8 +24503,8 @@
       <c r="G524" s="22"/>
       <c r="H524" s="22"/>
       <c r="I524" s="22"/>
-      <c r="J524" s="36"/>
-      <c r="K524" s="36"/>
+      <c r="J524" s="37"/>
+      <c r="K524" s="37"/>
       <c r="L524" s="22"/>
       <c r="M524" s="22"/>
       <c r="N524" s="22"/>
@@ -24545,8 +24548,8 @@
       <c r="G525" s="22"/>
       <c r="H525" s="22"/>
       <c r="I525" s="22"/>
-      <c r="J525" s="36"/>
-      <c r="K525" s="36"/>
+      <c r="J525" s="37"/>
+      <c r="K525" s="37"/>
       <c r="L525" s="22"/>
       <c r="M525" s="22"/>
       <c r="N525" s="22"/>
@@ -24590,8 +24593,8 @@
       <c r="G526" s="22"/>
       <c r="H526" s="22"/>
       <c r="I526" s="22"/>
-      <c r="J526" s="36"/>
-      <c r="K526" s="36"/>
+      <c r="J526" s="37"/>
+      <c r="K526" s="37"/>
       <c r="L526" s="22"/>
       <c r="M526" s="22"/>
       <c r="N526" s="22"/>
@@ -24635,8 +24638,8 @@
       <c r="G527" s="22"/>
       <c r="H527" s="22"/>
       <c r="I527" s="22"/>
-      <c r="J527" s="36"/>
-      <c r="K527" s="36"/>
+      <c r="J527" s="37"/>
+      <c r="K527" s="37"/>
       <c r="L527" s="22"/>
       <c r="M527" s="22"/>
       <c r="N527" s="22"/>
@@ -24680,8 +24683,8 @@
       <c r="G528" s="22"/>
       <c r="H528" s="22"/>
       <c r="I528" s="22"/>
-      <c r="J528" s="36"/>
-      <c r="K528" s="36"/>
+      <c r="J528" s="37"/>
+      <c r="K528" s="37"/>
       <c r="L528" s="22"/>
       <c r="M528" s="22"/>
       <c r="N528" s="22"/>
@@ -24725,8 +24728,8 @@
       <c r="G529" s="22"/>
       <c r="H529" s="22"/>
       <c r="I529" s="22"/>
-      <c r="J529" s="36"/>
-      <c r="K529" s="36"/>
+      <c r="J529" s="37"/>
+      <c r="K529" s="37"/>
       <c r="L529" s="22"/>
       <c r="M529" s="22"/>
       <c r="N529" s="22"/>
@@ -24770,8 +24773,8 @@
       <c r="G530" s="22"/>
       <c r="H530" s="22"/>
       <c r="I530" s="22"/>
-      <c r="J530" s="36"/>
-      <c r="K530" s="36"/>
+      <c r="J530" s="37"/>
+      <c r="K530" s="37"/>
       <c r="L530" s="22"/>
       <c r="M530" s="22"/>
       <c r="N530" s="22"/>
@@ -24815,8 +24818,8 @@
       <c r="G531" s="22"/>
       <c r="H531" s="22"/>
       <c r="I531" s="22"/>
-      <c r="J531" s="36"/>
-      <c r="K531" s="36"/>
+      <c r="J531" s="37"/>
+      <c r="K531" s="37"/>
       <c r="L531" s="22"/>
       <c r="M531" s="22"/>
       <c r="N531" s="22"/>
@@ -24860,8 +24863,8 @@
       <c r="G532" s="22"/>
       <c r="H532" s="22"/>
       <c r="I532" s="22"/>
-      <c r="J532" s="36"/>
-      <c r="K532" s="36"/>
+      <c r="J532" s="37"/>
+      <c r="K532" s="37"/>
       <c r="L532" s="22"/>
       <c r="M532" s="22"/>
       <c r="N532" s="22"/>
@@ -24905,8 +24908,8 @@
       <c r="G533" s="22"/>
       <c r="H533" s="22"/>
       <c r="I533" s="22"/>
-      <c r="J533" s="36"/>
-      <c r="K533" s="36"/>
+      <c r="J533" s="37"/>
+      <c r="K533" s="37"/>
       <c r="L533" s="22"/>
       <c r="M533" s="22"/>
       <c r="N533" s="22"/>
@@ -24950,8 +24953,8 @@
       <c r="G534" s="22"/>
       <c r="H534" s="22"/>
       <c r="I534" s="22"/>
-      <c r="J534" s="36"/>
-      <c r="K534" s="36"/>
+      <c r="J534" s="37"/>
+      <c r="K534" s="37"/>
       <c r="L534" s="22"/>
       <c r="M534" s="22"/>
       <c r="N534" s="22"/>
@@ -24995,8 +24998,8 @@
       <c r="G535" s="22"/>
       <c r="H535" s="22"/>
       <c r="I535" s="22"/>
-      <c r="J535" s="36"/>
-      <c r="K535" s="36"/>
+      <c r="J535" s="37"/>
+      <c r="K535" s="37"/>
       <c r="L535" s="22"/>
       <c r="M535" s="22"/>
       <c r="N535" s="22"/>
@@ -25040,8 +25043,8 @@
       <c r="G536" s="22"/>
       <c r="H536" s="22"/>
       <c r="I536" s="22"/>
-      <c r="J536" s="36"/>
-      <c r="K536" s="36"/>
+      <c r="J536" s="37"/>
+      <c r="K536" s="37"/>
       <c r="L536" s="22"/>
       <c r="M536" s="22"/>
       <c r="N536" s="22"/>
@@ -25085,8 +25088,8 @@
       <c r="G537" s="22"/>
       <c r="H537" s="22"/>
       <c r="I537" s="22"/>
-      <c r="J537" s="36"/>
-      <c r="K537" s="36"/>
+      <c r="J537" s="37"/>
+      <c r="K537" s="37"/>
       <c r="L537" s="22"/>
       <c r="M537" s="22"/>
       <c r="N537" s="22"/>
@@ -25130,8 +25133,8 @@
       <c r="G538" s="22"/>
       <c r="H538" s="22"/>
       <c r="I538" s="22"/>
-      <c r="J538" s="36"/>
-      <c r="K538" s="36"/>
+      <c r="J538" s="37"/>
+      <c r="K538" s="37"/>
       <c r="L538" s="22"/>
       <c r="M538" s="22"/>
       <c r="N538" s="22"/>
@@ -25175,8 +25178,8 @@
       <c r="G539" s="22"/>
       <c r="H539" s="22"/>
       <c r="I539" s="22"/>
-      <c r="J539" s="36"/>
-      <c r="K539" s="36"/>
+      <c r="J539" s="37"/>
+      <c r="K539" s="37"/>
       <c r="L539" s="22"/>
       <c r="M539" s="22"/>
       <c r="N539" s="22"/>
@@ -25220,8 +25223,8 @@
       <c r="G540" s="22"/>
       <c r="H540" s="22"/>
       <c r="I540" s="22"/>
-      <c r="J540" s="36"/>
-      <c r="K540" s="36"/>
+      <c r="J540" s="37"/>
+      <c r="K540" s="37"/>
       <c r="L540" s="22"/>
       <c r="M540" s="22"/>
       <c r="N540" s="22"/>
@@ -25265,8 +25268,8 @@
       <c r="G541" s="22"/>
       <c r="H541" s="22"/>
       <c r="I541" s="22"/>
-      <c r="J541" s="36"/>
-      <c r="K541" s="36"/>
+      <c r="J541" s="37"/>
+      <c r="K541" s="37"/>
       <c r="L541" s="22"/>
       <c r="M541" s="22"/>
       <c r="N541" s="22"/>
@@ -25310,8 +25313,8 @@
       <c r="G542" s="22"/>
       <c r="H542" s="22"/>
       <c r="I542" s="22"/>
-      <c r="J542" s="36"/>
-      <c r="K542" s="36"/>
+      <c r="J542" s="37"/>
+      <c r="K542" s="37"/>
       <c r="L542" s="22"/>
       <c r="M542" s="22"/>
       <c r="N542" s="22"/>
@@ -25355,8 +25358,8 @@
       <c r="G543" s="22"/>
       <c r="H543" s="22"/>
       <c r="I543" s="22"/>
-      <c r="J543" s="36"/>
-      <c r="K543" s="36"/>
+      <c r="J543" s="37"/>
+      <c r="K543" s="37"/>
       <c r="L543" s="22"/>
       <c r="M543" s="22"/>
       <c r="N543" s="22"/>
@@ -25400,8 +25403,8 @@
       <c r="G544" s="22"/>
       <c r="H544" s="22"/>
       <c r="I544" s="22"/>
-      <c r="J544" s="36"/>
-      <c r="K544" s="36"/>
+      <c r="J544" s="37"/>
+      <c r="K544" s="37"/>
       <c r="L544" s="22"/>
       <c r="M544" s="22"/>
       <c r="N544" s="22"/>
@@ -25445,8 +25448,8 @@
       <c r="G545" s="22"/>
       <c r="H545" s="22"/>
       <c r="I545" s="22"/>
-      <c r="J545" s="36"/>
-      <c r="K545" s="36"/>
+      <c r="J545" s="37"/>
+      <c r="K545" s="37"/>
       <c r="L545" s="22"/>
       <c r="M545" s="22"/>
       <c r="N545" s="22"/>
@@ -25490,8 +25493,8 @@
       <c r="G546" s="22"/>
       <c r="H546" s="22"/>
       <c r="I546" s="22"/>
-      <c r="J546" s="36"/>
-      <c r="K546" s="36"/>
+      <c r="J546" s="37"/>
+      <c r="K546" s="37"/>
       <c r="L546" s="22"/>
       <c r="M546" s="22"/>
       <c r="N546" s="22"/>
@@ -25535,8 +25538,8 @@
       <c r="G547" s="22"/>
       <c r="H547" s="22"/>
       <c r="I547" s="22"/>
-      <c r="J547" s="36"/>
-      <c r="K547" s="36"/>
+      <c r="J547" s="37"/>
+      <c r="K547" s="37"/>
       <c r="L547" s="22"/>
       <c r="M547" s="22"/>
       <c r="N547" s="22"/>
@@ -25580,8 +25583,8 @@
       <c r="G548" s="22"/>
       <c r="H548" s="22"/>
       <c r="I548" s="22"/>
-      <c r="J548" s="36"/>
-      <c r="K548" s="36"/>
+      <c r="J548" s="37"/>
+      <c r="K548" s="37"/>
       <c r="L548" s="22"/>
       <c r="M548" s="22"/>
       <c r="N548" s="22"/>
@@ -25625,8 +25628,8 @@
       <c r="G549" s="22"/>
       <c r="H549" s="22"/>
       <c r="I549" s="22"/>
-      <c r="J549" s="36"/>
-      <c r="K549" s="36"/>
+      <c r="J549" s="37"/>
+      <c r="K549" s="37"/>
       <c r="L549" s="22"/>
       <c r="M549" s="22"/>
       <c r="N549" s="22"/>
@@ -25670,8 +25673,8 @@
       <c r="G550" s="22"/>
       <c r="H550" s="22"/>
       <c r="I550" s="22"/>
-      <c r="J550" s="36"/>
-      <c r="K550" s="36"/>
+      <c r="J550" s="37"/>
+      <c r="K550" s="37"/>
       <c r="L550" s="22"/>
       <c r="M550" s="22"/>
       <c r="N550" s="22"/>
@@ -25715,8 +25718,8 @@
       <c r="G551" s="22"/>
       <c r="H551" s="22"/>
       <c r="I551" s="22"/>
-      <c r="J551" s="36"/>
-      <c r="K551" s="36"/>
+      <c r="J551" s="37"/>
+      <c r="K551" s="37"/>
       <c r="L551" s="22"/>
       <c r="M551" s="22"/>
       <c r="N551" s="22"/>
@@ -25760,8 +25763,8 @@
       <c r="G552" s="22"/>
       <c r="H552" s="22"/>
       <c r="I552" s="22"/>
-      <c r="J552" s="36"/>
-      <c r="K552" s="36"/>
+      <c r="J552" s="37"/>
+      <c r="K552" s="37"/>
       <c r="L552" s="22"/>
       <c r="M552" s="22"/>
       <c r="N552" s="22"/>
@@ -25805,8 +25808,8 @@
       <c r="G553" s="22"/>
       <c r="H553" s="22"/>
       <c r="I553" s="22"/>
-      <c r="J553" s="36"/>
-      <c r="K553" s="36"/>
+      <c r="J553" s="37"/>
+      <c r="K553" s="37"/>
       <c r="L553" s="22"/>
       <c r="M553" s="22"/>
       <c r="N553" s="22"/>
@@ -25850,8 +25853,8 @@
       <c r="G554" s="22"/>
       <c r="H554" s="22"/>
       <c r="I554" s="22"/>
-      <c r="J554" s="36"/>
-      <c r="K554" s="36"/>
+      <c r="J554" s="37"/>
+      <c r="K554" s="37"/>
       <c r="L554" s="22"/>
       <c r="M554" s="22"/>
       <c r="N554" s="22"/>
@@ -25895,8 +25898,8 @@
       <c r="G555" s="22"/>
       <c r="H555" s="22"/>
       <c r="I555" s="22"/>
-      <c r="J555" s="36"/>
-      <c r="K555" s="36"/>
+      <c r="J555" s="37"/>
+      <c r="K555" s="37"/>
       <c r="L555" s="22"/>
       <c r="M555" s="22"/>
       <c r="N555" s="22"/>
@@ -25940,8 +25943,8 @@
       <c r="G556" s="22"/>
       <c r="H556" s="22"/>
       <c r="I556" s="22"/>
-      <c r="J556" s="36"/>
-      <c r="K556" s="36"/>
+      <c r="J556" s="37"/>
+      <c r="K556" s="37"/>
       <c r="L556" s="22"/>
       <c r="M556" s="22"/>
       <c r="N556" s="22"/>
@@ -25985,8 +25988,8 @@
       <c r="G557" s="22"/>
       <c r="H557" s="22"/>
       <c r="I557" s="22"/>
-      <c r="J557" s="36"/>
-      <c r="K557" s="36"/>
+      <c r="J557" s="37"/>
+      <c r="K557" s="37"/>
       <c r="L557" s="22"/>
       <c r="M557" s="22"/>
       <c r="N557" s="22"/>
@@ -26030,8 +26033,8 @@
       <c r="G558" s="22"/>
       <c r="H558" s="22"/>
       <c r="I558" s="22"/>
-      <c r="J558" s="36"/>
-      <c r="K558" s="36"/>
+      <c r="J558" s="37"/>
+      <c r="K558" s="37"/>
       <c r="L558" s="22"/>
       <c r="M558" s="22"/>
       <c r="N558" s="22"/>
@@ -26075,8 +26078,8 @@
       <c r="G559" s="22"/>
       <c r="H559" s="22"/>
       <c r="I559" s="22"/>
-      <c r="J559" s="36"/>
-      <c r="K559" s="36"/>
+      <c r="J559" s="37"/>
+      <c r="K559" s="37"/>
       <c r="L559" s="22"/>
       <c r="M559" s="22"/>
       <c r="N559" s="22"/>
@@ -26120,8 +26123,8 @@
       <c r="G560" s="22"/>
       <c r="H560" s="22"/>
       <c r="I560" s="22"/>
-      <c r="J560" s="36"/>
-      <c r="K560" s="36"/>
+      <c r="J560" s="37"/>
+      <c r="K560" s="37"/>
       <c r="L560" s="22"/>
       <c r="M560" s="22"/>
       <c r="N560" s="22"/>
@@ -26165,8 +26168,8 @@
       <c r="G561" s="22"/>
       <c r="H561" s="22"/>
       <c r="I561" s="22"/>
-      <c r="J561" s="36"/>
-      <c r="K561" s="36"/>
+      <c r="J561" s="37"/>
+      <c r="K561" s="37"/>
       <c r="L561" s="22"/>
       <c r="M561" s="22"/>
       <c r="N561" s="22"/>
@@ -26210,8 +26213,8 @@
       <c r="G562" s="22"/>
       <c r="H562" s="22"/>
       <c r="I562" s="22"/>
-      <c r="J562" s="36"/>
-      <c r="K562" s="36"/>
+      <c r="J562" s="37"/>
+      <c r="K562" s="37"/>
       <c r="L562" s="22"/>
       <c r="M562" s="22"/>
       <c r="N562" s="22"/>
@@ -26255,8 +26258,8 @@
       <c r="G563" s="22"/>
       <c r="H563" s="22"/>
       <c r="I563" s="22"/>
-      <c r="J563" s="36"/>
-      <c r="K563" s="36"/>
+      <c r="J563" s="37"/>
+      <c r="K563" s="37"/>
       <c r="L563" s="22"/>
       <c r="M563" s="22"/>
       <c r="N563" s="22"/>
@@ -26300,8 +26303,8 @@
       <c r="G564" s="22"/>
       <c r="H564" s="22"/>
       <c r="I564" s="22"/>
-      <c r="J564" s="36"/>
-      <c r="K564" s="36"/>
+      <c r="J564" s="37"/>
+      <c r="K564" s="37"/>
       <c r="L564" s="22"/>
       <c r="M564" s="22"/>
       <c r="N564" s="22"/>
@@ -26345,8 +26348,8 @@
       <c r="G565" s="22"/>
       <c r="H565" s="22"/>
       <c r="I565" s="22"/>
-      <c r="J565" s="36"/>
-      <c r="K565" s="36"/>
+      <c r="J565" s="37"/>
+      <c r="K565" s="37"/>
       <c r="L565" s="22"/>
       <c r="M565" s="22"/>
       <c r="N565" s="22"/>
@@ -26390,8 +26393,8 @@
       <c r="G566" s="22"/>
       <c r="H566" s="22"/>
       <c r="I566" s="22"/>
-      <c r="J566" s="36"/>
-      <c r="K566" s="36"/>
+      <c r="J566" s="37"/>
+      <c r="K566" s="37"/>
       <c r="L566" s="22"/>
       <c r="M566" s="22"/>
       <c r="N566" s="22"/>
@@ -26435,8 +26438,8 @@
       <c r="G567" s="22"/>
       <c r="H567" s="22"/>
       <c r="I567" s="22"/>
-      <c r="J567" s="36"/>
-      <c r="K567" s="36"/>
+      <c r="J567" s="37"/>
+      <c r="K567" s="37"/>
       <c r="L567" s="22"/>
       <c r="M567" s="22"/>
       <c r="N567" s="22"/>
@@ -26480,8 +26483,8 @@
       <c r="G568" s="22"/>
       <c r="H568" s="22"/>
       <c r="I568" s="22"/>
-      <c r="J568" s="36"/>
-      <c r="K568" s="36"/>
+      <c r="J568" s="37"/>
+      <c r="K568" s="37"/>
       <c r="L568" s="22"/>
       <c r="M568" s="22"/>
       <c r="N568" s="22"/>
@@ -26525,8 +26528,8 @@
       <c r="G569" s="22"/>
       <c r="H569" s="22"/>
       <c r="I569" s="22"/>
-      <c r="J569" s="36"/>
-      <c r="K569" s="36"/>
+      <c r="J569" s="37"/>
+      <c r="K569" s="37"/>
       <c r="L569" s="22"/>
       <c r="M569" s="22"/>
       <c r="N569" s="22"/>
@@ -26570,8 +26573,8 @@
       <c r="G570" s="22"/>
       <c r="H570" s="22"/>
       <c r="I570" s="22"/>
-      <c r="J570" s="36"/>
-      <c r="K570" s="36"/>
+      <c r="J570" s="37"/>
+      <c r="K570" s="37"/>
       <c r="L570" s="22"/>
       <c r="M570" s="22"/>
       <c r="N570" s="22"/>
@@ -26615,8 +26618,8 @@
       <c r="G571" s="22"/>
       <c r="H571" s="22"/>
       <c r="I571" s="22"/>
-      <c r="J571" s="36"/>
-      <c r="K571" s="36"/>
+      <c r="J571" s="37"/>
+      <c r="K571" s="37"/>
       <c r="L571" s="22"/>
       <c r="M571" s="22"/>
       <c r="N571" s="22"/>
@@ -26660,8 +26663,8 @@
       <c r="G572" s="22"/>
       <c r="H572" s="22"/>
       <c r="I572" s="22"/>
-      <c r="J572" s="36"/>
-      <c r="K572" s="36"/>
+      <c r="J572" s="37"/>
+      <c r="K572" s="37"/>
       <c r="L572" s="22"/>
       <c r="M572" s="22"/>
       <c r="N572" s="22"/>
@@ -26705,8 +26708,8 @@
       <c r="G573" s="22"/>
       <c r="H573" s="22"/>
       <c r="I573" s="22"/>
-      <c r="J573" s="36"/>
-      <c r="K573" s="36"/>
+      <c r="J573" s="37"/>
+      <c r="K573" s="37"/>
       <c r="L573" s="22"/>
       <c r="M573" s="22"/>
       <c r="N573" s="22"/>
@@ -26750,8 +26753,8 @@
       <c r="G574" s="22"/>
       <c r="H574" s="22"/>
       <c r="I574" s="22"/>
-      <c r="J574" s="36"/>
-      <c r="K574" s="36"/>
+      <c r="J574" s="37"/>
+      <c r="K574" s="37"/>
       <c r="L574" s="22"/>
       <c r="M574" s="22"/>
       <c r="N574" s="22"/>
@@ -26795,8 +26798,8 @@
       <c r="G575" s="22"/>
       <c r="H575" s="22"/>
       <c r="I575" s="22"/>
-      <c r="J575" s="36"/>
-      <c r="K575" s="36"/>
+      <c r="J575" s="37"/>
+      <c r="K575" s="37"/>
       <c r="L575" s="22"/>
       <c r="M575" s="22"/>
       <c r="N575" s="22"/>
@@ -26840,8 +26843,8 @@
       <c r="G576" s="22"/>
       <c r="H576" s="22"/>
       <c r="I576" s="22"/>
-      <c r="J576" s="36"/>
-      <c r="K576" s="36"/>
+      <c r="J576" s="37"/>
+      <c r="K576" s="37"/>
       <c r="L576" s="22"/>
       <c r="M576" s="22"/>
       <c r="N576" s="22"/>
@@ -26885,8 +26888,8 @@
       <c r="G577" s="22"/>
       <c r="H577" s="22"/>
       <c r="I577" s="22"/>
-      <c r="J577" s="36"/>
-      <c r="K577" s="36"/>
+      <c r="J577" s="37"/>
+      <c r="K577" s="37"/>
       <c r="L577" s="22"/>
       <c r="M577" s="22"/>
       <c r="N577" s="22"/>
@@ -26930,8 +26933,8 @@
       <c r="G578" s="22"/>
       <c r="H578" s="22"/>
       <c r="I578" s="22"/>
-      <c r="J578" s="36"/>
-      <c r="K578" s="36"/>
+      <c r="J578" s="37"/>
+      <c r="K578" s="37"/>
       <c r="L578" s="22"/>
       <c r="M578" s="22"/>
       <c r="N578" s="22"/>
@@ -26975,8 +26978,8 @@
       <c r="G579" s="22"/>
       <c r="H579" s="22"/>
       <c r="I579" s="22"/>
-      <c r="J579" s="36"/>
-      <c r="K579" s="36"/>
+      <c r="J579" s="37"/>
+      <c r="K579" s="37"/>
       <c r="L579" s="22"/>
       <c r="M579" s="22"/>
       <c r="N579" s="22"/>
@@ -27020,8 +27023,8 @@
       <c r="G580" s="22"/>
       <c r="H580" s="22"/>
       <c r="I580" s="22"/>
-      <c r="J580" s="36"/>
-      <c r="K580" s="36"/>
+      <c r="J580" s="37"/>
+      <c r="K580" s="37"/>
       <c r="L580" s="22"/>
       <c r="M580" s="22"/>
       <c r="N580" s="22"/>
@@ -27065,8 +27068,8 @@
       <c r="G581" s="22"/>
       <c r="H581" s="22"/>
       <c r="I581" s="22"/>
-      <c r="J581" s="36"/>
-      <c r="K581" s="36"/>
+      <c r="J581" s="37"/>
+      <c r="K581" s="37"/>
       <c r="L581" s="22"/>
       <c r="M581" s="22"/>
       <c r="N581" s="22"/>
@@ -27110,8 +27113,8 @@
       <c r="G582" s="22"/>
       <c r="H582" s="22"/>
       <c r="I582" s="22"/>
-      <c r="J582" s="36"/>
-      <c r="K582" s="36"/>
+      <c r="J582" s="37"/>
+      <c r="K582" s="37"/>
       <c r="L582" s="22"/>
       <c r="M582" s="22"/>
       <c r="N582" s="22"/>
@@ -27155,8 +27158,8 @@
       <c r="G583" s="22"/>
       <c r="H583" s="22"/>
       <c r="I583" s="22"/>
-      <c r="J583" s="36"/>
-      <c r="K583" s="36"/>
+      <c r="J583" s="37"/>
+      <c r="K583" s="37"/>
       <c r="L583" s="22"/>
       <c r="M583" s="22"/>
       <c r="N583" s="22"/>
@@ -27200,8 +27203,8 @@
       <c r="G584" s="22"/>
       <c r="H584" s="22"/>
       <c r="I584" s="22"/>
-      <c r="J584" s="36"/>
-      <c r="K584" s="36"/>
+      <c r="J584" s="37"/>
+      <c r="K584" s="37"/>
       <c r="L584" s="22"/>
       <c r="M584" s="22"/>
       <c r="N584" s="22"/>
@@ -27245,8 +27248,8 @@
       <c r="G585" s="22"/>
       <c r="H585" s="22"/>
       <c r="I585" s="22"/>
-      <c r="J585" s="36"/>
-      <c r="K585" s="36"/>
+      <c r="J585" s="37"/>
+      <c r="K585" s="37"/>
       <c r="L585" s="22"/>
       <c r="M585" s="22"/>
       <c r="N585" s="22"/>
@@ -27290,8 +27293,8 @@
       <c r="G586" s="22"/>
       <c r="H586" s="22"/>
       <c r="I586" s="22"/>
-      <c r="J586" s="36"/>
-      <c r="K586" s="36"/>
+      <c r="J586" s="37"/>
+      <c r="K586" s="37"/>
       <c r="L586" s="22"/>
       <c r="M586" s="22"/>
       <c r="N586" s="22"/>
@@ -27335,8 +27338,8 @@
       <c r="G587" s="22"/>
       <c r="H587" s="22"/>
       <c r="I587" s="22"/>
-      <c r="J587" s="36"/>
-      <c r="K587" s="36"/>
+      <c r="J587" s="37"/>
+      <c r="K587" s="37"/>
       <c r="L587" s="22"/>
       <c r="M587" s="22"/>
       <c r="N587" s="22"/>
@@ -27380,8 +27383,8 @@
       <c r="G588" s="22"/>
       <c r="H588" s="22"/>
       <c r="I588" s="22"/>
-      <c r="J588" s="36"/>
-      <c r="K588" s="36"/>
+      <c r="J588" s="37"/>
+      <c r="K588" s="37"/>
       <c r="L588" s="22"/>
       <c r="M588" s="22"/>
       <c r="N588" s="22"/>
@@ -27425,8 +27428,8 @@
       <c r="G589" s="22"/>
       <c r="H589" s="22"/>
       <c r="I589" s="22"/>
-      <c r="J589" s="36"/>
-      <c r="K589" s="36"/>
+      <c r="J589" s="37"/>
+      <c r="K589" s="37"/>
       <c r="L589" s="22"/>
       <c r="M589" s="22"/>
       <c r="N589" s="22"/>
@@ -27470,8 +27473,8 @@
       <c r="G590" s="22"/>
       <c r="H590" s="22"/>
       <c r="I590" s="22"/>
-      <c r="J590" s="36"/>
-      <c r="K590" s="36"/>
+      <c r="J590" s="37"/>
+      <c r="K590" s="37"/>
       <c r="L590" s="22"/>
       <c r="M590" s="22"/>
       <c r="N590" s="22"/>
@@ -27515,8 +27518,8 @@
       <c r="G591" s="22"/>
       <c r="H591" s="22"/>
       <c r="I591" s="22"/>
-      <c r="J591" s="36"/>
-      <c r="K591" s="36"/>
+      <c r="J591" s="37"/>
+      <c r="K591" s="37"/>
       <c r="L591" s="22"/>
       <c r="M591" s="22"/>
       <c r="N591" s="22"/>
@@ -27560,8 +27563,8 @@
       <c r="G592" s="22"/>
       <c r="H592" s="22"/>
       <c r="I592" s="22"/>
-      <c r="J592" s="36"/>
-      <c r="K592" s="36"/>
+      <c r="J592" s="37"/>
+      <c r="K592" s="37"/>
       <c r="L592" s="22"/>
       <c r="M592" s="22"/>
       <c r="N592" s="22"/>
@@ -27605,8 +27608,8 @@
       <c r="G593" s="22"/>
       <c r="H593" s="22"/>
       <c r="I593" s="22"/>
-      <c r="J593" s="36"/>
-      <c r="K593" s="36"/>
+      <c r="J593" s="37"/>
+      <c r="K593" s="37"/>
       <c r="L593" s="22"/>
       <c r="M593" s="22"/>
       <c r="N593" s="22"/>
@@ -27650,8 +27653,8 @@
       <c r="G594" s="22"/>
       <c r="H594" s="22"/>
       <c r="I594" s="22"/>
-      <c r="J594" s="36"/>
-      <c r="K594" s="36"/>
+      <c r="J594" s="37"/>
+      <c r="K594" s="37"/>
       <c r="L594" s="22"/>
       <c r="M594" s="22"/>
       <c r="N594" s="22"/>
@@ -27695,8 +27698,8 @@
       <c r="G595" s="22"/>
       <c r="H595" s="22"/>
       <c r="I595" s="22"/>
-      <c r="J595" s="36"/>
-      <c r="K595" s="36"/>
+      <c r="J595" s="37"/>
+      <c r="K595" s="37"/>
       <c r="L595" s="22"/>
       <c r="M595" s="22"/>
       <c r="N595" s="22"/>
@@ -27740,8 +27743,8 @@
       <c r="G596" s="22"/>
       <c r="H596" s="22"/>
       <c r="I596" s="22"/>
-      <c r="J596" s="36"/>
-      <c r="K596" s="36"/>
+      <c r="J596" s="37"/>
+      <c r="K596" s="37"/>
       <c r="L596" s="22"/>
       <c r="M596" s="22"/>
       <c r="N596" s="22"/>
@@ -27785,8 +27788,8 @@
       <c r="G597" s="22"/>
       <c r="H597" s="22"/>
       <c r="I597" s="22"/>
-      <c r="J597" s="36"/>
-      <c r="K597" s="36"/>
+      <c r="J597" s="37"/>
+      <c r="K597" s="37"/>
       <c r="L597" s="22"/>
       <c r="M597" s="22"/>
       <c r="N597" s="22"/>
@@ -27830,8 +27833,8 @@
       <c r="G598" s="22"/>
       <c r="H598" s="22"/>
       <c r="I598" s="22"/>
-      <c r="J598" s="36"/>
-      <c r="K598" s="36"/>
+      <c r="J598" s="37"/>
+      <c r="K598" s="37"/>
       <c r="L598" s="22"/>
       <c r="M598" s="22"/>
       <c r="N598" s="22"/>
@@ -27875,8 +27878,8 @@
       <c r="G599" s="22"/>
       <c r="H599" s="22"/>
       <c r="I599" s="22"/>
-      <c r="J599" s="36"/>
-      <c r="K599" s="36"/>
+      <c r="J599" s="37"/>
+      <c r="K599" s="37"/>
       <c r="L599" s="22"/>
       <c r="M599" s="22"/>
       <c r="N599" s="22"/>
@@ -27920,8 +27923,8 @@
       <c r="G600" s="22"/>
       <c r="H600" s="22"/>
       <c r="I600" s="22"/>
-      <c r="J600" s="36"/>
-      <c r="K600" s="36"/>
+      <c r="J600" s="37"/>
+      <c r="K600" s="37"/>
       <c r="L600" s="22"/>
       <c r="M600" s="22"/>
       <c r="N600" s="22"/>
@@ -27965,8 +27968,8 @@
       <c r="G601" s="22"/>
       <c r="H601" s="22"/>
       <c r="I601" s="22"/>
-      <c r="J601" s="36"/>
-      <c r="K601" s="36"/>
+      <c r="J601" s="37"/>
+      <c r="K601" s="37"/>
       <c r="L601" s="22"/>
       <c r="M601" s="22"/>
       <c r="N601" s="22"/>
@@ -28010,8 +28013,8 @@
       <c r="G602" s="22"/>
       <c r="H602" s="22"/>
       <c r="I602" s="22"/>
-      <c r="J602" s="36"/>
-      <c r="K602" s="36"/>
+      <c r="J602" s="37"/>
+      <c r="K602" s="37"/>
       <c r="L602" s="22"/>
       <c r="M602" s="22"/>
       <c r="N602" s="22"/>
@@ -28055,8 +28058,8 @@
       <c r="G603" s="22"/>
       <c r="H603" s="22"/>
       <c r="I603" s="22"/>
-      <c r="J603" s="36"/>
-      <c r="K603" s="36"/>
+      <c r="J603" s="37"/>
+      <c r="K603" s="37"/>
       <c r="L603" s="22"/>
       <c r="M603" s="22"/>
       <c r="N603" s="22"/>
@@ -28100,8 +28103,8 @@
       <c r="G604" s="22"/>
       <c r="H604" s="22"/>
       <c r="I604" s="22"/>
-      <c r="J604" s="36"/>
-      <c r="K604" s="36"/>
+      <c r="J604" s="37"/>
+      <c r="K604" s="37"/>
       <c r="L604" s="22"/>
       <c r="M604" s="22"/>
       <c r="N604" s="22"/>
@@ -28145,8 +28148,8 @@
       <c r="G605" s="22"/>
       <c r="H605" s="22"/>
       <c r="I605" s="22"/>
-      <c r="J605" s="36"/>
-      <c r="K605" s="36"/>
+      <c r="J605" s="37"/>
+      <c r="K605" s="37"/>
       <c r="L605" s="22"/>
       <c r="M605" s="22"/>
       <c r="N605" s="22"/>
@@ -28190,8 +28193,8 @@
       <c r="G606" s="22"/>
       <c r="H606" s="22"/>
       <c r="I606" s="22"/>
-      <c r="J606" s="36"/>
-      <c r="K606" s="36"/>
+      <c r="J606" s="37"/>
+      <c r="K606" s="37"/>
       <c r="L606" s="22"/>
       <c r="M606" s="22"/>
       <c r="N606" s="22"/>
@@ -28235,8 +28238,8 @@
       <c r="G607" s="22"/>
       <c r="H607" s="22"/>
       <c r="I607" s="22"/>
-      <c r="J607" s="36"/>
-      <c r="K607" s="36"/>
+      <c r="J607" s="37"/>
+      <c r="K607" s="37"/>
       <c r="L607" s="22"/>
       <c r="M607" s="22"/>
       <c r="N607" s="22"/>
@@ -28280,8 +28283,8 @@
       <c r="G608" s="22"/>
       <c r="H608" s="22"/>
       <c r="I608" s="22"/>
-      <c r="J608" s="36"/>
-      <c r="K608" s="36"/>
+      <c r="J608" s="37"/>
+      <c r="K608" s="37"/>
       <c r="L608" s="22"/>
       <c r="M608" s="22"/>
       <c r="N608" s="22"/>
@@ -28325,8 +28328,8 @@
       <c r="G609" s="22"/>
       <c r="H609" s="22"/>
       <c r="I609" s="22"/>
-      <c r="J609" s="36"/>
-      <c r="K609" s="36"/>
+      <c r="J609" s="37"/>
+      <c r="K609" s="37"/>
       <c r="L609" s="22"/>
       <c r="M609" s="22"/>
       <c r="N609" s="22"/>
@@ -28370,8 +28373,8 @@
       <c r="G610" s="22"/>
       <c r="H610" s="22"/>
       <c r="I610" s="22"/>
-      <c r="J610" s="36"/>
-      <c r="K610" s="36"/>
+      <c r="J610" s="37"/>
+      <c r="K610" s="37"/>
       <c r="L610" s="22"/>
       <c r="M610" s="22"/>
       <c r="N610" s="22"/>
@@ -28415,8 +28418,8 @@
       <c r="G611" s="22"/>
       <c r="H611" s="22"/>
       <c r="I611" s="22"/>
-      <c r="J611" s="36"/>
-      <c r="K611" s="36"/>
+      <c r="J611" s="37"/>
+      <c r="K611" s="37"/>
       <c r="L611" s="22"/>
       <c r="M611" s="22"/>
       <c r="N611" s="22"/>
@@ -28460,8 +28463,8 @@
       <c r="G612" s="22"/>
       <c r="H612" s="22"/>
       <c r="I612" s="22"/>
-      <c r="J612" s="36"/>
-      <c r="K612" s="36"/>
+      <c r="J612" s="37"/>
+      <c r="K612" s="37"/>
       <c r="L612" s="22"/>
       <c r="M612" s="22"/>
       <c r="N612" s="22"/>
@@ -28505,8 +28508,8 @@
       <c r="G613" s="22"/>
       <c r="H613" s="22"/>
       <c r="I613" s="22"/>
-      <c r="J613" s="36"/>
-      <c r="K613" s="36"/>
+      <c r="J613" s="37"/>
+      <c r="K613" s="37"/>
       <c r="L613" s="22"/>
       <c r="M613" s="22"/>
       <c r="N613" s="22"/>
@@ -28550,8 +28553,8 @@
       <c r="G614" s="22"/>
       <c r="H614" s="22"/>
       <c r="I614" s="22"/>
-      <c r="J614" s="36"/>
-      <c r="K614" s="36"/>
+      <c r="J614" s="37"/>
+      <c r="K614" s="37"/>
       <c r="L614" s="22"/>
       <c r="M614" s="22"/>
       <c r="N614" s="22"/>
@@ -28595,8 +28598,8 @@
       <c r="G615" s="22"/>
       <c r="H615" s="22"/>
       <c r="I615" s="22"/>
-      <c r="J615" s="36"/>
-      <c r="K615" s="36"/>
+      <c r="J615" s="37"/>
+      <c r="K615" s="37"/>
       <c r="L615" s="22"/>
       <c r="M615" s="22"/>
       <c r="N615" s="22"/>
@@ -28640,8 +28643,8 @@
       <c r="G616" s="22"/>
       <c r="H616" s="22"/>
       <c r="I616" s="22"/>
-      <c r="J616" s="36"/>
-      <c r="K616" s="36"/>
+      <c r="J616" s="37"/>
+      <c r="K616" s="37"/>
       <c r="L616" s="22"/>
       <c r="M616" s="22"/>
       <c r="N616" s="22"/>
@@ -28685,8 +28688,8 @@
       <c r="G617" s="22"/>
       <c r="H617" s="22"/>
       <c r="I617" s="22"/>
-      <c r="J617" s="36"/>
-      <c r="K617" s="36"/>
+      <c r="J617" s="37"/>
+      <c r="K617" s="37"/>
       <c r="L617" s="22"/>
       <c r="M617" s="22"/>
       <c r="N617" s="22"/>
@@ -28730,8 +28733,8 @@
       <c r="G618" s="22"/>
       <c r="H618" s="22"/>
       <c r="I618" s="22"/>
-      <c r="J618" s="36"/>
-      <c r="K618" s="36"/>
+      <c r="J618" s="37"/>
+      <c r="K618" s="37"/>
       <c r="L618" s="22"/>
       <c r="M618" s="22"/>
       <c r="N618" s="22"/>
@@ -28775,8 +28778,8 @@
       <c r="G619" s="22"/>
       <c r="H619" s="22"/>
       <c r="I619" s="22"/>
-      <c r="J619" s="36"/>
-      <c r="K619" s="36"/>
+      <c r="J619" s="37"/>
+      <c r="K619" s="37"/>
       <c r="L619" s="22"/>
       <c r="M619" s="22"/>
       <c r="N619" s="22"/>
@@ -28820,8 +28823,8 @@
       <c r="G620" s="22"/>
       <c r="H620" s="22"/>
       <c r="I620" s="22"/>
-      <c r="J620" s="36"/>
-      <c r="K620" s="36"/>
+      <c r="J620" s="37"/>
+      <c r="K620" s="37"/>
       <c r="L620" s="22"/>
       <c r="M620" s="22"/>
       <c r="N620" s="22"/>
@@ -28865,8 +28868,8 @@
       <c r="G621" s="22"/>
       <c r="H621" s="22"/>
       <c r="I621" s="22"/>
-      <c r="J621" s="36"/>
-      <c r="K621" s="36"/>
+      <c r="J621" s="37"/>
+      <c r="K621" s="37"/>
       <c r="L621" s="22"/>
       <c r="M621" s="22"/>
       <c r="N621" s="22"/>
@@ -28910,8 +28913,8 @@
       <c r="G622" s="22"/>
       <c r="H622" s="22"/>
       <c r="I622" s="22"/>
-      <c r="J622" s="36"/>
-      <c r="K622" s="36"/>
+      <c r="J622" s="37"/>
+      <c r="K622" s="37"/>
       <c r="L622" s="22"/>
       <c r="M622" s="22"/>
       <c r="N622" s="22"/>
@@ -28955,8 +28958,8 @@
       <c r="G623" s="22"/>
       <c r="H623" s="22"/>
       <c r="I623" s="22"/>
-      <c r="J623" s="36"/>
-      <c r="K623" s="36"/>
+      <c r="J623" s="37"/>
+      <c r="K623" s="37"/>
       <c r="L623" s="22"/>
       <c r="M623" s="22"/>
       <c r="N623" s="22"/>
@@ -29000,8 +29003,8 @@
       <c r="G624" s="22"/>
       <c r="H624" s="22"/>
       <c r="I624" s="22"/>
-      <c r="J624" s="36"/>
-      <c r="K624" s="36"/>
+      <c r="J624" s="37"/>
+      <c r="K624" s="37"/>
       <c r="L624" s="22"/>
       <c r="M624" s="22"/>
       <c r="N624" s="22"/>
@@ -29045,8 +29048,8 @@
       <c r="G625" s="22"/>
       <c r="H625" s="22"/>
       <c r="I625" s="22"/>
-      <c r="J625" s="36"/>
-      <c r="K625" s="36"/>
+      <c r="J625" s="37"/>
+      <c r="K625" s="37"/>
       <c r="L625" s="22"/>
       <c r="M625" s="22"/>
       <c r="N625" s="22"/>
@@ -29090,8 +29093,8 @@
       <c r="G626" s="22"/>
       <c r="H626" s="22"/>
       <c r="I626" s="22"/>
-      <c r="J626" s="36"/>
-      <c r="K626" s="36"/>
+      <c r="J626" s="37"/>
+      <c r="K626" s="37"/>
       <c r="L626" s="22"/>
       <c r="M626" s="22"/>
       <c r="N626" s="22"/>
@@ -29135,8 +29138,8 @@
       <c r="G627" s="22"/>
       <c r="H627" s="22"/>
       <c r="I627" s="22"/>
-      <c r="J627" s="36"/>
-      <c r="K627" s="36"/>
+      <c r="J627" s="37"/>
+      <c r="K627" s="37"/>
       <c r="L627" s="22"/>
       <c r="M627" s="22"/>
       <c r="N627" s="22"/>
@@ -29180,8 +29183,8 @@
       <c r="G628" s="22"/>
       <c r="H628" s="22"/>
       <c r="I628" s="22"/>
-      <c r="J628" s="36"/>
-      <c r="K628" s="36"/>
+      <c r="J628" s="37"/>
+      <c r="K628" s="37"/>
       <c r="L628" s="22"/>
       <c r="M628" s="22"/>
       <c r="N628" s="22"/>
@@ -29225,8 +29228,8 @@
       <c r="G629" s="22"/>
       <c r="H629" s="22"/>
       <c r="I629" s="22"/>
-      <c r="J629" s="36"/>
-      <c r="K629" s="36"/>
+      <c r="J629" s="37"/>
+      <c r="K629" s="37"/>
       <c r="L629" s="22"/>
       <c r="M629" s="22"/>
       <c r="N629" s="22"/>
@@ -29270,8 +29273,8 @@
       <c r="G630" s="22"/>
       <c r="H630" s="22"/>
       <c r="I630" s="22"/>
-      <c r="J630" s="36"/>
-      <c r="K630" s="36"/>
+      <c r="J630" s="37"/>
+      <c r="K630" s="37"/>
       <c r="L630" s="22"/>
       <c r="M630" s="22"/>
       <c r="N630" s="22"/>
@@ -29315,8 +29318,8 @@
       <c r="G631" s="22"/>
       <c r="H631" s="22"/>
       <c r="I631" s="22"/>
-      <c r="J631" s="36"/>
-      <c r="K631" s="36"/>
+      <c r="J631" s="37"/>
+      <c r="K631" s="37"/>
       <c r="L631" s="22"/>
       <c r="M631" s="22"/>
       <c r="N631" s="22"/>
@@ -29360,8 +29363,8 @@
       <c r="G632" s="22"/>
       <c r="H632" s="22"/>
       <c r="I632" s="22"/>
-      <c r="J632" s="36"/>
-      <c r="K632" s="36"/>
+      <c r="J632" s="37"/>
+      <c r="K632" s="37"/>
       <c r="L632" s="22"/>
       <c r="M632" s="22"/>
       <c r="N632" s="22"/>
@@ -29405,8 +29408,8 @@
       <c r="G633" s="22"/>
       <c r="H633" s="22"/>
       <c r="I633" s="22"/>
-      <c r="J633" s="36"/>
-      <c r="K633" s="36"/>
+      <c r="J633" s="37"/>
+      <c r="K633" s="37"/>
       <c r="L633" s="22"/>
       <c r="M633" s="22"/>
       <c r="N633" s="22"/>
@@ -29450,8 +29453,8 @@
       <c r="G634" s="22"/>
       <c r="H634" s="22"/>
       <c r="I634" s="22"/>
-      <c r="J634" s="36"/>
-      <c r="K634" s="36"/>
+      <c r="J634" s="37"/>
+      <c r="K634" s="37"/>
       <c r="L634" s="22"/>
       <c r="M634" s="22"/>
       <c r="N634" s="22"/>
@@ -29495,8 +29498,8 @@
       <c r="G635" s="22"/>
       <c r="H635" s="22"/>
       <c r="I635" s="22"/>
-      <c r="J635" s="36"/>
-      <c r="K635" s="36"/>
+      <c r="J635" s="37"/>
+      <c r="K635" s="37"/>
       <c r="L635" s="22"/>
       <c r="M635" s="22"/>
       <c r="N635" s="22"/>
@@ -29540,8 +29543,8 @@
       <c r="G636" s="22"/>
       <c r="H636" s="22"/>
       <c r="I636" s="22"/>
-      <c r="J636" s="36"/>
-      <c r="K636" s="36"/>
+      <c r="J636" s="37"/>
+      <c r="K636" s="37"/>
       <c r="L636" s="22"/>
       <c r="M636" s="22"/>
       <c r="N636" s="22"/>
@@ -29585,8 +29588,8 @@
       <c r="G637" s="22"/>
       <c r="H637" s="22"/>
       <c r="I637" s="22"/>
-      <c r="J637" s="36"/>
-      <c r="K637" s="36"/>
+      <c r="J637" s="37"/>
+      <c r="K637" s="37"/>
       <c r="L637" s="22"/>
       <c r="M637" s="22"/>
       <c r="N637" s="22"/>
@@ -29630,8 +29633,8 @@
       <c r="G638" s="22"/>
       <c r="H638" s="22"/>
       <c r="I638" s="22"/>
-      <c r="J638" s="36"/>
-      <c r="K638" s="36"/>
+      <c r="J638" s="37"/>
+      <c r="K638" s="37"/>
       <c r="L638" s="22"/>
       <c r="M638" s="22"/>
       <c r="N638" s="22"/>
@@ -29675,8 +29678,8 @@
       <c r="G639" s="22"/>
       <c r="H639" s="22"/>
       <c r="I639" s="22"/>
-      <c r="J639" s="36"/>
-      <c r="K639" s="36"/>
+      <c r="J639" s="37"/>
+      <c r="K639" s="37"/>
       <c r="L639" s="22"/>
       <c r="M639" s="22"/>
       <c r="N639" s="22"/>
@@ -29720,8 +29723,8 @@
       <c r="G640" s="22"/>
       <c r="H640" s="22"/>
       <c r="I640" s="22"/>
-      <c r="J640" s="36"/>
-      <c r="K640" s="36"/>
+      <c r="J640" s="37"/>
+      <c r="K640" s="37"/>
       <c r="L640" s="22"/>
       <c r="M640" s="22"/>
       <c r="N640" s="22"/>
@@ -29765,8 +29768,8 @@
       <c r="G641" s="22"/>
       <c r="H641" s="22"/>
       <c r="I641" s="22"/>
-      <c r="J641" s="36"/>
-      <c r="K641" s="36"/>
+      <c r="J641" s="37"/>
+      <c r="K641" s="37"/>
       <c r="L641" s="22"/>
       <c r="M641" s="22"/>
       <c r="N641" s="22"/>
@@ -29810,8 +29813,8 @@
       <c r="G642" s="22"/>
       <c r="H642" s="22"/>
       <c r="I642" s="22"/>
-      <c r="J642" s="36"/>
-      <c r="K642" s="36"/>
+      <c r="J642" s="37"/>
+      <c r="K642" s="37"/>
       <c r="L642" s="22"/>
       <c r="M642" s="22"/>
       <c r="N642" s="22"/>
@@ -29855,8 +29858,8 @@
       <c r="G643" s="22"/>
       <c r="H643" s="22"/>
       <c r="I643" s="22"/>
-      <c r="J643" s="36"/>
-      <c r="K643" s="36"/>
+      <c r="J643" s="37"/>
+      <c r="K643" s="37"/>
       <c r="L643" s="22"/>
       <c r="M643" s="22"/>
       <c r="N643" s="22"/>
@@ -29900,8 +29903,8 @@
       <c r="G644" s="22"/>
       <c r="H644" s="22"/>
       <c r="I644" s="22"/>
-      <c r="J644" s="36"/>
-      <c r="K644" s="36"/>
+      <c r="J644" s="37"/>
+      <c r="K644" s="37"/>
       <c r="L644" s="22"/>
       <c r="M644" s="22"/>
       <c r="N644" s="22"/>
@@ -29945,8 +29948,8 @@
       <c r="G645" s="22"/>
       <c r="H645" s="22"/>
       <c r="I645" s="22"/>
-      <c r="J645" s="36"/>
-      <c r="K645" s="36"/>
+      <c r="J645" s="37"/>
+      <c r="K645" s="37"/>
       <c r="L645" s="22"/>
       <c r="M645" s="22"/>
       <c r="N645" s="22"/>
@@ -29990,8 +29993,8 @@
       <c r="G646" s="22"/>
       <c r="H646" s="22"/>
       <c r="I646" s="22"/>
-      <c r="J646" s="36"/>
-      <c r="K646" s="36"/>
+      <c r="J646" s="37"/>
+      <c r="K646" s="37"/>
       <c r="L646" s="22"/>
       <c r="M646" s="22"/>
       <c r="N646" s="22"/>
@@ -30035,8 +30038,8 @@
       <c r="G647" s="22"/>
       <c r="H647" s="22"/>
       <c r="I647" s="22"/>
-      <c r="J647" s="36"/>
-      <c r="K647" s="36"/>
+      <c r="J647" s="37"/>
+      <c r="K647" s="37"/>
       <c r="L647" s="22"/>
       <c r="M647" s="22"/>
       <c r="N647" s="22"/>
@@ -30080,8 +30083,8 @@
       <c r="G648" s="22"/>
       <c r="H648" s="22"/>
       <c r="I648" s="22"/>
-      <c r="J648" s="36"/>
-      <c r="K648" s="36"/>
+      <c r="J648" s="37"/>
+      <c r="K648" s="37"/>
       <c r="L648" s="22"/>
       <c r="M648" s="22"/>
       <c r="N648" s="22"/>
@@ -30125,8 +30128,8 @@
       <c r="G649" s="22"/>
       <c r="H649" s="22"/>
       <c r="I649" s="22"/>
-      <c r="J649" s="36"/>
-      <c r="K649" s="36"/>
+      <c r="J649" s="37"/>
+      <c r="K649" s="37"/>
       <c r="L649" s="22"/>
       <c r="M649" s="22"/>
       <c r="N649" s="22"/>
@@ -30170,8 +30173,8 @@
       <c r="G650" s="22"/>
       <c r="H650" s="22"/>
       <c r="I650" s="22"/>
-      <c r="J650" s="36"/>
-      <c r="K650" s="36"/>
+      <c r="J650" s="37"/>
+      <c r="K650" s="37"/>
       <c r="L650" s="22"/>
       <c r="M650" s="22"/>
       <c r="N650" s="22"/>
@@ -30215,8 +30218,8 @@
       <c r="G651" s="22"/>
       <c r="H651" s="22"/>
       <c r="I651" s="22"/>
-      <c r="J651" s="36"/>
-      <c r="K651" s="36"/>
+      <c r="J651" s="37"/>
+      <c r="K651" s="37"/>
       <c r="L651" s="22"/>
       <c r="M651" s="22"/>
       <c r="N651" s="22"/>
@@ -30260,8 +30263,8 @@
       <c r="G652" s="22"/>
       <c r="H652" s="22"/>
       <c r="I652" s="22"/>
-      <c r="J652" s="36"/>
-      <c r="K652" s="36"/>
+      <c r="J652" s="37"/>
+      <c r="K652" s="37"/>
       <c r="L652" s="22"/>
       <c r="M652" s="22"/>
       <c r="N652" s="22"/>
@@ -30305,8 +30308,8 @@
       <c r="G653" s="22"/>
       <c r="H653" s="22"/>
       <c r="I653" s="22"/>
-      <c r="J653" s="36"/>
-      <c r="K653" s="36"/>
+      <c r="J653" s="37"/>
+      <c r="K653" s="37"/>
       <c r="L653" s="22"/>
       <c r="M653" s="22"/>
       <c r="N653" s="22"/>
@@ -30350,8 +30353,8 @@
       <c r="G654" s="22"/>
       <c r="H654" s="22"/>
       <c r="I654" s="22"/>
-      <c r="J654" s="36"/>
-      <c r="K654" s="36"/>
+      <c r="J654" s="37"/>
+      <c r="K654" s="37"/>
       <c r="L654" s="22"/>
       <c r="M654" s="22"/>
       <c r="N654" s="22"/>
@@ -30395,8 +30398,8 @@
       <c r="G655" s="22"/>
       <c r="H655" s="22"/>
       <c r="I655" s="22"/>
-      <c r="J655" s="36"/>
-      <c r="K655" s="36"/>
+      <c r="J655" s="37"/>
+      <c r="K655" s="37"/>
       <c r="L655" s="22"/>
       <c r="M655" s="22"/>
       <c r="N655" s="22"/>
@@ -30440,8 +30443,8 @@
       <c r="G656" s="22"/>
       <c r="H656" s="22"/>
       <c r="I656" s="22"/>
-      <c r="J656" s="36"/>
-      <c r="K656" s="36"/>
+      <c r="J656" s="37"/>
+      <c r="K656" s="37"/>
       <c r="L656" s="22"/>
       <c r="M656" s="22"/>
       <c r="N656" s="22"/>
@@ -30485,8 +30488,8 @@
       <c r="G657" s="22"/>
       <c r="H657" s="22"/>
       <c r="I657" s="22"/>
-      <c r="J657" s="36"/>
-      <c r="K657" s="36"/>
+      <c r="J657" s="37"/>
+      <c r="K657" s="37"/>
       <c r="L657" s="22"/>
       <c r="M657" s="22"/>
       <c r="N657" s="22"/>
@@ -30530,8 +30533,8 @@
       <c r="G658" s="22"/>
       <c r="H658" s="22"/>
       <c r="I658" s="22"/>
-      <c r="J658" s="36"/>
-      <c r="K658" s="36"/>
+      <c r="J658" s="37"/>
+      <c r="K658" s="37"/>
       <c r="L658" s="22"/>
       <c r="M658" s="22"/>
       <c r="N658" s="22"/>
@@ -30575,8 +30578,8 @@
       <c r="G659" s="22"/>
       <c r="H659" s="22"/>
       <c r="I659" s="22"/>
-      <c r="J659" s="36"/>
-      <c r="K659" s="36"/>
+      <c r="J659" s="37"/>
+      <c r="K659" s="37"/>
       <c r="L659" s="22"/>
       <c r="M659" s="22"/>
       <c r="N659" s="22"/>
@@ -30620,8 +30623,8 @@
       <c r="G660" s="22"/>
       <c r="H660" s="22"/>
       <c r="I660" s="22"/>
-      <c r="J660" s="36"/>
-      <c r="K660" s="36"/>
+      <c r="J660" s="37"/>
+      <c r="K660" s="37"/>
       <c r="L660" s="22"/>
       <c r="M660" s="22"/>
       <c r="N660" s="22"/>
@@ -30665,8 +30668,8 @@
       <c r="G661" s="22"/>
       <c r="H661" s="22"/>
       <c r="I661" s="22"/>
-      <c r="J661" s="36"/>
-      <c r="K661" s="36"/>
+      <c r="J661" s="37"/>
+      <c r="K661" s="37"/>
       <c r="L661" s="22"/>
       <c r="M661" s="22"/>
       <c r="N661" s="22"/>
@@ -30710,8 +30713,8 @@
       <c r="G662" s="22"/>
       <c r="H662" s="22"/>
       <c r="I662" s="22"/>
-      <c r="J662" s="36"/>
-      <c r="K662" s="36"/>
+      <c r="J662" s="37"/>
+      <c r="K662" s="37"/>
       <c r="L662" s="22"/>
       <c r="M662" s="22"/>
       <c r="N662" s="22"/>
@@ -30755,8 +30758,8 @@
       <c r="G663" s="22"/>
       <c r="H663" s="22"/>
       <c r="I663" s="22"/>
-      <c r="J663" s="36"/>
-      <c r="K663" s="36"/>
+      <c r="J663" s="37"/>
+      <c r="K663" s="37"/>
       <c r="L663" s="22"/>
       <c r="M663" s="22"/>
       <c r="N663" s="22"/>
@@ -30800,8 +30803,8 @@
       <c r="G664" s="22"/>
       <c r="H664" s="22"/>
       <c r="I664" s="22"/>
-      <c r="J664" s="36"/>
-      <c r="K664" s="36"/>
+      <c r="J664" s="37"/>
+      <c r="K664" s="37"/>
       <c r="L664" s="22"/>
       <c r="M664" s="22"/>
       <c r="N664" s="22"/>
@@ -30845,8 +30848,8 @@
       <c r="G665" s="22"/>
       <c r="H665" s="22"/>
       <c r="I665" s="22"/>
-      <c r="J665" s="36"/>
-      <c r="K665" s="36"/>
+      <c r="J665" s="37"/>
+      <c r="K665" s="37"/>
       <c r="L665" s="22"/>
       <c r="M665" s="22"/>
       <c r="N665" s="22"/>
@@ -30890,8 +30893,8 @@
       <c r="G666" s="22"/>
       <c r="H666" s="22"/>
       <c r="I666" s="22"/>
-      <c r="J666" s="36"/>
-      <c r="K666" s="36"/>
+      <c r="J666" s="37"/>
+      <c r="K666" s="37"/>
       <c r="L666" s="22"/>
       <c r="M666" s="22"/>
       <c r="N666" s="22"/>
@@ -30935,8 +30938,8 @@
       <c r="G667" s="22"/>
       <c r="H667" s="22"/>
       <c r="I667" s="22"/>
-      <c r="J667" s="36"/>
-      <c r="K667" s="36"/>
+      <c r="J667" s="37"/>
+      <c r="K667" s="37"/>
       <c r="L667" s="22"/>
       <c r="M667" s="22"/>
       <c r="N667" s="22"/>
@@ -30980,8 +30983,8 @@
       <c r="G668" s="22"/>
       <c r="H668" s="22"/>
       <c r="I668" s="22"/>
-      <c r="J668" s="36"/>
-      <c r="K668" s="36"/>
+      <c r="J668" s="37"/>
+      <c r="K668" s="37"/>
       <c r="L668" s="22"/>
       <c r="M668" s="22"/>
       <c r="N668" s="22"/>
@@ -31025,8 +31028,8 @@
       <c r="G669" s="22"/>
       <c r="H669" s="22"/>
       <c r="I669" s="22"/>
-      <c r="J669" s="36"/>
-      <c r="K669" s="36"/>
+      <c r="J669" s="37"/>
+      <c r="K669" s="37"/>
       <c r="L669" s="22"/>
       <c r="M669" s="22"/>
       <c r="N669" s="22"/>
@@ -31070,8 +31073,8 @@
       <c r="G670" s="22"/>
       <c r="H670" s="22"/>
       <c r="I670" s="22"/>
-      <c r="J670" s="36"/>
-      <c r="K670" s="36"/>
+      <c r="J670" s="37"/>
+      <c r="K670" s="37"/>
       <c r="L670" s="22"/>
       <c r="M670" s="22"/>
       <c r="N670" s="22"/>
@@ -31115,8 +31118,8 @@
       <c r="G671" s="22"/>
       <c r="H671" s="22"/>
       <c r="I671" s="22"/>
-      <c r="J671" s="36"/>
-      <c r="K671" s="36"/>
+      <c r="J671" s="37"/>
+      <c r="K671" s="37"/>
       <c r="L671" s="22"/>
       <c r="M671" s="22"/>
       <c r="N671" s="22"/>
@@ -31160,8 +31163,8 @@
       <c r="G672" s="22"/>
       <c r="H672" s="22"/>
       <c r="I672" s="22"/>
-      <c r="J672" s="36"/>
-      <c r="K672" s="36"/>
+      <c r="J672" s="37"/>
+      <c r="K672" s="37"/>
       <c r="L672" s="22"/>
       <c r="M672" s="22"/>
       <c r="N672" s="22"/>
@@ -31205,8 +31208,8 @@
       <c r="G673" s="22"/>
       <c r="H673" s="22"/>
       <c r="I673" s="22"/>
-      <c r="J673" s="36"/>
-      <c r="K673" s="36"/>
+      <c r="J673" s="37"/>
+      <c r="K673" s="37"/>
       <c r="L673" s="22"/>
       <c r="M673" s="22"/>
       <c r="N673" s="22"/>
@@ -31250,8 +31253,8 @@
       <c r="G674" s="22"/>
       <c r="H674" s="22"/>
       <c r="I674" s="22"/>
-      <c r="J674" s="36"/>
-      <c r="K674" s="36"/>
+      <c r="J674" s="37"/>
+      <c r="K674" s="37"/>
       <c r="L674" s="22"/>
       <c r="M674" s="22"/>
       <c r="N674" s="22"/>
@@ -31295,8 +31298,8 @@
       <c r="G675" s="22"/>
       <c r="H675" s="22"/>
       <c r="I675" s="22"/>
-      <c r="J675" s="36"/>
-      <c r="K675" s="36"/>
+      <c r="J675" s="37"/>
+      <c r="K675" s="37"/>
       <c r="L675" s="22"/>
       <c r="M675" s="22"/>
       <c r="N675" s="22"/>
@@ -31340,8 +31343,8 @@
       <c r="G676" s="22"/>
       <c r="H676" s="22"/>
       <c r="I676" s="22"/>
-      <c r="J676" s="36"/>
-      <c r="K676" s="36"/>
+      <c r="J676" s="37"/>
+      <c r="K676" s="37"/>
       <c r="L676" s="22"/>
       <c r="M676" s="22"/>
       <c r="N676" s="22"/>
@@ -31385,8 +31388,8 @@
       <c r="G677" s="22"/>
       <c r="H677" s="22"/>
       <c r="I677" s="22"/>
-      <c r="J677" s="36"/>
-      <c r="K677" s="36"/>
+      <c r="J677" s="37"/>
+      <c r="K677" s="37"/>
       <c r="L677" s="22"/>
       <c r="M677" s="22"/>
       <c r="N677" s="22"/>
@@ -31430,8 +31433,8 @@
       <c r="G678" s="22"/>
       <c r="H678" s="22"/>
       <c r="I678" s="22"/>
-      <c r="J678" s="36"/>
-      <c r="K678" s="36"/>
+      <c r="J678" s="37"/>
+      <c r="K678" s="37"/>
       <c r="L678" s="22"/>
       <c r="M678" s="22"/>
       <c r="N678" s="22"/>
@@ -31475,8 +31478,8 @@
       <c r="G679" s="22"/>
       <c r="H679" s="22"/>
       <c r="I679" s="22"/>
-      <c r="J679" s="36"/>
-      <c r="K679" s="36"/>
+      <c r="J679" s="37"/>
+      <c r="K679" s="37"/>
       <c r="L679" s="22"/>
       <c r="M679" s="22"/>
       <c r="N679" s="22"/>
@@ -31520,8 +31523,8 @@
       <c r="G680" s="22"/>
       <c r="H680" s="22"/>
       <c r="I680" s="22"/>
-      <c r="J680" s="36"/>
-      <c r="K680" s="36"/>
+      <c r="J680" s="37"/>
+      <c r="K680" s="37"/>
       <c r="L680" s="22"/>
       <c r="M680" s="22"/>
       <c r="N680" s="22"/>
@@ -31565,8 +31568,8 @@
       <c r="G681" s="22"/>
       <c r="H681" s="22"/>
       <c r="I681" s="22"/>
-      <c r="J681" s="36"/>
-      <c r="K681" s="36"/>
+      <c r="J681" s="37"/>
+      <c r="K681" s="37"/>
       <c r="L681" s="22"/>
       <c r="M681" s="22"/>
       <c r="N681" s="22"/>
@@ -31610,8 +31613,8 @@
       <c r="G682" s="22"/>
       <c r="H682" s="22"/>
       <c r="I682" s="22"/>
-      <c r="J682" s="36"/>
-      <c r="K682" s="36"/>
+      <c r="J682" s="37"/>
+      <c r="K682" s="37"/>
       <c r="L682" s="22"/>
       <c r="M682" s="22"/>
       <c r="N682" s="22"/>
@@ -31655,8 +31658,8 @@
       <c r="G683" s="22"/>
       <c r="H683" s="22"/>
       <c r="I683" s="22"/>
-      <c r="J683" s="36"/>
-      <c r="K683" s="36"/>
+      <c r="J683" s="37"/>
+      <c r="K683" s="37"/>
       <c r="L683" s="22"/>
       <c r="M683" s="22"/>
       <c r="N683" s="22"/>
@@ -31700,8 +31703,8 @@
       <c r="G684" s="22"/>
       <c r="H684" s="22"/>
       <c r="I684" s="22"/>
-      <c r="J684" s="36"/>
-      <c r="K684" s="36"/>
+      <c r="J684" s="37"/>
+      <c r="K684" s="37"/>
       <c r="L684" s="22"/>
       <c r="M684" s="22"/>
       <c r="N684" s="22"/>
@@ -31745,8 +31748,8 @@
       <c r="G685" s="22"/>
       <c r="H685" s="22"/>
       <c r="I685" s="22"/>
-      <c r="J685" s="36"/>
-      <c r="K685" s="36"/>
+      <c r="J685" s="37"/>
+      <c r="K685" s="37"/>
       <c r="L685" s="22"/>
       <c r="M685" s="22"/>
       <c r="N685" s="22"/>
@@ -31790,8 +31793,8 @@
       <c r="G686" s="22"/>
       <c r="H686" s="22"/>
       <c r="I686" s="22"/>
-      <c r="J686" s="36"/>
-      <c r="K686" s="36"/>
+      <c r="J686" s="37"/>
+      <c r="K686" s="37"/>
       <c r="L686" s="22"/>
       <c r="M686" s="22"/>
       <c r="N686" s="22"/>
@@ -31835,8 +31838,8 @@
       <c r="G687" s="22"/>
       <c r="H687" s="22"/>
       <c r="I687" s="22"/>
-      <c r="J687" s="36"/>
-      <c r="K687" s="36"/>
+      <c r="J687" s="37"/>
+      <c r="K687" s="37"/>
       <c r="L687" s="22"/>
       <c r="M687" s="22"/>
       <c r="N687" s="22"/>
@@ -31880,8 +31883,8 @@
       <c r="G688" s="22"/>
       <c r="H688" s="22"/>
       <c r="I688" s="22"/>
-      <c r="J688" s="36"/>
-      <c r="K688" s="36"/>
+      <c r="J688" s="37"/>
+      <c r="K688" s="37"/>
       <c r="L688" s="22"/>
       <c r="M688" s="22"/>
       <c r="N688" s="22"/>
@@ -31925,8 +31928,8 @@
       <c r="G689" s="22"/>
       <c r="H689" s="22"/>
       <c r="I689" s="22"/>
-      <c r="J689" s="36"/>
-      <c r="K689" s="36"/>
+      <c r="J689" s="37"/>
+      <c r="K689" s="37"/>
       <c r="L689" s="22"/>
       <c r="M689" s="22"/>
       <c r="N689" s="22"/>
